--- a/データベース設計書.xlsx
+++ b/データベース設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Web-\Web-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F30B200-7317-436B-9AC8-4B8EED367B80}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0AE1700-B46B-4503-B503-46B70E85D825}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -3132,6 +3132,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3180,18 +3222,9 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3219,127 +3252,130 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3348,30 +3384,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3381,59 +3393,86 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3443,45 +3482,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -4808,15 +4808,7 @@
           <a:p>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>  *</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>映画</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>ID</a:t>
+              <a:t>  </a:t>
             </a:r>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
@@ -5668,12 +5660,12 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="3"/>
-          <a:endCxn id="54" idx="1"/>
+          <a:stCxn id="54" idx="1"/>
+          <a:endCxn id="35" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
+        <a:xfrm flipH="1">
           <a:off x="2263140" y="7585710"/>
           <a:ext cx="3200400" cy="32920"/>
         </a:xfrm>
@@ -6466,21 +6458,21 @@
       <c r="R3" s="16"/>
       <c r="S3" s="16"/>
       <c r="T3" s="16"/>
-      <c r="U3" s="253" t="s">
+      <c r="U3" s="241" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="254"/>
-      <c r="W3" s="255" t="s">
+      <c r="V3" s="243"/>
+      <c r="W3" s="267" t="s">
         <v>93</v>
       </c>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="256"/>
-      <c r="Z3" s="256"/>
-      <c r="AA3" s="256"/>
-      <c r="AB3" s="256"/>
-      <c r="AC3" s="256"/>
-      <c r="AD3" s="256"/>
-      <c r="AE3" s="254"/>
+      <c r="X3" s="242"/>
+      <c r="Y3" s="242"/>
+      <c r="Z3" s="242"/>
+      <c r="AA3" s="242"/>
+      <c r="AB3" s="242"/>
+      <c r="AC3" s="242"/>
+      <c r="AD3" s="242"/>
+      <c r="AE3" s="243"/>
       <c r="AF3" s="16"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -6593,20 +6585,20 @@
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="238" t="s">
+      <c r="F7" s="252" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="239"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="239"/>
-      <c r="J7" s="239"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="239"/>
-      <c r="M7" s="239"/>
-      <c r="N7" s="239"/>
-      <c r="O7" s="239"/>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="240"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="253"/>
+      <c r="I7" s="253"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="253"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="253"/>
+      <c r="P7" s="253"/>
+      <c r="Q7" s="254"/>
       <c r="R7" s="16"/>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
@@ -6624,82 +6616,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="241" t="s">
+      <c r="B8" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="242"/>
-      <c r="D8" s="242"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="247" t="s">
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="257"/>
+      <c r="F8" s="261" t="s">
         <v>106</v>
       </c>
-      <c r="G8" s="248"/>
-      <c r="H8" s="248"/>
-      <c r="I8" s="248"/>
-      <c r="J8" s="248"/>
-      <c r="K8" s="248"/>
-      <c r="L8" s="248"/>
-      <c r="M8" s="248"/>
-      <c r="N8" s="248"/>
-      <c r="O8" s="248"/>
-      <c r="P8" s="248"/>
-      <c r="Q8" s="249"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="262"/>
+      <c r="L8" s="262"/>
+      <c r="M8" s="262"/>
+      <c r="N8" s="262"/>
+      <c r="O8" s="262"/>
+      <c r="P8" s="262"/>
+      <c r="Q8" s="263"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="237" t="s">
+      <c r="W8" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="237"/>
-      <c r="Y8" s="237"/>
-      <c r="Z8" s="237" t="s">
+      <c r="X8" s="251"/>
+      <c r="Y8" s="251"/>
+      <c r="Z8" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="237"/>
-      <c r="AB8" s="237"/>
-      <c r="AC8" s="237" t="s">
+      <c r="AA8" s="251"/>
+      <c r="AB8" s="251"/>
+      <c r="AC8" s="251" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="237"/>
-      <c r="AE8" s="237"/>
+      <c r="AD8" s="251"/>
+      <c r="AE8" s="251"/>
       <c r="AF8" s="16"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="244"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="246"/>
-      <c r="F9" s="250"/>
-      <c r="G9" s="251"/>
-      <c r="H9" s="251"/>
-      <c r="I9" s="251"/>
-      <c r="J9" s="251"/>
-      <c r="K9" s="251"/>
-      <c r="L9" s="251"/>
-      <c r="M9" s="251"/>
-      <c r="N9" s="251"/>
-      <c r="O9" s="251"/>
-      <c r="P9" s="251"/>
-      <c r="Q9" s="252"/>
+      <c r="B9" s="258"/>
+      <c r="C9" s="259"/>
+      <c r="D9" s="259"/>
+      <c r="E9" s="260"/>
+      <c r="F9" s="264"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="265"/>
+      <c r="K9" s="265"/>
+      <c r="L9" s="265"/>
+      <c r="M9" s="265"/>
+      <c r="N9" s="265"/>
+      <c r="O9" s="265"/>
+      <c r="P9" s="265"/>
+      <c r="Q9" s="266"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="W9" s="257"/>
-      <c r="X9" s="258"/>
-      <c r="Y9" s="259"/>
-      <c r="Z9" s="257"/>
-      <c r="AA9" s="258"/>
-      <c r="AB9" s="259"/>
-      <c r="AC9" s="257" t="s">
+      <c r="W9" s="268"/>
+      <c r="X9" s="269"/>
+      <c r="Y9" s="270"/>
+      <c r="Z9" s="268"/>
+      <c r="AA9" s="269"/>
+      <c r="AB9" s="270"/>
+      <c r="AC9" s="268" t="s">
         <v>87</v>
       </c>
-      <c r="AD9" s="258"/>
-      <c r="AE9" s="259"/>
+      <c r="AD9" s="269"/>
+      <c r="AE9" s="270"/>
       <c r="AF9" s="16"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -6725,15 +6717,15 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-      <c r="W10" s="260"/>
-      <c r="X10" s="261"/>
-      <c r="Y10" s="262"/>
-      <c r="Z10" s="260"/>
-      <c r="AA10" s="261"/>
-      <c r="AB10" s="262"/>
-      <c r="AC10" s="260"/>
-      <c r="AD10" s="261"/>
-      <c r="AE10" s="262"/>
+      <c r="W10" s="271"/>
+      <c r="X10" s="272"/>
+      <c r="Y10" s="273"/>
+      <c r="Z10" s="271"/>
+      <c r="AA10" s="272"/>
+      <c r="AB10" s="273"/>
+      <c r="AC10" s="271"/>
+      <c r="AD10" s="272"/>
+      <c r="AE10" s="273"/>
       <c r="AF10" s="16"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -6759,15 +6751,15 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-      <c r="W11" s="260"/>
-      <c r="X11" s="261"/>
-      <c r="Y11" s="262"/>
-      <c r="Z11" s="260"/>
-      <c r="AA11" s="261"/>
-      <c r="AB11" s="262"/>
-      <c r="AC11" s="260"/>
-      <c r="AD11" s="261"/>
-      <c r="AE11" s="262"/>
+      <c r="W11" s="271"/>
+      <c r="X11" s="272"/>
+      <c r="Y11" s="273"/>
+      <c r="Z11" s="271"/>
+      <c r="AA11" s="272"/>
+      <c r="AB11" s="273"/>
+      <c r="AC11" s="271"/>
+      <c r="AD11" s="272"/>
+      <c r="AE11" s="273"/>
       <c r="AF11" s="16"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -6793,15 +6785,15 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-      <c r="W12" s="263"/>
-      <c r="X12" s="264"/>
-      <c r="Y12" s="265"/>
-      <c r="Z12" s="263"/>
-      <c r="AA12" s="264"/>
-      <c r="AB12" s="265"/>
-      <c r="AC12" s="263"/>
-      <c r="AD12" s="264"/>
-      <c r="AE12" s="265"/>
+      <c r="W12" s="274"/>
+      <c r="X12" s="275"/>
+      <c r="Y12" s="276"/>
+      <c r="Z12" s="274"/>
+      <c r="AA12" s="275"/>
+      <c r="AB12" s="276"/>
+      <c r="AC12" s="274"/>
+      <c r="AD12" s="275"/>
+      <c r="AE12" s="276"/>
       <c r="AF12" s="16"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -6900,106 +6892,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="266" t="s">
+      <c r="B16" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="266"/>
-      <c r="D16" s="266"/>
-      <c r="E16" s="266"/>
-      <c r="F16" s="266"/>
-      <c r="G16" s="266"/>
-      <c r="H16" s="266"/>
-      <c r="I16" s="266"/>
-      <c r="J16" s="266"/>
-      <c r="K16" s="266"/>
-      <c r="L16" s="266"/>
-      <c r="M16" s="266"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="266"/>
-      <c r="P16" s="266"/>
-      <c r="Q16" s="266"/>
-      <c r="R16" s="266"/>
-      <c r="S16" s="266"/>
-      <c r="T16" s="266"/>
-      <c r="U16" s="266"/>
-      <c r="V16" s="266"/>
-      <c r="W16" s="266"/>
-      <c r="X16" s="266"/>
-      <c r="Y16" s="266"/>
-      <c r="Z16" s="266"/>
-      <c r="AA16" s="266"/>
-      <c r="AB16" s="266"/>
-      <c r="AC16" s="266"/>
-      <c r="AD16" s="266"/>
-      <c r="AE16" s="266"/>
+      <c r="C16" s="250"/>
+      <c r="D16" s="250"/>
+      <c r="E16" s="250"/>
+      <c r="F16" s="250"/>
+      <c r="G16" s="250"/>
+      <c r="H16" s="250"/>
+      <c r="I16" s="250"/>
+      <c r="J16" s="250"/>
+      <c r="K16" s="250"/>
+      <c r="L16" s="250"/>
+      <c r="M16" s="250"/>
+      <c r="N16" s="250"/>
+      <c r="O16" s="250"/>
+      <c r="P16" s="250"/>
+      <c r="Q16" s="250"/>
+      <c r="R16" s="250"/>
+      <c r="S16" s="250"/>
+      <c r="T16" s="250"/>
+      <c r="U16" s="250"/>
+      <c r="V16" s="250"/>
+      <c r="W16" s="250"/>
+      <c r="X16" s="250"/>
+      <c r="Y16" s="250"/>
+      <c r="Z16" s="250"/>
+      <c r="AA16" s="250"/>
+      <c r="AB16" s="250"/>
+      <c r="AC16" s="250"/>
+      <c r="AD16" s="250"/>
+      <c r="AE16" s="250"/>
       <c r="AF16" s="16"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="266"/>
-      <c r="C17" s="266"/>
-      <c r="D17" s="266"/>
-      <c r="E17" s="266"/>
-      <c r="F17" s="266"/>
-      <c r="G17" s="266"/>
-      <c r="H17" s="266"/>
-      <c r="I17" s="266"/>
-      <c r="J17" s="266"/>
-      <c r="K17" s="266"/>
-      <c r="L17" s="266"/>
-      <c r="M17" s="266"/>
-      <c r="N17" s="266"/>
-      <c r="O17" s="266"/>
-      <c r="P17" s="266"/>
-      <c r="Q17" s="266"/>
-      <c r="R17" s="266"/>
-      <c r="S17" s="266"/>
-      <c r="T17" s="266"/>
-      <c r="U17" s="266"/>
-      <c r="V17" s="266"/>
-      <c r="W17" s="266"/>
-      <c r="X17" s="266"/>
-      <c r="Y17" s="266"/>
-      <c r="Z17" s="266"/>
-      <c r="AA17" s="266"/>
-      <c r="AB17" s="266"/>
-      <c r="AC17" s="266"/>
-      <c r="AD17" s="266"/>
-      <c r="AE17" s="266"/>
+      <c r="B17" s="250"/>
+      <c r="C17" s="250"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="250"/>
+      <c r="F17" s="250"/>
+      <c r="G17" s="250"/>
+      <c r="H17" s="250"/>
+      <c r="I17" s="250"/>
+      <c r="J17" s="250"/>
+      <c r="K17" s="250"/>
+      <c r="L17" s="250"/>
+      <c r="M17" s="250"/>
+      <c r="N17" s="250"/>
+      <c r="O17" s="250"/>
+      <c r="P17" s="250"/>
+      <c r="Q17" s="250"/>
+      <c r="R17" s="250"/>
+      <c r="S17" s="250"/>
+      <c r="T17" s="250"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="250"/>
+      <c r="W17" s="250"/>
+      <c r="X17" s="250"/>
+      <c r="Y17" s="250"/>
+      <c r="Z17" s="250"/>
+      <c r="AA17" s="250"/>
+      <c r="AB17" s="250"/>
+      <c r="AC17" s="250"/>
+      <c r="AD17" s="250"/>
+      <c r="AE17" s="250"/>
       <c r="AF17" s="16"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="16"/>
-      <c r="B18" s="266"/>
-      <c r="C18" s="266"/>
-      <c r="D18" s="266"/>
-      <c r="E18" s="266"/>
-      <c r="F18" s="266"/>
-      <c r="G18" s="266"/>
-      <c r="H18" s="266"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="266"/>
-      <c r="K18" s="266"/>
-      <c r="L18" s="266"/>
-      <c r="M18" s="266"/>
-      <c r="N18" s="266"/>
-      <c r="O18" s="266"/>
-      <c r="P18" s="266"/>
-      <c r="Q18" s="266"/>
-      <c r="R18" s="266"/>
-      <c r="S18" s="266"/>
-      <c r="T18" s="266"/>
-      <c r="U18" s="266"/>
-      <c r="V18" s="266"/>
-      <c r="W18" s="266"/>
-      <c r="X18" s="266"/>
-      <c r="Y18" s="266"/>
-      <c r="Z18" s="266"/>
-      <c r="AA18" s="266"/>
-      <c r="AB18" s="266"/>
-      <c r="AC18" s="266"/>
-      <c r="AD18" s="266"/>
-      <c r="AE18" s="266"/>
+      <c r="B18" s="250"/>
+      <c r="C18" s="250"/>
+      <c r="D18" s="250"/>
+      <c r="E18" s="250"/>
+      <c r="F18" s="250"/>
+      <c r="G18" s="250"/>
+      <c r="H18" s="250"/>
+      <c r="I18" s="250"/>
+      <c r="J18" s="250"/>
+      <c r="K18" s="250"/>
+      <c r="L18" s="250"/>
+      <c r="M18" s="250"/>
+      <c r="N18" s="250"/>
+      <c r="O18" s="250"/>
+      <c r="P18" s="250"/>
+      <c r="Q18" s="250"/>
+      <c r="R18" s="250"/>
+      <c r="S18" s="250"/>
+      <c r="T18" s="250"/>
+      <c r="U18" s="250"/>
+      <c r="V18" s="250"/>
+      <c r="W18" s="250"/>
+      <c r="X18" s="250"/>
+      <c r="Y18" s="250"/>
+      <c r="Z18" s="250"/>
+      <c r="AA18" s="250"/>
+      <c r="AB18" s="250"/>
+      <c r="AC18" s="250"/>
+      <c r="AD18" s="250"/>
+      <c r="AE18" s="250"/>
       <c r="AF18" s="16"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -7142,392 +7134,392 @@
     </row>
     <row r="23" spans="1:32" s="49" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="46"/>
-      <c r="B23" s="253" t="s">
+      <c r="B23" s="241" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="256"/>
-      <c r="D23" s="256"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="253" t="s">
+      <c r="C23" s="242"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="241" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="254"/>
-      <c r="J23" s="253" t="s">
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="243"/>
+      <c r="J23" s="241" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="256"/>
-      <c r="L23" s="256"/>
-      <c r="M23" s="256"/>
-      <c r="N23" s="256"/>
-      <c r="O23" s="256"/>
-      <c r="P23" s="256"/>
-      <c r="Q23" s="256"/>
-      <c r="R23" s="256"/>
-      <c r="S23" s="256"/>
-      <c r="T23" s="256"/>
-      <c r="U23" s="256"/>
-      <c r="V23" s="256"/>
-      <c r="W23" s="256"/>
-      <c r="X23" s="256"/>
-      <c r="Y23" s="256"/>
-      <c r="Z23" s="256"/>
-      <c r="AA23" s="256"/>
-      <c r="AB23" s="254"/>
-      <c r="AC23" s="253" t="s">
+      <c r="K23" s="242"/>
+      <c r="L23" s="242"/>
+      <c r="M23" s="242"/>
+      <c r="N23" s="242"/>
+      <c r="O23" s="242"/>
+      <c r="P23" s="242"/>
+      <c r="Q23" s="242"/>
+      <c r="R23" s="242"/>
+      <c r="S23" s="242"/>
+      <c r="T23" s="242"/>
+      <c r="U23" s="242"/>
+      <c r="V23" s="242"/>
+      <c r="W23" s="242"/>
+      <c r="X23" s="242"/>
+      <c r="Y23" s="242"/>
+      <c r="Z23" s="242"/>
+      <c r="AA23" s="242"/>
+      <c r="AB23" s="243"/>
+      <c r="AC23" s="241" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="256"/>
-      <c r="AE23" s="254"/>
+      <c r="AD23" s="242"/>
+      <c r="AE23" s="243"/>
       <c r="AF23" s="46"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="16"/>
-      <c r="B24" s="253" t="s">
+      <c r="B24" s="241" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="256"/>
-      <c r="D24" s="256"/>
-      <c r="E24" s="254"/>
-      <c r="F24" s="267" t="s">
+      <c r="C24" s="242"/>
+      <c r="D24" s="242"/>
+      <c r="E24" s="243"/>
+      <c r="F24" s="244" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="268"/>
-      <c r="H24" s="268"/>
-      <c r="I24" s="269"/>
-      <c r="J24" s="270" t="s">
+      <c r="G24" s="245"/>
+      <c r="H24" s="245"/>
+      <c r="I24" s="246"/>
+      <c r="J24" s="247" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="271"/>
-      <c r="L24" s="271"/>
-      <c r="M24" s="271"/>
-      <c r="N24" s="271"/>
-      <c r="O24" s="271"/>
-      <c r="P24" s="271"/>
-      <c r="Q24" s="271"/>
-      <c r="R24" s="271"/>
-      <c r="S24" s="271"/>
-      <c r="T24" s="271"/>
-      <c r="U24" s="271"/>
-      <c r="V24" s="271"/>
-      <c r="W24" s="271"/>
-      <c r="X24" s="271"/>
-      <c r="Y24" s="271"/>
-      <c r="Z24" s="271"/>
-      <c r="AA24" s="271"/>
-      <c r="AB24" s="272"/>
-      <c r="AC24" s="253" t="s">
+      <c r="K24" s="248"/>
+      <c r="L24" s="248"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="248"/>
+      <c r="O24" s="248"/>
+      <c r="P24" s="248"/>
+      <c r="Q24" s="248"/>
+      <c r="R24" s="248"/>
+      <c r="S24" s="248"/>
+      <c r="T24" s="248"/>
+      <c r="U24" s="248"/>
+      <c r="V24" s="248"/>
+      <c r="W24" s="248"/>
+      <c r="X24" s="248"/>
+      <c r="Y24" s="248"/>
+      <c r="Z24" s="248"/>
+      <c r="AA24" s="248"/>
+      <c r="AB24" s="249"/>
+      <c r="AC24" s="241" t="s">
         <v>92</v>
       </c>
-      <c r="AD24" s="256"/>
-      <c r="AE24" s="254"/>
+      <c r="AD24" s="242"/>
+      <c r="AE24" s="243"/>
       <c r="AF24" s="16"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="16"/>
-      <c r="B25" s="253"/>
-      <c r="C25" s="256"/>
-      <c r="D25" s="256"/>
-      <c r="E25" s="254"/>
-      <c r="F25" s="267"/>
-      <c r="G25" s="268"/>
-      <c r="H25" s="268"/>
-      <c r="I25" s="269"/>
-      <c r="J25" s="270"/>
-      <c r="K25" s="271"/>
-      <c r="L25" s="271"/>
-      <c r="M25" s="271"/>
-      <c r="N25" s="271"/>
-      <c r="O25" s="271"/>
-      <c r="P25" s="271"/>
-      <c r="Q25" s="271"/>
-      <c r="R25" s="271"/>
-      <c r="S25" s="271"/>
-      <c r="T25" s="271"/>
-      <c r="U25" s="271"/>
-      <c r="V25" s="271"/>
-      <c r="W25" s="271"/>
-      <c r="X25" s="271"/>
-      <c r="Y25" s="271"/>
-      <c r="Z25" s="271"/>
-      <c r="AA25" s="271"/>
-      <c r="AB25" s="272"/>
-      <c r="AC25" s="253"/>
-      <c r="AD25" s="256"/>
-      <c r="AE25" s="254"/>
+      <c r="B25" s="241"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="242"/>
+      <c r="E25" s="243"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="245"/>
+      <c r="H25" s="245"/>
+      <c r="I25" s="246"/>
+      <c r="J25" s="247"/>
+      <c r="K25" s="248"/>
+      <c r="L25" s="248"/>
+      <c r="M25" s="248"/>
+      <c r="N25" s="248"/>
+      <c r="O25" s="248"/>
+      <c r="P25" s="248"/>
+      <c r="Q25" s="248"/>
+      <c r="R25" s="248"/>
+      <c r="S25" s="248"/>
+      <c r="T25" s="248"/>
+      <c r="U25" s="248"/>
+      <c r="V25" s="248"/>
+      <c r="W25" s="248"/>
+      <c r="X25" s="248"/>
+      <c r="Y25" s="248"/>
+      <c r="Z25" s="248"/>
+      <c r="AA25" s="248"/>
+      <c r="AB25" s="249"/>
+      <c r="AC25" s="241"/>
+      <c r="AD25" s="242"/>
+      <c r="AE25" s="243"/>
       <c r="AF25" s="16"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="16"/>
-      <c r="B26" s="253"/>
-      <c r="C26" s="256"/>
-      <c r="D26" s="256"/>
-      <c r="E26" s="254"/>
-      <c r="F26" s="267"/>
-      <c r="G26" s="268"/>
-      <c r="H26" s="268"/>
-      <c r="I26" s="269"/>
-      <c r="J26" s="270"/>
-      <c r="K26" s="271"/>
-      <c r="L26" s="271"/>
-      <c r="M26" s="271"/>
-      <c r="N26" s="271"/>
-      <c r="O26" s="271"/>
-      <c r="P26" s="271"/>
-      <c r="Q26" s="271"/>
-      <c r="R26" s="271"/>
-      <c r="S26" s="271"/>
-      <c r="T26" s="271"/>
-      <c r="U26" s="271"/>
-      <c r="V26" s="271"/>
-      <c r="W26" s="271"/>
-      <c r="X26" s="271"/>
-      <c r="Y26" s="271"/>
-      <c r="Z26" s="271"/>
-      <c r="AA26" s="271"/>
-      <c r="AB26" s="272"/>
-      <c r="AC26" s="253"/>
-      <c r="AD26" s="256"/>
-      <c r="AE26" s="254"/>
+      <c r="B26" s="241"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="243"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="245"/>
+      <c r="H26" s="245"/>
+      <c r="I26" s="246"/>
+      <c r="J26" s="247"/>
+      <c r="K26" s="248"/>
+      <c r="L26" s="248"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="248"/>
+      <c r="O26" s="248"/>
+      <c r="P26" s="248"/>
+      <c r="Q26" s="248"/>
+      <c r="R26" s="248"/>
+      <c r="S26" s="248"/>
+      <c r="T26" s="248"/>
+      <c r="U26" s="248"/>
+      <c r="V26" s="248"/>
+      <c r="W26" s="248"/>
+      <c r="X26" s="248"/>
+      <c r="Y26" s="248"/>
+      <c r="Z26" s="248"/>
+      <c r="AA26" s="248"/>
+      <c r="AB26" s="249"/>
+      <c r="AC26" s="241"/>
+      <c r="AD26" s="242"/>
+      <c r="AE26" s="243"/>
       <c r="AF26" s="16"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="16"/>
-      <c r="B27" s="253"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="256"/>
-      <c r="E27" s="254"/>
-      <c r="F27" s="267"/>
-      <c r="G27" s="268"/>
-      <c r="H27" s="268"/>
-      <c r="I27" s="269"/>
-      <c r="J27" s="270"/>
-      <c r="K27" s="271"/>
-      <c r="L27" s="271"/>
-      <c r="M27" s="271"/>
-      <c r="N27" s="271"/>
-      <c r="O27" s="271"/>
-      <c r="P27" s="271"/>
-      <c r="Q27" s="271"/>
-      <c r="R27" s="271"/>
-      <c r="S27" s="271"/>
-      <c r="T27" s="271"/>
-      <c r="U27" s="271"/>
-      <c r="V27" s="271"/>
-      <c r="W27" s="271"/>
-      <c r="X27" s="271"/>
-      <c r="Y27" s="271"/>
-      <c r="Z27" s="271"/>
-      <c r="AA27" s="271"/>
-      <c r="AB27" s="272"/>
-      <c r="AC27" s="253"/>
-      <c r="AD27" s="256"/>
-      <c r="AE27" s="254"/>
+      <c r="B27" s="241"/>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="243"/>
+      <c r="F27" s="244"/>
+      <c r="G27" s="245"/>
+      <c r="H27" s="245"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="247"/>
+      <c r="K27" s="248"/>
+      <c r="L27" s="248"/>
+      <c r="M27" s="248"/>
+      <c r="N27" s="248"/>
+      <c r="O27" s="248"/>
+      <c r="P27" s="248"/>
+      <c r="Q27" s="248"/>
+      <c r="R27" s="248"/>
+      <c r="S27" s="248"/>
+      <c r="T27" s="248"/>
+      <c r="U27" s="248"/>
+      <c r="V27" s="248"/>
+      <c r="W27" s="248"/>
+      <c r="X27" s="248"/>
+      <c r="Y27" s="248"/>
+      <c r="Z27" s="248"/>
+      <c r="AA27" s="248"/>
+      <c r="AB27" s="249"/>
+      <c r="AC27" s="241"/>
+      <c r="AD27" s="242"/>
+      <c r="AE27" s="243"/>
       <c r="AF27" s="16"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="16"/>
-      <c r="B28" s="253"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="256"/>
-      <c r="E28" s="254"/>
-      <c r="F28" s="267"/>
-      <c r="G28" s="268"/>
-      <c r="H28" s="268"/>
-      <c r="I28" s="269"/>
-      <c r="J28" s="270"/>
-      <c r="K28" s="271"/>
-      <c r="L28" s="271"/>
-      <c r="M28" s="271"/>
-      <c r="N28" s="271"/>
-      <c r="O28" s="271"/>
-      <c r="P28" s="271"/>
-      <c r="Q28" s="271"/>
-      <c r="R28" s="271"/>
-      <c r="S28" s="271"/>
-      <c r="T28" s="271"/>
-      <c r="U28" s="271"/>
-      <c r="V28" s="271"/>
-      <c r="W28" s="271"/>
-      <c r="X28" s="271"/>
-      <c r="Y28" s="271"/>
-      <c r="Z28" s="271"/>
-      <c r="AA28" s="271"/>
-      <c r="AB28" s="272"/>
-      <c r="AC28" s="253"/>
-      <c r="AD28" s="256"/>
-      <c r="AE28" s="254"/>
+      <c r="B28" s="241"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="242"/>
+      <c r="E28" s="243"/>
+      <c r="F28" s="244"/>
+      <c r="G28" s="245"/>
+      <c r="H28" s="245"/>
+      <c r="I28" s="246"/>
+      <c r="J28" s="247"/>
+      <c r="K28" s="248"/>
+      <c r="L28" s="248"/>
+      <c r="M28" s="248"/>
+      <c r="N28" s="248"/>
+      <c r="O28" s="248"/>
+      <c r="P28" s="248"/>
+      <c r="Q28" s="248"/>
+      <c r="R28" s="248"/>
+      <c r="S28" s="248"/>
+      <c r="T28" s="248"/>
+      <c r="U28" s="248"/>
+      <c r="V28" s="248"/>
+      <c r="W28" s="248"/>
+      <c r="X28" s="248"/>
+      <c r="Y28" s="248"/>
+      <c r="Z28" s="248"/>
+      <c r="AA28" s="248"/>
+      <c r="AB28" s="249"/>
+      <c r="AC28" s="241"/>
+      <c r="AD28" s="242"/>
+      <c r="AE28" s="243"/>
       <c r="AF28" s="16"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="16"/>
-      <c r="B29" s="253"/>
-      <c r="C29" s="256"/>
-      <c r="D29" s="256"/>
-      <c r="E29" s="254"/>
-      <c r="F29" s="267"/>
-      <c r="G29" s="268"/>
-      <c r="H29" s="268"/>
-      <c r="I29" s="269"/>
-      <c r="J29" s="270"/>
-      <c r="K29" s="271"/>
-      <c r="L29" s="271"/>
-      <c r="M29" s="271"/>
-      <c r="N29" s="271"/>
-      <c r="O29" s="271"/>
-      <c r="P29" s="271"/>
-      <c r="Q29" s="271"/>
-      <c r="R29" s="271"/>
-      <c r="S29" s="271"/>
-      <c r="T29" s="271"/>
-      <c r="U29" s="271"/>
-      <c r="V29" s="271"/>
-      <c r="W29" s="271"/>
-      <c r="X29" s="271"/>
-      <c r="Y29" s="271"/>
-      <c r="Z29" s="271"/>
-      <c r="AA29" s="271"/>
-      <c r="AB29" s="272"/>
-      <c r="AC29" s="253"/>
-      <c r="AD29" s="256"/>
-      <c r="AE29" s="254"/>
+      <c r="B29" s="241"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="245"/>
+      <c r="I29" s="246"/>
+      <c r="J29" s="247"/>
+      <c r="K29" s="248"/>
+      <c r="L29" s="248"/>
+      <c r="M29" s="248"/>
+      <c r="N29" s="248"/>
+      <c r="O29" s="248"/>
+      <c r="P29" s="248"/>
+      <c r="Q29" s="248"/>
+      <c r="R29" s="248"/>
+      <c r="S29" s="248"/>
+      <c r="T29" s="248"/>
+      <c r="U29" s="248"/>
+      <c r="V29" s="248"/>
+      <c r="W29" s="248"/>
+      <c r="X29" s="248"/>
+      <c r="Y29" s="248"/>
+      <c r="Z29" s="248"/>
+      <c r="AA29" s="248"/>
+      <c r="AB29" s="249"/>
+      <c r="AC29" s="241"/>
+      <c r="AD29" s="242"/>
+      <c r="AE29" s="243"/>
       <c r="AF29" s="16"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="16"/>
-      <c r="B30" s="253"/>
-      <c r="C30" s="256"/>
-      <c r="D30" s="256"/>
-      <c r="E30" s="254"/>
-      <c r="F30" s="267"/>
-      <c r="G30" s="268"/>
-      <c r="H30" s="268"/>
-      <c r="I30" s="269"/>
-      <c r="J30" s="270"/>
-      <c r="K30" s="271"/>
-      <c r="L30" s="271"/>
-      <c r="M30" s="271"/>
-      <c r="N30" s="271"/>
-      <c r="O30" s="271"/>
-      <c r="P30" s="271"/>
-      <c r="Q30" s="271"/>
-      <c r="R30" s="271"/>
-      <c r="S30" s="271"/>
-      <c r="T30" s="271"/>
-      <c r="U30" s="271"/>
-      <c r="V30" s="271"/>
-      <c r="W30" s="271"/>
-      <c r="X30" s="271"/>
-      <c r="Y30" s="271"/>
-      <c r="Z30" s="271"/>
-      <c r="AA30" s="271"/>
-      <c r="AB30" s="272"/>
-      <c r="AC30" s="253"/>
-      <c r="AD30" s="256"/>
-      <c r="AE30" s="254"/>
+      <c r="B30" s="241"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="244"/>
+      <c r="G30" s="245"/>
+      <c r="H30" s="245"/>
+      <c r="I30" s="246"/>
+      <c r="J30" s="247"/>
+      <c r="K30" s="248"/>
+      <c r="L30" s="248"/>
+      <c r="M30" s="248"/>
+      <c r="N30" s="248"/>
+      <c r="O30" s="248"/>
+      <c r="P30" s="248"/>
+      <c r="Q30" s="248"/>
+      <c r="R30" s="248"/>
+      <c r="S30" s="248"/>
+      <c r="T30" s="248"/>
+      <c r="U30" s="248"/>
+      <c r="V30" s="248"/>
+      <c r="W30" s="248"/>
+      <c r="X30" s="248"/>
+      <c r="Y30" s="248"/>
+      <c r="Z30" s="248"/>
+      <c r="AA30" s="248"/>
+      <c r="AB30" s="249"/>
+      <c r="AC30" s="241"/>
+      <c r="AD30" s="242"/>
+      <c r="AE30" s="243"/>
       <c r="AF30" s="16"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="16"/>
-      <c r="B31" s="253"/>
-      <c r="C31" s="256"/>
-      <c r="D31" s="256"/>
-      <c r="E31" s="254"/>
-      <c r="F31" s="267"/>
-      <c r="G31" s="268"/>
-      <c r="H31" s="268"/>
-      <c r="I31" s="269"/>
-      <c r="J31" s="270"/>
-      <c r="K31" s="271"/>
-      <c r="L31" s="271"/>
-      <c r="M31" s="271"/>
-      <c r="N31" s="271"/>
-      <c r="O31" s="271"/>
-      <c r="P31" s="271"/>
-      <c r="Q31" s="271"/>
-      <c r="R31" s="271"/>
-      <c r="S31" s="271"/>
-      <c r="T31" s="271"/>
-      <c r="U31" s="271"/>
-      <c r="V31" s="271"/>
-      <c r="W31" s="271"/>
-      <c r="X31" s="271"/>
-      <c r="Y31" s="271"/>
-      <c r="Z31" s="271"/>
-      <c r="AA31" s="271"/>
-      <c r="AB31" s="272"/>
-      <c r="AC31" s="253"/>
-      <c r="AD31" s="256"/>
-      <c r="AE31" s="254"/>
+      <c r="B31" s="241"/>
+      <c r="C31" s="242"/>
+      <c r="D31" s="242"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="245"/>
+      <c r="H31" s="245"/>
+      <c r="I31" s="246"/>
+      <c r="J31" s="247"/>
+      <c r="K31" s="248"/>
+      <c r="L31" s="248"/>
+      <c r="M31" s="248"/>
+      <c r="N31" s="248"/>
+      <c r="O31" s="248"/>
+      <c r="P31" s="248"/>
+      <c r="Q31" s="248"/>
+      <c r="R31" s="248"/>
+      <c r="S31" s="248"/>
+      <c r="T31" s="248"/>
+      <c r="U31" s="248"/>
+      <c r="V31" s="248"/>
+      <c r="W31" s="248"/>
+      <c r="X31" s="248"/>
+      <c r="Y31" s="248"/>
+      <c r="Z31" s="248"/>
+      <c r="AA31" s="248"/>
+      <c r="AB31" s="249"/>
+      <c r="AC31" s="241"/>
+      <c r="AD31" s="242"/>
+      <c r="AE31" s="243"/>
       <c r="AF31" s="16"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="16"/>
-      <c r="B32" s="253"/>
-      <c r="C32" s="256"/>
-      <c r="D32" s="256"/>
-      <c r="E32" s="254"/>
-      <c r="F32" s="267"/>
-      <c r="G32" s="268"/>
-      <c r="H32" s="268"/>
-      <c r="I32" s="269"/>
-      <c r="J32" s="270"/>
-      <c r="K32" s="271"/>
-      <c r="L32" s="271"/>
-      <c r="M32" s="271"/>
-      <c r="N32" s="271"/>
-      <c r="O32" s="271"/>
-      <c r="P32" s="271"/>
-      <c r="Q32" s="271"/>
-      <c r="R32" s="271"/>
-      <c r="S32" s="271"/>
-      <c r="T32" s="271"/>
-      <c r="U32" s="271"/>
-      <c r="V32" s="271"/>
-      <c r="W32" s="271"/>
-      <c r="X32" s="271"/>
-      <c r="Y32" s="271"/>
-      <c r="Z32" s="271"/>
-      <c r="AA32" s="271"/>
-      <c r="AB32" s="272"/>
-      <c r="AC32" s="253"/>
-      <c r="AD32" s="256"/>
-      <c r="AE32" s="254"/>
+      <c r="B32" s="241"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="242"/>
+      <c r="E32" s="243"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="245"/>
+      <c r="H32" s="245"/>
+      <c r="I32" s="246"/>
+      <c r="J32" s="247"/>
+      <c r="K32" s="248"/>
+      <c r="L32" s="248"/>
+      <c r="M32" s="248"/>
+      <c r="N32" s="248"/>
+      <c r="O32" s="248"/>
+      <c r="P32" s="248"/>
+      <c r="Q32" s="248"/>
+      <c r="R32" s="248"/>
+      <c r="S32" s="248"/>
+      <c r="T32" s="248"/>
+      <c r="U32" s="248"/>
+      <c r="V32" s="248"/>
+      <c r="W32" s="248"/>
+      <c r="X32" s="248"/>
+      <c r="Y32" s="248"/>
+      <c r="Z32" s="248"/>
+      <c r="AA32" s="248"/>
+      <c r="AB32" s="249"/>
+      <c r="AC32" s="241"/>
+      <c r="AD32" s="242"/>
+      <c r="AE32" s="243"/>
       <c r="AF32" s="16"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="16"/>
-      <c r="B33" s="253"/>
-      <c r="C33" s="256"/>
-      <c r="D33" s="256"/>
-      <c r="E33" s="254"/>
-      <c r="F33" s="267"/>
-      <c r="G33" s="268"/>
-      <c r="H33" s="268"/>
-      <c r="I33" s="269"/>
-      <c r="J33" s="270"/>
-      <c r="K33" s="271"/>
-      <c r="L33" s="271"/>
-      <c r="M33" s="271"/>
-      <c r="N33" s="271"/>
-      <c r="O33" s="271"/>
-      <c r="P33" s="271"/>
-      <c r="Q33" s="271"/>
-      <c r="R33" s="271"/>
-      <c r="S33" s="271"/>
-      <c r="T33" s="271"/>
-      <c r="U33" s="271"/>
-      <c r="V33" s="271"/>
-      <c r="W33" s="271"/>
-      <c r="X33" s="271"/>
-      <c r="Y33" s="271"/>
-      <c r="Z33" s="271"/>
-      <c r="AA33" s="271"/>
-      <c r="AB33" s="272"/>
-      <c r="AC33" s="253"/>
-      <c r="AD33" s="256"/>
-      <c r="AE33" s="254"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="242"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="245"/>
+      <c r="H33" s="245"/>
+      <c r="I33" s="246"/>
+      <c r="J33" s="247"/>
+      <c r="K33" s="248"/>
+      <c r="L33" s="248"/>
+      <c r="M33" s="248"/>
+      <c r="N33" s="248"/>
+      <c r="O33" s="248"/>
+      <c r="P33" s="248"/>
+      <c r="Q33" s="248"/>
+      <c r="R33" s="248"/>
+      <c r="S33" s="248"/>
+      <c r="T33" s="248"/>
+      <c r="U33" s="248"/>
+      <c r="V33" s="248"/>
+      <c r="W33" s="248"/>
+      <c r="X33" s="248"/>
+      <c r="Y33" s="248"/>
+      <c r="Z33" s="248"/>
+      <c r="AA33" s="248"/>
+      <c r="AB33" s="249"/>
+      <c r="AC33" s="241"/>
+      <c r="AD33" s="242"/>
+      <c r="AE33" s="243"/>
       <c r="AF33" s="16"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -7566,51 +7558,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -7622,6 +7569,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7693,10 +7685,10 @@
       <c r="K2" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="344">
+      <c r="L2" s="345">
         <v>43416</v>
       </c>
-      <c r="M2" s="345"/>
+      <c r="M2" s="346"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="124" t="s">
@@ -7718,8 +7710,8 @@
       <c r="K3" s="123" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="346"/>
-      <c r="M3" s="345"/>
+      <c r="L3" s="347"/>
+      <c r="M3" s="346"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="120" t="s">
@@ -7739,10 +7731,10 @@
       <c r="K4" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="346" t="s">
+      <c r="L4" s="347" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="345"/>
+      <c r="M4" s="346"/>
     </row>
     <row r="5" spans="1:13" s="26" customFormat="1">
       <c r="A5" s="22"/>
@@ -7818,14 +7810,14 @@
       <c r="D9" s="132"/>
       <c r="E9" s="132"/>
       <c r="F9" s="133"/>
-      <c r="G9" s="347" t="s">
+      <c r="G9" s="348" t="s">
         <v>96</v>
       </c>
-      <c r="H9" s="348"/>
-      <c r="I9" s="348"/>
-      <c r="J9" s="348"/>
-      <c r="K9" s="348"/>
-      <c r="L9" s="349"/>
+      <c r="H9" s="349"/>
+      <c r="I9" s="349"/>
+      <c r="J9" s="349"/>
+      <c r="K9" s="349"/>
+      <c r="L9" s="350"/>
       <c r="M9" s="131"/>
     </row>
     <row r="10" spans="1:13" ht="21.75" customHeight="1">
@@ -7855,15 +7847,15 @@
     </row>
     <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="129"/>
-      <c r="B11" s="338" t="s">
+      <c r="B11" s="351" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="341" t="s">
+      <c r="C11" s="342" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="342"/>
-      <c r="E11" s="342"/>
-      <c r="F11" s="343"/>
+      <c r="D11" s="343"/>
+      <c r="E11" s="343"/>
+      <c r="F11" s="344"/>
       <c r="G11" s="137" t="s">
         <v>120</v>
       </c>
@@ -7880,13 +7872,13 @@
     </row>
     <row r="12" spans="1:13" ht="22.5" customHeight="1">
       <c r="A12" s="129"/>
-      <c r="B12" s="339"/>
-      <c r="C12" s="341" t="s">
+      <c r="B12" s="352"/>
+      <c r="C12" s="342" t="s">
         <v>111</v>
       </c>
-      <c r="D12" s="342"/>
-      <c r="E12" s="342"/>
-      <c r="F12" s="343"/>
+      <c r="D12" s="343"/>
+      <c r="E12" s="343"/>
+      <c r="F12" s="344"/>
       <c r="G12" s="137" t="s">
         <v>120</v>
       </c>
@@ -7907,13 +7899,13 @@
     </row>
     <row r="13" spans="1:13" ht="22.5" customHeight="1">
       <c r="A13" s="129"/>
-      <c r="B13" s="339"/>
-      <c r="C13" s="341" t="s">
+      <c r="B13" s="352"/>
+      <c r="C13" s="342" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="342"/>
-      <c r="E13" s="342"/>
-      <c r="F13" s="343"/>
+      <c r="D13" s="343"/>
+      <c r="E13" s="343"/>
+      <c r="F13" s="344"/>
       <c r="G13" s="137" t="s">
         <v>120</v>
       </c>
@@ -7932,13 +7924,13 @@
     </row>
     <row r="14" spans="1:13" ht="22.5" customHeight="1">
       <c r="A14" s="129"/>
-      <c r="B14" s="339"/>
-      <c r="C14" s="341" t="s">
+      <c r="B14" s="352"/>
+      <c r="C14" s="342" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="342"/>
-      <c r="E14" s="342"/>
-      <c r="F14" s="343"/>
+      <c r="D14" s="343"/>
+      <c r="E14" s="343"/>
+      <c r="F14" s="344"/>
       <c r="G14" s="137" t="s">
         <v>120</v>
       </c>
@@ -7955,11 +7947,11 @@
     </row>
     <row r="15" spans="1:13" ht="22.5" customHeight="1">
       <c r="A15" s="129"/>
-      <c r="B15" s="339"/>
-      <c r="C15" s="341"/>
-      <c r="D15" s="342"/>
-      <c r="E15" s="342"/>
-      <c r="F15" s="343"/>
+      <c r="B15" s="352"/>
+      <c r="C15" s="342"/>
+      <c r="D15" s="343"/>
+      <c r="E15" s="343"/>
+      <c r="F15" s="344"/>
       <c r="G15" s="137"/>
       <c r="H15" s="137"/>
       <c r="I15" s="137"/>
@@ -7970,11 +7962,11 @@
     </row>
     <row r="16" spans="1:13" ht="22.5" customHeight="1">
       <c r="A16" s="129"/>
-      <c r="B16" s="339"/>
-      <c r="C16" s="341"/>
-      <c r="D16" s="342"/>
-      <c r="E16" s="342"/>
-      <c r="F16" s="343"/>
+      <c r="B16" s="352"/>
+      <c r="C16" s="342"/>
+      <c r="D16" s="343"/>
+      <c r="E16" s="343"/>
+      <c r="F16" s="344"/>
       <c r="G16" s="137"/>
       <c r="H16" s="137"/>
       <c r="I16" s="137"/>
@@ -7985,11 +7977,11 @@
     </row>
     <row r="17" spans="1:13" ht="22.5" customHeight="1">
       <c r="A17" s="129"/>
-      <c r="B17" s="339"/>
-      <c r="C17" s="341"/>
-      <c r="D17" s="342"/>
-      <c r="E17" s="342"/>
-      <c r="F17" s="343"/>
+      <c r="B17" s="352"/>
+      <c r="C17" s="342"/>
+      <c r="D17" s="343"/>
+      <c r="E17" s="343"/>
+      <c r="F17" s="344"/>
       <c r="G17" s="137"/>
       <c r="H17" s="137"/>
       <c r="I17" s="137"/>
@@ -8000,11 +7992,11 @@
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1">
       <c r="A18" s="129"/>
-      <c r="B18" s="339"/>
-      <c r="C18" s="341"/>
-      <c r="D18" s="342"/>
-      <c r="E18" s="342"/>
-      <c r="F18" s="343"/>
+      <c r="B18" s="352"/>
+      <c r="C18" s="342"/>
+      <c r="D18" s="343"/>
+      <c r="E18" s="343"/>
+      <c r="F18" s="344"/>
       <c r="G18" s="137"/>
       <c r="H18" s="137"/>
       <c r="I18" s="137"/>
@@ -8015,11 +8007,11 @@
     </row>
     <row r="19" spans="1:13" ht="22.5" customHeight="1">
       <c r="A19" s="129"/>
-      <c r="B19" s="339"/>
-      <c r="C19" s="341"/>
-      <c r="D19" s="342"/>
-      <c r="E19" s="342"/>
-      <c r="F19" s="343"/>
+      <c r="B19" s="352"/>
+      <c r="C19" s="342"/>
+      <c r="D19" s="343"/>
+      <c r="E19" s="343"/>
+      <c r="F19" s="344"/>
       <c r="G19" s="137"/>
       <c r="H19" s="137"/>
       <c r="I19" s="137"/>
@@ -8030,11 +8022,11 @@
     </row>
     <row r="20" spans="1:13" ht="22.5" customHeight="1">
       <c r="A20" s="129"/>
-      <c r="B20" s="339"/>
-      <c r="C20" s="341"/>
-      <c r="D20" s="342"/>
-      <c r="E20" s="342"/>
-      <c r="F20" s="343"/>
+      <c r="B20" s="352"/>
+      <c r="C20" s="342"/>
+      <c r="D20" s="343"/>
+      <c r="E20" s="343"/>
+      <c r="F20" s="344"/>
       <c r="G20" s="137"/>
       <c r="H20" s="137"/>
       <c r="I20" s="137"/>
@@ -8045,11 +8037,11 @@
     </row>
     <row r="21" spans="1:13" ht="22.5" customHeight="1">
       <c r="A21" s="129"/>
-      <c r="B21" s="339"/>
-      <c r="C21" s="341"/>
-      <c r="D21" s="342"/>
-      <c r="E21" s="342"/>
-      <c r="F21" s="343"/>
+      <c r="B21" s="352"/>
+      <c r="C21" s="342"/>
+      <c r="D21" s="343"/>
+      <c r="E21" s="343"/>
+      <c r="F21" s="344"/>
       <c r="G21" s="137"/>
       <c r="H21" s="137"/>
       <c r="I21" s="137"/>
@@ -8060,7 +8052,7 @@
     </row>
     <row r="22" spans="1:13" ht="22.5" customHeight="1">
       <c r="A22" s="129"/>
-      <c r="B22" s="339"/>
+      <c r="B22" s="352"/>
       <c r="C22" s="138"/>
       <c r="D22" s="151"/>
       <c r="E22" s="151"/>
@@ -8075,7 +8067,7 @@
     </row>
     <row r="23" spans="1:13" ht="22.5" customHeight="1">
       <c r="A23" s="129"/>
-      <c r="B23" s="339"/>
+      <c r="B23" s="352"/>
       <c r="C23" s="138"/>
       <c r="D23" s="151"/>
       <c r="E23" s="151"/>
@@ -8090,7 +8082,7 @@
     </row>
     <row r="24" spans="1:13" ht="22.5" customHeight="1">
       <c r="A24" s="129"/>
-      <c r="B24" s="339"/>
+      <c r="B24" s="352"/>
       <c r="C24" s="138"/>
       <c r="D24" s="151"/>
       <c r="E24" s="151"/>
@@ -8105,7 +8097,7 @@
     </row>
     <row r="25" spans="1:13" ht="22.5" customHeight="1">
       <c r="A25" s="129"/>
-      <c r="B25" s="339"/>
+      <c r="B25" s="352"/>
       <c r="C25" s="138"/>
       <c r="D25" s="151"/>
       <c r="E25" s="151"/>
@@ -8120,7 +8112,7 @@
     </row>
     <row r="26" spans="1:13" ht="22.5" customHeight="1">
       <c r="A26" s="129"/>
-      <c r="B26" s="339"/>
+      <c r="B26" s="352"/>
       <c r="C26" s="138"/>
       <c r="D26" s="151"/>
       <c r="E26" s="151"/>
@@ -8135,7 +8127,7 @@
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
       <c r="A27" s="129"/>
-      <c r="B27" s="339"/>
+      <c r="B27" s="352"/>
       <c r="C27" s="138"/>
       <c r="D27" s="151"/>
       <c r="E27" s="151"/>
@@ -8150,7 +8142,7 @@
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
       <c r="A28" s="129"/>
-      <c r="B28" s="339"/>
+      <c r="B28" s="352"/>
       <c r="C28" s="138"/>
       <c r="D28" s="151"/>
       <c r="E28" s="151"/>
@@ -8165,7 +8157,7 @@
     </row>
     <row r="29" spans="1:13" ht="22.5" customHeight="1">
       <c r="A29" s="129"/>
-      <c r="B29" s="339"/>
+      <c r="B29" s="352"/>
       <c r="C29" s="138"/>
       <c r="D29" s="151"/>
       <c r="E29" s="151"/>
@@ -8180,7 +8172,7 @@
     </row>
     <row r="30" spans="1:13" ht="22.5" customHeight="1">
       <c r="A30" s="129"/>
-      <c r="B30" s="339"/>
+      <c r="B30" s="352"/>
       <c r="C30" s="138"/>
       <c r="D30" s="151"/>
       <c r="E30" s="151"/>
@@ -8195,7 +8187,7 @@
     </row>
     <row r="31" spans="1:13" ht="22.5" customHeight="1">
       <c r="A31" s="129"/>
-      <c r="B31" s="339"/>
+      <c r="B31" s="352"/>
       <c r="C31" s="138"/>
       <c r="D31" s="151"/>
       <c r="E31" s="151"/>
@@ -8210,11 +8202,11 @@
     </row>
     <row r="32" spans="1:13" ht="22.5" customHeight="1">
       <c r="A32" s="129"/>
-      <c r="B32" s="339"/>
-      <c r="C32" s="341"/>
-      <c r="D32" s="342"/>
-      <c r="E32" s="342"/>
-      <c r="F32" s="343"/>
+      <c r="B32" s="352"/>
+      <c r="C32" s="342"/>
+      <c r="D32" s="343"/>
+      <c r="E32" s="343"/>
+      <c r="F32" s="344"/>
       <c r="G32" s="137"/>
       <c r="H32" s="137"/>
       <c r="I32" s="137"/>
@@ -8225,11 +8217,11 @@
     </row>
     <row r="33" spans="1:13" ht="22.5" customHeight="1">
       <c r="A33" s="129"/>
-      <c r="B33" s="339"/>
-      <c r="C33" s="341"/>
-      <c r="D33" s="342"/>
-      <c r="E33" s="342"/>
-      <c r="F33" s="343"/>
+      <c r="B33" s="352"/>
+      <c r="C33" s="342"/>
+      <c r="D33" s="343"/>
+      <c r="E33" s="343"/>
+      <c r="F33" s="344"/>
       <c r="G33" s="137"/>
       <c r="H33" s="137"/>
       <c r="I33" s="137"/>
@@ -8240,11 +8232,11 @@
     </row>
     <row r="34" spans="1:13" ht="23.25" customHeight="1">
       <c r="A34" s="129"/>
-      <c r="B34" s="339"/>
-      <c r="C34" s="341"/>
-      <c r="D34" s="342"/>
-      <c r="E34" s="342"/>
-      <c r="F34" s="343"/>
+      <c r="B34" s="352"/>
+      <c r="C34" s="342"/>
+      <c r="D34" s="343"/>
+      <c r="E34" s="343"/>
+      <c r="F34" s="344"/>
       <c r="G34" s="137"/>
       <c r="H34" s="137"/>
       <c r="I34" s="137"/>
@@ -8255,11 +8247,11 @@
     </row>
     <row r="35" spans="1:13" ht="23.25" customHeight="1">
       <c r="A35" s="129"/>
-      <c r="B35" s="339"/>
-      <c r="C35" s="341"/>
-      <c r="D35" s="342"/>
-      <c r="E35" s="342"/>
-      <c r="F35" s="343"/>
+      <c r="B35" s="352"/>
+      <c r="C35" s="342"/>
+      <c r="D35" s="343"/>
+      <c r="E35" s="343"/>
+      <c r="F35" s="344"/>
       <c r="G35" s="137"/>
       <c r="H35" s="137"/>
       <c r="I35" s="137"/>
@@ -8270,11 +8262,11 @@
     </row>
     <row r="36" spans="1:13" ht="23.25" customHeight="1">
       <c r="A36" s="129"/>
-      <c r="B36" s="340"/>
-      <c r="C36" s="341"/>
-      <c r="D36" s="342"/>
-      <c r="E36" s="342"/>
-      <c r="F36" s="343"/>
+      <c r="B36" s="353"/>
+      <c r="C36" s="342"/>
+      <c r="D36" s="343"/>
+      <c r="E36" s="343"/>
+      <c r="F36" s="344"/>
       <c r="G36" s="137"/>
       <c r="H36" s="137"/>
       <c r="I36" s="137"/>
@@ -8315,11 +8307,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="G9:L9"/>
     <mergeCell ref="B11:B36"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
@@ -8336,6 +8323,11 @@
     <mergeCell ref="C21:F21"/>
     <mergeCell ref="C32:F32"/>
     <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="G9:L9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8449,42 +8441,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="291" t="s">
+      <c r="C6" s="301" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="292"/>
-      <c r="E6" s="292"/>
-      <c r="F6" s="292"/>
-      <c r="G6" s="292"/>
-      <c r="H6" s="293"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="303"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="50" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="301" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="293"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="303"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="50" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="291" t="s">
+      <c r="C8" s="301" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="293"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="303"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -8505,10 +8497,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="301" t="s">
+      <c r="C10" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="304"/>
+      <c r="D10" s="280"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -8529,10 +8521,10 @@
       <c r="B11" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="305" t="s">
+      <c r="C11" s="281" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="306"/>
+      <c r="D11" s="282"/>
       <c r="E11" s="78" t="s">
         <v>89</v>
       </c>
@@ -8551,10 +8543,10 @@
       <c r="B12" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="294" t="s">
+      <c r="C12" s="277" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="295"/>
+      <c r="D12" s="278"/>
       <c r="E12" s="83" t="s">
         <v>90</v>
       </c>
@@ -8567,8 +8559,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="81"/>
       <c r="B13" s="82"/>
-      <c r="C13" s="294"/>
-      <c r="D13" s="295"/>
+      <c r="C13" s="277"/>
+      <c r="D13" s="278"/>
       <c r="E13" s="83"/>
       <c r="F13" s="83"/>
       <c r="G13" s="84"/>
@@ -8577,8 +8569,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="86"/>
       <c r="B14" s="87"/>
-      <c r="C14" s="294"/>
-      <c r="D14" s="295"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="278"/>
       <c r="E14" s="88"/>
       <c r="F14" s="88"/>
       <c r="G14" s="89"/>
@@ -8587,8 +8579,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="86"/>
       <c r="B15" s="87"/>
-      <c r="C15" s="294"/>
-      <c r="D15" s="295"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="278"/>
       <c r="E15" s="88"/>
       <c r="F15" s="88"/>
       <c r="G15" s="89"/>
@@ -8597,8 +8589,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="86"/>
       <c r="B16" s="87"/>
-      <c r="C16" s="294"/>
-      <c r="D16" s="295"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="278"/>
       <c r="E16" s="88"/>
       <c r="F16" s="88"/>
       <c r="G16" s="89"/>
@@ -8607,8 +8599,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="86"/>
       <c r="B17" s="87"/>
-      <c r="C17" s="294"/>
-      <c r="D17" s="295"/>
+      <c r="C17" s="277"/>
+      <c r="D17" s="278"/>
       <c r="E17" s="88"/>
       <c r="F17" s="88"/>
       <c r="G17" s="89"/>
@@ -8617,8 +8609,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="86"/>
       <c r="B18" s="87"/>
-      <c r="C18" s="294"/>
-      <c r="D18" s="295"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="278"/>
       <c r="E18" s="88"/>
       <c r="F18" s="88"/>
       <c r="G18" s="89"/>
@@ -8627,8 +8619,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="86"/>
       <c r="B19" s="87"/>
-      <c r="C19" s="294"/>
-      <c r="D19" s="295"/>
+      <c r="C19" s="277"/>
+      <c r="D19" s="278"/>
       <c r="E19" s="88"/>
       <c r="F19" s="88"/>
       <c r="G19" s="89"/>
@@ -8637,8 +8629,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="86"/>
       <c r="B20" s="87"/>
-      <c r="C20" s="294"/>
-      <c r="D20" s="295"/>
+      <c r="C20" s="277"/>
+      <c r="D20" s="278"/>
       <c r="E20" s="88"/>
       <c r="F20" s="88"/>
       <c r="G20" s="89"/>
@@ -8647,8 +8639,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="86"/>
       <c r="B21" s="87"/>
-      <c r="C21" s="294"/>
-      <c r="D21" s="295"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="278"/>
       <c r="E21" s="88"/>
       <c r="F21" s="88"/>
       <c r="G21" s="89"/>
@@ -8657,8 +8649,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="86"/>
       <c r="B22" s="87"/>
-      <c r="C22" s="294"/>
-      <c r="D22" s="295"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="278"/>
       <c r="E22" s="88"/>
       <c r="F22" s="88"/>
       <c r="G22" s="89"/>
@@ -8667,8 +8659,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="86"/>
       <c r="B23" s="87"/>
-      <c r="C23" s="294"/>
-      <c r="D23" s="295"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="278"/>
       <c r="E23" s="88"/>
       <c r="F23" s="88"/>
       <c r="G23" s="89"/>
@@ -8677,8 +8669,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="86"/>
       <c r="B24" s="87"/>
-      <c r="C24" s="294"/>
-      <c r="D24" s="295"/>
+      <c r="C24" s="277"/>
+      <c r="D24" s="278"/>
       <c r="E24" s="88"/>
       <c r="F24" s="88"/>
       <c r="G24" s="89"/>
@@ -8687,8 +8679,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="86"/>
       <c r="B25" s="87"/>
-      <c r="C25" s="294"/>
-      <c r="D25" s="295"/>
+      <c r="C25" s="277"/>
+      <c r="D25" s="278"/>
       <c r="E25" s="88"/>
       <c r="F25" s="88"/>
       <c r="G25" s="89"/>
@@ -8697,8 +8689,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="86"/>
       <c r="B26" s="87"/>
-      <c r="C26" s="294"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="277"/>
+      <c r="D26" s="278"/>
       <c r="E26" s="88"/>
       <c r="F26" s="88"/>
       <c r="G26" s="89"/>
@@ -8707,8 +8699,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="86"/>
       <c r="B27" s="87"/>
-      <c r="C27" s="294"/>
-      <c r="D27" s="295"/>
+      <c r="C27" s="277"/>
+      <c r="D27" s="278"/>
       <c r="E27" s="88"/>
       <c r="F27" s="88"/>
       <c r="G27" s="89"/>
@@ -8717,8 +8709,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="86"/>
       <c r="B28" s="87"/>
-      <c r="C28" s="294"/>
-      <c r="D28" s="295"/>
+      <c r="C28" s="277"/>
+      <c r="D28" s="278"/>
       <c r="E28" s="88"/>
       <c r="F28" s="88"/>
       <c r="G28" s="89"/>
@@ -8727,8 +8719,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="86"/>
       <c r="B29" s="87"/>
-      <c r="C29" s="294"/>
-      <c r="D29" s="295"/>
+      <c r="C29" s="277"/>
+      <c r="D29" s="278"/>
       <c r="E29" s="88"/>
       <c r="F29" s="88"/>
       <c r="G29" s="89"/>
@@ -8737,8 +8729,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="91"/>
       <c r="B30" s="92"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="281"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="296"/>
       <c r="E30" s="93"/>
       <c r="F30" s="93"/>
       <c r="G30" s="94"/>
@@ -8773,7 +8765,7 @@
       <c r="B33" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="286"/>
+      <c r="C33" s="298"/>
       <c r="D33" s="65" t="s">
         <v>9</v>
       </c>
@@ -8788,51 +8780,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="76"/>
-      <c r="B34" s="287"/>
-      <c r="C34" s="288"/>
-      <c r="D34" s="273"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="275"/>
+      <c r="B34" s="304"/>
+      <c r="C34" s="305"/>
+      <c r="D34" s="286"/>
+      <c r="E34" s="310"/>
+      <c r="F34" s="287"/>
       <c r="G34" s="79"/>
       <c r="H34" s="80"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="81"/>
-      <c r="B35" s="289"/>
-      <c r="C35" s="290"/>
-      <c r="D35" s="276"/>
-      <c r="E35" s="277"/>
-      <c r="F35" s="278"/>
+      <c r="B35" s="306"/>
+      <c r="C35" s="307"/>
+      <c r="D35" s="288"/>
+      <c r="E35" s="300"/>
+      <c r="F35" s="289"/>
       <c r="G35" s="84"/>
       <c r="H35" s="85"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="81"/>
-      <c r="B36" s="289"/>
-      <c r="C36" s="290"/>
-      <c r="D36" s="276"/>
-      <c r="E36" s="277"/>
-      <c r="F36" s="278"/>
+      <c r="B36" s="306"/>
+      <c r="C36" s="307"/>
+      <c r="D36" s="288"/>
+      <c r="E36" s="300"/>
+      <c r="F36" s="289"/>
       <c r="G36" s="84"/>
       <c r="H36" s="85"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="81"/>
-      <c r="B37" s="289"/>
-      <c r="C37" s="290"/>
-      <c r="D37" s="276"/>
-      <c r="E37" s="277"/>
-      <c r="F37" s="278"/>
+      <c r="B37" s="306"/>
+      <c r="C37" s="307"/>
+      <c r="D37" s="288"/>
+      <c r="E37" s="300"/>
+      <c r="F37" s="289"/>
       <c r="G37" s="84"/>
       <c r="H37" s="85"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="91"/>
-      <c r="B38" s="282"/>
-      <c r="C38" s="283"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="281"/>
+      <c r="B38" s="308"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="294"/>
+      <c r="E38" s="295"/>
+      <c r="F38" s="296"/>
       <c r="G38" s="94"/>
       <c r="H38" s="95"/>
     </row>
@@ -8868,12 +8860,12 @@
       <c r="C41" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="285"/>
-      <c r="E41" s="286"/>
+      <c r="D41" s="297"/>
+      <c r="E41" s="298"/>
       <c r="F41" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="303"/>
+      <c r="G41" s="285"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -8881,51 +8873,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="96"/>
       <c r="B42" s="97"/>
-      <c r="C42" s="273"/>
-      <c r="D42" s="274"/>
-      <c r="E42" s="275"/>
-      <c r="F42" s="273"/>
-      <c r="G42" s="275"/>
+      <c r="C42" s="286"/>
+      <c r="D42" s="310"/>
+      <c r="E42" s="287"/>
+      <c r="F42" s="286"/>
+      <c r="G42" s="287"/>
       <c r="H42" s="98"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="99"/>
       <c r="B43" s="100"/>
-      <c r="C43" s="276"/>
-      <c r="D43" s="277"/>
-      <c r="E43" s="278"/>
-      <c r="F43" s="276"/>
-      <c r="G43" s="278"/>
+      <c r="C43" s="288"/>
+      <c r="D43" s="300"/>
+      <c r="E43" s="289"/>
+      <c r="F43" s="288"/>
+      <c r="G43" s="289"/>
       <c r="H43" s="101"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="99"/>
       <c r="B44" s="100"/>
-      <c r="C44" s="276"/>
-      <c r="D44" s="277"/>
-      <c r="E44" s="278"/>
-      <c r="F44" s="276"/>
-      <c r="G44" s="278"/>
+      <c r="C44" s="288"/>
+      <c r="D44" s="300"/>
+      <c r="E44" s="289"/>
+      <c r="F44" s="288"/>
+      <c r="G44" s="289"/>
       <c r="H44" s="101"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="99"/>
       <c r="B45" s="100"/>
-      <c r="C45" s="276"/>
-      <c r="D45" s="277"/>
-      <c r="E45" s="278"/>
-      <c r="F45" s="276"/>
-      <c r="G45" s="278"/>
+      <c r="C45" s="288"/>
+      <c r="D45" s="300"/>
+      <c r="E45" s="289"/>
+      <c r="F45" s="288"/>
+      <c r="G45" s="289"/>
       <c r="H45" s="101"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="102"/>
       <c r="B46" s="103"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="280"/>
-      <c r="E46" s="281"/>
-      <c r="F46" s="296"/>
-      <c r="G46" s="297"/>
+      <c r="C46" s="294"/>
+      <c r="D46" s="295"/>
+      <c r="E46" s="296"/>
+      <c r="F46" s="290"/>
+      <c r="G46" s="291"/>
       <c r="H46" s="104"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8960,12 +8952,12 @@
       <c r="C49" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="285"/>
-      <c r="E49" s="286"/>
-      <c r="F49" s="301" t="s">
+      <c r="D49" s="297"/>
+      <c r="E49" s="298"/>
+      <c r="F49" s="279" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="302"/>
+      <c r="G49" s="283"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -8975,15 +8967,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="114"/>
-      <c r="C50" s="298" t="s">
+      <c r="C50" s="292" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="300"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="298" t="s">
+      <c r="D50" s="299"/>
+      <c r="E50" s="293"/>
+      <c r="F50" s="292" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="299"/>
+      <c r="G50" s="293"/>
       <c r="H50" s="115" t="s">
         <v>70</v>
       </c>
@@ -8991,56 +8983,77 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="99"/>
       <c r="B51" s="100"/>
-      <c r="C51" s="276"/>
-      <c r="D51" s="277"/>
-      <c r="E51" s="278"/>
-      <c r="F51" s="276"/>
-      <c r="G51" s="278"/>
+      <c r="C51" s="288"/>
+      <c r="D51" s="300"/>
+      <c r="E51" s="289"/>
+      <c r="F51" s="288"/>
+      <c r="G51" s="289"/>
       <c r="H51" s="101"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="99"/>
       <c r="B52" s="100"/>
-      <c r="C52" s="276"/>
-      <c r="D52" s="277"/>
-      <c r="E52" s="278"/>
-      <c r="F52" s="276"/>
-      <c r="G52" s="278"/>
+      <c r="C52" s="288"/>
+      <c r="D52" s="300"/>
+      <c r="E52" s="289"/>
+      <c r="F52" s="288"/>
+      <c r="G52" s="289"/>
       <c r="H52" s="101"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="99"/>
       <c r="B53" s="100"/>
-      <c r="C53" s="276"/>
-      <c r="D53" s="277"/>
-      <c r="E53" s="278"/>
-      <c r="F53" s="276"/>
-      <c r="G53" s="278"/>
+      <c r="C53" s="288"/>
+      <c r="D53" s="300"/>
+      <c r="E53" s="289"/>
+      <c r="F53" s="288"/>
+      <c r="G53" s="289"/>
       <c r="H53" s="101"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="102"/>
       <c r="B54" s="103"/>
-      <c r="C54" s="279"/>
-      <c r="D54" s="280"/>
-      <c r="E54" s="281"/>
-      <c r="F54" s="296"/>
-      <c r="G54" s="297"/>
+      <c r="C54" s="294"/>
+      <c r="D54" s="295"/>
+      <c r="E54" s="296"/>
+      <c r="F54" s="290"/>
+      <c r="G54" s="291"/>
       <c r="H54" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="F54:G54"/>
@@ -9057,38 +9070,17 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9109,7 +9101,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -9134,10 +9126,10 @@
       <c r="F1" s="146"/>
     </row>
     <row r="2" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="319" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="308"/>
+      <c r="B2" s="320"/>
       <c r="C2" s="37" t="s">
         <v>156</v>
       </c>
@@ -9150,10 +9142,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="307" t="s">
+      <c r="A3" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="308"/>
+      <c r="B3" s="320"/>
       <c r="C3" s="37" t="s">
         <v>22</v>
       </c>
@@ -9166,10 +9158,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="307" t="s">
+      <c r="A4" s="319" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="308"/>
+      <c r="B4" s="320"/>
       <c r="C4" s="37" t="s">
         <v>157</v>
       </c>
@@ -9182,10 +9174,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="307" t="s">
+      <c r="A5" s="319" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="308"/>
+      <c r="B5" s="320"/>
       <c r="C5" s="41" t="s">
         <v>24</v>
       </c>
@@ -9196,10 +9188,10 @@
       <c r="F5" s="107"/>
     </row>
     <row r="6" spans="1:6" s="40" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="307" t="s">
+      <c r="A6" s="319" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="308"/>
+      <c r="B6" s="320"/>
       <c r="C6" s="37" t="s">
         <v>158</v>
       </c>
@@ -9240,10 +9232,10 @@
       <c r="D9" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="315" t="s">
+      <c r="E9" s="317" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="316"/>
+      <c r="F9" s="318"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="74">
@@ -9258,10 +9250,10 @@
       <c r="D10" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="309" t="s">
+      <c r="E10" s="311" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="310"/>
+      <c r="F10" s="312"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="74">
@@ -9276,10 +9268,10 @@
       <c r="D11" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="309" t="s">
+      <c r="E11" s="311" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="310"/>
+      <c r="F11" s="312"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="74">
@@ -9294,10 +9286,10 @@
       <c r="D12" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="309" t="s">
+      <c r="E12" s="311" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="310"/>
+      <c r="F12" s="312"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="74">
@@ -9312,10 +9304,10 @@
       <c r="D13" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="309" t="s">
+      <c r="E13" s="311" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="310"/>
+      <c r="F13" s="312"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="74">
@@ -9330,10 +9322,10 @@
       <c r="D14" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="309" t="s">
+      <c r="E14" s="311" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="310"/>
+      <c r="F14" s="312"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="234">
@@ -9348,26 +9340,26 @@
       <c r="D15" s="234" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="311" t="s">
+      <c r="E15" s="313" t="s">
         <v>214</v>
       </c>
-      <c r="F15" s="312"/>
+      <c r="F15" s="314"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
-      <c r="E16" s="313"/>
-      <c r="F16" s="314"/>
+      <c r="E16" s="315"/>
+      <c r="F16" s="316"/>
     </row>
     <row r="17" spans="1:6" ht="33.75" customHeight="1">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="313"/>
-      <c r="F17" s="314"/>
+      <c r="E17" s="315"/>
+      <c r="F17" s="316"/>
     </row>
     <row r="18" spans="1:6" ht="29.25" customHeight="1">
       <c r="A18" s="36" t="s">
@@ -9829,6 +9821,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -9838,11 +9835,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9962,38 +9954,38 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="291"/>
-      <c r="D6" s="292"/>
-      <c r="E6" s="292"/>
-      <c r="F6" s="292"/>
-      <c r="G6" s="292"/>
-      <c r="H6" s="293"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="303"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="70" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="293"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="303"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="70" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="291" t="s">
+      <c r="C8" s="301" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="293"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="303"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -10014,10 +10006,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="301" t="s">
+      <c r="C10" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="304"/>
+      <c r="D10" s="280"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -10158,8 +10150,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="86"/>
       <c r="B17" s="87"/>
-      <c r="C17" s="294"/>
-      <c r="D17" s="295"/>
+      <c r="C17" s="277"/>
+      <c r="D17" s="278"/>
       <c r="E17" s="88"/>
       <c r="F17" s="88"/>
       <c r="G17" s="89"/>
@@ -10168,8 +10160,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="86"/>
       <c r="B18" s="87"/>
-      <c r="C18" s="294"/>
-      <c r="D18" s="295"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="278"/>
       <c r="E18" s="88"/>
       <c r="F18" s="88"/>
       <c r="G18" s="89"/>
@@ -10178,8 +10170,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="86"/>
       <c r="B19" s="87"/>
-      <c r="C19" s="294"/>
-      <c r="D19" s="295"/>
+      <c r="C19" s="277"/>
+      <c r="D19" s="278"/>
       <c r="E19" s="88"/>
       <c r="F19" s="88"/>
       <c r="G19" s="89"/>
@@ -10188,8 +10180,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="86"/>
       <c r="B20" s="87"/>
-      <c r="C20" s="294"/>
-      <c r="D20" s="295"/>
+      <c r="C20" s="277"/>
+      <c r="D20" s="278"/>
       <c r="E20" s="88"/>
       <c r="F20" s="88"/>
       <c r="G20" s="89"/>
@@ -10198,8 +10190,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="86"/>
       <c r="B21" s="87"/>
-      <c r="C21" s="294"/>
-      <c r="D21" s="295"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="278"/>
       <c r="E21" s="88"/>
       <c r="F21" s="88"/>
       <c r="G21" s="89"/>
@@ -10208,8 +10200,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="86"/>
       <c r="B22" s="87"/>
-      <c r="C22" s="294"/>
-      <c r="D22" s="295"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="278"/>
       <c r="E22" s="88"/>
       <c r="F22" s="88"/>
       <c r="G22" s="89"/>
@@ -10218,8 +10210,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="86"/>
       <c r="B23" s="87"/>
-      <c r="C23" s="294"/>
-      <c r="D23" s="295"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="278"/>
       <c r="E23" s="88"/>
       <c r="F23" s="88"/>
       <c r="G23" s="89"/>
@@ -10228,8 +10220,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="86"/>
       <c r="B24" s="87"/>
-      <c r="C24" s="294"/>
-      <c r="D24" s="295"/>
+      <c r="C24" s="277"/>
+      <c r="D24" s="278"/>
       <c r="E24" s="88"/>
       <c r="F24" s="88"/>
       <c r="G24" s="89"/>
@@ -10238,8 +10230,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="86"/>
       <c r="B25" s="87"/>
-      <c r="C25" s="294"/>
-      <c r="D25" s="295"/>
+      <c r="C25" s="277"/>
+      <c r="D25" s="278"/>
       <c r="E25" s="88"/>
       <c r="F25" s="88"/>
       <c r="G25" s="89"/>
@@ -10248,8 +10240,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="86"/>
       <c r="B26" s="87"/>
-      <c r="C26" s="294"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="277"/>
+      <c r="D26" s="278"/>
       <c r="E26" s="88"/>
       <c r="F26" s="88"/>
       <c r="G26" s="89"/>
@@ -10258,8 +10250,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="86"/>
       <c r="B27" s="87"/>
-      <c r="C27" s="294"/>
-      <c r="D27" s="295"/>
+      <c r="C27" s="277"/>
+      <c r="D27" s="278"/>
       <c r="E27" s="88"/>
       <c r="F27" s="88"/>
       <c r="G27" s="89"/>
@@ -10268,8 +10260,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="86"/>
       <c r="B28" s="87"/>
-      <c r="C28" s="294"/>
-      <c r="D28" s="295"/>
+      <c r="C28" s="277"/>
+      <c r="D28" s="278"/>
       <c r="E28" s="88"/>
       <c r="F28" s="88"/>
       <c r="G28" s="89"/>
@@ -10278,8 +10270,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="86"/>
       <c r="B29" s="87"/>
-      <c r="C29" s="294"/>
-      <c r="D29" s="295"/>
+      <c r="C29" s="277"/>
+      <c r="D29" s="278"/>
       <c r="E29" s="88"/>
       <c r="F29" s="88"/>
       <c r="G29" s="89"/>
@@ -10288,8 +10280,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="86"/>
       <c r="B30" s="87"/>
-      <c r="C30" s="294"/>
-      <c r="D30" s="295"/>
+      <c r="C30" s="277"/>
+      <c r="D30" s="278"/>
       <c r="E30" s="88"/>
       <c r="F30" s="88"/>
       <c r="G30" s="89"/>
@@ -10298,8 +10290,8 @@
     <row r="31" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="91"/>
       <c r="B31" s="92"/>
-      <c r="C31" s="279"/>
-      <c r="D31" s="281"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="296"/>
       <c r="E31" s="93"/>
       <c r="F31" s="93"/>
       <c r="G31" s="94"/>
@@ -10334,7 +10326,7 @@
       <c r="B34" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="286"/>
+      <c r="C34" s="298"/>
       <c r="D34" s="71" t="s">
         <v>9</v>
       </c>
@@ -10349,51 +10341,51 @@
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="76"/>
-      <c r="B35" s="287"/>
-      <c r="C35" s="288"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="274"/>
-      <c r="F35" s="275"/>
+      <c r="B35" s="304"/>
+      <c r="C35" s="305"/>
+      <c r="D35" s="286"/>
+      <c r="E35" s="310"/>
+      <c r="F35" s="287"/>
       <c r="G35" s="79"/>
       <c r="H35" s="80"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="81"/>
-      <c r="B36" s="289"/>
-      <c r="C36" s="290"/>
-      <c r="D36" s="276"/>
-      <c r="E36" s="277"/>
-      <c r="F36" s="278"/>
+      <c r="B36" s="306"/>
+      <c r="C36" s="307"/>
+      <c r="D36" s="288"/>
+      <c r="E36" s="300"/>
+      <c r="F36" s="289"/>
       <c r="G36" s="84"/>
       <c r="H36" s="85"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="81"/>
-      <c r="B37" s="289"/>
-      <c r="C37" s="290"/>
-      <c r="D37" s="276"/>
-      <c r="E37" s="277"/>
-      <c r="F37" s="278"/>
+      <c r="B37" s="306"/>
+      <c r="C37" s="307"/>
+      <c r="D37" s="288"/>
+      <c r="E37" s="300"/>
+      <c r="F37" s="289"/>
       <c r="G37" s="84"/>
       <c r="H37" s="85"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="81"/>
-      <c r="B38" s="289"/>
-      <c r="C38" s="290"/>
-      <c r="D38" s="276"/>
-      <c r="E38" s="277"/>
-      <c r="F38" s="278"/>
+      <c r="B38" s="306"/>
+      <c r="C38" s="307"/>
+      <c r="D38" s="288"/>
+      <c r="E38" s="300"/>
+      <c r="F38" s="289"/>
       <c r="G38" s="84"/>
       <c r="H38" s="85"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="91"/>
-      <c r="B39" s="282"/>
-      <c r="C39" s="283"/>
-      <c r="D39" s="279"/>
-      <c r="E39" s="280"/>
-      <c r="F39" s="281"/>
+      <c r="B39" s="308"/>
+      <c r="C39" s="309"/>
+      <c r="D39" s="294"/>
+      <c r="E39" s="295"/>
+      <c r="F39" s="296"/>
       <c r="G39" s="94"/>
       <c r="H39" s="95"/>
     </row>
@@ -10429,12 +10421,12 @@
       <c r="C42" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="285"/>
-      <c r="E42" s="286"/>
+      <c r="D42" s="297"/>
+      <c r="E42" s="298"/>
       <c r="F42" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="303"/>
+      <c r="G42" s="285"/>
       <c r="H42" s="69" t="s">
         <v>14</v>
       </c>
@@ -10444,15 +10436,15 @@
         <v>1</v>
       </c>
       <c r="B43" s="114"/>
-      <c r="C43" s="298" t="s">
+      <c r="C43" s="292" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="300"/>
-      <c r="E43" s="299"/>
-      <c r="F43" s="298" t="s">
+      <c r="D43" s="299"/>
+      <c r="E43" s="293"/>
+      <c r="F43" s="292" t="s">
         <v>77</v>
       </c>
-      <c r="G43" s="299"/>
+      <c r="G43" s="293"/>
       <c r="H43" s="115" t="s">
         <v>78</v>
       </c>
@@ -10462,15 +10454,15 @@
         <v>2</v>
       </c>
       <c r="B44" s="117"/>
-      <c r="C44" s="317" t="s">
+      <c r="C44" s="321" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="318"/>
-      <c r="E44" s="319"/>
-      <c r="F44" s="317" t="s">
+      <c r="D44" s="322"/>
+      <c r="E44" s="323"/>
+      <c r="F44" s="321" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="319"/>
+      <c r="G44" s="323"/>
       <c r="H44" s="118" t="s">
         <v>75</v>
       </c>
@@ -10478,31 +10470,31 @@
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="99"/>
       <c r="B45" s="100"/>
-      <c r="C45" s="276"/>
-      <c r="D45" s="277"/>
-      <c r="E45" s="278"/>
-      <c r="F45" s="276"/>
-      <c r="G45" s="278"/>
+      <c r="C45" s="288"/>
+      <c r="D45" s="300"/>
+      <c r="E45" s="289"/>
+      <c r="F45" s="288"/>
+      <c r="G45" s="289"/>
       <c r="H45" s="101"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="99"/>
       <c r="B46" s="100"/>
-      <c r="C46" s="276"/>
-      <c r="D46" s="277"/>
-      <c r="E46" s="278"/>
-      <c r="F46" s="276"/>
-      <c r="G46" s="278"/>
+      <c r="C46" s="288"/>
+      <c r="D46" s="300"/>
+      <c r="E46" s="289"/>
+      <c r="F46" s="288"/>
+      <c r="G46" s="289"/>
       <c r="H46" s="101"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="102"/>
       <c r="B47" s="103"/>
-      <c r="C47" s="279"/>
-      <c r="D47" s="280"/>
-      <c r="E47" s="281"/>
-      <c r="F47" s="296"/>
-      <c r="G47" s="297"/>
+      <c r="C47" s="294"/>
+      <c r="D47" s="295"/>
+      <c r="E47" s="296"/>
+      <c r="F47" s="290"/>
+      <c r="G47" s="291"/>
       <c r="H47" s="104"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -10537,12 +10529,12 @@
       <c r="C50" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="285"/>
-      <c r="E50" s="286"/>
-      <c r="F50" s="301" t="s">
+      <c r="D50" s="297"/>
+      <c r="E50" s="298"/>
+      <c r="F50" s="279" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="302"/>
+      <c r="G50" s="283"/>
       <c r="H50" s="60" t="s">
         <v>17</v>
       </c>
@@ -10552,15 +10544,15 @@
         <v>1</v>
       </c>
       <c r="B51" s="114"/>
-      <c r="C51" s="298" t="s">
+      <c r="C51" s="292" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="300"/>
-      <c r="E51" s="299"/>
-      <c r="F51" s="298" t="s">
+      <c r="D51" s="299"/>
+      <c r="E51" s="293"/>
+      <c r="F51" s="292" t="s">
         <v>86</v>
       </c>
-      <c r="G51" s="299"/>
+      <c r="G51" s="293"/>
       <c r="H51" s="115" t="s">
         <v>85</v>
       </c>
@@ -10568,73 +10560,58 @@
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="99"/>
       <c r="B52" s="100"/>
-      <c r="C52" s="276"/>
-      <c r="D52" s="277"/>
-      <c r="E52" s="278"/>
-      <c r="F52" s="276"/>
-      <c r="G52" s="278"/>
+      <c r="C52" s="288"/>
+      <c r="D52" s="300"/>
+      <c r="E52" s="289"/>
+      <c r="F52" s="288"/>
+      <c r="G52" s="289"/>
       <c r="H52" s="101"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="99"/>
       <c r="B53" s="100"/>
-      <c r="C53" s="276"/>
-      <c r="D53" s="277"/>
-      <c r="E53" s="278"/>
-      <c r="F53" s="276"/>
-      <c r="G53" s="278"/>
+      <c r="C53" s="288"/>
+      <c r="D53" s="300"/>
+      <c r="E53" s="289"/>
+      <c r="F53" s="288"/>
+      <c r="G53" s="289"/>
       <c r="H53" s="101"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="99"/>
       <c r="B54" s="100"/>
-      <c r="C54" s="276"/>
-      <c r="D54" s="277"/>
-      <c r="E54" s="278"/>
-      <c r="F54" s="276"/>
-      <c r="G54" s="278"/>
+      <c r="C54" s="288"/>
+      <c r="D54" s="300"/>
+      <c r="E54" s="289"/>
+      <c r="F54" s="288"/>
+      <c r="G54" s="289"/>
       <c r="H54" s="101"/>
     </row>
     <row r="55" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="102"/>
       <c r="B55" s="103"/>
-      <c r="C55" s="279"/>
-      <c r="D55" s="280"/>
-      <c r="E55" s="281"/>
-      <c r="F55" s="296"/>
-      <c r="G55" s="297"/>
+      <c r="C55" s="294"/>
+      <c r="D55" s="295"/>
+      <c r="E55" s="296"/>
+      <c r="F55" s="290"/>
+      <c r="G55" s="291"/>
       <c r="H55" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="C26:D26"/>
@@ -10648,19 +10625,34 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10779,38 +10771,38 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="291"/>
-      <c r="D6" s="292"/>
-      <c r="E6" s="292"/>
-      <c r="F6" s="292"/>
-      <c r="G6" s="292"/>
-      <c r="H6" s="293"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="303"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="158" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="293"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="303"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="158" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="291" t="s">
+      <c r="C8" s="301" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="293"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="303"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -10831,10 +10823,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="301" t="s">
+      <c r="C10" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="304"/>
+      <c r="D10" s="280"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -10855,10 +10847,10 @@
       <c r="B11" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="305" t="s">
+      <c r="C11" s="281" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="306"/>
+      <c r="D11" s="282"/>
       <c r="E11" s="78" t="s">
         <v>89</v>
       </c>
@@ -10877,10 +10869,10 @@
       <c r="B12" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="294" t="s">
+      <c r="C12" s="277" t="s">
         <v>150</v>
       </c>
-      <c r="D12" s="295"/>
+      <c r="D12" s="278"/>
       <c r="E12" s="83" t="s">
         <v>90</v>
       </c>
@@ -10897,10 +10889,10 @@
       <c r="B13" s="156" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="294" t="s">
+      <c r="C13" s="277" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="295"/>
+      <c r="D13" s="278"/>
       <c r="E13" s="83" t="s">
         <v>154</v>
       </c>
@@ -10913,8 +10905,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="86"/>
       <c r="B14" s="87"/>
-      <c r="C14" s="294"/>
-      <c r="D14" s="295"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="278"/>
       <c r="E14" s="88"/>
       <c r="F14" s="88"/>
       <c r="G14" s="89"/>
@@ -10923,8 +10915,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="86"/>
       <c r="B15" s="87"/>
-      <c r="C15" s="294"/>
-      <c r="D15" s="295"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="278"/>
       <c r="E15" s="88"/>
       <c r="F15" s="88"/>
       <c r="G15" s="89"/>
@@ -10933,8 +10925,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="86"/>
       <c r="B16" s="87"/>
-      <c r="C16" s="294"/>
-      <c r="D16" s="295"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="278"/>
       <c r="E16" s="88"/>
       <c r="F16" s="88"/>
       <c r="G16" s="89"/>
@@ -10943,8 +10935,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="86"/>
       <c r="B17" s="87"/>
-      <c r="C17" s="294"/>
-      <c r="D17" s="295"/>
+      <c r="C17" s="277"/>
+      <c r="D17" s="278"/>
       <c r="E17" s="88"/>
       <c r="F17" s="88"/>
       <c r="G17" s="89"/>
@@ -10953,8 +10945,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="86"/>
       <c r="B18" s="87"/>
-      <c r="C18" s="294"/>
-      <c r="D18" s="295"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="278"/>
       <c r="E18" s="88"/>
       <c r="F18" s="88"/>
       <c r="G18" s="89"/>
@@ -10963,8 +10955,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="86"/>
       <c r="B19" s="87"/>
-      <c r="C19" s="294"/>
-      <c r="D19" s="295"/>
+      <c r="C19" s="277"/>
+      <c r="D19" s="278"/>
       <c r="E19" s="88"/>
       <c r="F19" s="88"/>
       <c r="G19" s="89"/>
@@ -10973,8 +10965,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="86"/>
       <c r="B20" s="87"/>
-      <c r="C20" s="294"/>
-      <c r="D20" s="295"/>
+      <c r="C20" s="277"/>
+      <c r="D20" s="278"/>
       <c r="E20" s="88"/>
       <c r="F20" s="88"/>
       <c r="G20" s="89"/>
@@ -10983,8 +10975,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="86"/>
       <c r="B21" s="87"/>
-      <c r="C21" s="294"/>
-      <c r="D21" s="295"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="278"/>
       <c r="E21" s="88"/>
       <c r="F21" s="88"/>
       <c r="G21" s="89"/>
@@ -10993,8 +10985,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="86"/>
       <c r="B22" s="87"/>
-      <c r="C22" s="294"/>
-      <c r="D22" s="295"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="278"/>
       <c r="E22" s="88"/>
       <c r="F22" s="88"/>
       <c r="G22" s="89"/>
@@ -11003,8 +10995,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="86"/>
       <c r="B23" s="87"/>
-      <c r="C23" s="294"/>
-      <c r="D23" s="295"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="278"/>
       <c r="E23" s="88"/>
       <c r="F23" s="88"/>
       <c r="G23" s="89"/>
@@ -11013,8 +11005,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="86"/>
       <c r="B24" s="87"/>
-      <c r="C24" s="294"/>
-      <c r="D24" s="295"/>
+      <c r="C24" s="277"/>
+      <c r="D24" s="278"/>
       <c r="E24" s="88"/>
       <c r="F24" s="88"/>
       <c r="G24" s="89"/>
@@ -11023,8 +11015,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="86"/>
       <c r="B25" s="87"/>
-      <c r="C25" s="294"/>
-      <c r="D25" s="295"/>
+      <c r="C25" s="277"/>
+      <c r="D25" s="278"/>
       <c r="E25" s="88"/>
       <c r="F25" s="88"/>
       <c r="G25" s="89"/>
@@ -11033,8 +11025,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="86"/>
       <c r="B26" s="87"/>
-      <c r="C26" s="294"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="277"/>
+      <c r="D26" s="278"/>
       <c r="E26" s="88"/>
       <c r="F26" s="88"/>
       <c r="G26" s="89"/>
@@ -11043,8 +11035,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="86"/>
       <c r="B27" s="87"/>
-      <c r="C27" s="294"/>
-      <c r="D27" s="295"/>
+      <c r="C27" s="277"/>
+      <c r="D27" s="278"/>
       <c r="E27" s="88"/>
       <c r="F27" s="88"/>
       <c r="G27" s="89"/>
@@ -11053,8 +11045,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="86"/>
       <c r="B28" s="87"/>
-      <c r="C28" s="294"/>
-      <c r="D28" s="295"/>
+      <c r="C28" s="277"/>
+      <c r="D28" s="278"/>
       <c r="E28" s="88"/>
       <c r="F28" s="88"/>
       <c r="G28" s="89"/>
@@ -11063,8 +11055,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="86"/>
       <c r="B29" s="87"/>
-      <c r="C29" s="294"/>
-      <c r="D29" s="295"/>
+      <c r="C29" s="277"/>
+      <c r="D29" s="278"/>
       <c r="E29" s="88"/>
       <c r="F29" s="88"/>
       <c r="G29" s="89"/>
@@ -11073,8 +11065,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="91"/>
       <c r="B30" s="152"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="281"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="296"/>
       <c r="E30" s="93"/>
       <c r="F30" s="93"/>
       <c r="G30" s="94"/>
@@ -11109,7 +11101,7 @@
       <c r="B33" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="286"/>
+      <c r="C33" s="298"/>
       <c r="D33" s="153" t="s">
         <v>9</v>
       </c>
@@ -11124,51 +11116,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="76"/>
-      <c r="B34" s="287"/>
-      <c r="C34" s="288"/>
-      <c r="D34" s="273"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="275"/>
+      <c r="B34" s="304"/>
+      <c r="C34" s="305"/>
+      <c r="D34" s="286"/>
+      <c r="E34" s="310"/>
+      <c r="F34" s="287"/>
       <c r="G34" s="79"/>
       <c r="H34" s="80"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="81"/>
-      <c r="B35" s="289"/>
-      <c r="C35" s="290"/>
-      <c r="D35" s="276"/>
-      <c r="E35" s="277"/>
-      <c r="F35" s="278"/>
+      <c r="B35" s="306"/>
+      <c r="C35" s="307"/>
+      <c r="D35" s="288"/>
+      <c r="E35" s="300"/>
+      <c r="F35" s="289"/>
       <c r="G35" s="84"/>
       <c r="H35" s="85"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="81"/>
-      <c r="B36" s="289"/>
-      <c r="C36" s="290"/>
-      <c r="D36" s="276"/>
-      <c r="E36" s="277"/>
-      <c r="F36" s="278"/>
+      <c r="B36" s="306"/>
+      <c r="C36" s="307"/>
+      <c r="D36" s="288"/>
+      <c r="E36" s="300"/>
+      <c r="F36" s="289"/>
       <c r="G36" s="84"/>
       <c r="H36" s="85"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="81"/>
-      <c r="B37" s="289"/>
-      <c r="C37" s="290"/>
-      <c r="D37" s="276"/>
-      <c r="E37" s="277"/>
-      <c r="F37" s="278"/>
+      <c r="B37" s="306"/>
+      <c r="C37" s="307"/>
+      <c r="D37" s="288"/>
+      <c r="E37" s="300"/>
+      <c r="F37" s="289"/>
       <c r="G37" s="84"/>
       <c r="H37" s="85"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="91"/>
-      <c r="B38" s="282"/>
-      <c r="C38" s="283"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="281"/>
+      <c r="B38" s="308"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="294"/>
+      <c r="E38" s="295"/>
+      <c r="F38" s="296"/>
       <c r="G38" s="94"/>
       <c r="H38" s="95"/>
     </row>
@@ -11204,12 +11196,12 @@
       <c r="C41" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="285"/>
-      <c r="E41" s="286"/>
+      <c r="D41" s="297"/>
+      <c r="E41" s="298"/>
       <c r="F41" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="303"/>
+      <c r="G41" s="285"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -11217,51 +11209,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="96"/>
       <c r="B42" s="97"/>
-      <c r="C42" s="273"/>
-      <c r="D42" s="274"/>
-      <c r="E42" s="275"/>
-      <c r="F42" s="273"/>
-      <c r="G42" s="275"/>
+      <c r="C42" s="286"/>
+      <c r="D42" s="310"/>
+      <c r="E42" s="287"/>
+      <c r="F42" s="286"/>
+      <c r="G42" s="287"/>
       <c r="H42" s="98"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="99"/>
       <c r="B43" s="100"/>
-      <c r="C43" s="276"/>
-      <c r="D43" s="277"/>
-      <c r="E43" s="278"/>
-      <c r="F43" s="276"/>
-      <c r="G43" s="278"/>
+      <c r="C43" s="288"/>
+      <c r="D43" s="300"/>
+      <c r="E43" s="289"/>
+      <c r="F43" s="288"/>
+      <c r="G43" s="289"/>
       <c r="H43" s="101"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="99"/>
       <c r="B44" s="100"/>
-      <c r="C44" s="276"/>
-      <c r="D44" s="277"/>
-      <c r="E44" s="278"/>
-      <c r="F44" s="276"/>
-      <c r="G44" s="278"/>
+      <c r="C44" s="288"/>
+      <c r="D44" s="300"/>
+      <c r="E44" s="289"/>
+      <c r="F44" s="288"/>
+      <c r="G44" s="289"/>
       <c r="H44" s="101"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="99"/>
       <c r="B45" s="100"/>
-      <c r="C45" s="276"/>
-      <c r="D45" s="277"/>
-      <c r="E45" s="278"/>
-      <c r="F45" s="276"/>
-      <c r="G45" s="278"/>
+      <c r="C45" s="288"/>
+      <c r="D45" s="300"/>
+      <c r="E45" s="289"/>
+      <c r="F45" s="288"/>
+      <c r="G45" s="289"/>
       <c r="H45" s="101"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="102"/>
       <c r="B46" s="157"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="280"/>
-      <c r="E46" s="281"/>
-      <c r="F46" s="296"/>
-      <c r="G46" s="297"/>
+      <c r="C46" s="294"/>
+      <c r="D46" s="295"/>
+      <c r="E46" s="296"/>
+      <c r="F46" s="290"/>
+      <c r="G46" s="291"/>
       <c r="H46" s="104"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -11296,12 +11288,12 @@
       <c r="C49" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="285"/>
-      <c r="E49" s="286"/>
-      <c r="F49" s="301" t="s">
+      <c r="D49" s="297"/>
+      <c r="E49" s="298"/>
+      <c r="F49" s="279" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="302"/>
+      <c r="G49" s="283"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -11309,51 +11301,2252 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="113"/>
       <c r="B50" s="114"/>
-      <c r="C50" s="298"/>
-      <c r="D50" s="300"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="298"/>
-      <c r="G50" s="299"/>
+      <c r="C50" s="292"/>
+      <c r="D50" s="299"/>
+      <c r="E50" s="293"/>
+      <c r="F50" s="292"/>
+      <c r="G50" s="293"/>
       <c r="H50" s="115"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="99"/>
       <c r="B51" s="100"/>
-      <c r="C51" s="276"/>
-      <c r="D51" s="277"/>
-      <c r="E51" s="278"/>
-      <c r="F51" s="276"/>
-      <c r="G51" s="278"/>
+      <c r="C51" s="288"/>
+      <c r="D51" s="300"/>
+      <c r="E51" s="289"/>
+      <c r="F51" s="288"/>
+      <c r="G51" s="289"/>
       <c r="H51" s="101"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="99"/>
       <c r="B52" s="100"/>
-      <c r="C52" s="276"/>
-      <c r="D52" s="277"/>
-      <c r="E52" s="278"/>
-      <c r="F52" s="276"/>
-      <c r="G52" s="278"/>
+      <c r="C52" s="288"/>
+      <c r="D52" s="300"/>
+      <c r="E52" s="289"/>
+      <c r="F52" s="288"/>
+      <c r="G52" s="289"/>
       <c r="H52" s="101"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="99"/>
       <c r="B53" s="100"/>
-      <c r="C53" s="276"/>
-      <c r="D53" s="277"/>
-      <c r="E53" s="278"/>
-      <c r="F53" s="276"/>
-      <c r="G53" s="278"/>
+      <c r="C53" s="288"/>
+      <c r="D53" s="300"/>
+      <c r="E53" s="289"/>
+      <c r="F53" s="288"/>
+      <c r="G53" s="289"/>
       <c r="H53" s="101"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="102"/>
       <c r="B54" s="157"/>
-      <c r="C54" s="279"/>
-      <c r="D54" s="280"/>
-      <c r="E54" s="281"/>
-      <c r="F54" s="296"/>
-      <c r="G54" s="297"/>
+      <c r="C54" s="294"/>
+      <c r="D54" s="295"/>
+      <c r="E54" s="296"/>
+      <c r="F54" s="290"/>
+      <c r="G54" s="291"/>
+      <c r="H54" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B16A643-9F07-4984-9911-D3BCFE289355}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="7" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4">
+      <c r="A1" s="233" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="232" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="231">
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="230"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="121" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="121"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="229" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="26" customFormat="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="328" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="329"/>
+      <c r="C6" s="332" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="333"/>
+      <c r="E6" s="333"/>
+      <c r="F6" s="333"/>
+      <c r="G6" s="334"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="228"/>
+      <c r="C7" s="332" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="333"/>
+      <c r="E7" s="333"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="334"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="228"/>
+      <c r="C8" s="335" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="336"/>
+      <c r="G8" s="337"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.8" thickBot="1">
+      <c r="A9" s="192" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="130"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="189" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="189" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="227">
+        <v>1</v>
+      </c>
+      <c r="B11" s="226" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="226" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="226" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="226" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="225"/>
+      <c r="G11" s="224" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="220">
+        <v>2</v>
+      </c>
+      <c r="B12" s="223" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="223" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="223" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="223" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="222"/>
+      <c r="G12" s="221"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="220">
+        <v>3</v>
+      </c>
+      <c r="B13" s="223" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="223" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="223" t="s">
+        <v>176</v>
+      </c>
+      <c r="E13" s="223" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="222"/>
+      <c r="G13" s="221"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="220"/>
+      <c r="B14" s="215"/>
+      <c r="C14" s="219"/>
+      <c r="D14" s="219"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="218"/>
+      <c r="G14" s="217"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="216"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="213"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="216"/>
+      <c r="B16" s="236"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="213"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="216"/>
+      <c r="B17" s="238"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="213"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="216"/>
+      <c r="B18" s="235"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="213"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="216"/>
+      <c r="B19" s="215"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="213"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="216"/>
+      <c r="B20" s="215"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="213"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="216"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="213"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="216"/>
+      <c r="B22" s="215"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="213"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="216"/>
+      <c r="B23" s="215"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="213"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="216"/>
+      <c r="B24" s="215"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="213"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="216"/>
+      <c r="B25" s="215"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="213"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="216"/>
+      <c r="B26" s="215"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="213"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="216"/>
+      <c r="B27" s="215"/>
+      <c r="C27" s="215"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="213"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="216"/>
+      <c r="B28" s="215"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="213"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="216"/>
+      <c r="B29" s="215"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="213"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="216"/>
+      <c r="B30" s="215"/>
+      <c r="C30" s="215"/>
+      <c r="D30" s="215"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="213"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="216"/>
+      <c r="B31" s="215"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="213"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="216"/>
+      <c r="B32" s="215"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="215"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="213"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="216"/>
+      <c r="B33" s="215"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="213"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="216"/>
+      <c r="B34" s="215"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="215"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="214"/>
+      <c r="G34" s="213"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="216"/>
+      <c r="B35" s="215"/>
+      <c r="C35" s="215"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="213"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A36" s="201"/>
+      <c r="B36" s="200"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="198"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="191"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A38" s="192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="191"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A39" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="195" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="211"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="196" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="210"/>
+      <c r="B40" s="209"/>
+      <c r="C40" s="209"/>
+      <c r="D40" s="209"/>
+      <c r="E40" s="209"/>
+      <c r="F40" s="208"/>
+      <c r="G40" s="207"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="205"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="202"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="205"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="203"/>
+      <c r="G42" s="202"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="205"/>
+      <c r="B43" s="204"/>
+      <c r="C43" s="204"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="202"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A44" s="201"/>
+      <c r="B44" s="200"/>
+      <c r="C44" s="200"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="199"/>
+      <c r="G44" s="198"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1"/>
+      <c r="B45" s="191"/>
+      <c r="C45" s="191"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A46" s="192" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="191"/>
+      <c r="C46" s="191"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="191"/>
+      <c r="G46" s="191"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A47" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="195" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="194"/>
+      <c r="E47" s="330" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="331"/>
+      <c r="G47" s="193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="185"/>
+      <c r="B48" s="184"/>
+      <c r="C48" s="183"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="338"/>
+      <c r="F48" s="339"/>
+      <c r="G48" s="181"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="180"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="178"/>
+      <c r="D49" s="177"/>
+      <c r="E49" s="324"/>
+      <c r="F49" s="325"/>
+      <c r="G49" s="176"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="180"/>
+      <c r="B50" s="179"/>
+      <c r="C50" s="178"/>
+      <c r="D50" s="177"/>
+      <c r="E50" s="324"/>
+      <c r="F50" s="325"/>
+      <c r="G50" s="176"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="180"/>
+      <c r="B51" s="179"/>
+      <c r="C51" s="178"/>
+      <c r="D51" s="177"/>
+      <c r="E51" s="324"/>
+      <c r="F51" s="325"/>
+      <c r="G51" s="176"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A52" s="175"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="340"/>
+      <c r="D52" s="341"/>
+      <c r="E52" s="340"/>
+      <c r="F52" s="341"/>
+      <c r="G52" s="173"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1"/>
+      <c r="B53" s="191"/>
+      <c r="C53" s="191"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="191"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A54" s="192" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="191"/>
+      <c r="C54" s="191"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="191"/>
+      <c r="G54" s="191"/>
+    </row>
+    <row r="55" spans="1:7" s="25" customFormat="1" ht="13.8" thickBot="1">
+      <c r="A55" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="188" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="187"/>
+      <c r="E55" s="326" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="327"/>
+      <c r="G55" s="186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="185"/>
+      <c r="B56" s="184"/>
+      <c r="C56" s="183"/>
+      <c r="D56" s="182"/>
+      <c r="E56" s="338"/>
+      <c r="F56" s="339"/>
+      <c r="G56" s="181"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="180"/>
+      <c r="B57" s="179"/>
+      <c r="C57" s="178"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="324"/>
+      <c r="F57" s="325"/>
+      <c r="G57" s="176"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="180"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="178"/>
+      <c r="D58" s="177"/>
+      <c r="E58" s="324"/>
+      <c r="F58" s="325"/>
+      <c r="G58" s="176"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="180"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="178"/>
+      <c r="D59" s="177"/>
+      <c r="E59" s="324"/>
+      <c r="F59" s="325"/>
+      <c r="G59" s="176"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A60" s="175"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="340"/>
+      <c r="D60" s="341"/>
+      <c r="E60" s="340"/>
+      <c r="F60" s="341"/>
+      <c r="G60" s="173"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E50:F50"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6535BF08-B134-467B-93E0-F97B1F46E299}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="7" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.4">
+      <c r="A1" s="233" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="120" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="232" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="231">
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="230"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="121" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="121"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="229" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="26" customFormat="1">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="328" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="329"/>
+      <c r="C6" s="332" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="333"/>
+      <c r="E6" s="333"/>
+      <c r="F6" s="333"/>
+      <c r="G6" s="334"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="228"/>
+      <c r="C7" s="332" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="333"/>
+      <c r="E7" s="333"/>
+      <c r="F7" s="333"/>
+      <c r="G7" s="334"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="228"/>
+      <c r="C8" s="335" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="336"/>
+      <c r="G8" s="337"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A9" s="192" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="189" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="189" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="189" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="189" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="189" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="227">
+        <v>1</v>
+      </c>
+      <c r="B11" s="226" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="226" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="226" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="226" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="225"/>
+      <c r="G11" s="224" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="220">
+        <v>2</v>
+      </c>
+      <c r="B12" s="223" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="223" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="223" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="223" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="222"/>
+      <c r="G12" s="221"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="227">
+        <v>3</v>
+      </c>
+      <c r="B13" s="223" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="223" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="223" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="223" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="222"/>
+      <c r="G13" s="221"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="220">
+        <v>4</v>
+      </c>
+      <c r="B14" s="219" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="219" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="219" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="223" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="218"/>
+      <c r="G14" s="217"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="227">
+        <v>5</v>
+      </c>
+      <c r="B15" s="219" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="219" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="219" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="223" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="218"/>
+      <c r="G15" s="217"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="216">
+        <v>6</v>
+      </c>
+      <c r="B16" s="219" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="215" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="215" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="215" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="214"/>
+      <c r="G16" s="213"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="216">
+        <v>7</v>
+      </c>
+      <c r="B17" s="215" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="215" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="215" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="215" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="214"/>
+      <c r="G17" s="213"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="216"/>
+      <c r="B18" s="215"/>
+      <c r="C18" s="215"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="215"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="213"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="216"/>
+      <c r="B19" s="215"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="213"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="216"/>
+      <c r="B20" s="215"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="213"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="216"/>
+      <c r="B21" s="215"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="213"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="216"/>
+      <c r="B22" s="215"/>
+      <c r="C22" s="215"/>
+      <c r="D22" s="215"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="213"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="216"/>
+      <c r="B23" s="215"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="215"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="213"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="216"/>
+      <c r="B24" s="215"/>
+      <c r="C24" s="215"/>
+      <c r="D24" s="215"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="213"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="216"/>
+      <c r="B25" s="215"/>
+      <c r="C25" s="215"/>
+      <c r="D25" s="215"/>
+      <c r="E25" s="215"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="213"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="216"/>
+      <c r="B26" s="215"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="215"/>
+      <c r="E26" s="215"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="213"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="216"/>
+      <c r="B27" s="215"/>
+      <c r="C27" s="215"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="213"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="216"/>
+      <c r="B28" s="215"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="215"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="213"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="216"/>
+      <c r="B29" s="215"/>
+      <c r="C29" s="215"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="215"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="213"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="216"/>
+      <c r="B30" s="215"/>
+      <c r="C30" s="215"/>
+      <c r="D30" s="215"/>
+      <c r="E30" s="215"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="213"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="216"/>
+      <c r="B31" s="215"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="213"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="216"/>
+      <c r="B32" s="215"/>
+      <c r="C32" s="215"/>
+      <c r="D32" s="215"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="213"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="216"/>
+      <c r="B33" s="215"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="213"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="216"/>
+      <c r="B34" s="215"/>
+      <c r="C34" s="215"/>
+      <c r="D34" s="215"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="214"/>
+      <c r="G34" s="213"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="216"/>
+      <c r="B35" s="215"/>
+      <c r="C35" s="215"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="215"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="213"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A36" s="201"/>
+      <c r="B36" s="200"/>
+      <c r="C36" s="200"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="212"/>
+      <c r="G36" s="198"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="191"/>
+      <c r="D37" s="191"/>
+      <c r="E37" s="191"/>
+      <c r="F37" s="191"/>
+      <c r="G37" s="191"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A38" s="192" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="191"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A39" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="195" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="211"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="196" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="210"/>
+      <c r="B40" s="209"/>
+      <c r="C40" s="209"/>
+      <c r="D40" s="209"/>
+      <c r="E40" s="209"/>
+      <c r="F40" s="208"/>
+      <c r="G40" s="207"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="205"/>
+      <c r="B41" s="204"/>
+      <c r="C41" s="204"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="206"/>
+      <c r="G41" s="202"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="205"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="204"/>
+      <c r="F42" s="203"/>
+      <c r="G42" s="202"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="205"/>
+      <c r="B43" s="204"/>
+      <c r="C43" s="204"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="202"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A44" s="201"/>
+      <c r="B44" s="200"/>
+      <c r="C44" s="200"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="199"/>
+      <c r="G44" s="198"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1"/>
+      <c r="B45" s="191"/>
+      <c r="C45" s="191"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A46" s="192" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="191"/>
+      <c r="C46" s="191"/>
+      <c r="D46" s="191"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="191"/>
+      <c r="G46" s="191"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A47" s="197" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="196" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="195" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="194"/>
+      <c r="E47" s="330" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="331"/>
+      <c r="G47" s="193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="185"/>
+      <c r="B48" s="184"/>
+      <c r="C48" s="183"/>
+      <c r="D48" s="182"/>
+      <c r="E48" s="338"/>
+      <c r="F48" s="339"/>
+      <c r="G48" s="181"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="180"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="178"/>
+      <c r="D49" s="177"/>
+      <c r="E49" s="324"/>
+      <c r="F49" s="325"/>
+      <c r="G49" s="176"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="180"/>
+      <c r="B50" s="179"/>
+      <c r="C50" s="178"/>
+      <c r="D50" s="177"/>
+      <c r="E50" s="324"/>
+      <c r="F50" s="325"/>
+      <c r="G50" s="176"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="180"/>
+      <c r="B51" s="179"/>
+      <c r="C51" s="178"/>
+      <c r="D51" s="177"/>
+      <c r="E51" s="324"/>
+      <c r="F51" s="325"/>
+      <c r="G51" s="176"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A52" s="175"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="340"/>
+      <c r="D52" s="341"/>
+      <c r="E52" s="340"/>
+      <c r="F52" s="341"/>
+      <c r="G52" s="173"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1"/>
+      <c r="B53" s="191"/>
+      <c r="C53" s="191"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="191"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A54" s="192" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="191"/>
+      <c r="C54" s="191"/>
+      <c r="D54" s="191"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="191"/>
+      <c r="G54" s="191"/>
+    </row>
+    <row r="55" spans="1:7" s="25" customFormat="1" ht="13.8" thickBot="1">
+      <c r="A55" s="190" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="189" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="188" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="187"/>
+      <c r="E55" s="326" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="327"/>
+      <c r="G55" s="186" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="185"/>
+      <c r="B56" s="184"/>
+      <c r="C56" s="183"/>
+      <c r="D56" s="182"/>
+      <c r="E56" s="338"/>
+      <c r="F56" s="339"/>
+      <c r="G56" s="181"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="180"/>
+      <c r="B57" s="179"/>
+      <c r="C57" s="178"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="324"/>
+      <c r="F57" s="325"/>
+      <c r="G57" s="176"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="180"/>
+      <c r="B58" s="179"/>
+      <c r="C58" s="178"/>
+      <c r="D58" s="177"/>
+      <c r="E58" s="324"/>
+      <c r="F58" s="325"/>
+      <c r="G58" s="176"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="180"/>
+      <c r="B59" s="179"/>
+      <c r="C59" s="178"/>
+      <c r="D59" s="177"/>
+      <c r="E59" s="324"/>
+      <c r="F59" s="325"/>
+      <c r="G59" s="176"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A60" s="175"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="340"/>
+      <c r="D60" s="341"/>
+      <c r="E60" s="340"/>
+      <c r="F60" s="341"/>
+      <c r="G60" s="173"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037AD983-EBBB-4DC1-8FD7-00B741A8CEA7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4">
+      <c r="A1" s="147" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="149"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="172" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="172"/>
+      <c r="C2" s="168" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="169"/>
+      <c r="E2" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="169" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="108" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="172" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="172"/>
+      <c r="C3" s="168" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="169"/>
+      <c r="E3" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="169"/>
+      <c r="G3" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="109"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="172" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="172"/>
+      <c r="C4" s="168" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="168"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="172" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="303"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="172" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="303"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="172" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="301" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="303"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A9" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="279" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="280"/>
+      <c r="E10" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="76">
+        <v>1</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>219</v>
+      </c>
+      <c r="C11" s="281" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="282"/>
+      <c r="E11" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="81">
+        <v>2</v>
+      </c>
+      <c r="B12" s="170" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="277" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="278"/>
+      <c r="E12" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="83" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="81">
+        <v>3</v>
+      </c>
+      <c r="B13" s="170" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" s="277" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="278"/>
+      <c r="E13" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" s="78" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="86"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="278"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="90"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="86"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="90"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="86"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="278"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="90"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="86"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="277"/>
+      <c r="D17" s="278"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="90"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="278"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="277"/>
+      <c r="D19" s="278"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="86"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="277"/>
+      <c r="D20" s="278"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="90"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="86"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="278"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="90"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="86"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="278"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="90"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="278"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="90"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="277"/>
+      <c r="D24" s="278"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="90"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="277"/>
+      <c r="D25" s="278"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="90"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="277"/>
+      <c r="D26" s="278"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="90"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="86"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="277"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="90"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="86"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="277"/>
+      <c r="D28" s="278"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="90"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="86"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="277"/>
+      <c r="D29" s="278"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A30" s="91"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="296"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="95"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A32" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="284" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="298"/>
+      <c r="D33" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="166"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="76"/>
+      <c r="B34" s="304"/>
+      <c r="C34" s="305"/>
+      <c r="D34" s="286"/>
+      <c r="E34" s="310"/>
+      <c r="F34" s="287"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="80"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="81"/>
+      <c r="B35" s="306"/>
+      <c r="C35" s="307"/>
+      <c r="D35" s="288"/>
+      <c r="E35" s="300"/>
+      <c r="F35" s="289"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="85"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="81"/>
+      <c r="B36" s="306"/>
+      <c r="C36" s="307"/>
+      <c r="D36" s="288"/>
+      <c r="E36" s="300"/>
+      <c r="F36" s="289"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="85"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="81"/>
+      <c r="B37" s="306"/>
+      <c r="C37" s="307"/>
+      <c r="D37" s="288"/>
+      <c r="E37" s="300"/>
+      <c r="F37" s="289"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="85"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A38" s="91"/>
+      <c r="B38" s="308"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="294"/>
+      <c r="E38" s="295"/>
+      <c r="F38" s="296"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="95"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A40" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="57"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A41" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="284" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="297"/>
+      <c r="E41" s="298"/>
+      <c r="F41" s="284" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="285"/>
+      <c r="H41" s="69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="96"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="286"/>
+      <c r="D42" s="310"/>
+      <c r="E42" s="287"/>
+      <c r="F42" s="286"/>
+      <c r="G42" s="287"/>
+      <c r="H42" s="98"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="99"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="288"/>
+      <c r="D43" s="300"/>
+      <c r="E43" s="289"/>
+      <c r="F43" s="288"/>
+      <c r="G43" s="289"/>
+      <c r="H43" s="101"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="99"/>
+      <c r="B44" s="100"/>
+      <c r="C44" s="288"/>
+      <c r="D44" s="300"/>
+      <c r="E44" s="289"/>
+      <c r="F44" s="288"/>
+      <c r="G44" s="289"/>
+      <c r="H44" s="101"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="99"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="288"/>
+      <c r="D45" s="300"/>
+      <c r="E45" s="289"/>
+      <c r="F45" s="288"/>
+      <c r="G45" s="289"/>
+      <c r="H45" s="101"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A46" s="102"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="294"/>
+      <c r="D46" s="295"/>
+      <c r="E46" s="296"/>
+      <c r="F46" s="290"/>
+      <c r="G46" s="291"/>
+      <c r="H46" s="104"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="61"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A48" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="57"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63"/>
+      <c r="H48" s="63"/>
+    </row>
+    <row r="49" spans="1:8" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="284" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="297"/>
+      <c r="E49" s="298"/>
+      <c r="F49" s="279" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="283"/>
+      <c r="H49" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="113">
+        <v>1</v>
+      </c>
+      <c r="B50" s="114"/>
+      <c r="C50" s="292"/>
+      <c r="D50" s="299"/>
+      <c r="E50" s="293"/>
+      <c r="F50" s="292"/>
+      <c r="G50" s="293"/>
+      <c r="H50" s="115"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="99"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="288"/>
+      <c r="D51" s="300"/>
+      <c r="E51" s="289"/>
+      <c r="F51" s="288"/>
+      <c r="G51" s="289"/>
+      <c r="H51" s="101"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="99"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="288"/>
+      <c r="D52" s="300"/>
+      <c r="E52" s="289"/>
+      <c r="F52" s="288"/>
+      <c r="G52" s="289"/>
+      <c r="H52" s="101"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="99"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="288"/>
+      <c r="D53" s="300"/>
+      <c r="E53" s="289"/>
+      <c r="F53" s="288"/>
+      <c r="G53" s="289"/>
+      <c r="H53" s="101"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A54" s="102"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="294"/>
+      <c r="D54" s="295"/>
+      <c r="E54" s="296"/>
+      <c r="F54" s="290"/>
+      <c r="G54" s="291"/>
       <c r="H54" s="104"/>
     </row>
   </sheetData>
@@ -11424,2207 +13617,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B16A643-9F07-4984-9911-D3BCFE289355}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J60"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="7" width="14.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="14.4">
-      <c r="A1" s="233" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="121" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="232" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="231">
-        <v>43594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="121" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="230"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="120" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="121" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="123" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="229" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="26" customFormat="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="328" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="329"/>
-      <c r="C6" s="332" t="s">
-        <v>181</v>
-      </c>
-      <c r="D6" s="333"/>
-      <c r="E6" s="333"/>
-      <c r="F6" s="333"/>
-      <c r="G6" s="334"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="332" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="333"/>
-      <c r="E7" s="333"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="334"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="124" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="228"/>
-      <c r="C8" s="335" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="336"/>
-      <c r="E8" s="336"/>
-      <c r="F8" s="336"/>
-      <c r="G8" s="337"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.8" thickBot="1">
-      <c r="A9" s="192" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="130"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="189" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="189" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="189" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="189" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="189" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="186" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="227">
-        <v>1</v>
-      </c>
-      <c r="B11" s="226" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="226" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="226" t="s">
-        <v>176</v>
-      </c>
-      <c r="E11" s="226" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="225"/>
-      <c r="G11" s="224" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="220">
-        <v>2</v>
-      </c>
-      <c r="B12" s="223" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="223" t="s">
-        <v>223</v>
-      </c>
-      <c r="D12" s="223" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="223" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="222"/>
-      <c r="G12" s="221"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="220">
-        <v>3</v>
-      </c>
-      <c r="B13" s="223" t="s">
-        <v>170</v>
-      </c>
-      <c r="C13" s="223" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" s="223" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="223" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="222"/>
-      <c r="G13" s="221"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="220"/>
-      <c r="B14" s="215"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="219"/>
-      <c r="E14" s="219"/>
-      <c r="F14" s="218"/>
-      <c r="G14" s="217"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="216"/>
-      <c r="B15" s="350"/>
-      <c r="C15" s="215"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="213"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="216"/>
-      <c r="B16" s="236"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="213"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="216"/>
-      <c r="B17" s="351"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="215"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="213"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="216"/>
-      <c r="B18" s="235"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="213"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="216"/>
-      <c r="B19" s="215"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="213"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="216"/>
-      <c r="B20" s="215"/>
-      <c r="C20" s="215"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="213"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="216"/>
-      <c r="B21" s="215"/>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="213"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="216"/>
-      <c r="B22" s="215"/>
-      <c r="C22" s="215"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="213"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="216"/>
-      <c r="B23" s="215"/>
-      <c r="C23" s="215"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="213"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="216"/>
-      <c r="B24" s="215"/>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="213"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="216"/>
-      <c r="B25" s="215"/>
-      <c r="C25" s="215"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="213"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="216"/>
-      <c r="B26" s="215"/>
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="213"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="216"/>
-      <c r="B27" s="215"/>
-      <c r="C27" s="215"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="213"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="216"/>
-      <c r="B28" s="215"/>
-      <c r="C28" s="215"/>
-      <c r="D28" s="215"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="213"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="216"/>
-      <c r="B29" s="215"/>
-      <c r="C29" s="215"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="213"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="216"/>
-      <c r="B30" s="215"/>
-      <c r="C30" s="215"/>
-      <c r="D30" s="215"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="214"/>
-      <c r="G30" s="213"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="216"/>
-      <c r="B31" s="215"/>
-      <c r="C31" s="215"/>
-      <c r="D31" s="215"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="213"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="216"/>
-      <c r="B32" s="215"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="215"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="213"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="216"/>
-      <c r="B33" s="215"/>
-      <c r="C33" s="215"/>
-      <c r="D33" s="215"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="213"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="216"/>
-      <c r="B34" s="215"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="215"/>
-      <c r="E34" s="215"/>
-      <c r="F34" s="214"/>
-      <c r="G34" s="213"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="216"/>
-      <c r="B35" s="215"/>
-      <c r="C35" s="215"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="214"/>
-      <c r="G35" s="213"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A36" s="201"/>
-      <c r="B36" s="200"/>
-      <c r="C36" s="200"/>
-      <c r="D36" s="200"/>
-      <c r="E36" s="200"/>
-      <c r="F36" s="212"/>
-      <c r="G36" s="198"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1"/>
-      <c r="B37" s="191"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="191"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="191"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A38" s="192" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="191"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="191"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A39" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="196" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="195" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="211"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="196" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="193" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="210"/>
-      <c r="B40" s="209"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="208"/>
-      <c r="G40" s="207"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="205"/>
-      <c r="B41" s="204"/>
-      <c r="C41" s="204"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="206"/>
-      <c r="G41" s="202"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="205"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="203"/>
-      <c r="G42" s="202"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="205"/>
-      <c r="B43" s="204"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="204"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="202"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A44" s="201"/>
-      <c r="B44" s="200"/>
-      <c r="C44" s="200"/>
-      <c r="D44" s="200"/>
-      <c r="E44" s="200"/>
-      <c r="F44" s="199"/>
-      <c r="G44" s="198"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1"/>
-      <c r="B45" s="191"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A46" s="192" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="191"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="191"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="191"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A47" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="195" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="194"/>
-      <c r="E47" s="330" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="331"/>
-      <c r="G47" s="193" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="185"/>
-      <c r="B48" s="184"/>
-      <c r="C48" s="183"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="322"/>
-      <c r="F48" s="323"/>
-      <c r="G48" s="181"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="180"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="177"/>
-      <c r="E49" s="324"/>
-      <c r="F49" s="325"/>
-      <c r="G49" s="176"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="180"/>
-      <c r="B50" s="179"/>
-      <c r="C50" s="178"/>
-      <c r="D50" s="177"/>
-      <c r="E50" s="324"/>
-      <c r="F50" s="325"/>
-      <c r="G50" s="176"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="180"/>
-      <c r="B51" s="179"/>
-      <c r="C51" s="178"/>
-      <c r="D51" s="177"/>
-      <c r="E51" s="324"/>
-      <c r="F51" s="325"/>
-      <c r="G51" s="176"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A52" s="175"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="320"/>
-      <c r="D52" s="321"/>
-      <c r="E52" s="320"/>
-      <c r="F52" s="321"/>
-      <c r="G52" s="173"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1"/>
-      <c r="B53" s="191"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
-      <c r="G53" s="191"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A54" s="192" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="191"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="191"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="191"/>
-    </row>
-    <row r="55" spans="1:7" s="25" customFormat="1" ht="13.8" thickBot="1">
-      <c r="A55" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="189" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="188" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="187"/>
-      <c r="E55" s="326" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="327"/>
-      <c r="G55" s="186" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="185"/>
-      <c r="B56" s="184"/>
-      <c r="C56" s="183"/>
-      <c r="D56" s="182"/>
-      <c r="E56" s="322"/>
-      <c r="F56" s="323"/>
-      <c r="G56" s="181"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="180"/>
-      <c r="B57" s="179"/>
-      <c r="C57" s="178"/>
-      <c r="D57" s="177"/>
-      <c r="E57" s="324"/>
-      <c r="F57" s="325"/>
-      <c r="G57" s="176"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="180"/>
-      <c r="B58" s="179"/>
-      <c r="C58" s="178"/>
-      <c r="D58" s="177"/>
-      <c r="E58" s="324"/>
-      <c r="F58" s="325"/>
-      <c r="G58" s="176"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="180"/>
-      <c r="B59" s="179"/>
-      <c r="C59" s="178"/>
-      <c r="D59" s="177"/>
-      <c r="E59" s="324"/>
-      <c r="F59" s="325"/>
-      <c r="G59" s="176"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A60" s="175"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="320"/>
-      <c r="D60" s="321"/>
-      <c r="E60" s="320"/>
-      <c r="F60" s="321"/>
-      <c r="G60" s="173"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E58:F58"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6535BF08-B134-467B-93E0-F97B1F46E299}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G60"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="7" width="14.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="14.4">
-      <c r="A1" s="233" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="120" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="121" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="232" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="231">
-        <v>43594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="124" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="121" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="230"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="120" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="121" t="s">
-        <v>206</v>
-      </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="123" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="229" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="26" customFormat="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="328" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="329"/>
-      <c r="C6" s="332" t="s">
-        <v>205</v>
-      </c>
-      <c r="D6" s="333"/>
-      <c r="E6" s="333"/>
-      <c r="F6" s="333"/>
-      <c r="G6" s="334"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="228"/>
-      <c r="C7" s="332" t="s">
-        <v>204</v>
-      </c>
-      <c r="D7" s="333"/>
-      <c r="E7" s="333"/>
-      <c r="F7" s="333"/>
-      <c r="G7" s="334"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="124" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="228"/>
-      <c r="C8" s="335" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="336"/>
-      <c r="E8" s="336"/>
-      <c r="F8" s="336"/>
-      <c r="G8" s="337"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A9" s="192" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="189" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="189" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="189" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="189" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="189" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="186" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="227">
-        <v>1</v>
-      </c>
-      <c r="B11" s="226" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="226" t="s">
-        <v>172</v>
-      </c>
-      <c r="D11" s="226" t="s">
-        <v>177</v>
-      </c>
-      <c r="E11" s="226" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="225"/>
-      <c r="G11" s="224" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="220">
-        <v>2</v>
-      </c>
-      <c r="B12" s="223" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="223" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="223" t="s">
-        <v>199</v>
-      </c>
-      <c r="E12" s="223" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="222"/>
-      <c r="G12" s="221"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="227">
-        <v>3</v>
-      </c>
-      <c r="B13" s="223" t="s">
-        <v>198</v>
-      </c>
-      <c r="C13" s="223" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="223" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="223" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="222"/>
-      <c r="G13" s="221"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="220">
-        <v>4</v>
-      </c>
-      <c r="B14" s="219" t="s">
-        <v>195</v>
-      </c>
-      <c r="C14" s="219" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="219" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="223" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="218"/>
-      <c r="G14" s="217"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="227">
-        <v>5</v>
-      </c>
-      <c r="B15" s="219" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15" s="219" t="s">
-        <v>191</v>
-      </c>
-      <c r="D15" s="219" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="223" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="218"/>
-      <c r="G15" s="217"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="216">
-        <v>6</v>
-      </c>
-      <c r="B16" s="219" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="215" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="215" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="215" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="214"/>
-      <c r="G16" s="213"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="216">
-        <v>7</v>
-      </c>
-      <c r="B17" s="215" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="215" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="215" t="s">
-        <v>186</v>
-      </c>
-      <c r="E17" s="215" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="214"/>
-      <c r="G17" s="213"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="216"/>
-      <c r="B18" s="215"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="215"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="213"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="216"/>
-      <c r="B19" s="215"/>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="213"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="216"/>
-      <c r="B20" s="215"/>
-      <c r="C20" s="215"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="213"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="216"/>
-      <c r="B21" s="215"/>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="213"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="216"/>
-      <c r="B22" s="215"/>
-      <c r="C22" s="215"/>
-      <c r="D22" s="215"/>
-      <c r="E22" s="215"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="213"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="216"/>
-      <c r="B23" s="215"/>
-      <c r="C23" s="215"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="215"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="213"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="216"/>
-      <c r="B24" s="215"/>
-      <c r="C24" s="215"/>
-      <c r="D24" s="215"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="214"/>
-      <c r="G24" s="213"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="216"/>
-      <c r="B25" s="215"/>
-      <c r="C25" s="215"/>
-      <c r="D25" s="215"/>
-      <c r="E25" s="215"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="213"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="216"/>
-      <c r="B26" s="215"/>
-      <c r="C26" s="215"/>
-      <c r="D26" s="215"/>
-      <c r="E26" s="215"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="213"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="216"/>
-      <c r="B27" s="215"/>
-      <c r="C27" s="215"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="213"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="216"/>
-      <c r="B28" s="215"/>
-      <c r="C28" s="215"/>
-      <c r="D28" s="215"/>
-      <c r="E28" s="215"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="213"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="216"/>
-      <c r="B29" s="215"/>
-      <c r="C29" s="215"/>
-      <c r="D29" s="215"/>
-      <c r="E29" s="215"/>
-      <c r="F29" s="214"/>
-      <c r="G29" s="213"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="216"/>
-      <c r="B30" s="215"/>
-      <c r="C30" s="215"/>
-      <c r="D30" s="215"/>
-      <c r="E30" s="215"/>
-      <c r="F30" s="214"/>
-      <c r="G30" s="213"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="216"/>
-      <c r="B31" s="215"/>
-      <c r="C31" s="215"/>
-      <c r="D31" s="215"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="213"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="216"/>
-      <c r="B32" s="215"/>
-      <c r="C32" s="215"/>
-      <c r="D32" s="215"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="213"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="216"/>
-      <c r="B33" s="215"/>
-      <c r="C33" s="215"/>
-      <c r="D33" s="215"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="213"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="216"/>
-      <c r="B34" s="215"/>
-      <c r="C34" s="215"/>
-      <c r="D34" s="215"/>
-      <c r="E34" s="215"/>
-      <c r="F34" s="214"/>
-      <c r="G34" s="213"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="216"/>
-      <c r="B35" s="215"/>
-      <c r="C35" s="215"/>
-      <c r="D35" s="215"/>
-      <c r="E35" s="215"/>
-      <c r="F35" s="214"/>
-      <c r="G35" s="213"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A36" s="201"/>
-      <c r="B36" s="200"/>
-      <c r="C36" s="200"/>
-      <c r="D36" s="200"/>
-      <c r="E36" s="200"/>
-      <c r="F36" s="212"/>
-      <c r="G36" s="198"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1"/>
-      <c r="B37" s="191"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="191"/>
-      <c r="E37" s="191"/>
-      <c r="F37" s="191"/>
-      <c r="G37" s="191"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A38" s="192" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="191"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="191"/>
-      <c r="G38" s="191"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A39" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="196" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="195" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="211"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="196" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="193" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="210"/>
-      <c r="B40" s="209"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="209"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="208"/>
-      <c r="G40" s="207"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="205"/>
-      <c r="B41" s="204"/>
-      <c r="C41" s="204"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="206"/>
-      <c r="G41" s="202"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="205"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="203"/>
-      <c r="G42" s="202"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="205"/>
-      <c r="B43" s="204"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="204"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="202"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A44" s="201"/>
-      <c r="B44" s="200"/>
-      <c r="C44" s="200"/>
-      <c r="D44" s="200"/>
-      <c r="E44" s="200"/>
-      <c r="F44" s="199"/>
-      <c r="G44" s="198"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1"/>
-      <c r="B45" s="191"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A46" s="192" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="191"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="191"/>
-      <c r="E46" s="191"/>
-      <c r="F46" s="191"/>
-      <c r="G46" s="191"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A47" s="197" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="196" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="195" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="194"/>
-      <c r="E47" s="330" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="331"/>
-      <c r="G47" s="193" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="185"/>
-      <c r="B48" s="184"/>
-      <c r="C48" s="183"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="322"/>
-      <c r="F48" s="323"/>
-      <c r="G48" s="181"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="180"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="178"/>
-      <c r="D49" s="177"/>
-      <c r="E49" s="324"/>
-      <c r="F49" s="325"/>
-      <c r="G49" s="176"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="180"/>
-      <c r="B50" s="179"/>
-      <c r="C50" s="178"/>
-      <c r="D50" s="177"/>
-      <c r="E50" s="324"/>
-      <c r="F50" s="325"/>
-      <c r="G50" s="176"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="180"/>
-      <c r="B51" s="179"/>
-      <c r="C51" s="178"/>
-      <c r="D51" s="177"/>
-      <c r="E51" s="324"/>
-      <c r="F51" s="325"/>
-      <c r="G51" s="176"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A52" s="175"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="320"/>
-      <c r="D52" s="321"/>
-      <c r="E52" s="320"/>
-      <c r="F52" s="321"/>
-      <c r="G52" s="173"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1"/>
-      <c r="B53" s="191"/>
-      <c r="C53" s="191"/>
-      <c r="D53" s="191"/>
-      <c r="E53" s="191"/>
-      <c r="F53" s="191"/>
-      <c r="G53" s="191"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A54" s="192" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="191"/>
-      <c r="C54" s="191"/>
-      <c r="D54" s="191"/>
-      <c r="E54" s="191"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="191"/>
-    </row>
-    <row r="55" spans="1:7" s="25" customFormat="1" ht="13.8" thickBot="1">
-      <c r="A55" s="190" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="189" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="188" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="187"/>
-      <c r="E55" s="326" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="327"/>
-      <c r="G55" s="186" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="185"/>
-      <c r="B56" s="184"/>
-      <c r="C56" s="183"/>
-      <c r="D56" s="182"/>
-      <c r="E56" s="322"/>
-      <c r="F56" s="323"/>
-      <c r="G56" s="181"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="180"/>
-      <c r="B57" s="179"/>
-      <c r="C57" s="178"/>
-      <c r="D57" s="177"/>
-      <c r="E57" s="324"/>
-      <c r="F57" s="325"/>
-      <c r="G57" s="176"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="180"/>
-      <c r="B58" s="179"/>
-      <c r="C58" s="178"/>
-      <c r="D58" s="177"/>
-      <c r="E58" s="324"/>
-      <c r="F58" s="325"/>
-      <c r="G58" s="176"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="180"/>
-      <c r="B59" s="179"/>
-      <c r="C59" s="178"/>
-      <c r="D59" s="177"/>
-      <c r="E59" s="324"/>
-      <c r="F59" s="325"/>
-      <c r="G59" s="176"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A60" s="175"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="320"/>
-      <c r="D60" s="321"/>
-      <c r="E60" s="320"/>
-      <c r="F60" s="321"/>
-      <c r="G60" s="173"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037AD983-EBBB-4DC1-8FD7-00B741A8CEA7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="147" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="149"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="172" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="172"/>
-      <c r="C2" s="168" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="169"/>
-      <c r="E2" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="169" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="108" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="172" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="172"/>
-      <c r="C3" s="168" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="169"/>
-      <c r="E3" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="169"/>
-      <c r="G3" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="109"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="172" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="168" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="109" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="26" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="51"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="172" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="291"/>
-      <c r="D6" s="292"/>
-      <c r="E6" s="292"/>
-      <c r="F6" s="292"/>
-      <c r="G6" s="292"/>
-      <c r="H6" s="293"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="172" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="293"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="172" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="291" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="293"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="301" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="304"/>
-      <c r="E10" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="76">
-        <v>1</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>219</v>
-      </c>
-      <c r="C11" s="305" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="306"/>
-      <c r="E11" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="81">
-        <v>2</v>
-      </c>
-      <c r="B12" s="170" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="294" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="295"/>
-      <c r="E12" s="78" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="83" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="81">
-        <v>3</v>
-      </c>
-      <c r="B13" s="170" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="294" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="295"/>
-      <c r="E13" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="F13" s="78" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="86"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="294"/>
-      <c r="D14" s="295"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="90"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="294"/>
-      <c r="D15" s="295"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="90"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="86"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="294"/>
-      <c r="D16" s="295"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="90"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="86"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="294"/>
-      <c r="D17" s="295"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="86"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="294"/>
-      <c r="D18" s="295"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="90"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="86"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="294"/>
-      <c r="D19" s="295"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="90"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="86"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="294"/>
-      <c r="D20" s="295"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="86"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="294"/>
-      <c r="D21" s="295"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="90"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="86"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="294"/>
-      <c r="D22" s="295"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="90"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="86"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="294"/>
-      <c r="D23" s="295"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="90"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="86"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="294"/>
-      <c r="D24" s="295"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="86"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="294"/>
-      <c r="D25" s="295"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="90"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="86"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="294"/>
-      <c r="D26" s="295"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="86"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="294"/>
-      <c r="D27" s="295"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="90"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="86"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="294"/>
-      <c r="D28" s="295"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="90"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="86"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="294"/>
-      <c r="D29" s="295"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="91"/>
-      <c r="B30" s="171"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="281"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="95"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="284" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="286"/>
-      <c r="D33" s="164" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="166"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="69" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="76"/>
-      <c r="B34" s="287"/>
-      <c r="C34" s="288"/>
-      <c r="D34" s="273"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="275"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="80"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="81"/>
-      <c r="B35" s="289"/>
-      <c r="C35" s="290"/>
-      <c r="D35" s="276"/>
-      <c r="E35" s="277"/>
-      <c r="F35" s="278"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="85"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="81"/>
-      <c r="B36" s="289"/>
-      <c r="C36" s="290"/>
-      <c r="D36" s="276"/>
-      <c r="E36" s="277"/>
-      <c r="F36" s="278"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="85"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A37" s="81"/>
-      <c r="B37" s="289"/>
-      <c r="C37" s="290"/>
-      <c r="D37" s="276"/>
-      <c r="E37" s="277"/>
-      <c r="F37" s="278"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="85"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="91"/>
-      <c r="B38" s="282"/>
-      <c r="C38" s="283"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="281"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="95"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="61"/>
-      <c r="B39" s="61"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="284" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="285"/>
-      <c r="E41" s="286"/>
-      <c r="F41" s="284" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="303"/>
-      <c r="H41" s="69" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="96"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="273"/>
-      <c r="D42" s="274"/>
-      <c r="E42" s="275"/>
-      <c r="F42" s="273"/>
-      <c r="G42" s="275"/>
-      <c r="H42" s="98"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="99"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="276"/>
-      <c r="D43" s="277"/>
-      <c r="E43" s="278"/>
-      <c r="F43" s="276"/>
-      <c r="G43" s="278"/>
-      <c r="H43" s="101"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="99"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="276"/>
-      <c r="D44" s="277"/>
-      <c r="E44" s="278"/>
-      <c r="F44" s="276"/>
-      <c r="G44" s="278"/>
-      <c r="H44" s="101"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="99"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="276"/>
-      <c r="D45" s="277"/>
-      <c r="E45" s="278"/>
-      <c r="F45" s="276"/>
-      <c r="G45" s="278"/>
-      <c r="H45" s="101"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="102"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="280"/>
-      <c r="E46" s="281"/>
-      <c r="F46" s="296"/>
-      <c r="G46" s="297"/>
-      <c r="H46" s="104"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="61"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="57"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-    </row>
-    <row r="49" spans="1:8" s="25" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="68" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="284" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="285"/>
-      <c r="E49" s="286"/>
-      <c r="F49" s="301" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="302"/>
-      <c r="H49" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="113">
-        <v>1</v>
-      </c>
-      <c r="B50" s="114"/>
-      <c r="C50" s="298"/>
-      <c r="D50" s="300"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="298"/>
-      <c r="G50" s="299"/>
-      <c r="H50" s="115"/>
-    </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="99"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="276"/>
-      <c r="D51" s="277"/>
-      <c r="E51" s="278"/>
-      <c r="F51" s="276"/>
-      <c r="G51" s="278"/>
-      <c r="H51" s="101"/>
-    </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="99"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="276"/>
-      <c r="D52" s="277"/>
-      <c r="E52" s="278"/>
-      <c r="F52" s="276"/>
-      <c r="G52" s="278"/>
-      <c r="H52" s="101"/>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A53" s="99"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="276"/>
-      <c r="D53" s="277"/>
-      <c r="E53" s="278"/>
-      <c r="F53" s="276"/>
-      <c r="G53" s="278"/>
-      <c r="H53" s="101"/>
-    </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="102"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="279"/>
-      <c r="D54" s="280"/>
-      <c r="E54" s="281"/>
-      <c r="F54" s="296"/>
-      <c r="G54" s="297"/>
-      <c r="H54" s="104"/>
-    </row>
-  </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
@@ -13731,38 +13723,38 @@
         <v>49</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="291"/>
-      <c r="D6" s="292"/>
-      <c r="E6" s="292"/>
-      <c r="F6" s="292"/>
-      <c r="G6" s="292"/>
-      <c r="H6" s="293"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="302"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="303"/>
     </row>
     <row r="7" spans="1:15" ht="20.25" customHeight="1">
       <c r="A7" s="158" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="56"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="292"/>
-      <c r="E7" s="292"/>
-      <c r="F7" s="292"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="293"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="303"/>
     </row>
     <row r="8" spans="1:15" ht="20.25" customHeight="1">
       <c r="A8" s="158" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="56"/>
-      <c r="C8" s="291" t="s">
+      <c r="C8" s="301" t="s">
         <v>161</v>
       </c>
-      <c r="D8" s="292"/>
-      <c r="E8" s="292"/>
-      <c r="F8" s="292"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="293"/>
+      <c r="D8" s="302"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="303"/>
     </row>
     <row r="9" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="57" t="s">
@@ -13783,10 +13775,10 @@
       <c r="B10" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="301" t="s">
+      <c r="C10" s="279" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="304"/>
+      <c r="D10" s="280"/>
       <c r="E10" s="59" t="s">
         <v>1</v>
       </c>
@@ -13807,10 +13799,10 @@
       <c r="B11" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="305" t="s">
+      <c r="C11" s="281" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="306"/>
+      <c r="D11" s="282"/>
       <c r="E11" s="78" t="s">
         <v>159</v>
       </c>
@@ -13829,10 +13821,10 @@
       <c r="B12" s="82" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="294" t="s">
+      <c r="C12" s="277" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="295"/>
+      <c r="D12" s="278"/>
       <c r="E12" s="83" t="s">
         <v>144</v>
       </c>
@@ -13849,10 +13841,10 @@
       <c r="B13" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="294" t="s">
+      <c r="C13" s="277" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="295"/>
+      <c r="D13" s="278"/>
       <c r="E13" s="83" t="s">
         <v>174</v>
       </c>
@@ -13870,10 +13862,10 @@
       <c r="B14" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="C14" s="294" t="s">
+      <c r="C14" s="277" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="295"/>
+      <c r="D14" s="278"/>
       <c r="E14" s="88" t="s">
         <v>175</v>
       </c>
@@ -13893,11 +13885,11 @@
       <c r="C15" t="s">
         <v>216</v>
       </c>
-      <c r="D15" s="352"/>
-      <c r="E15" s="353" t="s">
+      <c r="D15" s="239"/>
+      <c r="E15" s="240" t="s">
         <v>217</v>
       </c>
-      <c r="F15" s="353" t="s">
+      <c r="F15" s="240" t="s">
         <v>218</v>
       </c>
       <c r="G15" s="89"/>
@@ -13906,8 +13898,8 @@
     <row r="16" spans="1:15" ht="20.25" customHeight="1">
       <c r="A16" s="86"/>
       <c r="B16" s="87"/>
-      <c r="C16" s="294"/>
-      <c r="D16" s="295"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="278"/>
       <c r="E16" s="88"/>
       <c r="F16" s="88"/>
       <c r="G16" s="89"/>
@@ -13916,8 +13908,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="86"/>
       <c r="B17" s="87"/>
-      <c r="C17" s="294"/>
-      <c r="D17" s="295"/>
+      <c r="C17" s="277"/>
+      <c r="D17" s="278"/>
       <c r="E17" s="88"/>
       <c r="F17" s="88"/>
       <c r="G17" s="89"/>
@@ -13926,8 +13918,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="86"/>
       <c r="B18" s="87"/>
-      <c r="C18" s="294"/>
-      <c r="D18" s="295"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="278"/>
       <c r="E18" s="88"/>
       <c r="F18" s="88"/>
       <c r="G18" s="89"/>
@@ -13936,8 +13928,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="86"/>
       <c r="B19" s="87"/>
-      <c r="C19" s="294"/>
-      <c r="D19" s="295"/>
+      <c r="C19" s="277"/>
+      <c r="D19" s="278"/>
       <c r="E19" s="88"/>
       <c r="F19" s="88"/>
       <c r="G19" s="89"/>
@@ -13946,8 +13938,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="86"/>
       <c r="B20" s="87"/>
-      <c r="C20" s="294"/>
-      <c r="D20" s="295"/>
+      <c r="C20" s="277"/>
+      <c r="D20" s="278"/>
       <c r="E20" s="88"/>
       <c r="F20" s="88"/>
       <c r="G20" s="89"/>
@@ -13956,8 +13948,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="86"/>
       <c r="B21" s="87"/>
-      <c r="C21" s="294"/>
-      <c r="D21" s="295"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="278"/>
       <c r="E21" s="88"/>
       <c r="F21" s="88"/>
       <c r="G21" s="89"/>
@@ -13966,8 +13958,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="86"/>
       <c r="B22" s="87"/>
-      <c r="C22" s="294"/>
-      <c r="D22" s="295"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="278"/>
       <c r="E22" s="88"/>
       <c r="F22" s="88"/>
       <c r="G22" s="89"/>
@@ -13976,8 +13968,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="86"/>
       <c r="B23" s="87"/>
-      <c r="C23" s="294"/>
-      <c r="D23" s="295"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="278"/>
       <c r="E23" s="88"/>
       <c r="F23" s="88"/>
       <c r="G23" s="89"/>
@@ -13986,8 +13978,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="86"/>
       <c r="B24" s="87"/>
-      <c r="C24" s="294"/>
-      <c r="D24" s="295"/>
+      <c r="C24" s="277"/>
+      <c r="D24" s="278"/>
       <c r="E24" s="88"/>
       <c r="F24" s="88"/>
       <c r="G24" s="89"/>
@@ -13996,8 +13988,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="86"/>
       <c r="B25" s="87"/>
-      <c r="C25" s="294"/>
-      <c r="D25" s="295"/>
+      <c r="C25" s="277"/>
+      <c r="D25" s="278"/>
       <c r="E25" s="88"/>
       <c r="F25" s="88"/>
       <c r="G25" s="89"/>
@@ -14006,8 +13998,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="86"/>
       <c r="B26" s="87"/>
-      <c r="C26" s="294"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="277"/>
+      <c r="D26" s="278"/>
       <c r="E26" s="88"/>
       <c r="F26" s="88"/>
       <c r="G26" s="89"/>
@@ -14016,8 +14008,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="86"/>
       <c r="B27" s="87"/>
-      <c r="C27" s="294"/>
-      <c r="D27" s="295"/>
+      <c r="C27" s="277"/>
+      <c r="D27" s="278"/>
       <c r="E27" s="88"/>
       <c r="F27" s="88"/>
       <c r="G27" s="89"/>
@@ -14026,8 +14018,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="86"/>
       <c r="B28" s="87"/>
-      <c r="C28" s="294"/>
-      <c r="D28" s="295"/>
+      <c r="C28" s="277"/>
+      <c r="D28" s="278"/>
       <c r="E28" s="88"/>
       <c r="F28" s="88"/>
       <c r="G28" s="89"/>
@@ -14036,8 +14028,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="86"/>
       <c r="B29" s="87"/>
-      <c r="C29" s="294"/>
-      <c r="D29" s="295"/>
+      <c r="C29" s="277"/>
+      <c r="D29" s="278"/>
       <c r="E29" s="88"/>
       <c r="F29" s="88"/>
       <c r="G29" s="89"/>
@@ -14046,8 +14038,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="91"/>
       <c r="B30" s="92"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="281"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="296"/>
       <c r="E30" s="93"/>
       <c r="F30" s="93"/>
       <c r="G30" s="94"/>
@@ -14082,7 +14074,7 @@
       <c r="B33" s="284" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="286"/>
+      <c r="C33" s="298"/>
       <c r="D33" s="71" t="s">
         <v>9</v>
       </c>
@@ -14097,51 +14089,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="76"/>
-      <c r="B34" s="287"/>
-      <c r="C34" s="288"/>
-      <c r="D34" s="273"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="275"/>
+      <c r="B34" s="304"/>
+      <c r="C34" s="305"/>
+      <c r="D34" s="286"/>
+      <c r="E34" s="310"/>
+      <c r="F34" s="287"/>
       <c r="G34" s="79"/>
       <c r="H34" s="80"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="81"/>
-      <c r="B35" s="289"/>
-      <c r="C35" s="290"/>
-      <c r="D35" s="276"/>
-      <c r="E35" s="277"/>
-      <c r="F35" s="278"/>
+      <c r="B35" s="306"/>
+      <c r="C35" s="307"/>
+      <c r="D35" s="288"/>
+      <c r="E35" s="300"/>
+      <c r="F35" s="289"/>
       <c r="G35" s="84"/>
       <c r="H35" s="85"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="81"/>
-      <c r="B36" s="289"/>
-      <c r="C36" s="290"/>
-      <c r="D36" s="276"/>
-      <c r="E36" s="277"/>
-      <c r="F36" s="278"/>
+      <c r="B36" s="306"/>
+      <c r="C36" s="307"/>
+      <c r="D36" s="288"/>
+      <c r="E36" s="300"/>
+      <c r="F36" s="289"/>
       <c r="G36" s="84"/>
       <c r="H36" s="85"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="81"/>
-      <c r="B37" s="289"/>
-      <c r="C37" s="290"/>
-      <c r="D37" s="276"/>
-      <c r="E37" s="277"/>
-      <c r="F37" s="278"/>
+      <c r="B37" s="306"/>
+      <c r="C37" s="307"/>
+      <c r="D37" s="288"/>
+      <c r="E37" s="300"/>
+      <c r="F37" s="289"/>
       <c r="G37" s="84"/>
       <c r="H37" s="85"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="91"/>
-      <c r="B38" s="282"/>
-      <c r="C38" s="283"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="281"/>
+      <c r="B38" s="308"/>
+      <c r="C38" s="309"/>
+      <c r="D38" s="294"/>
+      <c r="E38" s="295"/>
+      <c r="F38" s="296"/>
       <c r="G38" s="94"/>
       <c r="H38" s="95"/>
     </row>
@@ -14177,12 +14169,12 @@
       <c r="C41" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="285"/>
-      <c r="E41" s="286"/>
+      <c r="D41" s="297"/>
+      <c r="E41" s="298"/>
       <c r="F41" s="284" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="303"/>
+      <c r="G41" s="285"/>
       <c r="H41" s="69" t="s">
         <v>14</v>
       </c>
@@ -14190,51 +14182,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="96"/>
       <c r="B42" s="97"/>
-      <c r="C42" s="273"/>
-      <c r="D42" s="274"/>
-      <c r="E42" s="275"/>
-      <c r="F42" s="273"/>
-      <c r="G42" s="275"/>
+      <c r="C42" s="286"/>
+      <c r="D42" s="310"/>
+      <c r="E42" s="287"/>
+      <c r="F42" s="286"/>
+      <c r="G42" s="287"/>
       <c r="H42" s="98"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="99"/>
       <c r="B43" s="100"/>
-      <c r="C43" s="276"/>
-      <c r="D43" s="277"/>
-      <c r="E43" s="278"/>
-      <c r="F43" s="276"/>
-      <c r="G43" s="278"/>
+      <c r="C43" s="288"/>
+      <c r="D43" s="300"/>
+      <c r="E43" s="289"/>
+      <c r="F43" s="288"/>
+      <c r="G43" s="289"/>
       <c r="H43" s="101"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="99"/>
       <c r="B44" s="100"/>
-      <c r="C44" s="276"/>
-      <c r="D44" s="277"/>
-      <c r="E44" s="278"/>
-      <c r="F44" s="276"/>
-      <c r="G44" s="278"/>
+      <c r="C44" s="288"/>
+      <c r="D44" s="300"/>
+      <c r="E44" s="289"/>
+      <c r="F44" s="288"/>
+      <c r="G44" s="289"/>
       <c r="H44" s="101"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="99"/>
       <c r="B45" s="100"/>
-      <c r="C45" s="276"/>
-      <c r="D45" s="277"/>
-      <c r="E45" s="278"/>
-      <c r="F45" s="276"/>
-      <c r="G45" s="278"/>
+      <c r="C45" s="288"/>
+      <c r="D45" s="300"/>
+      <c r="E45" s="289"/>
+      <c r="F45" s="288"/>
+      <c r="G45" s="289"/>
       <c r="H45" s="101"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="102"/>
       <c r="B46" s="103"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="280"/>
-      <c r="E46" s="281"/>
-      <c r="F46" s="296"/>
-      <c r="G46" s="297"/>
+      <c r="C46" s="294"/>
+      <c r="D46" s="295"/>
+      <c r="E46" s="296"/>
+      <c r="F46" s="290"/>
+      <c r="G46" s="291"/>
       <c r="H46" s="104"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -14269,12 +14261,12 @@
       <c r="C49" s="284" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="285"/>
-      <c r="E49" s="286"/>
-      <c r="F49" s="301" t="s">
+      <c r="D49" s="297"/>
+      <c r="E49" s="298"/>
+      <c r="F49" s="279" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="302"/>
+      <c r="G49" s="283"/>
       <c r="H49" s="60" t="s">
         <v>17</v>
       </c>
@@ -14284,83 +14276,72 @@
         <v>1</v>
       </c>
       <c r="B50" s="114"/>
-      <c r="C50" s="298"/>
-      <c r="D50" s="300"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="298"/>
-      <c r="G50" s="299"/>
+      <c r="C50" s="292"/>
+      <c r="D50" s="299"/>
+      <c r="E50" s="293"/>
+      <c r="F50" s="292"/>
+      <c r="G50" s="293"/>
       <c r="H50" s="115"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="99"/>
       <c r="B51" s="100"/>
-      <c r="C51" s="276"/>
-      <c r="D51" s="277"/>
-      <c r="E51" s="278"/>
-      <c r="F51" s="276"/>
-      <c r="G51" s="278"/>
+      <c r="C51" s="288"/>
+      <c r="D51" s="300"/>
+      <c r="E51" s="289"/>
+      <c r="F51" s="288"/>
+      <c r="G51" s="289"/>
       <c r="H51" s="101"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="99"/>
       <c r="B52" s="100"/>
-      <c r="C52" s="276"/>
-      <c r="D52" s="277"/>
-      <c r="E52" s="278"/>
-      <c r="F52" s="276"/>
-      <c r="G52" s="278"/>
+      <c r="C52" s="288"/>
+      <c r="D52" s="300"/>
+      <c r="E52" s="289"/>
+      <c r="F52" s="288"/>
+      <c r="G52" s="289"/>
       <c r="H52" s="101"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="99"/>
       <c r="B53" s="100"/>
-      <c r="C53" s="276"/>
-      <c r="D53" s="277"/>
-      <c r="E53" s="278"/>
-      <c r="F53" s="276"/>
-      <c r="G53" s="278"/>
+      <c r="C53" s="288"/>
+      <c r="D53" s="300"/>
+      <c r="E53" s="289"/>
+      <c r="F53" s="288"/>
+      <c r="G53" s="289"/>
       <c r="H53" s="101"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="102"/>
       <c r="B54" s="103"/>
-      <c r="C54" s="279"/>
-      <c r="D54" s="280"/>
-      <c r="E54" s="281"/>
-      <c r="F54" s="296"/>
-      <c r="G54" s="297"/>
+      <c r="C54" s="294"/>
+      <c r="D54" s="295"/>
+      <c r="E54" s="296"/>
+      <c r="F54" s="290"/>
+      <c r="G54" s="291"/>
       <c r="H54" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -14374,23 +14355,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/データベース設計書.xlsx
+++ b/データベース設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Web-\Web-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4520D3F-B909-453C-8C70-A5762BECC0CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4958C715-2AC0-45A3-8487-947001BCFF46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">予約明細!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="226">
   <si>
     <t>No</t>
   </si>
@@ -1371,6 +1371,23 @@
   </si>
   <si>
     <t>end_time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>料金</t>
+    <rPh sb="0" eb="2">
+      <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>座席指定</t>
+    <rPh sb="0" eb="2">
+      <t>ザセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3061,13 +3078,97 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3088,86 +3189,68 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3175,9 +3258,30 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3187,88 +3291,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3295,12 +3321,6 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3310,6 +3330,18 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3351,21 +3383,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -3435,8 +3452,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="798714" y="14545195"/>
-          <a:ext cx="1527464" cy="2000596"/>
+          <a:off x="795250" y="14427431"/>
+          <a:ext cx="1521230" cy="1981200"/>
           <a:chOff x="373380" y="6720840"/>
           <a:chExt cx="1524000" cy="1981200"/>
         </a:xfrm>
@@ -3750,14 +3767,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3772,10 +3789,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="742604" y="6590607"/>
-          <a:ext cx="1530234" cy="2301933"/>
+          <a:off x="739140" y="6332221"/>
+          <a:ext cx="1524000" cy="2270760"/>
           <a:chOff x="2987040" y="6667500"/>
-          <a:chExt cx="1524000" cy="2118360"/>
+          <a:chExt cx="1524000" cy="2111275"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -3971,7 +3988,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="3040380" y="7132320"/>
-            <a:ext cx="1432560" cy="1653540"/>
+            <a:ext cx="1432560" cy="1646455"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4091,7 +4108,6 @@
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
               <a:t>ID</a:t>
             </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -4124,8 +4140,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="700347" y="9092738"/>
-          <a:ext cx="1527464" cy="2000596"/>
+          <a:off x="696883" y="9030393"/>
+          <a:ext cx="1521230" cy="1979814"/>
           <a:chOff x="5379720" y="6637020"/>
           <a:chExt cx="1524000" cy="1981200"/>
         </a:xfrm>
@@ -4441,8 +4457,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="763385" y="11814463"/>
-          <a:ext cx="1530234" cy="2047702"/>
+          <a:off x="759921" y="11724408"/>
+          <a:ext cx="1524000" cy="2026921"/>
           <a:chOff x="441960" y="9540240"/>
           <a:chExt cx="1524000" cy="2026920"/>
         </a:xfrm>
@@ -4755,8 +4771,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4116878" y="11863648"/>
-          <a:ext cx="1524693" cy="2000596"/>
+          <a:off x="4106487" y="11773593"/>
+          <a:ext cx="1524693" cy="1979815"/>
           <a:chOff x="3009900" y="9547860"/>
           <a:chExt cx="1524000" cy="1981200"/>
         </a:xfrm>
@@ -5050,8 +5066,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5435831" y="6429202"/>
-          <a:ext cx="1527464" cy="2001982"/>
+          <a:off x="5425440" y="6393180"/>
+          <a:ext cx="1524000" cy="1981200"/>
           <a:chOff x="5463540" y="9471660"/>
           <a:chExt cx="1524000" cy="1981200"/>
         </a:xfrm>
@@ -5340,8 +5356,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1454727" y="8756073"/>
-          <a:ext cx="9352" cy="336665"/>
+          <a:off x="1451263" y="8696498"/>
+          <a:ext cx="9352" cy="333895"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5426,13 +5442,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1166836</xdr:colOff>
+      <xdr:colOff>1163781</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>35329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1216082</xdr:colOff>
+      <xdr:colOff>1212965</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>25631</xdr:rowOff>
     </xdr:to>
@@ -5446,14 +5462,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="52" idx="2"/>
-          <a:endCxn id="4" idx="0"/>
+          <a:stCxn id="4" idx="0"/>
+          <a:endCxn id="52" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1513200" y="13862165"/>
-          <a:ext cx="49246" cy="683030"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1506681" y="13751329"/>
+          <a:ext cx="49184" cy="676102"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5539,14 +5555,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>128170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1844040</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>74830</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5563,9 +5579,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2263140" y="7585710"/>
-          <a:ext cx="3200400" cy="32920"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2263140" y="7397650"/>
+          <a:ext cx="3200400" cy="188060"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5617,8 +5633,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3699164" y="9047019"/>
-          <a:ext cx="1527464" cy="2001982"/>
+          <a:off x="3688773" y="8984674"/>
+          <a:ext cx="1527464" cy="1982585"/>
           <a:chOff x="5463540" y="9471660"/>
           <a:chExt cx="1524000" cy="1981200"/>
         </a:xfrm>
@@ -6697,21 +6713,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="226" t="s">
+      <c r="U3" s="243" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="228"/>
-      <c r="W3" s="252" t="s">
+      <c r="V3" s="244"/>
+      <c r="W3" s="245" t="s">
         <v>93</v>
       </c>
-      <c r="X3" s="227"/>
-      <c r="Y3" s="227"/>
-      <c r="Z3" s="227"/>
-      <c r="AA3" s="227"/>
-      <c r="AB3" s="227"/>
-      <c r="AC3" s="227"/>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="228"/>
+      <c r="X3" s="246"/>
+      <c r="Y3" s="246"/>
+      <c r="Z3" s="246"/>
+      <c r="AA3" s="246"/>
+      <c r="AB3" s="246"/>
+      <c r="AC3" s="246"/>
+      <c r="AD3" s="246"/>
+      <c r="AE3" s="244"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -6824,20 +6840,20 @@
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
       <c r="E7" s="41"/>
-      <c r="F7" s="237" t="s">
+      <c r="F7" s="228" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="238"/>
-      <c r="M7" s="238"/>
-      <c r="N7" s="238"/>
-      <c r="O7" s="238"/>
-      <c r="P7" s="238"/>
-      <c r="Q7" s="239"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="229"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="229"/>
+      <c r="K7" s="229"/>
+      <c r="L7" s="229"/>
+      <c r="M7" s="229"/>
+      <c r="N7" s="229"/>
+      <c r="O7" s="229"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="230"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -6855,82 +6871,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="240" t="s">
+      <c r="B8" s="231" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="241"/>
-      <c r="D8" s="241"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="246" t="s">
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="237" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="247"/>
-      <c r="H8" s="247"/>
-      <c r="I8" s="247"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="247"/>
-      <c r="L8" s="247"/>
-      <c r="M8" s="247"/>
-      <c r="N8" s="247"/>
-      <c r="O8" s="247"/>
-      <c r="P8" s="247"/>
-      <c r="Q8" s="248"/>
+      <c r="G8" s="238"/>
+      <c r="H8" s="238"/>
+      <c r="I8" s="238"/>
+      <c r="J8" s="238"/>
+      <c r="K8" s="238"/>
+      <c r="L8" s="238"/>
+      <c r="M8" s="238"/>
+      <c r="N8" s="238"/>
+      <c r="O8" s="238"/>
+      <c r="P8" s="238"/>
+      <c r="Q8" s="239"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="236" t="s">
+      <c r="W8" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="236"/>
-      <c r="Y8" s="236"/>
-      <c r="Z8" s="236" t="s">
+      <c r="X8" s="227"/>
+      <c r="Y8" s="227"/>
+      <c r="Z8" s="227" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="236"/>
-      <c r="AB8" s="236"/>
-      <c r="AC8" s="236" t="s">
+      <c r="AA8" s="227"/>
+      <c r="AB8" s="227"/>
+      <c r="AC8" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="236"/>
-      <c r="AE8" s="236"/>
+      <c r="AD8" s="227"/>
+      <c r="AE8" s="227"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="243"/>
-      <c r="C9" s="244"/>
-      <c r="D9" s="244"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="250"/>
-      <c r="H9" s="250"/>
-      <c r="I9" s="250"/>
-      <c r="J9" s="250"/>
-      <c r="K9" s="250"/>
-      <c r="L9" s="250"/>
-      <c r="M9" s="250"/>
-      <c r="N9" s="250"/>
-      <c r="O9" s="250"/>
-      <c r="P9" s="250"/>
-      <c r="Q9" s="251"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="236"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="241"/>
+      <c r="K9" s="241"/>
+      <c r="L9" s="241"/>
+      <c r="M9" s="241"/>
+      <c r="N9" s="241"/>
+      <c r="O9" s="241"/>
+      <c r="P9" s="241"/>
+      <c r="Q9" s="242"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="253"/>
-      <c r="X9" s="254"/>
-      <c r="Y9" s="255"/>
-      <c r="Z9" s="253"/>
-      <c r="AA9" s="254"/>
-      <c r="AB9" s="255"/>
-      <c r="AC9" s="253" t="s">
+      <c r="W9" s="247"/>
+      <c r="X9" s="248"/>
+      <c r="Y9" s="249"/>
+      <c r="Z9" s="247"/>
+      <c r="AA9" s="248"/>
+      <c r="AB9" s="249"/>
+      <c r="AC9" s="247" t="s">
         <v>87</v>
       </c>
-      <c r="AD9" s="254"/>
-      <c r="AE9" s="255"/>
+      <c r="AD9" s="248"/>
+      <c r="AE9" s="249"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -6956,15 +6972,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="256"/>
-      <c r="X10" s="257"/>
-      <c r="Y10" s="258"/>
-      <c r="Z10" s="256"/>
-      <c r="AA10" s="257"/>
-      <c r="AB10" s="258"/>
-      <c r="AC10" s="256"/>
-      <c r="AD10" s="257"/>
-      <c r="AE10" s="258"/>
+      <c r="W10" s="250"/>
+      <c r="X10" s="251"/>
+      <c r="Y10" s="252"/>
+      <c r="Z10" s="250"/>
+      <c r="AA10" s="251"/>
+      <c r="AB10" s="252"/>
+      <c r="AC10" s="250"/>
+      <c r="AD10" s="251"/>
+      <c r="AE10" s="252"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -6990,15 +7006,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="256"/>
-      <c r="X11" s="257"/>
-      <c r="Y11" s="258"/>
-      <c r="Z11" s="256"/>
-      <c r="AA11" s="257"/>
-      <c r="AB11" s="258"/>
-      <c r="AC11" s="256"/>
-      <c r="AD11" s="257"/>
-      <c r="AE11" s="258"/>
+      <c r="W11" s="250"/>
+      <c r="X11" s="251"/>
+      <c r="Y11" s="252"/>
+      <c r="Z11" s="250"/>
+      <c r="AA11" s="251"/>
+      <c r="AB11" s="252"/>
+      <c r="AC11" s="250"/>
+      <c r="AD11" s="251"/>
+      <c r="AE11" s="252"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -7024,15 +7040,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="259"/>
-      <c r="X12" s="260"/>
-      <c r="Y12" s="261"/>
-      <c r="Z12" s="259"/>
-      <c r="AA12" s="260"/>
-      <c r="AB12" s="261"/>
-      <c r="AC12" s="259"/>
-      <c r="AD12" s="260"/>
-      <c r="AE12" s="261"/>
+      <c r="W12" s="253"/>
+      <c r="X12" s="254"/>
+      <c r="Y12" s="255"/>
+      <c r="Z12" s="253"/>
+      <c r="AA12" s="254"/>
+      <c r="AB12" s="255"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="254"/>
+      <c r="AE12" s="255"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -7131,106 +7147,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="235" t="s">
+      <c r="B16" s="256" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="235"/>
-      <c r="D16" s="235"/>
-      <c r="E16" s="235"/>
-      <c r="F16" s="235"/>
-      <c r="G16" s="235"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="235"/>
-      <c r="J16" s="235"/>
-      <c r="K16" s="235"/>
-      <c r="L16" s="235"/>
-      <c r="M16" s="235"/>
-      <c r="N16" s="235"/>
-      <c r="O16" s="235"/>
-      <c r="P16" s="235"/>
-      <c r="Q16" s="235"/>
-      <c r="R16" s="235"/>
-      <c r="S16" s="235"/>
-      <c r="T16" s="235"/>
-      <c r="U16" s="235"/>
-      <c r="V16" s="235"/>
-      <c r="W16" s="235"/>
-      <c r="X16" s="235"/>
-      <c r="Y16" s="235"/>
-      <c r="Z16" s="235"/>
-      <c r="AA16" s="235"/>
-      <c r="AB16" s="235"/>
-      <c r="AC16" s="235"/>
-      <c r="AD16" s="235"/>
-      <c r="AE16" s="235"/>
+      <c r="C16" s="256"/>
+      <c r="D16" s="256"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="256"/>
+      <c r="M16" s="256"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="256"/>
+      <c r="Q16" s="256"/>
+      <c r="R16" s="256"/>
+      <c r="S16" s="256"/>
+      <c r="T16" s="256"/>
+      <c r="U16" s="256"/>
+      <c r="V16" s="256"/>
+      <c r="W16" s="256"/>
+      <c r="X16" s="256"/>
+      <c r="Y16" s="256"/>
+      <c r="Z16" s="256"/>
+      <c r="AA16" s="256"/>
+      <c r="AB16" s="256"/>
+      <c r="AC16" s="256"/>
+      <c r="AD16" s="256"/>
+      <c r="AE16" s="256"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="235"/>
-      <c r="C17" s="235"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="235"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="235"/>
-      <c r="H17" s="235"/>
-      <c r="I17" s="235"/>
-      <c r="J17" s="235"/>
-      <c r="K17" s="235"/>
-      <c r="L17" s="235"/>
-      <c r="M17" s="235"/>
-      <c r="N17" s="235"/>
-      <c r="O17" s="235"/>
-      <c r="P17" s="235"/>
-      <c r="Q17" s="235"/>
-      <c r="R17" s="235"/>
-      <c r="S17" s="235"/>
-      <c r="T17" s="235"/>
-      <c r="U17" s="235"/>
-      <c r="V17" s="235"/>
-      <c r="W17" s="235"/>
-      <c r="X17" s="235"/>
-      <c r="Y17" s="235"/>
-      <c r="Z17" s="235"/>
-      <c r="AA17" s="235"/>
-      <c r="AB17" s="235"/>
-      <c r="AC17" s="235"/>
-      <c r="AD17" s="235"/>
-      <c r="AE17" s="235"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="256"/>
+      <c r="D17" s="256"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="256"/>
+      <c r="J17" s="256"/>
+      <c r="K17" s="256"/>
+      <c r="L17" s="256"/>
+      <c r="M17" s="256"/>
+      <c r="N17" s="256"/>
+      <c r="O17" s="256"/>
+      <c r="P17" s="256"/>
+      <c r="Q17" s="256"/>
+      <c r="R17" s="256"/>
+      <c r="S17" s="256"/>
+      <c r="T17" s="256"/>
+      <c r="U17" s="256"/>
+      <c r="V17" s="256"/>
+      <c r="W17" s="256"/>
+      <c r="X17" s="256"/>
+      <c r="Y17" s="256"/>
+      <c r="Z17" s="256"/>
+      <c r="AA17" s="256"/>
+      <c r="AB17" s="256"/>
+      <c r="AC17" s="256"/>
+      <c r="AD17" s="256"/>
+      <c r="AE17" s="256"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="235"/>
-      <c r="C18" s="235"/>
-      <c r="D18" s="235"/>
-      <c r="E18" s="235"/>
-      <c r="F18" s="235"/>
-      <c r="G18" s="235"/>
-      <c r="H18" s="235"/>
-      <c r="I18" s="235"/>
-      <c r="J18" s="235"/>
-      <c r="K18" s="235"/>
-      <c r="L18" s="235"/>
-      <c r="M18" s="235"/>
-      <c r="N18" s="235"/>
-      <c r="O18" s="235"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="235"/>
-      <c r="R18" s="235"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="235"/>
-      <c r="U18" s="235"/>
-      <c r="V18" s="235"/>
-      <c r="W18" s="235"/>
-      <c r="X18" s="235"/>
-      <c r="Y18" s="235"/>
-      <c r="Z18" s="235"/>
-      <c r="AA18" s="235"/>
-      <c r="AB18" s="235"/>
-      <c r="AC18" s="235"/>
-      <c r="AD18" s="235"/>
-      <c r="AE18" s="235"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="256"/>
+      <c r="D18" s="256"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="256"/>
+      <c r="G18" s="256"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="256"/>
+      <c r="K18" s="256"/>
+      <c r="L18" s="256"/>
+      <c r="M18" s="256"/>
+      <c r="N18" s="256"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="256"/>
+      <c r="Q18" s="256"/>
+      <c r="R18" s="256"/>
+      <c r="S18" s="256"/>
+      <c r="T18" s="256"/>
+      <c r="U18" s="256"/>
+      <c r="V18" s="256"/>
+      <c r="W18" s="256"/>
+      <c r="X18" s="256"/>
+      <c r="Y18" s="256"/>
+      <c r="Z18" s="256"/>
+      <c r="AA18" s="256"/>
+      <c r="AB18" s="256"/>
+      <c r="AC18" s="256"/>
+      <c r="AD18" s="256"/>
+      <c r="AE18" s="256"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -7373,392 +7389,392 @@
     </row>
     <row r="23" spans="1:32" s="45" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="42"/>
-      <c r="B23" s="226" t="s">
+      <c r="B23" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="227"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="226" t="s">
+      <c r="C23" s="246"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="243" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="227"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="228"/>
-      <c r="J23" s="226" t="s">
+      <c r="G23" s="246"/>
+      <c r="H23" s="246"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="243" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="227"/>
-      <c r="L23" s="227"/>
-      <c r="M23" s="227"/>
-      <c r="N23" s="227"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="227"/>
-      <c r="Q23" s="227"/>
-      <c r="R23" s="227"/>
-      <c r="S23" s="227"/>
-      <c r="T23" s="227"/>
-      <c r="U23" s="227"/>
-      <c r="V23" s="227"/>
-      <c r="W23" s="227"/>
-      <c r="X23" s="227"/>
-      <c r="Y23" s="227"/>
-      <c r="Z23" s="227"/>
-      <c r="AA23" s="227"/>
-      <c r="AB23" s="228"/>
-      <c r="AC23" s="226" t="s">
+      <c r="K23" s="246"/>
+      <c r="L23" s="246"/>
+      <c r="M23" s="246"/>
+      <c r="N23" s="246"/>
+      <c r="O23" s="246"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="246"/>
+      <c r="U23" s="246"/>
+      <c r="V23" s="246"/>
+      <c r="W23" s="246"/>
+      <c r="X23" s="246"/>
+      <c r="Y23" s="246"/>
+      <c r="Z23" s="246"/>
+      <c r="AA23" s="246"/>
+      <c r="AB23" s="244"/>
+      <c r="AC23" s="243" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="227"/>
-      <c r="AE23" s="228"/>
+      <c r="AD23" s="246"/>
+      <c r="AE23" s="244"/>
       <c r="AF23" s="42"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="226" t="s">
+      <c r="B24" s="243" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="227"/>
-      <c r="D24" s="227"/>
-      <c r="E24" s="228"/>
-      <c r="F24" s="229" t="s">
+      <c r="C24" s="246"/>
+      <c r="D24" s="246"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="257" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="230"/>
-      <c r="H24" s="230"/>
-      <c r="I24" s="231"/>
-      <c r="J24" s="232" t="s">
+      <c r="G24" s="258"/>
+      <c r="H24" s="258"/>
+      <c r="I24" s="259"/>
+      <c r="J24" s="260" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="233"/>
-      <c r="L24" s="233"/>
-      <c r="M24" s="233"/>
-      <c r="N24" s="233"/>
-      <c r="O24" s="233"/>
-      <c r="P24" s="233"/>
-      <c r="Q24" s="233"/>
-      <c r="R24" s="233"/>
-      <c r="S24" s="233"/>
-      <c r="T24" s="233"/>
-      <c r="U24" s="233"/>
-      <c r="V24" s="233"/>
-      <c r="W24" s="233"/>
-      <c r="X24" s="233"/>
-      <c r="Y24" s="233"/>
-      <c r="Z24" s="233"/>
-      <c r="AA24" s="233"/>
-      <c r="AB24" s="234"/>
-      <c r="AC24" s="226" t="s">
+      <c r="K24" s="261"/>
+      <c r="L24" s="261"/>
+      <c r="M24" s="261"/>
+      <c r="N24" s="261"/>
+      <c r="O24" s="261"/>
+      <c r="P24" s="261"/>
+      <c r="Q24" s="261"/>
+      <c r="R24" s="261"/>
+      <c r="S24" s="261"/>
+      <c r="T24" s="261"/>
+      <c r="U24" s="261"/>
+      <c r="V24" s="261"/>
+      <c r="W24" s="261"/>
+      <c r="X24" s="261"/>
+      <c r="Y24" s="261"/>
+      <c r="Z24" s="261"/>
+      <c r="AA24" s="261"/>
+      <c r="AB24" s="262"/>
+      <c r="AC24" s="243" t="s">
         <v>92</v>
       </c>
-      <c r="AD24" s="227"/>
-      <c r="AE24" s="228"/>
+      <c r="AD24" s="246"/>
+      <c r="AE24" s="244"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="226"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="227"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="229"/>
-      <c r="G25" s="230"/>
-      <c r="H25" s="230"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="232"/>
-      <c r="K25" s="233"/>
-      <c r="L25" s="233"/>
-      <c r="M25" s="233"/>
-      <c r="N25" s="233"/>
-      <c r="O25" s="233"/>
-      <c r="P25" s="233"/>
-      <c r="Q25" s="233"/>
-      <c r="R25" s="233"/>
-      <c r="S25" s="233"/>
-      <c r="T25" s="233"/>
-      <c r="U25" s="233"/>
-      <c r="V25" s="233"/>
-      <c r="W25" s="233"/>
-      <c r="X25" s="233"/>
-      <c r="Y25" s="233"/>
-      <c r="Z25" s="233"/>
-      <c r="AA25" s="233"/>
-      <c r="AB25" s="234"/>
-      <c r="AC25" s="226"/>
-      <c r="AD25" s="227"/>
-      <c r="AE25" s="228"/>
+      <c r="B25" s="243"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="257"/>
+      <c r="G25" s="258"/>
+      <c r="H25" s="258"/>
+      <c r="I25" s="259"/>
+      <c r="J25" s="260"/>
+      <c r="K25" s="261"/>
+      <c r="L25" s="261"/>
+      <c r="M25" s="261"/>
+      <c r="N25" s="261"/>
+      <c r="O25" s="261"/>
+      <c r="P25" s="261"/>
+      <c r="Q25" s="261"/>
+      <c r="R25" s="261"/>
+      <c r="S25" s="261"/>
+      <c r="T25" s="261"/>
+      <c r="U25" s="261"/>
+      <c r="V25" s="261"/>
+      <c r="W25" s="261"/>
+      <c r="X25" s="261"/>
+      <c r="Y25" s="261"/>
+      <c r="Z25" s="261"/>
+      <c r="AA25" s="261"/>
+      <c r="AB25" s="262"/>
+      <c r="AC25" s="243"/>
+      <c r="AD25" s="246"/>
+      <c r="AE25" s="244"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="226"/>
-      <c r="C26" s="227"/>
-      <c r="D26" s="227"/>
-      <c r="E26" s="228"/>
-      <c r="F26" s="229"/>
-      <c r="G26" s="230"/>
-      <c r="H26" s="230"/>
-      <c r="I26" s="231"/>
-      <c r="J26" s="232"/>
-      <c r="K26" s="233"/>
-      <c r="L26" s="233"/>
-      <c r="M26" s="233"/>
-      <c r="N26" s="233"/>
-      <c r="O26" s="233"/>
-      <c r="P26" s="233"/>
-      <c r="Q26" s="233"/>
-      <c r="R26" s="233"/>
-      <c r="S26" s="233"/>
-      <c r="T26" s="233"/>
-      <c r="U26" s="233"/>
-      <c r="V26" s="233"/>
-      <c r="W26" s="233"/>
-      <c r="X26" s="233"/>
-      <c r="Y26" s="233"/>
-      <c r="Z26" s="233"/>
-      <c r="AA26" s="233"/>
-      <c r="AB26" s="234"/>
-      <c r="AC26" s="226"/>
-      <c r="AD26" s="227"/>
-      <c r="AE26" s="228"/>
+      <c r="B26" s="243"/>
+      <c r="C26" s="246"/>
+      <c r="D26" s="246"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="257"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="258"/>
+      <c r="I26" s="259"/>
+      <c r="J26" s="260"/>
+      <c r="K26" s="261"/>
+      <c r="L26" s="261"/>
+      <c r="M26" s="261"/>
+      <c r="N26" s="261"/>
+      <c r="O26" s="261"/>
+      <c r="P26" s="261"/>
+      <c r="Q26" s="261"/>
+      <c r="R26" s="261"/>
+      <c r="S26" s="261"/>
+      <c r="T26" s="261"/>
+      <c r="U26" s="261"/>
+      <c r="V26" s="261"/>
+      <c r="W26" s="261"/>
+      <c r="X26" s="261"/>
+      <c r="Y26" s="261"/>
+      <c r="Z26" s="261"/>
+      <c r="AA26" s="261"/>
+      <c r="AB26" s="262"/>
+      <c r="AC26" s="243"/>
+      <c r="AD26" s="246"/>
+      <c r="AE26" s="244"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="226"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="228"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="230"/>
-      <c r="H27" s="230"/>
-      <c r="I27" s="231"/>
-      <c r="J27" s="232"/>
-      <c r="K27" s="233"/>
-      <c r="L27" s="233"/>
-      <c r="M27" s="233"/>
-      <c r="N27" s="233"/>
-      <c r="O27" s="233"/>
-      <c r="P27" s="233"/>
-      <c r="Q27" s="233"/>
-      <c r="R27" s="233"/>
-      <c r="S27" s="233"/>
-      <c r="T27" s="233"/>
-      <c r="U27" s="233"/>
-      <c r="V27" s="233"/>
-      <c r="W27" s="233"/>
-      <c r="X27" s="233"/>
-      <c r="Y27" s="233"/>
-      <c r="Z27" s="233"/>
-      <c r="AA27" s="233"/>
-      <c r="AB27" s="234"/>
-      <c r="AC27" s="226"/>
-      <c r="AD27" s="227"/>
-      <c r="AE27" s="228"/>
+      <c r="B27" s="243"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="246"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="257"/>
+      <c r="G27" s="258"/>
+      <c r="H27" s="258"/>
+      <c r="I27" s="259"/>
+      <c r="J27" s="260"/>
+      <c r="K27" s="261"/>
+      <c r="L27" s="261"/>
+      <c r="M27" s="261"/>
+      <c r="N27" s="261"/>
+      <c r="O27" s="261"/>
+      <c r="P27" s="261"/>
+      <c r="Q27" s="261"/>
+      <c r="R27" s="261"/>
+      <c r="S27" s="261"/>
+      <c r="T27" s="261"/>
+      <c r="U27" s="261"/>
+      <c r="V27" s="261"/>
+      <c r="W27" s="261"/>
+      <c r="X27" s="261"/>
+      <c r="Y27" s="261"/>
+      <c r="Z27" s="261"/>
+      <c r="AA27" s="261"/>
+      <c r="AB27" s="262"/>
+      <c r="AC27" s="243"/>
+      <c r="AD27" s="246"/>
+      <c r="AE27" s="244"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="226"/>
-      <c r="C28" s="227"/>
-      <c r="D28" s="227"/>
-      <c r="E28" s="228"/>
-      <c r="F28" s="229"/>
-      <c r="G28" s="230"/>
-      <c r="H28" s="230"/>
-      <c r="I28" s="231"/>
-      <c r="J28" s="232"/>
-      <c r="K28" s="233"/>
-      <c r="L28" s="233"/>
-      <c r="M28" s="233"/>
-      <c r="N28" s="233"/>
-      <c r="O28" s="233"/>
-      <c r="P28" s="233"/>
-      <c r="Q28" s="233"/>
-      <c r="R28" s="233"/>
-      <c r="S28" s="233"/>
-      <c r="T28" s="233"/>
-      <c r="U28" s="233"/>
-      <c r="V28" s="233"/>
-      <c r="W28" s="233"/>
-      <c r="X28" s="233"/>
-      <c r="Y28" s="233"/>
-      <c r="Z28" s="233"/>
-      <c r="AA28" s="233"/>
-      <c r="AB28" s="234"/>
-      <c r="AC28" s="226"/>
-      <c r="AD28" s="227"/>
-      <c r="AE28" s="228"/>
+      <c r="B28" s="243"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="246"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="257"/>
+      <c r="G28" s="258"/>
+      <c r="H28" s="258"/>
+      <c r="I28" s="259"/>
+      <c r="J28" s="260"/>
+      <c r="K28" s="261"/>
+      <c r="L28" s="261"/>
+      <c r="M28" s="261"/>
+      <c r="N28" s="261"/>
+      <c r="O28" s="261"/>
+      <c r="P28" s="261"/>
+      <c r="Q28" s="261"/>
+      <c r="R28" s="261"/>
+      <c r="S28" s="261"/>
+      <c r="T28" s="261"/>
+      <c r="U28" s="261"/>
+      <c r="V28" s="261"/>
+      <c r="W28" s="261"/>
+      <c r="X28" s="261"/>
+      <c r="Y28" s="261"/>
+      <c r="Z28" s="261"/>
+      <c r="AA28" s="261"/>
+      <c r="AB28" s="262"/>
+      <c r="AC28" s="243"/>
+      <c r="AD28" s="246"/>
+      <c r="AE28" s="244"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="226"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="227"/>
-      <c r="E29" s="228"/>
-      <c r="F29" s="229"/>
-      <c r="G29" s="230"/>
-      <c r="H29" s="230"/>
-      <c r="I29" s="231"/>
-      <c r="J29" s="232"/>
-      <c r="K29" s="233"/>
-      <c r="L29" s="233"/>
-      <c r="M29" s="233"/>
-      <c r="N29" s="233"/>
-      <c r="O29" s="233"/>
-      <c r="P29" s="233"/>
-      <c r="Q29" s="233"/>
-      <c r="R29" s="233"/>
-      <c r="S29" s="233"/>
-      <c r="T29" s="233"/>
-      <c r="U29" s="233"/>
-      <c r="V29" s="233"/>
-      <c r="W29" s="233"/>
-      <c r="X29" s="233"/>
-      <c r="Y29" s="233"/>
-      <c r="Z29" s="233"/>
-      <c r="AA29" s="233"/>
-      <c r="AB29" s="234"/>
-      <c r="AC29" s="226"/>
-      <c r="AD29" s="227"/>
-      <c r="AE29" s="228"/>
+      <c r="B29" s="243"/>
+      <c r="C29" s="246"/>
+      <c r="D29" s="246"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="257"/>
+      <c r="G29" s="258"/>
+      <c r="H29" s="258"/>
+      <c r="I29" s="259"/>
+      <c r="J29" s="260"/>
+      <c r="K29" s="261"/>
+      <c r="L29" s="261"/>
+      <c r="M29" s="261"/>
+      <c r="N29" s="261"/>
+      <c r="O29" s="261"/>
+      <c r="P29" s="261"/>
+      <c r="Q29" s="261"/>
+      <c r="R29" s="261"/>
+      <c r="S29" s="261"/>
+      <c r="T29" s="261"/>
+      <c r="U29" s="261"/>
+      <c r="V29" s="261"/>
+      <c r="W29" s="261"/>
+      <c r="X29" s="261"/>
+      <c r="Y29" s="261"/>
+      <c r="Z29" s="261"/>
+      <c r="AA29" s="261"/>
+      <c r="AB29" s="262"/>
+      <c r="AC29" s="243"/>
+      <c r="AD29" s="246"/>
+      <c r="AE29" s="244"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="226"/>
-      <c r="C30" s="227"/>
-      <c r="D30" s="227"/>
-      <c r="E30" s="228"/>
-      <c r="F30" s="229"/>
-      <c r="G30" s="230"/>
-      <c r="H30" s="230"/>
-      <c r="I30" s="231"/>
-      <c r="J30" s="232"/>
-      <c r="K30" s="233"/>
-      <c r="L30" s="233"/>
-      <c r="M30" s="233"/>
-      <c r="N30" s="233"/>
-      <c r="O30" s="233"/>
-      <c r="P30" s="233"/>
-      <c r="Q30" s="233"/>
-      <c r="R30" s="233"/>
-      <c r="S30" s="233"/>
-      <c r="T30" s="233"/>
-      <c r="U30" s="233"/>
-      <c r="V30" s="233"/>
-      <c r="W30" s="233"/>
-      <c r="X30" s="233"/>
-      <c r="Y30" s="233"/>
-      <c r="Z30" s="233"/>
-      <c r="AA30" s="233"/>
-      <c r="AB30" s="234"/>
-      <c r="AC30" s="226"/>
-      <c r="AD30" s="227"/>
-      <c r="AE30" s="228"/>
+      <c r="B30" s="243"/>
+      <c r="C30" s="246"/>
+      <c r="D30" s="246"/>
+      <c r="E30" s="244"/>
+      <c r="F30" s="257"/>
+      <c r="G30" s="258"/>
+      <c r="H30" s="258"/>
+      <c r="I30" s="259"/>
+      <c r="J30" s="260"/>
+      <c r="K30" s="261"/>
+      <c r="L30" s="261"/>
+      <c r="M30" s="261"/>
+      <c r="N30" s="261"/>
+      <c r="O30" s="261"/>
+      <c r="P30" s="261"/>
+      <c r="Q30" s="261"/>
+      <c r="R30" s="261"/>
+      <c r="S30" s="261"/>
+      <c r="T30" s="261"/>
+      <c r="U30" s="261"/>
+      <c r="V30" s="261"/>
+      <c r="W30" s="261"/>
+      <c r="X30" s="261"/>
+      <c r="Y30" s="261"/>
+      <c r="Z30" s="261"/>
+      <c r="AA30" s="261"/>
+      <c r="AB30" s="262"/>
+      <c r="AC30" s="243"/>
+      <c r="AD30" s="246"/>
+      <c r="AE30" s="244"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="226"/>
-      <c r="C31" s="227"/>
-      <c r="D31" s="227"/>
-      <c r="E31" s="228"/>
-      <c r="F31" s="229"/>
-      <c r="G31" s="230"/>
-      <c r="H31" s="230"/>
-      <c r="I31" s="231"/>
-      <c r="J31" s="232"/>
-      <c r="K31" s="233"/>
-      <c r="L31" s="233"/>
-      <c r="M31" s="233"/>
-      <c r="N31" s="233"/>
-      <c r="O31" s="233"/>
-      <c r="P31" s="233"/>
-      <c r="Q31" s="233"/>
-      <c r="R31" s="233"/>
-      <c r="S31" s="233"/>
-      <c r="T31" s="233"/>
-      <c r="U31" s="233"/>
-      <c r="V31" s="233"/>
-      <c r="W31" s="233"/>
-      <c r="X31" s="233"/>
-      <c r="Y31" s="233"/>
-      <c r="Z31" s="233"/>
-      <c r="AA31" s="233"/>
-      <c r="AB31" s="234"/>
-      <c r="AC31" s="226"/>
-      <c r="AD31" s="227"/>
-      <c r="AE31" s="228"/>
+      <c r="B31" s="243"/>
+      <c r="C31" s="246"/>
+      <c r="D31" s="246"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="257"/>
+      <c r="G31" s="258"/>
+      <c r="H31" s="258"/>
+      <c r="I31" s="259"/>
+      <c r="J31" s="260"/>
+      <c r="K31" s="261"/>
+      <c r="L31" s="261"/>
+      <c r="M31" s="261"/>
+      <c r="N31" s="261"/>
+      <c r="O31" s="261"/>
+      <c r="P31" s="261"/>
+      <c r="Q31" s="261"/>
+      <c r="R31" s="261"/>
+      <c r="S31" s="261"/>
+      <c r="T31" s="261"/>
+      <c r="U31" s="261"/>
+      <c r="V31" s="261"/>
+      <c r="W31" s="261"/>
+      <c r="X31" s="261"/>
+      <c r="Y31" s="261"/>
+      <c r="Z31" s="261"/>
+      <c r="AA31" s="261"/>
+      <c r="AB31" s="262"/>
+      <c r="AC31" s="243"/>
+      <c r="AD31" s="246"/>
+      <c r="AE31" s="244"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="226"/>
-      <c r="C32" s="227"/>
-      <c r="D32" s="227"/>
-      <c r="E32" s="228"/>
-      <c r="F32" s="229"/>
-      <c r="G32" s="230"/>
-      <c r="H32" s="230"/>
-      <c r="I32" s="231"/>
-      <c r="J32" s="232"/>
-      <c r="K32" s="233"/>
-      <c r="L32" s="233"/>
-      <c r="M32" s="233"/>
-      <c r="N32" s="233"/>
-      <c r="O32" s="233"/>
-      <c r="P32" s="233"/>
-      <c r="Q32" s="233"/>
-      <c r="R32" s="233"/>
-      <c r="S32" s="233"/>
-      <c r="T32" s="233"/>
-      <c r="U32" s="233"/>
-      <c r="V32" s="233"/>
-      <c r="W32" s="233"/>
-      <c r="X32" s="233"/>
-      <c r="Y32" s="233"/>
-      <c r="Z32" s="233"/>
-      <c r="AA32" s="233"/>
-      <c r="AB32" s="234"/>
-      <c r="AC32" s="226"/>
-      <c r="AD32" s="227"/>
-      <c r="AE32" s="228"/>
+      <c r="B32" s="243"/>
+      <c r="C32" s="246"/>
+      <c r="D32" s="246"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="257"/>
+      <c r="G32" s="258"/>
+      <c r="H32" s="258"/>
+      <c r="I32" s="259"/>
+      <c r="J32" s="260"/>
+      <c r="K32" s="261"/>
+      <c r="L32" s="261"/>
+      <c r="M32" s="261"/>
+      <c r="N32" s="261"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="261"/>
+      <c r="Q32" s="261"/>
+      <c r="R32" s="261"/>
+      <c r="S32" s="261"/>
+      <c r="T32" s="261"/>
+      <c r="U32" s="261"/>
+      <c r="V32" s="261"/>
+      <c r="W32" s="261"/>
+      <c r="X32" s="261"/>
+      <c r="Y32" s="261"/>
+      <c r="Z32" s="261"/>
+      <c r="AA32" s="261"/>
+      <c r="AB32" s="262"/>
+      <c r="AC32" s="243"/>
+      <c r="AD32" s="246"/>
+      <c r="AE32" s="244"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="226"/>
-      <c r="C33" s="227"/>
-      <c r="D33" s="227"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="229"/>
-      <c r="G33" s="230"/>
-      <c r="H33" s="230"/>
-      <c r="I33" s="231"/>
-      <c r="J33" s="232"/>
-      <c r="K33" s="233"/>
-      <c r="L33" s="233"/>
-      <c r="M33" s="233"/>
-      <c r="N33" s="233"/>
-      <c r="O33" s="233"/>
-      <c r="P33" s="233"/>
-      <c r="Q33" s="233"/>
-      <c r="R33" s="233"/>
-      <c r="S33" s="233"/>
-      <c r="T33" s="233"/>
-      <c r="U33" s="233"/>
-      <c r="V33" s="233"/>
-      <c r="W33" s="233"/>
-      <c r="X33" s="233"/>
-      <c r="Y33" s="233"/>
-      <c r="Z33" s="233"/>
-      <c r="AA33" s="233"/>
-      <c r="AB33" s="234"/>
-      <c r="AC33" s="226"/>
-      <c r="AD33" s="227"/>
-      <c r="AE33" s="228"/>
+      <c r="B33" s="243"/>
+      <c r="C33" s="246"/>
+      <c r="D33" s="246"/>
+      <c r="E33" s="244"/>
+      <c r="F33" s="257"/>
+      <c r="G33" s="258"/>
+      <c r="H33" s="258"/>
+      <c r="I33" s="259"/>
+      <c r="J33" s="260"/>
+      <c r="K33" s="261"/>
+      <c r="L33" s="261"/>
+      <c r="M33" s="261"/>
+      <c r="N33" s="261"/>
+      <c r="O33" s="261"/>
+      <c r="P33" s="261"/>
+      <c r="Q33" s="261"/>
+      <c r="R33" s="261"/>
+      <c r="S33" s="261"/>
+      <c r="T33" s="261"/>
+      <c r="U33" s="261"/>
+      <c r="V33" s="261"/>
+      <c r="W33" s="261"/>
+      <c r="X33" s="261"/>
+      <c r="Y33" s="261"/>
+      <c r="Z33" s="261"/>
+      <c r="AA33" s="261"/>
+      <c r="AB33" s="262"/>
+      <c r="AC33" s="243"/>
+      <c r="AD33" s="246"/>
+      <c r="AE33" s="244"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -7797,6 +7813,51 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -7808,51 +7869,6 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7876,8 +7892,8 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -7975,38 +7991,38 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="288"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="283"/>
     </row>
     <row r="7" spans="1:15" ht="20.25" customHeight="1">
       <c r="A7" s="225" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="288"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="282"/>
+      <c r="E7" s="282"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="282"/>
+      <c r="H7" s="283"/>
     </row>
     <row r="8" spans="1:15" ht="20.25" customHeight="1">
       <c r="A8" s="225" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="286" t="s">
+      <c r="C8" s="281" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="287"/>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="287"/>
-      <c r="H8" s="288"/>
+      <c r="D8" s="282"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="283"/>
     </row>
     <row r="9" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -8027,10 +8043,10 @@
       <c r="B10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="264" t="s">
+      <c r="C10" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="265"/>
+      <c r="D10" s="294"/>
       <c r="E10" s="55" t="s">
         <v>1</v>
       </c>
@@ -8051,10 +8067,10 @@
       <c r="B11" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="266" t="s">
+      <c r="C11" s="295" t="s">
         <v>221</v>
       </c>
-      <c r="D11" s="267"/>
+      <c r="D11" s="296"/>
       <c r="E11" s="74" t="s">
         <v>139</v>
       </c>
@@ -8073,10 +8089,10 @@
       <c r="B12" s="221" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="262" t="s">
+      <c r="C12" s="284" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="263"/>
+      <c r="D12" s="285"/>
       <c r="E12" s="79" t="s">
         <v>155</v>
       </c>
@@ -8093,10 +8109,10 @@
       <c r="B13" s="221" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="262" t="s">
+      <c r="C13" s="284" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="263"/>
+      <c r="D13" s="285"/>
       <c r="E13" s="79" t="s">
         <v>155</v>
       </c>
@@ -8110,8 +8126,8 @@
     <row r="14" spans="1:15" ht="20.25" customHeight="1">
       <c r="A14" s="82"/>
       <c r="B14" s="83"/>
-      <c r="C14" s="262"/>
-      <c r="D14" s="263"/>
+      <c r="C14" s="284"/>
+      <c r="D14" s="285"/>
       <c r="E14" s="84"/>
       <c r="F14" s="74"/>
       <c r="G14" s="85"/>
@@ -8129,8 +8145,8 @@
     <row r="16" spans="1:15" ht="20.25" customHeight="1">
       <c r="A16" s="82"/>
       <c r="B16" s="83"/>
-      <c r="C16" s="262"/>
-      <c r="D16" s="263"/>
+      <c r="C16" s="284"/>
+      <c r="D16" s="285"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
       <c r="G16" s="85"/>
@@ -8139,8 +8155,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="82"/>
       <c r="B17" s="83"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="263"/>
+      <c r="C17" s="284"/>
+      <c r="D17" s="285"/>
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="G17" s="85"/>
@@ -8149,8 +8165,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="83"/>
-      <c r="C18" s="262"/>
-      <c r="D18" s="263"/>
+      <c r="C18" s="284"/>
+      <c r="D18" s="285"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="85"/>
@@ -8159,8 +8175,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="82"/>
       <c r="B19" s="83"/>
-      <c r="C19" s="262"/>
-      <c r="D19" s="263"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="285"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="85"/>
@@ -8169,8 +8185,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="82"/>
       <c r="B20" s="83"/>
-      <c r="C20" s="262"/>
-      <c r="D20" s="263"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="285"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="85"/>
@@ -8179,8 +8195,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="82"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="262"/>
-      <c r="D21" s="263"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="285"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="85"/>
@@ -8189,8 +8205,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="82"/>
       <c r="B22" s="83"/>
-      <c r="C22" s="262"/>
-      <c r="D22" s="263"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="285"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="G22" s="85"/>
@@ -8199,8 +8215,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="82"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="262"/>
-      <c r="D23" s="263"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="285"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="85"/>
@@ -8209,8 +8225,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="82"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="262"/>
-      <c r="D24" s="263"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="285"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="85"/>
@@ -8219,8 +8235,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="82"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="262"/>
-      <c r="D25" s="263"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="285"/>
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="G25" s="85"/>
@@ -8229,8 +8245,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="82"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="262"/>
-      <c r="D26" s="263"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="285"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="85"/>
@@ -8239,8 +8255,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="82"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="262"/>
-      <c r="D27" s="263"/>
+      <c r="C27" s="284"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="85"/>
@@ -8249,8 +8265,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="82"/>
       <c r="B28" s="83"/>
-      <c r="C28" s="262"/>
-      <c r="D28" s="263"/>
+      <c r="C28" s="284"/>
+      <c r="D28" s="285"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="85"/>
@@ -8259,8 +8275,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="82"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="262"/>
-      <c r="D29" s="263"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="285"/>
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="85"/>
@@ -8269,8 +8285,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="87"/>
       <c r="B30" s="217"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="281"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="271"/>
       <c r="E30" s="89"/>
       <c r="F30" s="89"/>
       <c r="G30" s="90"/>
@@ -8302,10 +8318,10 @@
       <c r="A33" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="269" t="s">
+      <c r="B33" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="283"/>
+      <c r="C33" s="276"/>
       <c r="D33" s="218" t="s">
         <v>9</v>
       </c>
@@ -8320,51 +8336,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="72"/>
-      <c r="B34" s="289"/>
-      <c r="C34" s="290"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="295"/>
-      <c r="F34" s="272"/>
+      <c r="B34" s="277"/>
+      <c r="C34" s="278"/>
+      <c r="D34" s="263"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="265"/>
       <c r="G34" s="75"/>
       <c r="H34" s="76"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="77"/>
-      <c r="B35" s="291"/>
-      <c r="C35" s="292"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="285"/>
-      <c r="F35" s="274"/>
+      <c r="B35" s="279"/>
+      <c r="C35" s="280"/>
+      <c r="D35" s="266"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="268"/>
       <c r="G35" s="80"/>
       <c r="H35" s="81"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="77"/>
-      <c r="B36" s="291"/>
-      <c r="C36" s="292"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="285"/>
-      <c r="F36" s="274"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="266"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="268"/>
       <c r="G36" s="80"/>
       <c r="H36" s="81"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="77"/>
-      <c r="B37" s="291"/>
-      <c r="C37" s="292"/>
-      <c r="D37" s="273"/>
-      <c r="E37" s="285"/>
-      <c r="F37" s="274"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="266"/>
+      <c r="E37" s="267"/>
+      <c r="F37" s="268"/>
       <c r="G37" s="80"/>
       <c r="H37" s="81"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="87"/>
-      <c r="B38" s="293"/>
-      <c r="C38" s="294"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="281"/>
+      <c r="B38" s="272"/>
+      <c r="C38" s="273"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="270"/>
+      <c r="F38" s="271"/>
       <c r="G38" s="90"/>
       <c r="H38" s="91"/>
     </row>
@@ -8397,15 +8413,15 @@
       <c r="B41" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="269" t="s">
+      <c r="C41" s="274" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="282"/>
-      <c r="E41" s="283"/>
-      <c r="F41" s="269" t="s">
+      <c r="D41" s="275"/>
+      <c r="E41" s="276"/>
+      <c r="F41" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="270"/>
+      <c r="G41" s="293"/>
       <c r="H41" s="65" t="s">
         <v>14</v>
       </c>
@@ -8413,51 +8429,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="92"/>
       <c r="B42" s="93"/>
-      <c r="C42" s="271"/>
-      <c r="D42" s="295"/>
-      <c r="E42" s="272"/>
-      <c r="F42" s="271"/>
-      <c r="G42" s="272"/>
+      <c r="C42" s="263"/>
+      <c r="D42" s="264"/>
+      <c r="E42" s="265"/>
+      <c r="F42" s="263"/>
+      <c r="G42" s="265"/>
       <c r="H42" s="94"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="95"/>
       <c r="B43" s="96"/>
-      <c r="C43" s="273"/>
-      <c r="D43" s="285"/>
-      <c r="E43" s="274"/>
-      <c r="F43" s="273"/>
-      <c r="G43" s="274"/>
+      <c r="C43" s="266"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="268"/>
+      <c r="F43" s="266"/>
+      <c r="G43" s="268"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="95"/>
       <c r="B44" s="96"/>
-      <c r="C44" s="273"/>
-      <c r="D44" s="285"/>
-      <c r="E44" s="274"/>
-      <c r="F44" s="273"/>
-      <c r="G44" s="274"/>
+      <c r="C44" s="266"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="268"/>
+      <c r="F44" s="266"/>
+      <c r="G44" s="268"/>
       <c r="H44" s="97"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="95"/>
       <c r="B45" s="96"/>
-      <c r="C45" s="273"/>
-      <c r="D45" s="285"/>
-      <c r="E45" s="274"/>
-      <c r="F45" s="273"/>
-      <c r="G45" s="274"/>
+      <c r="C45" s="266"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="268"/>
+      <c r="F45" s="266"/>
+      <c r="G45" s="268"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="98"/>
       <c r="B46" s="224"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="280"/>
-      <c r="E46" s="281"/>
-      <c r="F46" s="275"/>
-      <c r="G46" s="276"/>
+      <c r="C46" s="269"/>
+      <c r="D46" s="270"/>
+      <c r="E46" s="271"/>
+      <c r="F46" s="286"/>
+      <c r="G46" s="287"/>
       <c r="H46" s="100"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8489,15 +8505,15 @@
       <c r="B49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="269" t="s">
+      <c r="C49" s="274" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="282"/>
-      <c r="E49" s="283"/>
-      <c r="F49" s="264" t="s">
+      <c r="D49" s="275"/>
+      <c r="E49" s="276"/>
+      <c r="F49" s="291" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="268"/>
+      <c r="G49" s="292"/>
       <c r="H49" s="56" t="s">
         <v>17</v>
       </c>
@@ -8507,55 +8523,103 @@
         <v>1</v>
       </c>
       <c r="B50" s="110"/>
-      <c r="C50" s="277"/>
-      <c r="D50" s="284"/>
-      <c r="E50" s="278"/>
-      <c r="F50" s="277"/>
-      <c r="G50" s="278"/>
+      <c r="C50" s="288"/>
+      <c r="D50" s="290"/>
+      <c r="E50" s="289"/>
+      <c r="F50" s="288"/>
+      <c r="G50" s="289"/>
       <c r="H50" s="111"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="95"/>
       <c r="B51" s="96"/>
-      <c r="C51" s="273"/>
-      <c r="D51" s="285"/>
-      <c r="E51" s="274"/>
-      <c r="F51" s="273"/>
-      <c r="G51" s="274"/>
+      <c r="C51" s="266"/>
+      <c r="D51" s="267"/>
+      <c r="E51" s="268"/>
+      <c r="F51" s="266"/>
+      <c r="G51" s="268"/>
       <c r="H51" s="97"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="95"/>
       <c r="B52" s="96"/>
-      <c r="C52" s="273"/>
-      <c r="D52" s="285"/>
-      <c r="E52" s="274"/>
-      <c r="F52" s="273"/>
-      <c r="G52" s="274"/>
+      <c r="C52" s="266"/>
+      <c r="D52" s="267"/>
+      <c r="E52" s="268"/>
+      <c r="F52" s="266"/>
+      <c r="G52" s="268"/>
       <c r="H52" s="97"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="95"/>
       <c r="B53" s="96"/>
-      <c r="C53" s="273"/>
-      <c r="D53" s="285"/>
-      <c r="E53" s="274"/>
-      <c r="F53" s="273"/>
-      <c r="G53" s="274"/>
+      <c r="C53" s="266"/>
+      <c r="D53" s="267"/>
+      <c r="E53" s="268"/>
+      <c r="F53" s="266"/>
+      <c r="G53" s="268"/>
       <c r="H53" s="97"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="98"/>
       <c r="B54" s="224"/>
-      <c r="C54" s="279"/>
-      <c r="D54" s="280"/>
-      <c r="E54" s="281"/>
-      <c r="F54" s="275"/>
-      <c r="G54" s="276"/>
+      <c r="C54" s="269"/>
+      <c r="D54" s="270"/>
+      <c r="E54" s="271"/>
+      <c r="F54" s="286"/>
+      <c r="G54" s="287"/>
       <c r="H54" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="C54:E54"/>
@@ -8566,54 +8630,6 @@
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="C52:E52"/>
     <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8727,42 +8743,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="286" t="s">
+      <c r="C6" s="281" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="288"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="283"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="46" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="286" t="s">
+      <c r="C7" s="281" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="288"/>
+      <c r="D7" s="282"/>
+      <c r="E7" s="282"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="282"/>
+      <c r="H7" s="283"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="46" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="286" t="s">
+      <c r="C8" s="281" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="287"/>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="287"/>
-      <c r="H8" s="288"/>
+      <c r="D8" s="282"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="283"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -8783,10 +8799,10 @@
       <c r="B10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="264" t="s">
+      <c r="C10" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="265"/>
+      <c r="D10" s="294"/>
       <c r="E10" s="55" t="s">
         <v>1</v>
       </c>
@@ -8807,10 +8823,10 @@
       <c r="B11" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="266" t="s">
+      <c r="C11" s="295" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="267"/>
+      <c r="D11" s="296"/>
       <c r="E11" s="74" t="s">
         <v>89</v>
       </c>
@@ -8829,10 +8845,10 @@
       <c r="B12" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="262" t="s">
+      <c r="C12" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="263"/>
+      <c r="D12" s="285"/>
       <c r="E12" s="79" t="s">
         <v>90</v>
       </c>
@@ -8845,8 +8861,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="77"/>
       <c r="B13" s="78"/>
-      <c r="C13" s="262"/>
-      <c r="D13" s="263"/>
+      <c r="C13" s="284"/>
+      <c r="D13" s="285"/>
       <c r="E13" s="79"/>
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
@@ -8855,8 +8871,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="82"/>
       <c r="B14" s="83"/>
-      <c r="C14" s="262"/>
-      <c r="D14" s="263"/>
+      <c r="C14" s="284"/>
+      <c r="D14" s="285"/>
       <c r="E14" s="84"/>
       <c r="F14" s="84"/>
       <c r="G14" s="85"/>
@@ -8865,8 +8881,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="82"/>
       <c r="B15" s="83"/>
-      <c r="C15" s="262"/>
-      <c r="D15" s="263"/>
+      <c r="C15" s="284"/>
+      <c r="D15" s="285"/>
       <c r="E15" s="84"/>
       <c r="F15" s="84"/>
       <c r="G15" s="85"/>
@@ -8875,8 +8891,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="82"/>
       <c r="B16" s="83"/>
-      <c r="C16" s="262"/>
-      <c r="D16" s="263"/>
+      <c r="C16" s="284"/>
+      <c r="D16" s="285"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
       <c r="G16" s="85"/>
@@ -8885,8 +8901,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="82"/>
       <c r="B17" s="83"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="263"/>
+      <c r="C17" s="284"/>
+      <c r="D17" s="285"/>
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="G17" s="85"/>
@@ -8895,8 +8911,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="83"/>
-      <c r="C18" s="262"/>
-      <c r="D18" s="263"/>
+      <c r="C18" s="284"/>
+      <c r="D18" s="285"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="85"/>
@@ -8905,8 +8921,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="82"/>
       <c r="B19" s="83"/>
-      <c r="C19" s="262"/>
-      <c r="D19" s="263"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="285"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="85"/>
@@ -8915,8 +8931,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="82"/>
       <c r="B20" s="83"/>
-      <c r="C20" s="262"/>
-      <c r="D20" s="263"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="285"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="85"/>
@@ -8925,8 +8941,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="82"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="262"/>
-      <c r="D21" s="263"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="285"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="85"/>
@@ -8935,8 +8951,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="82"/>
       <c r="B22" s="83"/>
-      <c r="C22" s="262"/>
-      <c r="D22" s="263"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="285"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="G22" s="85"/>
@@ -8945,8 +8961,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="82"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="262"/>
-      <c r="D23" s="263"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="285"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="85"/>
@@ -8955,8 +8971,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="82"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="262"/>
-      <c r="D24" s="263"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="285"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="85"/>
@@ -8965,8 +8981,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="82"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="262"/>
-      <c r="D25" s="263"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="285"/>
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="G25" s="85"/>
@@ -8975,8 +8991,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="82"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="262"/>
-      <c r="D26" s="263"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="285"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="85"/>
@@ -8985,8 +9001,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="82"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="262"/>
-      <c r="D27" s="263"/>
+      <c r="C27" s="284"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="85"/>
@@ -8995,8 +9011,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="82"/>
       <c r="B28" s="83"/>
-      <c r="C28" s="262"/>
-      <c r="D28" s="263"/>
+      <c r="C28" s="284"/>
+      <c r="D28" s="285"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="85"/>
@@ -9005,8 +9021,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="82"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="262"/>
-      <c r="D29" s="263"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="285"/>
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="85"/>
@@ -9015,8 +9031,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="87"/>
       <c r="B30" s="88"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="281"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="271"/>
       <c r="E30" s="89"/>
       <c r="F30" s="89"/>
       <c r="G30" s="90"/>
@@ -9048,10 +9064,10 @@
       <c r="A33" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="269" t="s">
+      <c r="B33" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="283"/>
+      <c r="C33" s="276"/>
       <c r="D33" s="61" t="s">
         <v>9</v>
       </c>
@@ -9066,51 +9082,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="72"/>
-      <c r="B34" s="289"/>
-      <c r="C34" s="290"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="295"/>
-      <c r="F34" s="272"/>
+      <c r="B34" s="277"/>
+      <c r="C34" s="278"/>
+      <c r="D34" s="263"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="265"/>
       <c r="G34" s="75"/>
       <c r="H34" s="76"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="77"/>
-      <c r="B35" s="291"/>
-      <c r="C35" s="292"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="285"/>
-      <c r="F35" s="274"/>
+      <c r="B35" s="279"/>
+      <c r="C35" s="280"/>
+      <c r="D35" s="266"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="268"/>
       <c r="G35" s="80"/>
       <c r="H35" s="81"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="77"/>
-      <c r="B36" s="291"/>
-      <c r="C36" s="292"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="285"/>
-      <c r="F36" s="274"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="266"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="268"/>
       <c r="G36" s="80"/>
       <c r="H36" s="81"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="77"/>
-      <c r="B37" s="291"/>
-      <c r="C37" s="292"/>
-      <c r="D37" s="273"/>
-      <c r="E37" s="285"/>
-      <c r="F37" s="274"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="266"/>
+      <c r="E37" s="267"/>
+      <c r="F37" s="268"/>
       <c r="G37" s="80"/>
       <c r="H37" s="81"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="87"/>
-      <c r="B38" s="293"/>
-      <c r="C38" s="294"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="281"/>
+      <c r="B38" s="272"/>
+      <c r="C38" s="273"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="270"/>
+      <c r="F38" s="271"/>
       <c r="G38" s="90"/>
       <c r="H38" s="91"/>
     </row>
@@ -9143,15 +9159,15 @@
       <c r="B41" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="269" t="s">
+      <c r="C41" s="274" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="282"/>
-      <c r="E41" s="283"/>
-      <c r="F41" s="269" t="s">
+      <c r="D41" s="275"/>
+      <c r="E41" s="276"/>
+      <c r="F41" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="270"/>
+      <c r="G41" s="293"/>
       <c r="H41" s="65" t="s">
         <v>14</v>
       </c>
@@ -9159,51 +9175,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="92"/>
       <c r="B42" s="93"/>
-      <c r="C42" s="271"/>
-      <c r="D42" s="295"/>
-      <c r="E42" s="272"/>
-      <c r="F42" s="271"/>
-      <c r="G42" s="272"/>
+      <c r="C42" s="263"/>
+      <c r="D42" s="264"/>
+      <c r="E42" s="265"/>
+      <c r="F42" s="263"/>
+      <c r="G42" s="265"/>
       <c r="H42" s="94"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="95"/>
       <c r="B43" s="96"/>
-      <c r="C43" s="273"/>
-      <c r="D43" s="285"/>
-      <c r="E43" s="274"/>
-      <c r="F43" s="273"/>
-      <c r="G43" s="274"/>
+      <c r="C43" s="266"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="268"/>
+      <c r="F43" s="266"/>
+      <c r="G43" s="268"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="95"/>
       <c r="B44" s="96"/>
-      <c r="C44" s="273"/>
-      <c r="D44" s="285"/>
-      <c r="E44" s="274"/>
-      <c r="F44" s="273"/>
-      <c r="G44" s="274"/>
+      <c r="C44" s="266"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="268"/>
+      <c r="F44" s="266"/>
+      <c r="G44" s="268"/>
       <c r="H44" s="97"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="95"/>
       <c r="B45" s="96"/>
-      <c r="C45" s="273"/>
-      <c r="D45" s="285"/>
-      <c r="E45" s="274"/>
-      <c r="F45" s="273"/>
-      <c r="G45" s="274"/>
+      <c r="C45" s="266"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="268"/>
+      <c r="F45" s="266"/>
+      <c r="G45" s="268"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="98"/>
       <c r="B46" s="99"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="280"/>
-      <c r="E46" s="281"/>
-      <c r="F46" s="275"/>
-      <c r="G46" s="276"/>
+      <c r="C46" s="269"/>
+      <c r="D46" s="270"/>
+      <c r="E46" s="271"/>
+      <c r="F46" s="286"/>
+      <c r="G46" s="287"/>
       <c r="H46" s="100"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9235,15 +9251,15 @@
       <c r="B49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="269" t="s">
+      <c r="C49" s="274" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="282"/>
-      <c r="E49" s="283"/>
-      <c r="F49" s="264" t="s">
+      <c r="D49" s="275"/>
+      <c r="E49" s="276"/>
+      <c r="F49" s="291" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="268"/>
+      <c r="G49" s="292"/>
       <c r="H49" s="56" t="s">
         <v>17</v>
       </c>
@@ -9253,15 +9269,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="110"/>
-      <c r="C50" s="277" t="s">
+      <c r="C50" s="288" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="284"/>
-      <c r="E50" s="278"/>
-      <c r="F50" s="277" t="s">
+      <c r="D50" s="290"/>
+      <c r="E50" s="289"/>
+      <c r="F50" s="288" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="278"/>
+      <c r="G50" s="289"/>
       <c r="H50" s="111" t="s">
         <v>70</v>
       </c>
@@ -9269,61 +9285,72 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="95"/>
       <c r="B51" s="96"/>
-      <c r="C51" s="273"/>
-      <c r="D51" s="285"/>
-      <c r="E51" s="274"/>
-      <c r="F51" s="273"/>
-      <c r="G51" s="274"/>
+      <c r="C51" s="266"/>
+      <c r="D51" s="267"/>
+      <c r="E51" s="268"/>
+      <c r="F51" s="266"/>
+      <c r="G51" s="268"/>
       <c r="H51" s="97"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="95"/>
       <c r="B52" s="96"/>
-      <c r="C52" s="273"/>
-      <c r="D52" s="285"/>
-      <c r="E52" s="274"/>
-      <c r="F52" s="273"/>
-      <c r="G52" s="274"/>
+      <c r="C52" s="266"/>
+      <c r="D52" s="267"/>
+      <c r="E52" s="268"/>
+      <c r="F52" s="266"/>
+      <c r="G52" s="268"/>
       <c r="H52" s="97"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="95"/>
       <c r="B53" s="96"/>
-      <c r="C53" s="273"/>
-      <c r="D53" s="285"/>
-      <c r="E53" s="274"/>
-      <c r="F53" s="273"/>
-      <c r="G53" s="274"/>
+      <c r="C53" s="266"/>
+      <c r="D53" s="267"/>
+      <c r="E53" s="268"/>
+      <c r="F53" s="266"/>
+      <c r="G53" s="268"/>
       <c r="H53" s="97"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="98"/>
       <c r="B54" s="99"/>
-      <c r="C54" s="279"/>
-      <c r="D54" s="280"/>
-      <c r="E54" s="281"/>
-      <c r="F54" s="275"/>
-      <c r="G54" s="276"/>
+      <c r="C54" s="269"/>
+      <c r="D54" s="270"/>
+      <c r="E54" s="271"/>
+      <c r="F54" s="286"/>
+      <c r="G54" s="287"/>
       <c r="H54" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
@@ -9340,33 +9367,22 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9386,8 +9402,8 @@
   </sheetPr>
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -9412,10 +9428,10 @@
       <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:6" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="304" t="s">
+      <c r="A2" s="297" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="305"/>
+      <c r="B2" s="298"/>
       <c r="C2" s="33" t="s">
         <v>136</v>
       </c>
@@ -9428,10 +9444,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="304" t="s">
+      <c r="A3" s="297" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="305"/>
+      <c r="B3" s="298"/>
       <c r="C3" s="33" t="s">
         <v>22</v>
       </c>
@@ -9444,10 +9460,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="304" t="s">
+      <c r="A4" s="297" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="305"/>
+      <c r="B4" s="298"/>
       <c r="C4" s="33" t="s">
         <v>137</v>
       </c>
@@ -9460,10 +9476,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="304" t="s">
+      <c r="A5" s="297" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="305"/>
+      <c r="B5" s="298"/>
       <c r="C5" s="37" t="s">
         <v>24</v>
       </c>
@@ -9474,10 +9490,10 @@
       <c r="F5" s="103"/>
     </row>
     <row r="6" spans="1:6" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="304" t="s">
+      <c r="A6" s="297" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="305"/>
+      <c r="B6" s="298"/>
       <c r="C6" s="33" t="s">
         <v>138</v>
       </c>
@@ -9518,10 +9534,10 @@
       <c r="D9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="302" t="s">
+      <c r="E9" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="303"/>
+      <c r="F9" s="306"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="70">
@@ -9536,10 +9552,10 @@
       <c r="D10" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="296" t="s">
+      <c r="E10" s="299" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="297"/>
+      <c r="F10" s="300"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="70">
@@ -9554,10 +9570,10 @@
       <c r="D11" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="296" t="s">
+      <c r="E11" s="299" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="297"/>
+      <c r="F11" s="300"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="70">
@@ -9572,10 +9588,10 @@
       <c r="D12" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="296" t="s">
+      <c r="E12" s="299" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="297"/>
+      <c r="F12" s="300"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="70">
@@ -9590,10 +9606,10 @@
       <c r="D13" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="296" t="s">
+      <c r="E13" s="299" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="297"/>
+      <c r="F13" s="300"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="70">
@@ -9608,10 +9624,10 @@
       <c r="D14" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="296" t="s">
+      <c r="E14" s="299" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="297"/>
+      <c r="F14" s="300"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="210">
@@ -9626,26 +9642,26 @@
       <c r="D15" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="298" t="s">
+      <c r="E15" s="301" t="s">
         <v>191</v>
       </c>
-      <c r="F15" s="299"/>
+      <c r="F15" s="302"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="300"/>
-      <c r="F16" s="301"/>
+      <c r="E16" s="303"/>
+      <c r="F16" s="304"/>
     </row>
     <row r="17" spans="1:7" ht="33.75" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="300"/>
-      <c r="F17" s="301"/>
+      <c r="E17" s="303"/>
+      <c r="F17" s="304"/>
     </row>
     <row r="18" spans="1:7" ht="29.25" customHeight="1">
       <c r="A18" s="32" t="s">
@@ -9978,7 +9994,9 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
+      <c r="F54" s="3" t="s">
+        <v>224</v>
+      </c>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7">
@@ -9987,7 +10005,9 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7">
@@ -10174,11 +10194,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -10188,6 +10203,11 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10307,38 +10327,38 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="288"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="283"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="66" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="288"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="282"/>
+      <c r="E7" s="282"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="282"/>
+      <c r="H7" s="283"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="66" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="286" t="s">
+      <c r="C8" s="281" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="287"/>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="287"/>
-      <c r="H8" s="288"/>
+      <c r="D8" s="282"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="283"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -10359,10 +10379,10 @@
       <c r="B10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="264" t="s">
+      <c r="C10" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="265"/>
+      <c r="D10" s="294"/>
       <c r="E10" s="55" t="s">
         <v>1</v>
       </c>
@@ -10503,8 +10523,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="82"/>
       <c r="B17" s="83"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="263"/>
+      <c r="C17" s="284"/>
+      <c r="D17" s="285"/>
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="G17" s="85"/>
@@ -10513,8 +10533,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="83"/>
-      <c r="C18" s="262"/>
-      <c r="D18" s="263"/>
+      <c r="C18" s="284"/>
+      <c r="D18" s="285"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="85"/>
@@ -10523,8 +10543,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="82"/>
       <c r="B19" s="83"/>
-      <c r="C19" s="262"/>
-      <c r="D19" s="263"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="285"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="85"/>
@@ -10533,8 +10553,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="82"/>
       <c r="B20" s="83"/>
-      <c r="C20" s="262"/>
-      <c r="D20" s="263"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="285"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="85"/>
@@ -10543,8 +10563,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="82"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="262"/>
-      <c r="D21" s="263"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="285"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="85"/>
@@ -10553,8 +10573,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="82"/>
       <c r="B22" s="83"/>
-      <c r="C22" s="262"/>
-      <c r="D22" s="263"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="285"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="G22" s="85"/>
@@ -10563,8 +10583,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="82"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="262"/>
-      <c r="D23" s="263"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="285"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="85"/>
@@ -10573,8 +10593,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="82"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="262"/>
-      <c r="D24" s="263"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="285"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="85"/>
@@ -10583,8 +10603,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="82"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="262"/>
-      <c r="D25" s="263"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="285"/>
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="G25" s="85"/>
@@ -10593,8 +10613,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="82"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="262"/>
-      <c r="D26" s="263"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="285"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="85"/>
@@ -10603,8 +10623,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="82"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="262"/>
-      <c r="D27" s="263"/>
+      <c r="C27" s="284"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="85"/>
@@ -10613,8 +10633,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="82"/>
       <c r="B28" s="83"/>
-      <c r="C28" s="262"/>
-      <c r="D28" s="263"/>
+      <c r="C28" s="284"/>
+      <c r="D28" s="285"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="85"/>
@@ -10623,8 +10643,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="82"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="262"/>
-      <c r="D29" s="263"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="285"/>
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="85"/>
@@ -10633,8 +10653,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="82"/>
       <c r="B30" s="83"/>
-      <c r="C30" s="262"/>
-      <c r="D30" s="263"/>
+      <c r="C30" s="284"/>
+      <c r="D30" s="285"/>
       <c r="E30" s="84"/>
       <c r="F30" s="84"/>
       <c r="G30" s="85"/>
@@ -10643,8 +10663,8 @@
     <row r="31" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="87"/>
       <c r="B31" s="88"/>
-      <c r="C31" s="279"/>
-      <c r="D31" s="281"/>
+      <c r="C31" s="269"/>
+      <c r="D31" s="271"/>
       <c r="E31" s="89"/>
       <c r="F31" s="89"/>
       <c r="G31" s="90"/>
@@ -10676,10 +10696,10 @@
       <c r="A34" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="269" t="s">
+      <c r="B34" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="283"/>
+      <c r="C34" s="276"/>
       <c r="D34" s="67" t="s">
         <v>9</v>
       </c>
@@ -10694,51 +10714,51 @@
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="72"/>
-      <c r="B35" s="289"/>
-      <c r="C35" s="290"/>
-      <c r="D35" s="271"/>
-      <c r="E35" s="295"/>
-      <c r="F35" s="272"/>
+      <c r="B35" s="277"/>
+      <c r="C35" s="278"/>
+      <c r="D35" s="263"/>
+      <c r="E35" s="264"/>
+      <c r="F35" s="265"/>
       <c r="G35" s="75"/>
       <c r="H35" s="76"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="77"/>
-      <c r="B36" s="291"/>
-      <c r="C36" s="292"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="285"/>
-      <c r="F36" s="274"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="266"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="268"/>
       <c r="G36" s="80"/>
       <c r="H36" s="81"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="77"/>
-      <c r="B37" s="291"/>
-      <c r="C37" s="292"/>
-      <c r="D37" s="273"/>
-      <c r="E37" s="285"/>
-      <c r="F37" s="274"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="266"/>
+      <c r="E37" s="267"/>
+      <c r="F37" s="268"/>
       <c r="G37" s="80"/>
       <c r="H37" s="81"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="77"/>
-      <c r="B38" s="291"/>
-      <c r="C38" s="292"/>
-      <c r="D38" s="273"/>
-      <c r="E38" s="285"/>
-      <c r="F38" s="274"/>
+      <c r="B38" s="279"/>
+      <c r="C38" s="280"/>
+      <c r="D38" s="266"/>
+      <c r="E38" s="267"/>
+      <c r="F38" s="268"/>
       <c r="G38" s="80"/>
       <c r="H38" s="81"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="87"/>
-      <c r="B39" s="293"/>
-      <c r="C39" s="294"/>
-      <c r="D39" s="279"/>
-      <c r="E39" s="280"/>
-      <c r="F39" s="281"/>
+      <c r="B39" s="272"/>
+      <c r="C39" s="273"/>
+      <c r="D39" s="269"/>
+      <c r="E39" s="270"/>
+      <c r="F39" s="271"/>
       <c r="G39" s="90"/>
       <c r="H39" s="91"/>
     </row>
@@ -10771,15 +10791,15 @@
       <c r="B42" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="269" t="s">
+      <c r="C42" s="274" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="282"/>
-      <c r="E42" s="283"/>
-      <c r="F42" s="269" t="s">
+      <c r="D42" s="275"/>
+      <c r="E42" s="276"/>
+      <c r="F42" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="270"/>
+      <c r="G42" s="293"/>
       <c r="H42" s="65" t="s">
         <v>14</v>
       </c>
@@ -10789,15 +10809,15 @@
         <v>1</v>
       </c>
       <c r="B43" s="110"/>
-      <c r="C43" s="277" t="s">
+      <c r="C43" s="288" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="284"/>
-      <c r="E43" s="278"/>
-      <c r="F43" s="277" t="s">
+      <c r="D43" s="290"/>
+      <c r="E43" s="289"/>
+      <c r="F43" s="288" t="s">
         <v>77</v>
       </c>
-      <c r="G43" s="278"/>
+      <c r="G43" s="289"/>
       <c r="H43" s="111" t="s">
         <v>78</v>
       </c>
@@ -10807,15 +10827,15 @@
         <v>2</v>
       </c>
       <c r="B44" s="113"/>
-      <c r="C44" s="306" t="s">
+      <c r="C44" s="307" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="307"/>
-      <c r="E44" s="308"/>
-      <c r="F44" s="306" t="s">
+      <c r="D44" s="308"/>
+      <c r="E44" s="309"/>
+      <c r="F44" s="307" t="s">
         <v>74</v>
       </c>
-      <c r="G44" s="308"/>
+      <c r="G44" s="309"/>
       <c r="H44" s="114" t="s">
         <v>75</v>
       </c>
@@ -10823,31 +10843,31 @@
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="95"/>
       <c r="B45" s="96"/>
-      <c r="C45" s="273"/>
-      <c r="D45" s="285"/>
-      <c r="E45" s="274"/>
-      <c r="F45" s="273"/>
-      <c r="G45" s="274"/>
+      <c r="C45" s="266"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="268"/>
+      <c r="F45" s="266"/>
+      <c r="G45" s="268"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="95"/>
       <c r="B46" s="96"/>
-      <c r="C46" s="273"/>
-      <c r="D46" s="285"/>
-      <c r="E46" s="274"/>
-      <c r="F46" s="273"/>
-      <c r="G46" s="274"/>
+      <c r="C46" s="266"/>
+      <c r="D46" s="267"/>
+      <c r="E46" s="268"/>
+      <c r="F46" s="266"/>
+      <c r="G46" s="268"/>
       <c r="H46" s="97"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="98"/>
       <c r="B47" s="99"/>
-      <c r="C47" s="279"/>
-      <c r="D47" s="280"/>
-      <c r="E47" s="281"/>
-      <c r="F47" s="275"/>
-      <c r="G47" s="276"/>
+      <c r="C47" s="269"/>
+      <c r="D47" s="270"/>
+      <c r="E47" s="271"/>
+      <c r="F47" s="286"/>
+      <c r="G47" s="287"/>
       <c r="H47" s="100"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -10879,15 +10899,15 @@
       <c r="B50" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="269" t="s">
+      <c r="C50" s="274" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="282"/>
-      <c r="E50" s="283"/>
-      <c r="F50" s="264" t="s">
+      <c r="D50" s="275"/>
+      <c r="E50" s="276"/>
+      <c r="F50" s="291" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="268"/>
+      <c r="G50" s="292"/>
       <c r="H50" s="56" t="s">
         <v>17</v>
       </c>
@@ -10897,15 +10917,15 @@
         <v>1</v>
       </c>
       <c r="B51" s="110"/>
-      <c r="C51" s="277" t="s">
+      <c r="C51" s="288" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="284"/>
-      <c r="E51" s="278"/>
-      <c r="F51" s="277" t="s">
+      <c r="D51" s="290"/>
+      <c r="E51" s="289"/>
+      <c r="F51" s="288" t="s">
         <v>86</v>
       </c>
-      <c r="G51" s="278"/>
+      <c r="G51" s="289"/>
       <c r="H51" s="111" t="s">
         <v>85</v>
       </c>
@@ -10913,45 +10933,86 @@
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="95"/>
       <c r="B52" s="96"/>
-      <c r="C52" s="273"/>
-      <c r="D52" s="285"/>
-      <c r="E52" s="274"/>
-      <c r="F52" s="273"/>
-      <c r="G52" s="274"/>
+      <c r="C52" s="266"/>
+      <c r="D52" s="267"/>
+      <c r="E52" s="268"/>
+      <c r="F52" s="266"/>
+      <c r="G52" s="268"/>
       <c r="H52" s="97"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="95"/>
       <c r="B53" s="96"/>
-      <c r="C53" s="273"/>
-      <c r="D53" s="285"/>
-      <c r="E53" s="274"/>
-      <c r="F53" s="273"/>
-      <c r="G53" s="274"/>
+      <c r="C53" s="266"/>
+      <c r="D53" s="267"/>
+      <c r="E53" s="268"/>
+      <c r="F53" s="266"/>
+      <c r="G53" s="268"/>
       <c r="H53" s="97"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="95"/>
       <c r="B54" s="96"/>
-      <c r="C54" s="273"/>
-      <c r="D54" s="285"/>
-      <c r="E54" s="274"/>
-      <c r="F54" s="273"/>
-      <c r="G54" s="274"/>
+      <c r="C54" s="266"/>
+      <c r="D54" s="267"/>
+      <c r="E54" s="268"/>
+      <c r="F54" s="266"/>
+      <c r="G54" s="268"/>
       <c r="H54" s="97"/>
     </row>
     <row r="55" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="98"/>
       <c r="B55" s="99"/>
-      <c r="C55" s="279"/>
-      <c r="D55" s="280"/>
-      <c r="E55" s="281"/>
-      <c r="F55" s="275"/>
-      <c r="G55" s="276"/>
+      <c r="C55" s="269"/>
+      <c r="D55" s="270"/>
+      <c r="E55" s="271"/>
+      <c r="F55" s="286"/>
+      <c r="G55" s="287"/>
       <c r="H55" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
@@ -10965,47 +11026,6 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11124,38 +11144,38 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="288"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="283"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="134" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="288"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="282"/>
+      <c r="E7" s="282"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="282"/>
+      <c r="H7" s="283"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="134" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="286" t="s">
+      <c r="C8" s="281" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="287"/>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="287"/>
-      <c r="H8" s="288"/>
+      <c r="D8" s="282"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="283"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -11176,10 +11196,10 @@
       <c r="B10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="264" t="s">
+      <c r="C10" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="265"/>
+      <c r="D10" s="294"/>
       <c r="E10" s="55" t="s">
         <v>1</v>
       </c>
@@ -11200,10 +11220,10 @@
       <c r="B11" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="266" t="s">
+      <c r="C11" s="295" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="267"/>
+      <c r="D11" s="296"/>
       <c r="E11" s="74" t="s">
         <v>89</v>
       </c>
@@ -11222,10 +11242,10 @@
       <c r="B12" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="262" t="s">
+      <c r="C12" s="284" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="263"/>
+      <c r="D12" s="285"/>
       <c r="E12" s="79" t="s">
         <v>90</v>
       </c>
@@ -11242,10 +11262,10 @@
       <c r="B13" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="262" t="s">
+      <c r="C13" s="284" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="263"/>
+      <c r="D13" s="285"/>
       <c r="E13" s="79" t="s">
         <v>134</v>
       </c>
@@ -11258,8 +11278,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="82"/>
       <c r="B14" s="83"/>
-      <c r="C14" s="262"/>
-      <c r="D14" s="263"/>
+      <c r="C14" s="284"/>
+      <c r="D14" s="285"/>
       <c r="E14" s="84"/>
       <c r="F14" s="84"/>
       <c r="G14" s="85"/>
@@ -11268,8 +11288,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="82"/>
       <c r="B15" s="83"/>
-      <c r="C15" s="262"/>
-      <c r="D15" s="263"/>
+      <c r="C15" s="284"/>
+      <c r="D15" s="285"/>
       <c r="E15" s="84"/>
       <c r="F15" s="84"/>
       <c r="G15" s="85"/>
@@ -11278,8 +11298,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="82"/>
       <c r="B16" s="83"/>
-      <c r="C16" s="262"/>
-      <c r="D16" s="263"/>
+      <c r="C16" s="284"/>
+      <c r="D16" s="285"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
       <c r="G16" s="85"/>
@@ -11288,8 +11308,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="82"/>
       <c r="B17" s="83"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="263"/>
+      <c r="C17" s="284"/>
+      <c r="D17" s="285"/>
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="G17" s="85"/>
@@ -11298,8 +11318,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="83"/>
-      <c r="C18" s="262"/>
-      <c r="D18" s="263"/>
+      <c r="C18" s="284"/>
+      <c r="D18" s="285"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="85"/>
@@ -11308,8 +11328,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="82"/>
       <c r="B19" s="83"/>
-      <c r="C19" s="262"/>
-      <c r="D19" s="263"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="285"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="85"/>
@@ -11318,8 +11338,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="82"/>
       <c r="B20" s="83"/>
-      <c r="C20" s="262"/>
-      <c r="D20" s="263"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="285"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="85"/>
@@ -11328,8 +11348,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="82"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="262"/>
-      <c r="D21" s="263"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="285"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="85"/>
@@ -11338,8 +11358,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="82"/>
       <c r="B22" s="83"/>
-      <c r="C22" s="262"/>
-      <c r="D22" s="263"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="285"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="G22" s="85"/>
@@ -11348,8 +11368,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="82"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="262"/>
-      <c r="D23" s="263"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="285"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="85"/>
@@ -11358,8 +11378,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="82"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="262"/>
-      <c r="D24" s="263"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="285"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="85"/>
@@ -11368,8 +11388,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="82"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="262"/>
-      <c r="D25" s="263"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="285"/>
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="G25" s="85"/>
@@ -11378,8 +11398,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="82"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="262"/>
-      <c r="D26" s="263"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="285"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="85"/>
@@ -11388,8 +11408,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="82"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="262"/>
-      <c r="D27" s="263"/>
+      <c r="C27" s="284"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="85"/>
@@ -11398,8 +11418,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="82"/>
       <c r="B28" s="83"/>
-      <c r="C28" s="262"/>
-      <c r="D28" s="263"/>
+      <c r="C28" s="284"/>
+      <c r="D28" s="285"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="85"/>
@@ -11408,8 +11428,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="82"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="262"/>
-      <c r="D29" s="263"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="285"/>
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="85"/>
@@ -11418,8 +11438,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="87"/>
       <c r="B30" s="128"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="281"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="271"/>
       <c r="E30" s="89"/>
       <c r="F30" s="89"/>
       <c r="G30" s="90"/>
@@ -11451,10 +11471,10 @@
       <c r="A33" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="269" t="s">
+      <c r="B33" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="283"/>
+      <c r="C33" s="276"/>
       <c r="D33" s="129" t="s">
         <v>9</v>
       </c>
@@ -11469,51 +11489,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="72"/>
-      <c r="B34" s="289"/>
-      <c r="C34" s="290"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="295"/>
-      <c r="F34" s="272"/>
+      <c r="B34" s="277"/>
+      <c r="C34" s="278"/>
+      <c r="D34" s="263"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="265"/>
       <c r="G34" s="75"/>
       <c r="H34" s="76"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="77"/>
-      <c r="B35" s="291"/>
-      <c r="C35" s="292"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="285"/>
-      <c r="F35" s="274"/>
+      <c r="B35" s="279"/>
+      <c r="C35" s="280"/>
+      <c r="D35" s="266"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="268"/>
       <c r="G35" s="80"/>
       <c r="H35" s="81"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="77"/>
-      <c r="B36" s="291"/>
-      <c r="C36" s="292"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="285"/>
-      <c r="F36" s="274"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="266"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="268"/>
       <c r="G36" s="80"/>
       <c r="H36" s="81"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="77"/>
-      <c r="B37" s="291"/>
-      <c r="C37" s="292"/>
-      <c r="D37" s="273"/>
-      <c r="E37" s="285"/>
-      <c r="F37" s="274"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="266"/>
+      <c r="E37" s="267"/>
+      <c r="F37" s="268"/>
       <c r="G37" s="80"/>
       <c r="H37" s="81"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="87"/>
-      <c r="B38" s="293"/>
-      <c r="C38" s="294"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="281"/>
+      <c r="B38" s="272"/>
+      <c r="C38" s="273"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="270"/>
+      <c r="F38" s="271"/>
       <c r="G38" s="90"/>
       <c r="H38" s="91"/>
     </row>
@@ -11546,15 +11566,15 @@
       <c r="B41" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="269" t="s">
+      <c r="C41" s="274" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="282"/>
-      <c r="E41" s="283"/>
-      <c r="F41" s="269" t="s">
+      <c r="D41" s="275"/>
+      <c r="E41" s="276"/>
+      <c r="F41" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="270"/>
+      <c r="G41" s="293"/>
       <c r="H41" s="65" t="s">
         <v>14</v>
       </c>
@@ -11562,51 +11582,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="92"/>
       <c r="B42" s="93"/>
-      <c r="C42" s="271"/>
-      <c r="D42" s="295"/>
-      <c r="E42" s="272"/>
-      <c r="F42" s="271"/>
-      <c r="G42" s="272"/>
+      <c r="C42" s="263"/>
+      <c r="D42" s="264"/>
+      <c r="E42" s="265"/>
+      <c r="F42" s="263"/>
+      <c r="G42" s="265"/>
       <c r="H42" s="94"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="95"/>
       <c r="B43" s="96"/>
-      <c r="C43" s="273"/>
-      <c r="D43" s="285"/>
-      <c r="E43" s="274"/>
-      <c r="F43" s="273"/>
-      <c r="G43" s="274"/>
+      <c r="C43" s="266"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="268"/>
+      <c r="F43" s="266"/>
+      <c r="G43" s="268"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="95"/>
       <c r="B44" s="96"/>
-      <c r="C44" s="273"/>
-      <c r="D44" s="285"/>
-      <c r="E44" s="274"/>
-      <c r="F44" s="273"/>
-      <c r="G44" s="274"/>
+      <c r="C44" s="266"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="268"/>
+      <c r="F44" s="266"/>
+      <c r="G44" s="268"/>
       <c r="H44" s="97"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="95"/>
       <c r="B45" s="96"/>
-      <c r="C45" s="273"/>
-      <c r="D45" s="285"/>
-      <c r="E45" s="274"/>
-      <c r="F45" s="273"/>
-      <c r="G45" s="274"/>
+      <c r="C45" s="266"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="268"/>
+      <c r="F45" s="266"/>
+      <c r="G45" s="268"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="98"/>
       <c r="B46" s="133"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="280"/>
-      <c r="E46" s="281"/>
-      <c r="F46" s="275"/>
-      <c r="G46" s="276"/>
+      <c r="C46" s="269"/>
+      <c r="D46" s="270"/>
+      <c r="E46" s="271"/>
+      <c r="F46" s="286"/>
+      <c r="G46" s="287"/>
       <c r="H46" s="100"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -11638,15 +11658,15 @@
       <c r="B49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="269" t="s">
+      <c r="C49" s="274" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="282"/>
-      <c r="E49" s="283"/>
-      <c r="F49" s="264" t="s">
+      <c r="D49" s="275"/>
+      <c r="E49" s="276"/>
+      <c r="F49" s="291" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="268"/>
+      <c r="G49" s="292"/>
       <c r="H49" s="56" t="s">
         <v>17</v>
       </c>
@@ -11654,2284 +11674,63 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="109"/>
       <c r="B50" s="110"/>
-      <c r="C50" s="277"/>
-      <c r="D50" s="284"/>
-      <c r="E50" s="278"/>
-      <c r="F50" s="277"/>
-      <c r="G50" s="278"/>
+      <c r="C50" s="288"/>
+      <c r="D50" s="290"/>
+      <c r="E50" s="289"/>
+      <c r="F50" s="288"/>
+      <c r="G50" s="289"/>
       <c r="H50" s="111"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="95"/>
       <c r="B51" s="96"/>
-      <c r="C51" s="273"/>
-      <c r="D51" s="285"/>
-      <c r="E51" s="274"/>
-      <c r="F51" s="273"/>
-      <c r="G51" s="274"/>
+      <c r="C51" s="266"/>
+      <c r="D51" s="267"/>
+      <c r="E51" s="268"/>
+      <c r="F51" s="266"/>
+      <c r="G51" s="268"/>
       <c r="H51" s="97"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="95"/>
       <c r="B52" s="96"/>
-      <c r="C52" s="273"/>
-      <c r="D52" s="285"/>
-      <c r="E52" s="274"/>
-      <c r="F52" s="273"/>
-      <c r="G52" s="274"/>
+      <c r="C52" s="266"/>
+      <c r="D52" s="267"/>
+      <c r="E52" s="268"/>
+      <c r="F52" s="266"/>
+      <c r="G52" s="268"/>
       <c r="H52" s="97"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="95"/>
       <c r="B53" s="96"/>
-      <c r="C53" s="273"/>
-      <c r="D53" s="285"/>
-      <c r="E53" s="274"/>
-      <c r="F53" s="273"/>
-      <c r="G53" s="274"/>
+      <c r="C53" s="266"/>
+      <c r="D53" s="267"/>
+      <c r="E53" s="268"/>
+      <c r="F53" s="266"/>
+      <c r="G53" s="268"/>
       <c r="H53" s="97"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="98"/>
       <c r="B54" s="133"/>
-      <c r="C54" s="279"/>
-      <c r="D54" s="280"/>
-      <c r="E54" s="281"/>
-      <c r="F54" s="275"/>
-      <c r="G54" s="276"/>
+      <c r="C54" s="269"/>
+      <c r="D54" s="270"/>
+      <c r="E54" s="271"/>
+      <c r="F54" s="286"/>
+      <c r="G54" s="287"/>
       <c r="H54" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B16A643-9F07-4984-9911-D3BCFE289355}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J60"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="7" width="14.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="14.4">
-      <c r="A1" s="209" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="208" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="207">
-        <v>43594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="120" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="206"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="116" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="205" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="22" customFormat="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="313" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="314"/>
-      <c r="C6" s="317" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="318"/>
-      <c r="E6" s="318"/>
-      <c r="F6" s="318"/>
-      <c r="G6" s="319"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="317" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="318"/>
-      <c r="E7" s="318"/>
-      <c r="F7" s="318"/>
-      <c r="G7" s="319"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="120" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="204"/>
-      <c r="C8" s="320" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="321"/>
-      <c r="E8" s="321"/>
-      <c r="F8" s="321"/>
-      <c r="G8" s="322"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.8" thickBot="1">
-      <c r="A9" s="168" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="121"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="165" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="165" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="162" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="203">
-        <v>1</v>
-      </c>
-      <c r="B11" s="202" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="202" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="202" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="202" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="201"/>
-      <c r="G11" s="200" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="196">
-        <v>2</v>
-      </c>
-      <c r="B12" s="199" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="199" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="199" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="198"/>
-      <c r="G12" s="197"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="196">
-        <v>3</v>
-      </c>
-      <c r="B13" s="199" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="199" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="199" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="198"/>
-      <c r="G13" s="197"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="196">
-        <v>4</v>
-      </c>
-      <c r="B14" s="191" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="195" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="195" t="s">
-        <v>206</v>
-      </c>
-      <c r="F14" s="194"/>
-      <c r="G14" s="193"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="192"/>
-      <c r="B15" s="213"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="189"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="192"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="191"/>
-      <c r="E16" s="191"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="189"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="192"/>
-      <c r="B17" s="214"/>
-      <c r="C17" s="191"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="189"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="192"/>
-      <c r="B18" s="211"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="189"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="192"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="189"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="192"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="189"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="192"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="189"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="192"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="189"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="192"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="189"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="192"/>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="191"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="189"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="192"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="189"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="192"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="189"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="192"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="191"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="189"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="192"/>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="191"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="189"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="192"/>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="189"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="192"/>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="191"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="189"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="192"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="191"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="189"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="192"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="189"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="192"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="189"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="192"/>
-      <c r="B34" s="191"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="189"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="192"/>
-      <c r="B35" s="191"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="189"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A36" s="177"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="174"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A38" s="168" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A39" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="171" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="187"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="172" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="169" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="186"/>
-      <c r="B40" s="185"/>
-      <c r="C40" s="185"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="183"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="181"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="182"/>
-      <c r="G41" s="178"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="181"/>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="178"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="181"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="178"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A44" s="177"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
-      <c r="E44" s="176"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="174"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="167"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A46" s="168" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A47" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="172" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="171" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="170"/>
-      <c r="E47" s="315" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="316"/>
-      <c r="G47" s="169" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="161"/>
-      <c r="B48" s="160"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="158"/>
-      <c r="E48" s="323"/>
-      <c r="F48" s="324"/>
-      <c r="G48" s="157"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="156"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="154"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="309"/>
-      <c r="F49" s="310"/>
-      <c r="G49" s="152"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="156"/>
-      <c r="B50" s="155"/>
-      <c r="C50" s="154"/>
-      <c r="D50" s="153"/>
-      <c r="E50" s="309"/>
-      <c r="F50" s="310"/>
-      <c r="G50" s="152"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="156"/>
-      <c r="B51" s="155"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="309"/>
-      <c r="F51" s="310"/>
-      <c r="G51" s="152"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A52" s="151"/>
-      <c r="B52" s="150"/>
-      <c r="C52" s="325"/>
-      <c r="D52" s="326"/>
-      <c r="E52" s="325"/>
-      <c r="F52" s="326"/>
-      <c r="G52" s="149"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A54" s="168" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-    </row>
-    <row r="55" spans="1:7" s="21" customFormat="1" ht="13.8" thickBot="1">
-      <c r="A55" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="163"/>
-      <c r="E55" s="311" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="312"/>
-      <c r="G55" s="162" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="161"/>
-      <c r="B56" s="160"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="158"/>
-      <c r="E56" s="323"/>
-      <c r="F56" s="324"/>
-      <c r="G56" s="157"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="156"/>
-      <c r="B57" s="155"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="309"/>
-      <c r="F57" s="310"/>
-      <c r="G57" s="152"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="156"/>
-      <c r="B58" s="155"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="309"/>
-      <c r="F58" s="310"/>
-      <c r="G58" s="152"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="156"/>
-      <c r="B59" s="155"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="309"/>
-      <c r="F59" s="310"/>
-      <c r="G59" s="152"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A60" s="151"/>
-      <c r="B60" s="150"/>
-      <c r="C60" s="325"/>
-      <c r="D60" s="326"/>
-      <c r="E60" s="325"/>
-      <c r="F60" s="326"/>
-      <c r="G60" s="149"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E50:F50"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6535BF08-B134-467B-93E0-F97B1F46E299}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G60"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="7" width="14.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="14.4">
-      <c r="A1" s="209" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="117" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="208" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="207">
-        <v>43594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="120" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="206"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="116" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="117" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="205" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="313" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="314"/>
-      <c r="C6" s="317" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="318"/>
-      <c r="E6" s="318"/>
-      <c r="F6" s="318"/>
-      <c r="G6" s="319"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="317" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="318"/>
-      <c r="E7" s="318"/>
-      <c r="F7" s="318"/>
-      <c r="G7" s="319"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="120" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="204"/>
-      <c r="C8" s="320" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="321"/>
-      <c r="E8" s="321"/>
-      <c r="F8" s="321"/>
-      <c r="G8" s="322"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A9" s="168" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="165" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="165" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="162" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="203">
-        <v>1</v>
-      </c>
-      <c r="B11" s="202" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="202" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="202" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="202" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="201"/>
-      <c r="G11" s="200" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="196">
-        <v>2</v>
-      </c>
-      <c r="B12" s="199" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="199" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="199" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="198"/>
-      <c r="G12" s="197"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="203">
-        <v>3</v>
-      </c>
-      <c r="B13" s="199" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="199" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="199" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="198"/>
-      <c r="G13" s="197"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="196">
-        <v>4</v>
-      </c>
-      <c r="B14" s="195" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="195" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="194"/>
-      <c r="G14" s="193"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="203">
-        <v>5</v>
-      </c>
-      <c r="B15" s="195" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="195" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="195" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="194"/>
-      <c r="G15" s="193"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="192">
-        <v>6</v>
-      </c>
-      <c r="B16" s="195" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="191" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="191" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="191" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="190"/>
-      <c r="G16" s="189"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="192">
-        <v>7</v>
-      </c>
-      <c r="B17" s="191" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="191" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="191" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="191" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="190"/>
-      <c r="G17" s="189"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="192">
-        <v>8</v>
-      </c>
-      <c r="B18" s="191" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="191" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="191" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="191" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" s="190"/>
-      <c r="G18" s="189" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="192"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="189"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="192"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="189"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="192"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="189"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="192"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="189"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="192"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="189"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="192"/>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="191"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="189"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="192"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="189"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="192"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="189"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="192"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="191"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="189"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="192"/>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="191"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="189"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="192"/>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="189"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="192"/>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="191"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="189"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="192"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="191"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="189"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="192"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="189"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="192"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="189"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="192"/>
-      <c r="B34" s="191"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="189"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="192"/>
-      <c r="B35" s="191"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="189"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A36" s="177"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="174"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A38" s="168" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A39" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="171" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="187"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="172" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="169" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="186"/>
-      <c r="B40" s="185"/>
-      <c r="C40" s="185"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="183"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="181"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="182"/>
-      <c r="G41" s="178"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="181"/>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="178"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="181"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="178"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A44" s="177"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
-      <c r="E44" s="176"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="174"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="167"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A46" s="168" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A47" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="172" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="171" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="170"/>
-      <c r="E47" s="315" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="316"/>
-      <c r="G47" s="169" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="161"/>
-      <c r="B48" s="160"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="158"/>
-      <c r="E48" s="323"/>
-      <c r="F48" s="324"/>
-      <c r="G48" s="157"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="156"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="154"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="309"/>
-      <c r="F49" s="310"/>
-      <c r="G49" s="152"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="156"/>
-      <c r="B50" s="155"/>
-      <c r="C50" s="154"/>
-      <c r="D50" s="153"/>
-      <c r="E50" s="309"/>
-      <c r="F50" s="310"/>
-      <c r="G50" s="152"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="156"/>
-      <c r="B51" s="155"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="309"/>
-      <c r="F51" s="310"/>
-      <c r="G51" s="152"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A52" s="151"/>
-      <c r="B52" s="150"/>
-      <c r="C52" s="325"/>
-      <c r="D52" s="326"/>
-      <c r="E52" s="325"/>
-      <c r="F52" s="326"/>
-      <c r="G52" s="149"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A54" s="168" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-    </row>
-    <row r="55" spans="1:7" s="21" customFormat="1" ht="13.8" thickBot="1">
-      <c r="A55" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="163"/>
-      <c r="E55" s="311" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="312"/>
-      <c r="G55" s="162" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="161"/>
-      <c r="B56" s="160"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="158"/>
-      <c r="E56" s="323"/>
-      <c r="F56" s="324"/>
-      <c r="G56" s="157"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="156"/>
-      <c r="B57" s="155"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="309"/>
-      <c r="F57" s="310"/>
-      <c r="G57" s="152"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="156"/>
-      <c r="B58" s="155"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="309"/>
-      <c r="F58" s="310"/>
-      <c r="G58" s="152"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="156"/>
-      <c r="B59" s="155"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="309"/>
-      <c r="F59" s="310"/>
-      <c r="G59" s="152"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A60" s="151"/>
-      <c r="B60" s="150"/>
-      <c r="C60" s="325"/>
-      <c r="D60" s="326"/>
-      <c r="E60" s="325"/>
-      <c r="F60" s="326"/>
-      <c r="G60" s="149"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037AD983-EBBB-4DC1-8FD7-00B741A8CEA7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="125" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="127"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="148" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="144" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="104" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="144" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="105"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="144" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="105" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="22" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="148" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="288"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="148" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="288"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="148" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="286" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="287"/>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="287"/>
-      <c r="H8" s="288"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="264" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="265"/>
-      <c r="E10" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="72">
-        <v>1</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="266" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="267"/>
-      <c r="E11" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="77">
-        <v>2</v>
-      </c>
-      <c r="B12" s="146" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="262" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="263"/>
-      <c r="E12" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="74" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="77">
-        <v>3</v>
-      </c>
-      <c r="B13" s="216" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="327" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13" s="216" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="262"/>
-      <c r="D14" s="263"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="262"/>
-      <c r="D15" s="263"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="262"/>
-      <c r="D16" s="263"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="263"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="86"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="262"/>
-      <c r="D18" s="263"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="262"/>
-      <c r="D19" s="263"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="86"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="262"/>
-      <c r="D20" s="263"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="86"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="262"/>
-      <c r="D21" s="263"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="86"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="82"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="262"/>
-      <c r="D22" s="263"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="86"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="82"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="262"/>
-      <c r="D23" s="263"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="86"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="262"/>
-      <c r="D24" s="263"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="262"/>
-      <c r="D25" s="263"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="86"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="262"/>
-      <c r="D26" s="263"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="86"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="82"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="262"/>
-      <c r="D27" s="263"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="86"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="262"/>
-      <c r="D28" s="263"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="86"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="82"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="262"/>
-      <c r="D29" s="263"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="86"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="87"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="281"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="91"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="269" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="283"/>
-      <c r="D33" s="140" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="142"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="289"/>
-      <c r="C34" s="290"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="295"/>
-      <c r="F34" s="272"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="77"/>
-      <c r="B35" s="291"/>
-      <c r="C35" s="292"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="285"/>
-      <c r="F35" s="274"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="77"/>
-      <c r="B36" s="291"/>
-      <c r="C36" s="292"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="285"/>
-      <c r="F36" s="274"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="81"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A37" s="77"/>
-      <c r="B37" s="291"/>
-      <c r="C37" s="292"/>
-      <c r="D37" s="273"/>
-      <c r="E37" s="285"/>
-      <c r="F37" s="274"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="81"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="87"/>
-      <c r="B38" s="293"/>
-      <c r="C38" s="294"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="281"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="91"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="269" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="282"/>
-      <c r="E41" s="283"/>
-      <c r="F41" s="269" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="270"/>
-      <c r="H41" s="65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="271"/>
-      <c r="D42" s="295"/>
-      <c r="E42" s="272"/>
-      <c r="F42" s="271"/>
-      <c r="G42" s="272"/>
-      <c r="H42" s="94"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="95"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="273"/>
-      <c r="D43" s="285"/>
-      <c r="E43" s="274"/>
-      <c r="F43" s="273"/>
-      <c r="G43" s="274"/>
-      <c r="H43" s="97"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="95"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="273"/>
-      <c r="D44" s="285"/>
-      <c r="E44" s="274"/>
-      <c r="F44" s="273"/>
-      <c r="G44" s="274"/>
-      <c r="H44" s="97"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="95"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="273"/>
-      <c r="D45" s="285"/>
-      <c r="E45" s="274"/>
-      <c r="F45" s="273"/>
-      <c r="G45" s="274"/>
-      <c r="H45" s="97"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="98"/>
-      <c r="B46" s="141"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="280"/>
-      <c r="E46" s="281"/>
-      <c r="F46" s="275"/>
-      <c r="G46" s="276"/>
-      <c r="H46" s="100"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-    </row>
-    <row r="49" spans="1:8" s="21" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="269" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="282"/>
-      <c r="E49" s="283"/>
-      <c r="F49" s="264" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="268"/>
-      <c r="H49" s="56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="109">
-        <v>1</v>
-      </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="277"/>
-      <c r="D50" s="284"/>
-      <c r="E50" s="278"/>
-      <c r="F50" s="277"/>
-      <c r="G50" s="278"/>
-      <c r="H50" s="111"/>
-    </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="95"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="273"/>
-      <c r="D51" s="285"/>
-      <c r="E51" s="274"/>
-      <c r="F51" s="273"/>
-      <c r="G51" s="274"/>
-      <c r="H51" s="97"/>
-    </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="95"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="273"/>
-      <c r="D52" s="285"/>
-      <c r="E52" s="274"/>
-      <c r="F52" s="273"/>
-      <c r="G52" s="274"/>
-      <c r="H52" s="97"/>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A53" s="95"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="273"/>
-      <c r="D53" s="285"/>
-      <c r="E53" s="274"/>
-      <c r="F53" s="273"/>
-      <c r="G53" s="274"/>
-      <c r="H53" s="97"/>
-    </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="98"/>
-      <c r="B54" s="141"/>
-      <c r="C54" s="279"/>
-      <c r="D54" s="280"/>
-      <c r="E54" s="281"/>
-      <c r="F54" s="275"/>
-      <c r="G54" s="276"/>
-      <c r="H54" s="100"/>
-    </row>
-  </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -13990,6 +11789,2227 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B16A643-9F07-4984-9911-D3BCFE289355}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="7" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4">
+      <c r="A1" s="209" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="208" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="207">
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="206"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="205" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="22" customFormat="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="318" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="319"/>
+      <c r="C6" s="322" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="323"/>
+      <c r="G6" s="324"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="204"/>
+      <c r="C7" s="322" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="323"/>
+      <c r="E7" s="323"/>
+      <c r="F7" s="323"/>
+      <c r="G7" s="324"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="204"/>
+      <c r="C8" s="325" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="326"/>
+      <c r="E8" s="326"/>
+      <c r="F8" s="326"/>
+      <c r="G8" s="327"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.8" thickBot="1">
+      <c r="A9" s="168" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="121"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="165" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="203">
+        <v>1</v>
+      </c>
+      <c r="B11" s="202" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="202" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="202" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="202" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="201"/>
+      <c r="G11" s="200" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="196">
+        <v>2</v>
+      </c>
+      <c r="B12" s="199" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="199" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="198"/>
+      <c r="G12" s="197"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="196">
+        <v>3</v>
+      </c>
+      <c r="B13" s="199" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="199" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="199" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="198"/>
+      <c r="G13" s="197"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="196">
+        <v>4</v>
+      </c>
+      <c r="B14" s="191" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="195" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="195" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="194"/>
+      <c r="G14" s="193"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="192"/>
+      <c r="B15" s="213"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="189"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="192"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="189"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="192"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="189"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="192"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="189"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="192"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="189"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="192"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="189"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="192"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="189"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="192"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="189"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="192"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="189"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="192"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="189"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="192"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="189"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="192"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="189"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="192"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="189"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="192"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="189"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="192"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="189"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="192"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="189"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="192"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="191"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="189"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="192"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="189"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="192"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="189"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="192"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="189"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="192"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="189"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A36" s="177"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="174"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A38" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="167"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A39" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="187"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="186"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="185"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="183"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="181"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="178"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="181"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="178"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="181"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="178"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A44" s="177"/>
+      <c r="B44" s="176"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="176"/>
+      <c r="E44" s="176"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="174"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A46" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A47" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="170"/>
+      <c r="E47" s="320" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="321"/>
+      <c r="G47" s="169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="161"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="312"/>
+      <c r="F48" s="313"/>
+      <c r="G48" s="157"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="156"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="314"/>
+      <c r="F49" s="315"/>
+      <c r="G49" s="152"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="156"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="314"/>
+      <c r="F50" s="315"/>
+      <c r="G50" s="152"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="156"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="314"/>
+      <c r="F51" s="315"/>
+      <c r="G51" s="152"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A52" s="151"/>
+      <c r="B52" s="150"/>
+      <c r="C52" s="310"/>
+      <c r="D52" s="311"/>
+      <c r="E52" s="310"/>
+      <c r="F52" s="311"/>
+      <c r="G52" s="149"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1"/>
+      <c r="B53" s="167"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="167"/>
+      <c r="E53" s="167"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="167"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A54" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="167"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="167"/>
+    </row>
+    <row r="55" spans="1:7" s="21" customFormat="1" ht="13.8" thickBot="1">
+      <c r="A55" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="163"/>
+      <c r="E55" s="316" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="317"/>
+      <c r="G55" s="162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="161"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="159"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="312"/>
+      <c r="F56" s="313"/>
+      <c r="G56" s="157"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="156"/>
+      <c r="B57" s="155"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="314"/>
+      <c r="F57" s="315"/>
+      <c r="G57" s="152"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="156"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="314"/>
+      <c r="F58" s="315"/>
+      <c r="G58" s="152"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="156"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="153"/>
+      <c r="E59" s="314"/>
+      <c r="F59" s="315"/>
+      <c r="G59" s="152"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A60" s="151"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="310"/>
+      <c r="D60" s="311"/>
+      <c r="E60" s="310"/>
+      <c r="F60" s="311"/>
+      <c r="G60" s="149"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E58:F58"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6535BF08-B134-467B-93E0-F97B1F46E299}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="7" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.4">
+      <c r="A1" s="209" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="208" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="207">
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="206"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="205" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="22" customFormat="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="318" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="319"/>
+      <c r="C6" s="322" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="323"/>
+      <c r="G6" s="324"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="204"/>
+      <c r="C7" s="322" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="323"/>
+      <c r="E7" s="323"/>
+      <c r="F7" s="323"/>
+      <c r="G7" s="324"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="204"/>
+      <c r="C8" s="325" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="326"/>
+      <c r="E8" s="326"/>
+      <c r="F8" s="326"/>
+      <c r="G8" s="327"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A9" s="168" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="165" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="203">
+        <v>1</v>
+      </c>
+      <c r="B11" s="202" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="202" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="202" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="202" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="201"/>
+      <c r="G11" s="200" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="196">
+        <v>2</v>
+      </c>
+      <c r="B12" s="199" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="199" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="199" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="198"/>
+      <c r="G12" s="197"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="203">
+        <v>3</v>
+      </c>
+      <c r="B13" s="199" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="199" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="199" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="198"/>
+      <c r="G13" s="197"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="196">
+        <v>4</v>
+      </c>
+      <c r="B14" s="195" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="195" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="194"/>
+      <c r="G14" s="193"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="203">
+        <v>5</v>
+      </c>
+      <c r="B15" s="195" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="195" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="195" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="194"/>
+      <c r="G15" s="193"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="192">
+        <v>6</v>
+      </c>
+      <c r="B16" s="195" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="191" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="191" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="191" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="190"/>
+      <c r="G16" s="189"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="192">
+        <v>7</v>
+      </c>
+      <c r="B17" s="191" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="191" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="191" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="191" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="190"/>
+      <c r="G17" s="189"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="192">
+        <v>8</v>
+      </c>
+      <c r="B18" s="191" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="191" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="191" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="191" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="190"/>
+      <c r="G18" s="189" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="192"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="189"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="192"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="189"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="192"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="189"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="192"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="189"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="192"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="189"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="192"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="189"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="192"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="189"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="192"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="189"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="192"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="189"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="192"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="189"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="192"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="189"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="192"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="189"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="192"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="191"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="189"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="192"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="189"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="192"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="189"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="192"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="189"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="192"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="189"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A36" s="177"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="174"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A38" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="167"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A39" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="187"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="186"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="185"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="183"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="181"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="178"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="181"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="178"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="181"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="178"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A44" s="177"/>
+      <c r="B44" s="176"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="176"/>
+      <c r="E44" s="176"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="174"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A46" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A47" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="170"/>
+      <c r="E47" s="320" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="321"/>
+      <c r="G47" s="169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="161"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="312"/>
+      <c r="F48" s="313"/>
+      <c r="G48" s="157"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="156"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="314"/>
+      <c r="F49" s="315"/>
+      <c r="G49" s="152"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="156"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="314"/>
+      <c r="F50" s="315"/>
+      <c r="G50" s="152"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="156"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="314"/>
+      <c r="F51" s="315"/>
+      <c r="G51" s="152"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A52" s="151"/>
+      <c r="B52" s="150"/>
+      <c r="C52" s="310"/>
+      <c r="D52" s="311"/>
+      <c r="E52" s="310"/>
+      <c r="F52" s="311"/>
+      <c r="G52" s="149"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1"/>
+      <c r="B53" s="167"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="167"/>
+      <c r="E53" s="167"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="167"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A54" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="167"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="167"/>
+    </row>
+    <row r="55" spans="1:7" s="21" customFormat="1" ht="13.8" thickBot="1">
+      <c r="A55" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="163"/>
+      <c r="E55" s="316" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="317"/>
+      <c r="G55" s="162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="161"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="159"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="312"/>
+      <c r="F56" s="313"/>
+      <c r="G56" s="157"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="156"/>
+      <c r="B57" s="155"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="314"/>
+      <c r="F57" s="315"/>
+      <c r="G57" s="152"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="156"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="314"/>
+      <c r="F58" s="315"/>
+      <c r="G58" s="152"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="156"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="153"/>
+      <c r="E59" s="314"/>
+      <c r="F59" s="315"/>
+      <c r="G59" s="152"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A60" s="151"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="310"/>
+      <c r="D60" s="311"/>
+      <c r="E60" s="310"/>
+      <c r="F60" s="311"/>
+      <c r="G60" s="149"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037AD983-EBBB-4DC1-8FD7-00B741A8CEA7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4">
+      <c r="A1" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="148"/>
+      <c r="C2" s="144" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="145"/>
+      <c r="E2" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="145" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="104" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="148"/>
+      <c r="C3" s="144" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="145"/>
+      <c r="E3" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="145"/>
+      <c r="G3" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="105"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="148"/>
+      <c r="C4" s="144" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="283"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="282"/>
+      <c r="E7" s="282"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="282"/>
+      <c r="H7" s="283"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="281" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="282"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="283"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A9" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="291" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="294"/>
+      <c r="E10" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="72">
+        <v>1</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="295" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="296"/>
+      <c r="E11" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="77">
+        <v>2</v>
+      </c>
+      <c r="B12" s="146" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="284" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="285"/>
+      <c r="E12" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="77">
+        <v>3</v>
+      </c>
+      <c r="B13" s="216" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="226" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="216" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="284"/>
+      <c r="D14" s="285"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="82"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="284"/>
+      <c r="D15" s="285"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="284"/>
+      <c r="D16" s="285"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="284"/>
+      <c r="D17" s="285"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="82"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="284"/>
+      <c r="D18" s="285"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="285"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="82"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="285"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="285"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="285"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="285"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="82"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="285"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="82"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="285"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="82"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="284"/>
+      <c r="D27" s="285"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="82"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="284"/>
+      <c r="D28" s="285"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="82"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="285"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A30" s="87"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="271"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="91"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A32" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="53"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="274" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="276"/>
+      <c r="D33" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="142"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="72"/>
+      <c r="B34" s="277"/>
+      <c r="C34" s="278"/>
+      <c r="D34" s="263"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="265"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="77"/>
+      <c r="B35" s="279"/>
+      <c r="C35" s="280"/>
+      <c r="D35" s="266"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="268"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="81"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="77"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="266"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="268"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="77"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="266"/>
+      <c r="E37" s="267"/>
+      <c r="F37" s="268"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="81"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A38" s="87"/>
+      <c r="B38" s="272"/>
+      <c r="C38" s="273"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="270"/>
+      <c r="F38" s="271"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="91"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A40" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="53"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A41" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="274" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="275"/>
+      <c r="E41" s="276"/>
+      <c r="F41" s="274" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="293"/>
+      <c r="H41" s="65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="92"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="263"/>
+      <c r="D42" s="264"/>
+      <c r="E42" s="265"/>
+      <c r="F42" s="263"/>
+      <c r="G42" s="265"/>
+      <c r="H42" s="94"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="95"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="266"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="268"/>
+      <c r="F43" s="266"/>
+      <c r="G43" s="268"/>
+      <c r="H43" s="97"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="95"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="266"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="268"/>
+      <c r="F44" s="266"/>
+      <c r="G44" s="268"/>
+      <c r="H44" s="97"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="95"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="266"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="268"/>
+      <c r="F45" s="266"/>
+      <c r="G45" s="268"/>
+      <c r="H45" s="97"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A46" s="98"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="269"/>
+      <c r="D46" s="270"/>
+      <c r="E46" s="271"/>
+      <c r="F46" s="286"/>
+      <c r="G46" s="287"/>
+      <c r="H46" s="100"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A48" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="53"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+    </row>
+    <row r="49" spans="1:8" s="21" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="274" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="275"/>
+      <c r="E49" s="276"/>
+      <c r="F49" s="291" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="292"/>
+      <c r="H49" s="56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="109">
+        <v>1</v>
+      </c>
+      <c r="B50" s="110"/>
+      <c r="C50" s="288"/>
+      <c r="D50" s="290"/>
+      <c r="E50" s="289"/>
+      <c r="F50" s="288"/>
+      <c r="G50" s="289"/>
+      <c r="H50" s="111"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="95"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="266"/>
+      <c r="D51" s="267"/>
+      <c r="E51" s="268"/>
+      <c r="F51" s="266"/>
+      <c r="G51" s="268"/>
+      <c r="H51" s="97"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="95"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="266"/>
+      <c r="D52" s="267"/>
+      <c r="E52" s="268"/>
+      <c r="F52" s="266"/>
+      <c r="G52" s="268"/>
+      <c r="H52" s="97"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="95"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="266"/>
+      <c r="D53" s="267"/>
+      <c r="E53" s="268"/>
+      <c r="F53" s="266"/>
+      <c r="G53" s="268"/>
+      <c r="H53" s="97"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A54" s="98"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="269"/>
+      <c r="D54" s="270"/>
+      <c r="E54" s="271"/>
+      <c r="F54" s="286"/>
+      <c r="G54" s="287"/>
+      <c r="H54" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
@@ -14096,38 +14116,38 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="287"/>
-      <c r="E6" s="287"/>
-      <c r="F6" s="287"/>
-      <c r="G6" s="287"/>
-      <c r="H6" s="288"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="282"/>
+      <c r="E6" s="282"/>
+      <c r="F6" s="282"/>
+      <c r="G6" s="282"/>
+      <c r="H6" s="283"/>
     </row>
     <row r="7" spans="1:15" ht="20.25" customHeight="1">
       <c r="A7" s="134" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="287"/>
-      <c r="E7" s="287"/>
-      <c r="F7" s="287"/>
-      <c r="G7" s="287"/>
-      <c r="H7" s="288"/>
+      <c r="C7" s="281"/>
+      <c r="D7" s="282"/>
+      <c r="E7" s="282"/>
+      <c r="F7" s="282"/>
+      <c r="G7" s="282"/>
+      <c r="H7" s="283"/>
     </row>
     <row r="8" spans="1:15" ht="20.25" customHeight="1">
       <c r="A8" s="134" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="286" t="s">
+      <c r="C8" s="281" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="287"/>
-      <c r="E8" s="287"/>
-      <c r="F8" s="287"/>
-      <c r="G8" s="287"/>
-      <c r="H8" s="288"/>
+      <c r="D8" s="282"/>
+      <c r="E8" s="282"/>
+      <c r="F8" s="282"/>
+      <c r="G8" s="282"/>
+      <c r="H8" s="283"/>
     </row>
     <row r="9" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -14148,10 +14168,10 @@
       <c r="B10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="264" t="s">
+      <c r="C10" s="291" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="265"/>
+      <c r="D10" s="294"/>
       <c r="E10" s="55" t="s">
         <v>1</v>
       </c>
@@ -14172,10 +14192,10 @@
       <c r="B11" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="266" t="s">
+      <c r="C11" s="295" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="267"/>
+      <c r="D11" s="296"/>
       <c r="E11" s="74" t="s">
         <v>139</v>
       </c>
@@ -14194,10 +14214,10 @@
       <c r="B12" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="262" t="s">
+      <c r="C12" s="284" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="263"/>
+      <c r="D12" s="285"/>
       <c r="E12" s="79" t="s">
         <v>124</v>
       </c>
@@ -14214,10 +14234,10 @@
       <c r="B13" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="262" t="s">
+      <c r="C13" s="284" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="263"/>
+      <c r="D13" s="285"/>
       <c r="E13" s="79" t="s">
         <v>154</v>
       </c>
@@ -14235,10 +14255,10 @@
       <c r="B14" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="262" t="s">
+      <c r="C14" s="284" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="263"/>
+      <c r="D14" s="285"/>
       <c r="E14" s="84" t="s">
         <v>155</v>
       </c>
@@ -14271,8 +14291,8 @@
     <row r="16" spans="1:15" ht="20.25" customHeight="1">
       <c r="A16" s="82"/>
       <c r="B16" s="83"/>
-      <c r="C16" s="262"/>
-      <c r="D16" s="263"/>
+      <c r="C16" s="284"/>
+      <c r="D16" s="285"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
       <c r="G16" s="85"/>
@@ -14281,8 +14301,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="82"/>
       <c r="B17" s="83"/>
-      <c r="C17" s="262"/>
-      <c r="D17" s="263"/>
+      <c r="C17" s="284"/>
+      <c r="D17" s="285"/>
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="G17" s="85"/>
@@ -14291,8 +14311,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="83"/>
-      <c r="C18" s="262"/>
-      <c r="D18" s="263"/>
+      <c r="C18" s="284"/>
+      <c r="D18" s="285"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="85"/>
@@ -14301,8 +14321,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="82"/>
       <c r="B19" s="83"/>
-      <c r="C19" s="262"/>
-      <c r="D19" s="263"/>
+      <c r="C19" s="284"/>
+      <c r="D19" s="285"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="85"/>
@@ -14311,8 +14331,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="82"/>
       <c r="B20" s="83"/>
-      <c r="C20" s="262"/>
-      <c r="D20" s="263"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="285"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="85"/>
@@ -14321,8 +14341,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="82"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="262"/>
-      <c r="D21" s="263"/>
+      <c r="C21" s="284"/>
+      <c r="D21" s="285"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="85"/>
@@ -14331,8 +14351,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="82"/>
       <c r="B22" s="83"/>
-      <c r="C22" s="262"/>
-      <c r="D22" s="263"/>
+      <c r="C22" s="284"/>
+      <c r="D22" s="285"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="G22" s="85"/>
@@ -14341,8 +14361,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="82"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="262"/>
-      <c r="D23" s="263"/>
+      <c r="C23" s="284"/>
+      <c r="D23" s="285"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="85"/>
@@ -14351,8 +14371,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="82"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="262"/>
-      <c r="D24" s="263"/>
+      <c r="C24" s="284"/>
+      <c r="D24" s="285"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="85"/>
@@ -14361,8 +14381,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="82"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="262"/>
-      <c r="D25" s="263"/>
+      <c r="C25" s="284"/>
+      <c r="D25" s="285"/>
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="G25" s="85"/>
@@ -14371,8 +14391,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="82"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="262"/>
-      <c r="D26" s="263"/>
+      <c r="C26" s="284"/>
+      <c r="D26" s="285"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="85"/>
@@ -14381,8 +14401,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="82"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="262"/>
-      <c r="D27" s="263"/>
+      <c r="C27" s="284"/>
+      <c r="D27" s="285"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="85"/>
@@ -14391,8 +14411,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="82"/>
       <c r="B28" s="83"/>
-      <c r="C28" s="262"/>
-      <c r="D28" s="263"/>
+      <c r="C28" s="284"/>
+      <c r="D28" s="285"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="85"/>
@@ -14401,8 +14421,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="82"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="262"/>
-      <c r="D29" s="263"/>
+      <c r="C29" s="284"/>
+      <c r="D29" s="285"/>
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="85"/>
@@ -14411,8 +14431,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="87"/>
       <c r="B30" s="88"/>
-      <c r="C30" s="279"/>
-      <c r="D30" s="281"/>
+      <c r="C30" s="269"/>
+      <c r="D30" s="271"/>
       <c r="E30" s="89"/>
       <c r="F30" s="89"/>
       <c r="G30" s="90"/>
@@ -14444,10 +14464,10 @@
       <c r="A33" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="269" t="s">
+      <c r="B33" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="283"/>
+      <c r="C33" s="276"/>
       <c r="D33" s="67" t="s">
         <v>9</v>
       </c>
@@ -14462,51 +14482,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="72"/>
-      <c r="B34" s="289"/>
-      <c r="C34" s="290"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="295"/>
-      <c r="F34" s="272"/>
+      <c r="B34" s="277"/>
+      <c r="C34" s="278"/>
+      <c r="D34" s="263"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="265"/>
       <c r="G34" s="75"/>
       <c r="H34" s="76"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="77"/>
-      <c r="B35" s="291"/>
-      <c r="C35" s="292"/>
-      <c r="D35" s="273"/>
-      <c r="E35" s="285"/>
-      <c r="F35" s="274"/>
+      <c r="B35" s="279"/>
+      <c r="C35" s="280"/>
+      <c r="D35" s="266"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="268"/>
       <c r="G35" s="80"/>
       <c r="H35" s="81"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="77"/>
-      <c r="B36" s="291"/>
-      <c r="C36" s="292"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="285"/>
-      <c r="F36" s="274"/>
+      <c r="B36" s="279"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="266"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="268"/>
       <c r="G36" s="80"/>
       <c r="H36" s="81"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="77"/>
-      <c r="B37" s="291"/>
-      <c r="C37" s="292"/>
-      <c r="D37" s="273"/>
-      <c r="E37" s="285"/>
-      <c r="F37" s="274"/>
+      <c r="B37" s="279"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="266"/>
+      <c r="E37" s="267"/>
+      <c r="F37" s="268"/>
       <c r="G37" s="80"/>
       <c r="H37" s="81"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="87"/>
-      <c r="B38" s="293"/>
-      <c r="C38" s="294"/>
-      <c r="D38" s="279"/>
-      <c r="E38" s="280"/>
-      <c r="F38" s="281"/>
+      <c r="B38" s="272"/>
+      <c r="C38" s="273"/>
+      <c r="D38" s="269"/>
+      <c r="E38" s="270"/>
+      <c r="F38" s="271"/>
       <c r="G38" s="90"/>
       <c r="H38" s="91"/>
     </row>
@@ -14539,15 +14559,15 @@
       <c r="B41" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="269" t="s">
+      <c r="C41" s="274" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="282"/>
-      <c r="E41" s="283"/>
-      <c r="F41" s="269" t="s">
+      <c r="D41" s="275"/>
+      <c r="E41" s="276"/>
+      <c r="F41" s="274" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="270"/>
+      <c r="G41" s="293"/>
       <c r="H41" s="65" t="s">
         <v>14</v>
       </c>
@@ -14555,51 +14575,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="92"/>
       <c r="B42" s="93"/>
-      <c r="C42" s="271"/>
-      <c r="D42" s="295"/>
-      <c r="E42" s="272"/>
-      <c r="F42" s="271"/>
-      <c r="G42" s="272"/>
+      <c r="C42" s="263"/>
+      <c r="D42" s="264"/>
+      <c r="E42" s="265"/>
+      <c r="F42" s="263"/>
+      <c r="G42" s="265"/>
       <c r="H42" s="94"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="95"/>
       <c r="B43" s="96"/>
-      <c r="C43" s="273"/>
-      <c r="D43" s="285"/>
-      <c r="E43" s="274"/>
-      <c r="F43" s="273"/>
-      <c r="G43" s="274"/>
+      <c r="C43" s="266"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="268"/>
+      <c r="F43" s="266"/>
+      <c r="G43" s="268"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="95"/>
       <c r="B44" s="96"/>
-      <c r="C44" s="273"/>
-      <c r="D44" s="285"/>
-      <c r="E44" s="274"/>
-      <c r="F44" s="273"/>
-      <c r="G44" s="274"/>
+      <c r="C44" s="266"/>
+      <c r="D44" s="267"/>
+      <c r="E44" s="268"/>
+      <c r="F44" s="266"/>
+      <c r="G44" s="268"/>
       <c r="H44" s="97"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="95"/>
       <c r="B45" s="96"/>
-      <c r="C45" s="273"/>
-      <c r="D45" s="285"/>
-      <c r="E45" s="274"/>
-      <c r="F45" s="273"/>
-      <c r="G45" s="274"/>
+      <c r="C45" s="266"/>
+      <c r="D45" s="267"/>
+      <c r="E45" s="268"/>
+      <c r="F45" s="266"/>
+      <c r="G45" s="268"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="98"/>
       <c r="B46" s="99"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="280"/>
-      <c r="E46" s="281"/>
-      <c r="F46" s="275"/>
-      <c r="G46" s="276"/>
+      <c r="C46" s="269"/>
+      <c r="D46" s="270"/>
+      <c r="E46" s="271"/>
+      <c r="F46" s="286"/>
+      <c r="G46" s="287"/>
       <c r="H46" s="100"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -14631,15 +14651,15 @@
       <c r="B49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="269" t="s">
+      <c r="C49" s="274" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="282"/>
-      <c r="E49" s="283"/>
-      <c r="F49" s="264" t="s">
+      <c r="D49" s="275"/>
+      <c r="E49" s="276"/>
+      <c r="F49" s="291" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="268"/>
+      <c r="G49" s="292"/>
       <c r="H49" s="56" t="s">
         <v>17</v>
       </c>
@@ -14649,72 +14669,83 @@
         <v>1</v>
       </c>
       <c r="B50" s="110"/>
-      <c r="C50" s="277"/>
-      <c r="D50" s="284"/>
-      <c r="E50" s="278"/>
-      <c r="F50" s="277"/>
-      <c r="G50" s="278"/>
+      <c r="C50" s="288"/>
+      <c r="D50" s="290"/>
+      <c r="E50" s="289"/>
+      <c r="F50" s="288"/>
+      <c r="G50" s="289"/>
       <c r="H50" s="111"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="95"/>
       <c r="B51" s="96"/>
-      <c r="C51" s="273"/>
-      <c r="D51" s="285"/>
-      <c r="E51" s="274"/>
-      <c r="F51" s="273"/>
-      <c r="G51" s="274"/>
+      <c r="C51" s="266"/>
+      <c r="D51" s="267"/>
+      <c r="E51" s="268"/>
+      <c r="F51" s="266"/>
+      <c r="G51" s="268"/>
       <c r="H51" s="97"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="95"/>
       <c r="B52" s="96"/>
-      <c r="C52" s="273"/>
-      <c r="D52" s="285"/>
-      <c r="E52" s="274"/>
-      <c r="F52" s="273"/>
-      <c r="G52" s="274"/>
+      <c r="C52" s="266"/>
+      <c r="D52" s="267"/>
+      <c r="E52" s="268"/>
+      <c r="F52" s="266"/>
+      <c r="G52" s="268"/>
       <c r="H52" s="97"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="95"/>
       <c r="B53" s="96"/>
-      <c r="C53" s="273"/>
-      <c r="D53" s="285"/>
-      <c r="E53" s="274"/>
-      <c r="F53" s="273"/>
-      <c r="G53" s="274"/>
+      <c r="C53" s="266"/>
+      <c r="D53" s="267"/>
+      <c r="E53" s="268"/>
+      <c r="F53" s="266"/>
+      <c r="G53" s="268"/>
       <c r="H53" s="97"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="98"/>
       <c r="B54" s="99"/>
-      <c r="C54" s="279"/>
-      <c r="D54" s="280"/>
-      <c r="E54" s="281"/>
-      <c r="F54" s="275"/>
-      <c r="G54" s="276"/>
+      <c r="C54" s="269"/>
+      <c r="D54" s="270"/>
+      <c r="E54" s="271"/>
+      <c r="F54" s="286"/>
+      <c r="G54" s="287"/>
       <c r="H54" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -14728,34 +14759,23 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/データベース設計書.xlsx
+++ b/データベース設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\Web-\Web-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4958C715-2AC0-45A3-8487-947001BCFF46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE559E4-5B02-4BD4-9582-DDCD457A64C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,8 +37,13 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">予約明細!$A$1:$H$54</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -47,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="224">
   <si>
     <t>No</t>
   </si>
@@ -1371,23 +1376,6 @@
   </si>
   <si>
     <t>end_time</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>料金</t>
-    <rPh sb="0" eb="2">
-      <t>リョウキン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>座席指定</t>
-    <rPh sb="0" eb="2">
-      <t>ザセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シテイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3081,6 +3069,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3129,18 +3147,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3168,127 +3177,130 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3297,30 +3309,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3330,59 +3318,59 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -5331,13 +5319,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1108363</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:colOff>1114598</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1117715</xdr:colOff>
+      <xdr:colOff>1135380</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>114993</xdr:rowOff>
     </xdr:to>
@@ -5355,9 +5343,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1451263" y="8696498"/>
-          <a:ext cx="9352" cy="333895"/>
+        <a:xfrm flipH="1">
+          <a:off x="1457498" y="8481060"/>
+          <a:ext cx="20782" cy="549333"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6713,21 +6701,21 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="243" t="s">
+      <c r="U3" s="227" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="244"/>
-      <c r="W3" s="245" t="s">
+      <c r="V3" s="229"/>
+      <c r="W3" s="253" t="s">
         <v>93</v>
       </c>
-      <c r="X3" s="246"/>
-      <c r="Y3" s="246"/>
-      <c r="Z3" s="246"/>
-      <c r="AA3" s="246"/>
-      <c r="AB3" s="246"/>
-      <c r="AC3" s="246"/>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="244"/>
+      <c r="X3" s="228"/>
+      <c r="Y3" s="228"/>
+      <c r="Z3" s="228"/>
+      <c r="AA3" s="228"/>
+      <c r="AB3" s="228"/>
+      <c r="AC3" s="228"/>
+      <c r="AD3" s="228"/>
+      <c r="AE3" s="229"/>
       <c r="AF3" s="12"/>
     </row>
     <row r="4" spans="1:176" ht="15.75" customHeight="1">
@@ -6840,20 +6828,20 @@
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
       <c r="E7" s="41"/>
-      <c r="F7" s="228" t="s">
+      <c r="F7" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="229"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
-      <c r="O7" s="229"/>
-      <c r="P7" s="229"/>
-      <c r="Q7" s="230"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="239"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="239"/>
+      <c r="K7" s="239"/>
+      <c r="L7" s="239"/>
+      <c r="M7" s="239"/>
+      <c r="N7" s="239"/>
+      <c r="O7" s="239"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="240"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -6871,82 +6859,82 @@
     </row>
     <row r="8" spans="1:176" ht="15.75" customHeight="1">
       <c r="A8" s="12"/>
-      <c r="B8" s="231" t="s">
+      <c r="B8" s="241" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="233"/>
-      <c r="F8" s="237" t="s">
+      <c r="C8" s="242"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="247" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="238"/>
-      <c r="K8" s="238"/>
-      <c r="L8" s="238"/>
-      <c r="M8" s="238"/>
-      <c r="N8" s="238"/>
-      <c r="O8" s="238"/>
-      <c r="P8" s="238"/>
-      <c r="Q8" s="239"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="248"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="248"/>
+      <c r="L8" s="248"/>
+      <c r="M8" s="248"/>
+      <c r="N8" s="248"/>
+      <c r="O8" s="248"/>
+      <c r="P8" s="248"/>
+      <c r="Q8" s="249"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
-      <c r="W8" s="227" t="s">
+      <c r="W8" s="237" t="s">
         <v>40</v>
       </c>
-      <c r="X8" s="227"/>
-      <c r="Y8" s="227"/>
-      <c r="Z8" s="227" t="s">
+      <c r="X8" s="237"/>
+      <c r="Y8" s="237"/>
+      <c r="Z8" s="237" t="s">
         <v>41</v>
       </c>
-      <c r="AA8" s="227"/>
-      <c r="AB8" s="227"/>
-      <c r="AC8" s="227" t="s">
+      <c r="AA8" s="237"/>
+      <c r="AB8" s="237"/>
+      <c r="AC8" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="AD8" s="227"/>
-      <c r="AE8" s="227"/>
+      <c r="AD8" s="237"/>
+      <c r="AE8" s="237"/>
       <c r="AF8" s="12"/>
     </row>
     <row r="9" spans="1:176" ht="15.75" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="234"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="236"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="241"/>
-      <c r="L9" s="241"/>
-      <c r="M9" s="241"/>
-      <c r="N9" s="241"/>
-      <c r="O9" s="241"/>
-      <c r="P9" s="241"/>
-      <c r="Q9" s="242"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="250"/>
+      <c r="G9" s="251"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="251"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="251"/>
+      <c r="M9" s="251"/>
+      <c r="N9" s="251"/>
+      <c r="O9" s="251"/>
+      <c r="P9" s="251"/>
+      <c r="Q9" s="252"/>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
-      <c r="W9" s="247"/>
-      <c r="X9" s="248"/>
-      <c r="Y9" s="249"/>
-      <c r="Z9" s="247"/>
-      <c r="AA9" s="248"/>
-      <c r="AB9" s="249"/>
-      <c r="AC9" s="247" t="s">
+      <c r="W9" s="254"/>
+      <c r="X9" s="255"/>
+      <c r="Y9" s="256"/>
+      <c r="Z9" s="254"/>
+      <c r="AA9" s="255"/>
+      <c r="AB9" s="256"/>
+      <c r="AC9" s="254" t="s">
         <v>87</v>
       </c>
-      <c r="AD9" s="248"/>
-      <c r="AE9" s="249"/>
+      <c r="AD9" s="255"/>
+      <c r="AE9" s="256"/>
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="1:176" ht="15.75" customHeight="1">
@@ -6972,15 +6960,15 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
-      <c r="W10" s="250"/>
-      <c r="X10" s="251"/>
-      <c r="Y10" s="252"/>
-      <c r="Z10" s="250"/>
-      <c r="AA10" s="251"/>
-      <c r="AB10" s="252"/>
-      <c r="AC10" s="250"/>
-      <c r="AD10" s="251"/>
-      <c r="AE10" s="252"/>
+      <c r="W10" s="257"/>
+      <c r="X10" s="258"/>
+      <c r="Y10" s="259"/>
+      <c r="Z10" s="257"/>
+      <c r="AA10" s="258"/>
+      <c r="AB10" s="259"/>
+      <c r="AC10" s="257"/>
+      <c r="AD10" s="258"/>
+      <c r="AE10" s="259"/>
       <c r="AF10" s="12"/>
     </row>
     <row r="11" spans="1:176" ht="15.75" customHeight="1">
@@ -7006,15 +6994,15 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
-      <c r="W11" s="250"/>
-      <c r="X11" s="251"/>
-      <c r="Y11" s="252"/>
-      <c r="Z11" s="250"/>
-      <c r="AA11" s="251"/>
-      <c r="AB11" s="252"/>
-      <c r="AC11" s="250"/>
-      <c r="AD11" s="251"/>
-      <c r="AE11" s="252"/>
+      <c r="W11" s="257"/>
+      <c r="X11" s="258"/>
+      <c r="Y11" s="259"/>
+      <c r="Z11" s="257"/>
+      <c r="AA11" s="258"/>
+      <c r="AB11" s="259"/>
+      <c r="AC11" s="257"/>
+      <c r="AD11" s="258"/>
+      <c r="AE11" s="259"/>
       <c r="AF11" s="12"/>
     </row>
     <row r="12" spans="1:176" ht="15.75" customHeight="1">
@@ -7040,15 +7028,15 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-      <c r="W12" s="253"/>
-      <c r="X12" s="254"/>
-      <c r="Y12" s="255"/>
-      <c r="Z12" s="253"/>
-      <c r="AA12" s="254"/>
-      <c r="AB12" s="255"/>
-      <c r="AC12" s="253"/>
-      <c r="AD12" s="254"/>
-      <c r="AE12" s="255"/>
+      <c r="W12" s="260"/>
+      <c r="X12" s="261"/>
+      <c r="Y12" s="262"/>
+      <c r="Z12" s="260"/>
+      <c r="AA12" s="261"/>
+      <c r="AB12" s="262"/>
+      <c r="AC12" s="260"/>
+      <c r="AD12" s="261"/>
+      <c r="AE12" s="262"/>
       <c r="AF12" s="12"/>
     </row>
     <row r="13" spans="1:176" ht="15.75" customHeight="1">
@@ -7147,106 +7135,106 @@
     </row>
     <row r="16" spans="1:176" ht="15" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="B16" s="256" t="s">
+      <c r="B16" s="236" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="256"/>
-      <c r="D16" s="256"/>
-      <c r="E16" s="256"/>
-      <c r="F16" s="256"/>
-      <c r="G16" s="256"/>
-      <c r="H16" s="256"/>
-      <c r="I16" s="256"/>
-      <c r="J16" s="256"/>
-      <c r="K16" s="256"/>
-      <c r="L16" s="256"/>
-      <c r="M16" s="256"/>
-      <c r="N16" s="256"/>
-      <c r="O16" s="256"/>
-      <c r="P16" s="256"/>
-      <c r="Q16" s="256"/>
-      <c r="R16" s="256"/>
-      <c r="S16" s="256"/>
-      <c r="T16" s="256"/>
-      <c r="U16" s="256"/>
-      <c r="V16" s="256"/>
-      <c r="W16" s="256"/>
-      <c r="X16" s="256"/>
-      <c r="Y16" s="256"/>
-      <c r="Z16" s="256"/>
-      <c r="AA16" s="256"/>
-      <c r="AB16" s="256"/>
-      <c r="AC16" s="256"/>
-      <c r="AD16" s="256"/>
-      <c r="AE16" s="256"/>
+      <c r="C16" s="236"/>
+      <c r="D16" s="236"/>
+      <c r="E16" s="236"/>
+      <c r="F16" s="236"/>
+      <c r="G16" s="236"/>
+      <c r="H16" s="236"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="236"/>
+      <c r="K16" s="236"/>
+      <c r="L16" s="236"/>
+      <c r="M16" s="236"/>
+      <c r="N16" s="236"/>
+      <c r="O16" s="236"/>
+      <c r="P16" s="236"/>
+      <c r="Q16" s="236"/>
+      <c r="R16" s="236"/>
+      <c r="S16" s="236"/>
+      <c r="T16" s="236"/>
+      <c r="U16" s="236"/>
+      <c r="V16" s="236"/>
+      <c r="W16" s="236"/>
+      <c r="X16" s="236"/>
+      <c r="Y16" s="236"/>
+      <c r="Z16" s="236"/>
+      <c r="AA16" s="236"/>
+      <c r="AB16" s="236"/>
+      <c r="AC16" s="236"/>
+      <c r="AD16" s="236"/>
+      <c r="AE16" s="236"/>
       <c r="AF16" s="12"/>
     </row>
     <row r="17" spans="1:32" ht="15" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="B17" s="256"/>
-      <c r="C17" s="256"/>
-      <c r="D17" s="256"/>
-      <c r="E17" s="256"/>
-      <c r="F17" s="256"/>
-      <c r="G17" s="256"/>
-      <c r="H17" s="256"/>
-      <c r="I17" s="256"/>
-      <c r="J17" s="256"/>
-      <c r="K17" s="256"/>
-      <c r="L17" s="256"/>
-      <c r="M17" s="256"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="256"/>
-      <c r="P17" s="256"/>
-      <c r="Q17" s="256"/>
-      <c r="R17" s="256"/>
-      <c r="S17" s="256"/>
-      <c r="T17" s="256"/>
-      <c r="U17" s="256"/>
-      <c r="V17" s="256"/>
-      <c r="W17" s="256"/>
-      <c r="X17" s="256"/>
-      <c r="Y17" s="256"/>
-      <c r="Z17" s="256"/>
-      <c r="AA17" s="256"/>
-      <c r="AB17" s="256"/>
-      <c r="AC17" s="256"/>
-      <c r="AD17" s="256"/>
-      <c r="AE17" s="256"/>
+      <c r="B17" s="236"/>
+      <c r="C17" s="236"/>
+      <c r="D17" s="236"/>
+      <c r="E17" s="236"/>
+      <c r="F17" s="236"/>
+      <c r="G17" s="236"/>
+      <c r="H17" s="236"/>
+      <c r="I17" s="236"/>
+      <c r="J17" s="236"/>
+      <c r="K17" s="236"/>
+      <c r="L17" s="236"/>
+      <c r="M17" s="236"/>
+      <c r="N17" s="236"/>
+      <c r="O17" s="236"/>
+      <c r="P17" s="236"/>
+      <c r="Q17" s="236"/>
+      <c r="R17" s="236"/>
+      <c r="S17" s="236"/>
+      <c r="T17" s="236"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
+      <c r="X17" s="236"/>
+      <c r="Y17" s="236"/>
+      <c r="Z17" s="236"/>
+      <c r="AA17" s="236"/>
+      <c r="AB17" s="236"/>
+      <c r="AC17" s="236"/>
+      <c r="AD17" s="236"/>
+      <c r="AE17" s="236"/>
       <c r="AF17" s="12"/>
     </row>
     <row r="18" spans="1:32" ht="15" customHeight="1">
       <c r="A18" s="12"/>
-      <c r="B18" s="256"/>
-      <c r="C18" s="256"/>
-      <c r="D18" s="256"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="256"/>
-      <c r="G18" s="256"/>
-      <c r="H18" s="256"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="256"/>
-      <c r="K18" s="256"/>
-      <c r="L18" s="256"/>
-      <c r="M18" s="256"/>
-      <c r="N18" s="256"/>
-      <c r="O18" s="256"/>
-      <c r="P18" s="256"/>
-      <c r="Q18" s="256"/>
-      <c r="R18" s="256"/>
-      <c r="S18" s="256"/>
-      <c r="T18" s="256"/>
-      <c r="U18" s="256"/>
-      <c r="V18" s="256"/>
-      <c r="W18" s="256"/>
-      <c r="X18" s="256"/>
-      <c r="Y18" s="256"/>
-      <c r="Z18" s="256"/>
-      <c r="AA18" s="256"/>
-      <c r="AB18" s="256"/>
-      <c r="AC18" s="256"/>
-      <c r="AD18" s="256"/>
-      <c r="AE18" s="256"/>
+      <c r="B18" s="236"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="236"/>
+      <c r="G18" s="236"/>
+      <c r="H18" s="236"/>
+      <c r="I18" s="236"/>
+      <c r="J18" s="236"/>
+      <c r="K18" s="236"/>
+      <c r="L18" s="236"/>
+      <c r="M18" s="236"/>
+      <c r="N18" s="236"/>
+      <c r="O18" s="236"/>
+      <c r="P18" s="236"/>
+      <c r="Q18" s="236"/>
+      <c r="R18" s="236"/>
+      <c r="S18" s="236"/>
+      <c r="T18" s="236"/>
+      <c r="U18" s="236"/>
+      <c r="V18" s="236"/>
+      <c r="W18" s="236"/>
+      <c r="X18" s="236"/>
+      <c r="Y18" s="236"/>
+      <c r="Z18" s="236"/>
+      <c r="AA18" s="236"/>
+      <c r="AB18" s="236"/>
+      <c r="AC18" s="236"/>
+      <c r="AD18" s="236"/>
+      <c r="AE18" s="236"/>
       <c r="AF18" s="12"/>
     </row>
     <row r="19" spans="1:32" ht="15" customHeight="1">
@@ -7389,392 +7377,392 @@
     </row>
     <row r="23" spans="1:32" s="45" customFormat="1" ht="29.25" customHeight="1">
       <c r="A23" s="42"/>
-      <c r="B23" s="243" t="s">
+      <c r="B23" s="227" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="246"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="244"/>
-      <c r="F23" s="243" t="s">
+      <c r="C23" s="228"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="246"/>
-      <c r="H23" s="246"/>
-      <c r="I23" s="244"/>
-      <c r="J23" s="243" t="s">
+      <c r="G23" s="228"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="229"/>
+      <c r="J23" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="246"/>
-      <c r="L23" s="246"/>
-      <c r="M23" s="246"/>
-      <c r="N23" s="246"/>
-      <c r="O23" s="246"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="246"/>
-      <c r="U23" s="246"/>
-      <c r="V23" s="246"/>
-      <c r="W23" s="246"/>
-      <c r="X23" s="246"/>
-      <c r="Y23" s="246"/>
-      <c r="Z23" s="246"/>
-      <c r="AA23" s="246"/>
-      <c r="AB23" s="244"/>
-      <c r="AC23" s="243" t="s">
+      <c r="K23" s="228"/>
+      <c r="L23" s="228"/>
+      <c r="M23" s="228"/>
+      <c r="N23" s="228"/>
+      <c r="O23" s="228"/>
+      <c r="P23" s="228"/>
+      <c r="Q23" s="228"/>
+      <c r="R23" s="228"/>
+      <c r="S23" s="228"/>
+      <c r="T23" s="228"/>
+      <c r="U23" s="228"/>
+      <c r="V23" s="228"/>
+      <c r="W23" s="228"/>
+      <c r="X23" s="228"/>
+      <c r="Y23" s="228"/>
+      <c r="Z23" s="228"/>
+      <c r="AA23" s="228"/>
+      <c r="AB23" s="229"/>
+      <c r="AC23" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="AD23" s="246"/>
-      <c r="AE23" s="244"/>
+      <c r="AD23" s="228"/>
+      <c r="AE23" s="229"/>
       <c r="AF23" s="42"/>
     </row>
     <row r="24" spans="1:32" ht="29.25" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="243" t="s">
+      <c r="B24" s="227" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="246"/>
-      <c r="D24" s="246"/>
-      <c r="E24" s="244"/>
-      <c r="F24" s="257" t="s">
+      <c r="C24" s="228"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="229"/>
+      <c r="F24" s="230" t="s">
         <v>100</v>
       </c>
-      <c r="G24" s="258"/>
-      <c r="H24" s="258"/>
-      <c r="I24" s="259"/>
-      <c r="J24" s="260" t="s">
+      <c r="G24" s="231"/>
+      <c r="H24" s="231"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="233" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="261"/>
-      <c r="L24" s="261"/>
-      <c r="M24" s="261"/>
-      <c r="N24" s="261"/>
-      <c r="O24" s="261"/>
-      <c r="P24" s="261"/>
-      <c r="Q24" s="261"/>
-      <c r="R24" s="261"/>
-      <c r="S24" s="261"/>
-      <c r="T24" s="261"/>
-      <c r="U24" s="261"/>
-      <c r="V24" s="261"/>
-      <c r="W24" s="261"/>
-      <c r="X24" s="261"/>
-      <c r="Y24" s="261"/>
-      <c r="Z24" s="261"/>
-      <c r="AA24" s="261"/>
-      <c r="AB24" s="262"/>
-      <c r="AC24" s="243" t="s">
+      <c r="K24" s="234"/>
+      <c r="L24" s="234"/>
+      <c r="M24" s="234"/>
+      <c r="N24" s="234"/>
+      <c r="O24" s="234"/>
+      <c r="P24" s="234"/>
+      <c r="Q24" s="234"/>
+      <c r="R24" s="234"/>
+      <c r="S24" s="234"/>
+      <c r="T24" s="234"/>
+      <c r="U24" s="234"/>
+      <c r="V24" s="234"/>
+      <c r="W24" s="234"/>
+      <c r="X24" s="234"/>
+      <c r="Y24" s="234"/>
+      <c r="Z24" s="234"/>
+      <c r="AA24" s="234"/>
+      <c r="AB24" s="235"/>
+      <c r="AC24" s="227" t="s">
         <v>92</v>
       </c>
-      <c r="AD24" s="246"/>
-      <c r="AE24" s="244"/>
+      <c r="AD24" s="228"/>
+      <c r="AE24" s="229"/>
       <c r="AF24" s="12"/>
     </row>
     <row r="25" spans="1:32" ht="29.25" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="243"/>
-      <c r="C25" s="246"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="244"/>
-      <c r="F25" s="257"/>
-      <c r="G25" s="258"/>
-      <c r="H25" s="258"/>
-      <c r="I25" s="259"/>
-      <c r="J25" s="260"/>
-      <c r="K25" s="261"/>
-      <c r="L25" s="261"/>
-      <c r="M25" s="261"/>
-      <c r="N25" s="261"/>
-      <c r="O25" s="261"/>
-      <c r="P25" s="261"/>
-      <c r="Q25" s="261"/>
-      <c r="R25" s="261"/>
-      <c r="S25" s="261"/>
-      <c r="T25" s="261"/>
-      <c r="U25" s="261"/>
-      <c r="V25" s="261"/>
-      <c r="W25" s="261"/>
-      <c r="X25" s="261"/>
-      <c r="Y25" s="261"/>
-      <c r="Z25" s="261"/>
-      <c r="AA25" s="261"/>
-      <c r="AB25" s="262"/>
-      <c r="AC25" s="243"/>
-      <c r="AD25" s="246"/>
-      <c r="AE25" s="244"/>
+      <c r="B25" s="227"/>
+      <c r="C25" s="228"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="229"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="232"/>
+      <c r="J25" s="233"/>
+      <c r="K25" s="234"/>
+      <c r="L25" s="234"/>
+      <c r="M25" s="234"/>
+      <c r="N25" s="234"/>
+      <c r="O25" s="234"/>
+      <c r="P25" s="234"/>
+      <c r="Q25" s="234"/>
+      <c r="R25" s="234"/>
+      <c r="S25" s="234"/>
+      <c r="T25" s="234"/>
+      <c r="U25" s="234"/>
+      <c r="V25" s="234"/>
+      <c r="W25" s="234"/>
+      <c r="X25" s="234"/>
+      <c r="Y25" s="234"/>
+      <c r="Z25" s="234"/>
+      <c r="AA25" s="234"/>
+      <c r="AB25" s="235"/>
+      <c r="AC25" s="227"/>
+      <c r="AD25" s="228"/>
+      <c r="AE25" s="229"/>
       <c r="AF25" s="12"/>
     </row>
     <row r="26" spans="1:32" ht="29.25" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="243"/>
-      <c r="C26" s="246"/>
-      <c r="D26" s="246"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="257"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="258"/>
-      <c r="I26" s="259"/>
-      <c r="J26" s="260"/>
-      <c r="K26" s="261"/>
-      <c r="L26" s="261"/>
-      <c r="M26" s="261"/>
-      <c r="N26" s="261"/>
-      <c r="O26" s="261"/>
-      <c r="P26" s="261"/>
-      <c r="Q26" s="261"/>
-      <c r="R26" s="261"/>
-      <c r="S26" s="261"/>
-      <c r="T26" s="261"/>
-      <c r="U26" s="261"/>
-      <c r="V26" s="261"/>
-      <c r="W26" s="261"/>
-      <c r="X26" s="261"/>
-      <c r="Y26" s="261"/>
-      <c r="Z26" s="261"/>
-      <c r="AA26" s="261"/>
-      <c r="AB26" s="262"/>
-      <c r="AC26" s="243"/>
-      <c r="AD26" s="246"/>
-      <c r="AE26" s="244"/>
+      <c r="B26" s="227"/>
+      <c r="C26" s="228"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="230"/>
+      <c r="G26" s="231"/>
+      <c r="H26" s="231"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="233"/>
+      <c r="K26" s="234"/>
+      <c r="L26" s="234"/>
+      <c r="M26" s="234"/>
+      <c r="N26" s="234"/>
+      <c r="O26" s="234"/>
+      <c r="P26" s="234"/>
+      <c r="Q26" s="234"/>
+      <c r="R26" s="234"/>
+      <c r="S26" s="234"/>
+      <c r="T26" s="234"/>
+      <c r="U26" s="234"/>
+      <c r="V26" s="234"/>
+      <c r="W26" s="234"/>
+      <c r="X26" s="234"/>
+      <c r="Y26" s="234"/>
+      <c r="Z26" s="234"/>
+      <c r="AA26" s="234"/>
+      <c r="AB26" s="235"/>
+      <c r="AC26" s="227"/>
+      <c r="AD26" s="228"/>
+      <c r="AE26" s="229"/>
       <c r="AF26" s="12"/>
     </row>
     <row r="27" spans="1:32" ht="29.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="243"/>
-      <c r="C27" s="246"/>
-      <c r="D27" s="246"/>
-      <c r="E27" s="244"/>
-      <c r="F27" s="257"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="258"/>
-      <c r="I27" s="259"/>
-      <c r="J27" s="260"/>
-      <c r="K27" s="261"/>
-      <c r="L27" s="261"/>
-      <c r="M27" s="261"/>
-      <c r="N27" s="261"/>
-      <c r="O27" s="261"/>
-      <c r="P27" s="261"/>
-      <c r="Q27" s="261"/>
-      <c r="R27" s="261"/>
-      <c r="S27" s="261"/>
-      <c r="T27" s="261"/>
-      <c r="U27" s="261"/>
-      <c r="V27" s="261"/>
-      <c r="W27" s="261"/>
-      <c r="X27" s="261"/>
-      <c r="Y27" s="261"/>
-      <c r="Z27" s="261"/>
-      <c r="AA27" s="261"/>
-      <c r="AB27" s="262"/>
-      <c r="AC27" s="243"/>
-      <c r="AD27" s="246"/>
-      <c r="AE27" s="244"/>
+      <c r="B27" s="227"/>
+      <c r="C27" s="228"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="230"/>
+      <c r="G27" s="231"/>
+      <c r="H27" s="231"/>
+      <c r="I27" s="232"/>
+      <c r="J27" s="233"/>
+      <c r="K27" s="234"/>
+      <c r="L27" s="234"/>
+      <c r="M27" s="234"/>
+      <c r="N27" s="234"/>
+      <c r="O27" s="234"/>
+      <c r="P27" s="234"/>
+      <c r="Q27" s="234"/>
+      <c r="R27" s="234"/>
+      <c r="S27" s="234"/>
+      <c r="T27" s="234"/>
+      <c r="U27" s="234"/>
+      <c r="V27" s="234"/>
+      <c r="W27" s="234"/>
+      <c r="X27" s="234"/>
+      <c r="Y27" s="234"/>
+      <c r="Z27" s="234"/>
+      <c r="AA27" s="234"/>
+      <c r="AB27" s="235"/>
+      <c r="AC27" s="227"/>
+      <c r="AD27" s="228"/>
+      <c r="AE27" s="229"/>
       <c r="AF27" s="12"/>
     </row>
     <row r="28" spans="1:32" ht="29.25" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="243"/>
-      <c r="C28" s="246"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="244"/>
-      <c r="F28" s="257"/>
-      <c r="G28" s="258"/>
-      <c r="H28" s="258"/>
-      <c r="I28" s="259"/>
-      <c r="J28" s="260"/>
-      <c r="K28" s="261"/>
-      <c r="L28" s="261"/>
-      <c r="M28" s="261"/>
-      <c r="N28" s="261"/>
-      <c r="O28" s="261"/>
-      <c r="P28" s="261"/>
-      <c r="Q28" s="261"/>
-      <c r="R28" s="261"/>
-      <c r="S28" s="261"/>
-      <c r="T28" s="261"/>
-      <c r="U28" s="261"/>
-      <c r="V28" s="261"/>
-      <c r="W28" s="261"/>
-      <c r="X28" s="261"/>
-      <c r="Y28" s="261"/>
-      <c r="Z28" s="261"/>
-      <c r="AA28" s="261"/>
-      <c r="AB28" s="262"/>
-      <c r="AC28" s="243"/>
-      <c r="AD28" s="246"/>
-      <c r="AE28" s="244"/>
+      <c r="B28" s="227"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="231"/>
+      <c r="H28" s="231"/>
+      <c r="I28" s="232"/>
+      <c r="J28" s="233"/>
+      <c r="K28" s="234"/>
+      <c r="L28" s="234"/>
+      <c r="M28" s="234"/>
+      <c r="N28" s="234"/>
+      <c r="O28" s="234"/>
+      <c r="P28" s="234"/>
+      <c r="Q28" s="234"/>
+      <c r="R28" s="234"/>
+      <c r="S28" s="234"/>
+      <c r="T28" s="234"/>
+      <c r="U28" s="234"/>
+      <c r="V28" s="234"/>
+      <c r="W28" s="234"/>
+      <c r="X28" s="234"/>
+      <c r="Y28" s="234"/>
+      <c r="Z28" s="234"/>
+      <c r="AA28" s="234"/>
+      <c r="AB28" s="235"/>
+      <c r="AC28" s="227"/>
+      <c r="AD28" s="228"/>
+      <c r="AE28" s="229"/>
       <c r="AF28" s="12"/>
     </row>
     <row r="29" spans="1:32" ht="29.25" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="243"/>
-      <c r="C29" s="246"/>
-      <c r="D29" s="246"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="257"/>
-      <c r="G29" s="258"/>
-      <c r="H29" s="258"/>
-      <c r="I29" s="259"/>
-      <c r="J29" s="260"/>
-      <c r="K29" s="261"/>
-      <c r="L29" s="261"/>
-      <c r="M29" s="261"/>
-      <c r="N29" s="261"/>
-      <c r="O29" s="261"/>
-      <c r="P29" s="261"/>
-      <c r="Q29" s="261"/>
-      <c r="R29" s="261"/>
-      <c r="S29" s="261"/>
-      <c r="T29" s="261"/>
-      <c r="U29" s="261"/>
-      <c r="V29" s="261"/>
-      <c r="W29" s="261"/>
-      <c r="X29" s="261"/>
-      <c r="Y29" s="261"/>
-      <c r="Z29" s="261"/>
-      <c r="AA29" s="261"/>
-      <c r="AB29" s="262"/>
-      <c r="AC29" s="243"/>
-      <c r="AD29" s="246"/>
-      <c r="AE29" s="244"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="228"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="230"/>
+      <c r="G29" s="231"/>
+      <c r="H29" s="231"/>
+      <c r="I29" s="232"/>
+      <c r="J29" s="233"/>
+      <c r="K29" s="234"/>
+      <c r="L29" s="234"/>
+      <c r="M29" s="234"/>
+      <c r="N29" s="234"/>
+      <c r="O29" s="234"/>
+      <c r="P29" s="234"/>
+      <c r="Q29" s="234"/>
+      <c r="R29" s="234"/>
+      <c r="S29" s="234"/>
+      <c r="T29" s="234"/>
+      <c r="U29" s="234"/>
+      <c r="V29" s="234"/>
+      <c r="W29" s="234"/>
+      <c r="X29" s="234"/>
+      <c r="Y29" s="234"/>
+      <c r="Z29" s="234"/>
+      <c r="AA29" s="234"/>
+      <c r="AB29" s="235"/>
+      <c r="AC29" s="227"/>
+      <c r="AD29" s="228"/>
+      <c r="AE29" s="229"/>
       <c r="AF29" s="12"/>
     </row>
     <row r="30" spans="1:32" ht="29.25" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="243"/>
-      <c r="C30" s="246"/>
-      <c r="D30" s="246"/>
-      <c r="E30" s="244"/>
-      <c r="F30" s="257"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="258"/>
-      <c r="I30" s="259"/>
-      <c r="J30" s="260"/>
-      <c r="K30" s="261"/>
-      <c r="L30" s="261"/>
-      <c r="M30" s="261"/>
-      <c r="N30" s="261"/>
-      <c r="O30" s="261"/>
-      <c r="P30" s="261"/>
-      <c r="Q30" s="261"/>
-      <c r="R30" s="261"/>
-      <c r="S30" s="261"/>
-      <c r="T30" s="261"/>
-      <c r="U30" s="261"/>
-      <c r="V30" s="261"/>
-      <c r="W30" s="261"/>
-      <c r="X30" s="261"/>
-      <c r="Y30" s="261"/>
-      <c r="Z30" s="261"/>
-      <c r="AA30" s="261"/>
-      <c r="AB30" s="262"/>
-      <c r="AC30" s="243"/>
-      <c r="AD30" s="246"/>
-      <c r="AE30" s="244"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="228"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="229"/>
+      <c r="F30" s="230"/>
+      <c r="G30" s="231"/>
+      <c r="H30" s="231"/>
+      <c r="I30" s="232"/>
+      <c r="J30" s="233"/>
+      <c r="K30" s="234"/>
+      <c r="L30" s="234"/>
+      <c r="M30" s="234"/>
+      <c r="N30" s="234"/>
+      <c r="O30" s="234"/>
+      <c r="P30" s="234"/>
+      <c r="Q30" s="234"/>
+      <c r="R30" s="234"/>
+      <c r="S30" s="234"/>
+      <c r="T30" s="234"/>
+      <c r="U30" s="234"/>
+      <c r="V30" s="234"/>
+      <c r="W30" s="234"/>
+      <c r="X30" s="234"/>
+      <c r="Y30" s="234"/>
+      <c r="Z30" s="234"/>
+      <c r="AA30" s="234"/>
+      <c r="AB30" s="235"/>
+      <c r="AC30" s="227"/>
+      <c r="AD30" s="228"/>
+      <c r="AE30" s="229"/>
       <c r="AF30" s="12"/>
     </row>
     <row r="31" spans="1:32" ht="29.25" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="243"/>
-      <c r="C31" s="246"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="257"/>
-      <c r="G31" s="258"/>
-      <c r="H31" s="258"/>
-      <c r="I31" s="259"/>
-      <c r="J31" s="260"/>
-      <c r="K31" s="261"/>
-      <c r="L31" s="261"/>
-      <c r="M31" s="261"/>
-      <c r="N31" s="261"/>
-      <c r="O31" s="261"/>
-      <c r="P31" s="261"/>
-      <c r="Q31" s="261"/>
-      <c r="R31" s="261"/>
-      <c r="S31" s="261"/>
-      <c r="T31" s="261"/>
-      <c r="U31" s="261"/>
-      <c r="V31" s="261"/>
-      <c r="W31" s="261"/>
-      <c r="X31" s="261"/>
-      <c r="Y31" s="261"/>
-      <c r="Z31" s="261"/>
-      <c r="AA31" s="261"/>
-      <c r="AB31" s="262"/>
-      <c r="AC31" s="243"/>
-      <c r="AD31" s="246"/>
-      <c r="AE31" s="244"/>
+      <c r="B31" s="227"/>
+      <c r="C31" s="228"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="229"/>
+      <c r="F31" s="230"/>
+      <c r="G31" s="231"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="232"/>
+      <c r="J31" s="233"/>
+      <c r="K31" s="234"/>
+      <c r="L31" s="234"/>
+      <c r="M31" s="234"/>
+      <c r="N31" s="234"/>
+      <c r="O31" s="234"/>
+      <c r="P31" s="234"/>
+      <c r="Q31" s="234"/>
+      <c r="R31" s="234"/>
+      <c r="S31" s="234"/>
+      <c r="T31" s="234"/>
+      <c r="U31" s="234"/>
+      <c r="V31" s="234"/>
+      <c r="W31" s="234"/>
+      <c r="X31" s="234"/>
+      <c r="Y31" s="234"/>
+      <c r="Z31" s="234"/>
+      <c r="AA31" s="234"/>
+      <c r="AB31" s="235"/>
+      <c r="AC31" s="227"/>
+      <c r="AD31" s="228"/>
+      <c r="AE31" s="229"/>
       <c r="AF31" s="12"/>
     </row>
     <row r="32" spans="1:32" ht="29.25" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="243"/>
-      <c r="C32" s="246"/>
-      <c r="D32" s="246"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="257"/>
-      <c r="G32" s="258"/>
-      <c r="H32" s="258"/>
-      <c r="I32" s="259"/>
-      <c r="J32" s="260"/>
-      <c r="K32" s="261"/>
-      <c r="L32" s="261"/>
-      <c r="M32" s="261"/>
-      <c r="N32" s="261"/>
-      <c r="O32" s="261"/>
-      <c r="P32" s="261"/>
-      <c r="Q32" s="261"/>
-      <c r="R32" s="261"/>
-      <c r="S32" s="261"/>
-      <c r="T32" s="261"/>
-      <c r="U32" s="261"/>
-      <c r="V32" s="261"/>
-      <c r="W32" s="261"/>
-      <c r="X32" s="261"/>
-      <c r="Y32" s="261"/>
-      <c r="Z32" s="261"/>
-      <c r="AA32" s="261"/>
-      <c r="AB32" s="262"/>
-      <c r="AC32" s="243"/>
-      <c r="AD32" s="246"/>
-      <c r="AE32" s="244"/>
+      <c r="B32" s="227"/>
+      <c r="C32" s="228"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="229"/>
+      <c r="F32" s="230"/>
+      <c r="G32" s="231"/>
+      <c r="H32" s="231"/>
+      <c r="I32" s="232"/>
+      <c r="J32" s="233"/>
+      <c r="K32" s="234"/>
+      <c r="L32" s="234"/>
+      <c r="M32" s="234"/>
+      <c r="N32" s="234"/>
+      <c r="O32" s="234"/>
+      <c r="P32" s="234"/>
+      <c r="Q32" s="234"/>
+      <c r="R32" s="234"/>
+      <c r="S32" s="234"/>
+      <c r="T32" s="234"/>
+      <c r="U32" s="234"/>
+      <c r="V32" s="234"/>
+      <c r="W32" s="234"/>
+      <c r="X32" s="234"/>
+      <c r="Y32" s="234"/>
+      <c r="Z32" s="234"/>
+      <c r="AA32" s="234"/>
+      <c r="AB32" s="235"/>
+      <c r="AC32" s="227"/>
+      <c r="AD32" s="228"/>
+      <c r="AE32" s="229"/>
       <c r="AF32" s="12"/>
     </row>
     <row r="33" spans="1:32" ht="29.25" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="243"/>
-      <c r="C33" s="246"/>
-      <c r="D33" s="246"/>
-      <c r="E33" s="244"/>
-      <c r="F33" s="257"/>
-      <c r="G33" s="258"/>
-      <c r="H33" s="258"/>
-      <c r="I33" s="259"/>
-      <c r="J33" s="260"/>
-      <c r="K33" s="261"/>
-      <c r="L33" s="261"/>
-      <c r="M33" s="261"/>
-      <c r="N33" s="261"/>
-      <c r="O33" s="261"/>
-      <c r="P33" s="261"/>
-      <c r="Q33" s="261"/>
-      <c r="R33" s="261"/>
-      <c r="S33" s="261"/>
-      <c r="T33" s="261"/>
-      <c r="U33" s="261"/>
-      <c r="V33" s="261"/>
-      <c r="W33" s="261"/>
-      <c r="X33" s="261"/>
-      <c r="Y33" s="261"/>
-      <c r="Z33" s="261"/>
-      <c r="AA33" s="261"/>
-      <c r="AB33" s="262"/>
-      <c r="AC33" s="243"/>
-      <c r="AD33" s="246"/>
-      <c r="AE33" s="244"/>
+      <c r="B33" s="227"/>
+      <c r="C33" s="228"/>
+      <c r="D33" s="228"/>
+      <c r="E33" s="229"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="231"/>
+      <c r="H33" s="231"/>
+      <c r="I33" s="232"/>
+      <c r="J33" s="233"/>
+      <c r="K33" s="234"/>
+      <c r="L33" s="234"/>
+      <c r="M33" s="234"/>
+      <c r="N33" s="234"/>
+      <c r="O33" s="234"/>
+      <c r="P33" s="234"/>
+      <c r="Q33" s="234"/>
+      <c r="R33" s="234"/>
+      <c r="S33" s="234"/>
+      <c r="T33" s="234"/>
+      <c r="U33" s="234"/>
+      <c r="V33" s="234"/>
+      <c r="W33" s="234"/>
+      <c r="X33" s="234"/>
+      <c r="Y33" s="234"/>
+      <c r="Z33" s="234"/>
+      <c r="AA33" s="234"/>
+      <c r="AB33" s="235"/>
+      <c r="AC33" s="227"/>
+      <c r="AD33" s="228"/>
+      <c r="AE33" s="229"/>
       <c r="AF33" s="12"/>
     </row>
     <row r="34" spans="1:32" ht="15" customHeight="1">
@@ -7813,51 +7801,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J32:AB32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:AB33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:AB30"/>
-    <mergeCell ref="AC30:AE30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="J31:AB31"/>
-    <mergeCell ref="AC31:AE31"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:AB28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:AB29"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:AB26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:AB27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:AB25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="B16:AE18"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
     <mergeCell ref="AC8:AE8"/>
     <mergeCell ref="F7:Q7"/>
     <mergeCell ref="B8:E9"/>
@@ -7869,6 +7812,51 @@
     <mergeCell ref="AC9:AE12"/>
     <mergeCell ref="Z9:AB12"/>
     <mergeCell ref="W9:Y12"/>
+    <mergeCell ref="B16:AE18"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:AB25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:AB26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:AB30"/>
+    <mergeCell ref="AC30:AE30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="J31:AB31"/>
+    <mergeCell ref="AC31:AE31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J32:AB32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:AB33"/>
+    <mergeCell ref="AC33:AE33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -7991,38 +7979,38 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="283"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="288"/>
+      <c r="E6" s="288"/>
+      <c r="F6" s="288"/>
+      <c r="G6" s="288"/>
+      <c r="H6" s="289"/>
     </row>
     <row r="7" spans="1:15" ht="20.25" customHeight="1">
       <c r="A7" s="225" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="281"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="283"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="288"/>
+      <c r="E7" s="288"/>
+      <c r="F7" s="288"/>
+      <c r="G7" s="288"/>
+      <c r="H7" s="289"/>
     </row>
     <row r="8" spans="1:15" ht="20.25" customHeight="1">
       <c r="A8" s="225" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="281" t="s">
+      <c r="C8" s="287" t="s">
         <v>217</v>
       </c>
-      <c r="D8" s="282"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="283"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="288"/>
+      <c r="H8" s="289"/>
     </row>
     <row r="9" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -8043,10 +8031,10 @@
       <c r="B10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="291" t="s">
+      <c r="C10" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="294"/>
+      <c r="D10" s="266"/>
       <c r="E10" s="55" t="s">
         <v>1</v>
       </c>
@@ -8067,10 +8055,10 @@
       <c r="B11" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="295" t="s">
+      <c r="C11" s="267" t="s">
         <v>221</v>
       </c>
-      <c r="D11" s="296"/>
+      <c r="D11" s="268"/>
       <c r="E11" s="74" t="s">
         <v>139</v>
       </c>
@@ -8089,10 +8077,10 @@
       <c r="B12" s="221" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="284" t="s">
+      <c r="C12" s="263" t="s">
         <v>222</v>
       </c>
-      <c r="D12" s="285"/>
+      <c r="D12" s="264"/>
       <c r="E12" s="79" t="s">
         <v>155</v>
       </c>
@@ -8109,10 +8097,10 @@
       <c r="B13" s="221" t="s">
         <v>220</v>
       </c>
-      <c r="C13" s="284" t="s">
+      <c r="C13" s="263" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="285"/>
+      <c r="D13" s="264"/>
       <c r="E13" s="79" t="s">
         <v>155</v>
       </c>
@@ -8126,8 +8114,8 @@
     <row r="14" spans="1:15" ht="20.25" customHeight="1">
       <c r="A14" s="82"/>
       <c r="B14" s="83"/>
-      <c r="C14" s="284"/>
-      <c r="D14" s="285"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="264"/>
       <c r="E14" s="84"/>
       <c r="F14" s="74"/>
       <c r="G14" s="85"/>
@@ -8145,8 +8133,8 @@
     <row r="16" spans="1:15" ht="20.25" customHeight="1">
       <c r="A16" s="82"/>
       <c r="B16" s="83"/>
-      <c r="C16" s="284"/>
-      <c r="D16" s="285"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="264"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
       <c r="G16" s="85"/>
@@ -8155,8 +8143,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="82"/>
       <c r="B17" s="83"/>
-      <c r="C17" s="284"/>
-      <c r="D17" s="285"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="264"/>
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="G17" s="85"/>
@@ -8165,8 +8153,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="83"/>
-      <c r="C18" s="284"/>
-      <c r="D18" s="285"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="264"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="85"/>
@@ -8175,8 +8163,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="82"/>
       <c r="B19" s="83"/>
-      <c r="C19" s="284"/>
-      <c r="D19" s="285"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="264"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="85"/>
@@ -8185,8 +8173,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="82"/>
       <c r="B20" s="83"/>
-      <c r="C20" s="284"/>
-      <c r="D20" s="285"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="264"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="85"/>
@@ -8195,8 +8183,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="82"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="284"/>
-      <c r="D21" s="285"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="264"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="85"/>
@@ -8205,8 +8193,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="82"/>
       <c r="B22" s="83"/>
-      <c r="C22" s="284"/>
-      <c r="D22" s="285"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="264"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="G22" s="85"/>
@@ -8215,8 +8203,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="82"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="284"/>
-      <c r="D23" s="285"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="264"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="85"/>
@@ -8225,8 +8213,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="82"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="285"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="264"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="85"/>
@@ -8235,8 +8223,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="82"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="284"/>
-      <c r="D25" s="285"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="264"/>
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="G25" s="85"/>
@@ -8245,8 +8233,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="82"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="284"/>
-      <c r="D26" s="285"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="264"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="85"/>
@@ -8255,8 +8243,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="82"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="284"/>
-      <c r="D27" s="285"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="264"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="85"/>
@@ -8265,8 +8253,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="82"/>
       <c r="B28" s="83"/>
-      <c r="C28" s="284"/>
-      <c r="D28" s="285"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="264"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="85"/>
@@ -8275,8 +8263,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="82"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="284"/>
-      <c r="D29" s="285"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="264"/>
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="85"/>
@@ -8285,8 +8273,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="87"/>
       <c r="B30" s="217"/>
-      <c r="C30" s="269"/>
-      <c r="D30" s="271"/>
+      <c r="C30" s="280"/>
+      <c r="D30" s="282"/>
       <c r="E30" s="89"/>
       <c r="F30" s="89"/>
       <c r="G30" s="90"/>
@@ -8318,10 +8306,10 @@
       <c r="A33" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="274" t="s">
+      <c r="B33" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="276"/>
+      <c r="C33" s="284"/>
       <c r="D33" s="218" t="s">
         <v>9</v>
       </c>
@@ -8336,51 +8324,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="72"/>
-      <c r="B34" s="277"/>
-      <c r="C34" s="278"/>
-      <c r="D34" s="263"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="265"/>
+      <c r="B34" s="290"/>
+      <c r="C34" s="291"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="296"/>
+      <c r="F34" s="273"/>
       <c r="G34" s="75"/>
       <c r="H34" s="76"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="77"/>
-      <c r="B35" s="279"/>
-      <c r="C35" s="280"/>
-      <c r="D35" s="266"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="268"/>
+      <c r="B35" s="292"/>
+      <c r="C35" s="293"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="286"/>
+      <c r="F35" s="275"/>
       <c r="G35" s="80"/>
       <c r="H35" s="81"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="77"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="280"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="268"/>
+      <c r="B36" s="292"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="286"/>
+      <c r="F36" s="275"/>
       <c r="G36" s="80"/>
       <c r="H36" s="81"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="77"/>
-      <c r="B37" s="279"/>
-      <c r="C37" s="280"/>
-      <c r="D37" s="266"/>
-      <c r="E37" s="267"/>
-      <c r="F37" s="268"/>
+      <c r="B37" s="292"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="274"/>
+      <c r="E37" s="286"/>
+      <c r="F37" s="275"/>
       <c r="G37" s="80"/>
       <c r="H37" s="81"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="87"/>
-      <c r="B38" s="272"/>
-      <c r="C38" s="273"/>
-      <c r="D38" s="269"/>
-      <c r="E38" s="270"/>
-      <c r="F38" s="271"/>
+      <c r="B38" s="294"/>
+      <c r="C38" s="295"/>
+      <c r="D38" s="280"/>
+      <c r="E38" s="281"/>
+      <c r="F38" s="282"/>
       <c r="G38" s="90"/>
       <c r="H38" s="91"/>
     </row>
@@ -8413,15 +8401,15 @@
       <c r="B41" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="274" t="s">
+      <c r="C41" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="275"/>
-      <c r="E41" s="276"/>
-      <c r="F41" s="274" t="s">
+      <c r="D41" s="283"/>
+      <c r="E41" s="284"/>
+      <c r="F41" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="293"/>
+      <c r="G41" s="271"/>
       <c r="H41" s="65" t="s">
         <v>14</v>
       </c>
@@ -8429,51 +8417,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="92"/>
       <c r="B42" s="93"/>
-      <c r="C42" s="263"/>
-      <c r="D42" s="264"/>
-      <c r="E42" s="265"/>
-      <c r="F42" s="263"/>
-      <c r="G42" s="265"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="296"/>
+      <c r="E42" s="273"/>
+      <c r="F42" s="272"/>
+      <c r="G42" s="273"/>
       <c r="H42" s="94"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="95"/>
       <c r="B43" s="96"/>
-      <c r="C43" s="266"/>
-      <c r="D43" s="267"/>
-      <c r="E43" s="268"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="268"/>
+      <c r="C43" s="274"/>
+      <c r="D43" s="286"/>
+      <c r="E43" s="275"/>
+      <c r="F43" s="274"/>
+      <c r="G43" s="275"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="95"/>
       <c r="B44" s="96"/>
-      <c r="C44" s="266"/>
-      <c r="D44" s="267"/>
-      <c r="E44" s="268"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="268"/>
+      <c r="C44" s="274"/>
+      <c r="D44" s="286"/>
+      <c r="E44" s="275"/>
+      <c r="F44" s="274"/>
+      <c r="G44" s="275"/>
       <c r="H44" s="97"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="95"/>
       <c r="B45" s="96"/>
-      <c r="C45" s="266"/>
-      <c r="D45" s="267"/>
-      <c r="E45" s="268"/>
-      <c r="F45" s="266"/>
-      <c r="G45" s="268"/>
+      <c r="C45" s="274"/>
+      <c r="D45" s="286"/>
+      <c r="E45" s="275"/>
+      <c r="F45" s="274"/>
+      <c r="G45" s="275"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="98"/>
       <c r="B46" s="224"/>
-      <c r="C46" s="269"/>
-      <c r="D46" s="270"/>
-      <c r="E46" s="271"/>
-      <c r="F46" s="286"/>
-      <c r="G46" s="287"/>
+      <c r="C46" s="280"/>
+      <c r="D46" s="281"/>
+      <c r="E46" s="282"/>
+      <c r="F46" s="276"/>
+      <c r="G46" s="277"/>
       <c r="H46" s="100"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -8505,15 +8493,15 @@
       <c r="B49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="274" t="s">
+      <c r="C49" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="275"/>
-      <c r="E49" s="276"/>
-      <c r="F49" s="291" t="s">
+      <c r="D49" s="283"/>
+      <c r="E49" s="284"/>
+      <c r="F49" s="265" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="292"/>
+      <c r="G49" s="269"/>
       <c r="H49" s="56" t="s">
         <v>17</v>
       </c>
@@ -8523,55 +8511,101 @@
         <v>1</v>
       </c>
       <c r="B50" s="110"/>
-      <c r="C50" s="288"/>
-      <c r="D50" s="290"/>
-      <c r="E50" s="289"/>
-      <c r="F50" s="288"/>
-      <c r="G50" s="289"/>
+      <c r="C50" s="278"/>
+      <c r="D50" s="285"/>
+      <c r="E50" s="279"/>
+      <c r="F50" s="278"/>
+      <c r="G50" s="279"/>
       <c r="H50" s="111"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="95"/>
       <c r="B51" s="96"/>
-      <c r="C51" s="266"/>
-      <c r="D51" s="267"/>
-      <c r="E51" s="268"/>
-      <c r="F51" s="266"/>
-      <c r="G51" s="268"/>
+      <c r="C51" s="274"/>
+      <c r="D51" s="286"/>
+      <c r="E51" s="275"/>
+      <c r="F51" s="274"/>
+      <c r="G51" s="275"/>
       <c r="H51" s="97"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="95"/>
       <c r="B52" s="96"/>
-      <c r="C52" s="266"/>
-      <c r="D52" s="267"/>
-      <c r="E52" s="268"/>
-      <c r="F52" s="266"/>
-      <c r="G52" s="268"/>
+      <c r="C52" s="274"/>
+      <c r="D52" s="286"/>
+      <c r="E52" s="275"/>
+      <c r="F52" s="274"/>
+      <c r="G52" s="275"/>
       <c r="H52" s="97"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="95"/>
       <c r="B53" s="96"/>
-      <c r="C53" s="266"/>
-      <c r="D53" s="267"/>
-      <c r="E53" s="268"/>
-      <c r="F53" s="266"/>
-      <c r="G53" s="268"/>
+      <c r="C53" s="274"/>
+      <c r="D53" s="286"/>
+      <c r="E53" s="275"/>
+      <c r="F53" s="274"/>
+      <c r="G53" s="275"/>
       <c r="H53" s="97"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="98"/>
       <c r="B54" s="224"/>
-      <c r="C54" s="269"/>
-      <c r="D54" s="270"/>
-      <c r="E54" s="271"/>
-      <c r="F54" s="286"/>
-      <c r="G54" s="287"/>
+      <c r="C54" s="280"/>
+      <c r="D54" s="281"/>
+      <c r="E54" s="282"/>
+      <c r="F54" s="276"/>
+      <c r="G54" s="277"/>
       <c r="H54" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
@@ -8584,52 +8618,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8743,42 +8731,42 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="281" t="s">
+      <c r="C6" s="287" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="283"/>
+      <c r="D6" s="288"/>
+      <c r="E6" s="288"/>
+      <c r="F6" s="288"/>
+      <c r="G6" s="288"/>
+      <c r="H6" s="289"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="46" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="281" t="s">
+      <c r="C7" s="287" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="283"/>
+      <c r="D7" s="288"/>
+      <c r="E7" s="288"/>
+      <c r="F7" s="288"/>
+      <c r="G7" s="288"/>
+      <c r="H7" s="289"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="46" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="281" t="s">
+      <c r="C8" s="287" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="282"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="283"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="288"/>
+      <c r="H8" s="289"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -8799,10 +8787,10 @@
       <c r="B10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="291" t="s">
+      <c r="C10" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="294"/>
+      <c r="D10" s="266"/>
       <c r="E10" s="55" t="s">
         <v>1</v>
       </c>
@@ -8823,10 +8811,10 @@
       <c r="B11" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="295" t="s">
+      <c r="C11" s="267" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="296"/>
+      <c r="D11" s="268"/>
       <c r="E11" s="74" t="s">
         <v>89</v>
       </c>
@@ -8845,10 +8833,10 @@
       <c r="B12" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="284" t="s">
+      <c r="C12" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="285"/>
+      <c r="D12" s="264"/>
       <c r="E12" s="79" t="s">
         <v>90</v>
       </c>
@@ -8861,8 +8849,8 @@
     <row r="13" spans="1:8" ht="20.25" customHeight="1">
       <c r="A13" s="77"/>
       <c r="B13" s="78"/>
-      <c r="C13" s="284"/>
-      <c r="D13" s="285"/>
+      <c r="C13" s="263"/>
+      <c r="D13" s="264"/>
       <c r="E13" s="79"/>
       <c r="F13" s="79"/>
       <c r="G13" s="80"/>
@@ -8871,8 +8859,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="82"/>
       <c r="B14" s="83"/>
-      <c r="C14" s="284"/>
-      <c r="D14" s="285"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="264"/>
       <c r="E14" s="84"/>
       <c r="F14" s="84"/>
       <c r="G14" s="85"/>
@@ -8881,8 +8869,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="82"/>
       <c r="B15" s="83"/>
-      <c r="C15" s="284"/>
-      <c r="D15" s="285"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="264"/>
       <c r="E15" s="84"/>
       <c r="F15" s="84"/>
       <c r="G15" s="85"/>
@@ -8891,8 +8879,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="82"/>
       <c r="B16" s="83"/>
-      <c r="C16" s="284"/>
-      <c r="D16" s="285"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="264"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
       <c r="G16" s="85"/>
@@ -8901,8 +8889,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="82"/>
       <c r="B17" s="83"/>
-      <c r="C17" s="284"/>
-      <c r="D17" s="285"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="264"/>
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="G17" s="85"/>
@@ -8911,8 +8899,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="83"/>
-      <c r="C18" s="284"/>
-      <c r="D18" s="285"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="264"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="85"/>
@@ -8921,8 +8909,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="82"/>
       <c r="B19" s="83"/>
-      <c r="C19" s="284"/>
-      <c r="D19" s="285"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="264"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="85"/>
@@ -8931,8 +8919,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="82"/>
       <c r="B20" s="83"/>
-      <c r="C20" s="284"/>
-      <c r="D20" s="285"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="264"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="85"/>
@@ -8941,8 +8929,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="82"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="284"/>
-      <c r="D21" s="285"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="264"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="85"/>
@@ -8951,8 +8939,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="82"/>
       <c r="B22" s="83"/>
-      <c r="C22" s="284"/>
-      <c r="D22" s="285"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="264"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="G22" s="85"/>
@@ -8961,8 +8949,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="82"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="284"/>
-      <c r="D23" s="285"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="264"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="85"/>
@@ -8971,8 +8959,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="82"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="285"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="264"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="85"/>
@@ -8981,8 +8969,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="82"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="284"/>
-      <c r="D25" s="285"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="264"/>
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="G25" s="85"/>
@@ -8991,8 +8979,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="82"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="284"/>
-      <c r="D26" s="285"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="264"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="85"/>
@@ -9001,8 +8989,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="82"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="284"/>
-      <c r="D27" s="285"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="264"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="85"/>
@@ -9011,8 +8999,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="82"/>
       <c r="B28" s="83"/>
-      <c r="C28" s="284"/>
-      <c r="D28" s="285"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="264"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="85"/>
@@ -9021,8 +9009,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="82"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="284"/>
-      <c r="D29" s="285"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="264"/>
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="85"/>
@@ -9031,8 +9019,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="87"/>
       <c r="B30" s="88"/>
-      <c r="C30" s="269"/>
-      <c r="D30" s="271"/>
+      <c r="C30" s="280"/>
+      <c r="D30" s="282"/>
       <c r="E30" s="89"/>
       <c r="F30" s="89"/>
       <c r="G30" s="90"/>
@@ -9064,10 +9052,10 @@
       <c r="A33" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="274" t="s">
+      <c r="B33" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="276"/>
+      <c r="C33" s="284"/>
       <c r="D33" s="61" t="s">
         <v>9</v>
       </c>
@@ -9082,51 +9070,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="72"/>
-      <c r="B34" s="277"/>
-      <c r="C34" s="278"/>
-      <c r="D34" s="263"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="265"/>
+      <c r="B34" s="290"/>
+      <c r="C34" s="291"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="296"/>
+      <c r="F34" s="273"/>
       <c r="G34" s="75"/>
       <c r="H34" s="76"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="77"/>
-      <c r="B35" s="279"/>
-      <c r="C35" s="280"/>
-      <c r="D35" s="266"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="268"/>
+      <c r="B35" s="292"/>
+      <c r="C35" s="293"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="286"/>
+      <c r="F35" s="275"/>
       <c r="G35" s="80"/>
       <c r="H35" s="81"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="77"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="280"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="268"/>
+      <c r="B36" s="292"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="286"/>
+      <c r="F36" s="275"/>
       <c r="G36" s="80"/>
       <c r="H36" s="81"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="77"/>
-      <c r="B37" s="279"/>
-      <c r="C37" s="280"/>
-      <c r="D37" s="266"/>
-      <c r="E37" s="267"/>
-      <c r="F37" s="268"/>
+      <c r="B37" s="292"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="274"/>
+      <c r="E37" s="286"/>
+      <c r="F37" s="275"/>
       <c r="G37" s="80"/>
       <c r="H37" s="81"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="87"/>
-      <c r="B38" s="272"/>
-      <c r="C38" s="273"/>
-      <c r="D38" s="269"/>
-      <c r="E38" s="270"/>
-      <c r="F38" s="271"/>
+      <c r="B38" s="294"/>
+      <c r="C38" s="295"/>
+      <c r="D38" s="280"/>
+      <c r="E38" s="281"/>
+      <c r="F38" s="282"/>
       <c r="G38" s="90"/>
       <c r="H38" s="91"/>
     </row>
@@ -9159,15 +9147,15 @@
       <c r="B41" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="274" t="s">
+      <c r="C41" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="275"/>
-      <c r="E41" s="276"/>
-      <c r="F41" s="274" t="s">
+      <c r="D41" s="283"/>
+      <c r="E41" s="284"/>
+      <c r="F41" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="293"/>
+      <c r="G41" s="271"/>
       <c r="H41" s="65" t="s">
         <v>14</v>
       </c>
@@ -9175,51 +9163,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="92"/>
       <c r="B42" s="93"/>
-      <c r="C42" s="263"/>
-      <c r="D42" s="264"/>
-      <c r="E42" s="265"/>
-      <c r="F42" s="263"/>
-      <c r="G42" s="265"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="296"/>
+      <c r="E42" s="273"/>
+      <c r="F42" s="272"/>
+      <c r="G42" s="273"/>
       <c r="H42" s="94"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="95"/>
       <c r="B43" s="96"/>
-      <c r="C43" s="266"/>
-      <c r="D43" s="267"/>
-      <c r="E43" s="268"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="268"/>
+      <c r="C43" s="274"/>
+      <c r="D43" s="286"/>
+      <c r="E43" s="275"/>
+      <c r="F43" s="274"/>
+      <c r="G43" s="275"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="95"/>
       <c r="B44" s="96"/>
-      <c r="C44" s="266"/>
-      <c r="D44" s="267"/>
-      <c r="E44" s="268"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="268"/>
+      <c r="C44" s="274"/>
+      <c r="D44" s="286"/>
+      <c r="E44" s="275"/>
+      <c r="F44" s="274"/>
+      <c r="G44" s="275"/>
       <c r="H44" s="97"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="95"/>
       <c r="B45" s="96"/>
-      <c r="C45" s="266"/>
-      <c r="D45" s="267"/>
-      <c r="E45" s="268"/>
-      <c r="F45" s="266"/>
-      <c r="G45" s="268"/>
+      <c r="C45" s="274"/>
+      <c r="D45" s="286"/>
+      <c r="E45" s="275"/>
+      <c r="F45" s="274"/>
+      <c r="G45" s="275"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="98"/>
       <c r="B46" s="99"/>
-      <c r="C46" s="269"/>
-      <c r="D46" s="270"/>
-      <c r="E46" s="271"/>
-      <c r="F46" s="286"/>
-      <c r="G46" s="287"/>
+      <c r="C46" s="280"/>
+      <c r="D46" s="281"/>
+      <c r="E46" s="282"/>
+      <c r="F46" s="276"/>
+      <c r="G46" s="277"/>
       <c r="H46" s="100"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -9251,15 +9239,15 @@
       <c r="B49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="274" t="s">
+      <c r="C49" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="275"/>
-      <c r="E49" s="276"/>
-      <c r="F49" s="291" t="s">
+      <c r="D49" s="283"/>
+      <c r="E49" s="284"/>
+      <c r="F49" s="265" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="292"/>
+      <c r="G49" s="269"/>
       <c r="H49" s="56" t="s">
         <v>17</v>
       </c>
@@ -9269,15 +9257,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="110"/>
-      <c r="C50" s="288" t="s">
+      <c r="C50" s="278" t="s">
         <v>68</v>
       </c>
-      <c r="D50" s="290"/>
-      <c r="E50" s="289"/>
-      <c r="F50" s="288" t="s">
+      <c r="D50" s="285"/>
+      <c r="E50" s="279"/>
+      <c r="F50" s="278" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="289"/>
+      <c r="G50" s="279"/>
       <c r="H50" s="111" t="s">
         <v>70</v>
       </c>
@@ -9285,56 +9273,77 @@
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="95"/>
       <c r="B51" s="96"/>
-      <c r="C51" s="266"/>
-      <c r="D51" s="267"/>
-      <c r="E51" s="268"/>
-      <c r="F51" s="266"/>
-      <c r="G51" s="268"/>
+      <c r="C51" s="274"/>
+      <c r="D51" s="286"/>
+      <c r="E51" s="275"/>
+      <c r="F51" s="274"/>
+      <c r="G51" s="275"/>
       <c r="H51" s="97"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="95"/>
       <c r="B52" s="96"/>
-      <c r="C52" s="266"/>
-      <c r="D52" s="267"/>
-      <c r="E52" s="268"/>
-      <c r="F52" s="266"/>
-      <c r="G52" s="268"/>
+      <c r="C52" s="274"/>
+      <c r="D52" s="286"/>
+      <c r="E52" s="275"/>
+      <c r="F52" s="274"/>
+      <c r="G52" s="275"/>
       <c r="H52" s="97"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="95"/>
       <c r="B53" s="96"/>
-      <c r="C53" s="266"/>
-      <c r="D53" s="267"/>
-      <c r="E53" s="268"/>
-      <c r="F53" s="266"/>
-      <c r="G53" s="268"/>
+      <c r="C53" s="274"/>
+      <c r="D53" s="286"/>
+      <c r="E53" s="275"/>
+      <c r="F53" s="274"/>
+      <c r="G53" s="275"/>
       <c r="H53" s="97"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="98"/>
       <c r="B54" s="99"/>
-      <c r="C54" s="269"/>
-      <c r="D54" s="270"/>
-      <c r="E54" s="271"/>
-      <c r="F54" s="286"/>
-      <c r="G54" s="287"/>
+      <c r="C54" s="280"/>
+      <c r="D54" s="281"/>
+      <c r="E54" s="282"/>
+      <c r="F54" s="276"/>
+      <c r="G54" s="277"/>
       <c r="H54" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="F54:G54"/>
@@ -9351,38 +9360,17 @@
     <mergeCell ref="C53:E53"/>
     <mergeCell ref="C54:E54"/>
     <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9402,8 +9390,8 @@
   </sheetPr>
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8"/>
@@ -9428,10 +9416,10 @@
       <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:6" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="297" t="s">
+      <c r="A2" s="305" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="298"/>
+      <c r="B2" s="306"/>
       <c r="C2" s="33" t="s">
         <v>136</v>
       </c>
@@ -9444,10 +9432,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="305" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="298"/>
+      <c r="B3" s="306"/>
       <c r="C3" s="33" t="s">
         <v>22</v>
       </c>
@@ -9460,10 +9448,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="297" t="s">
+      <c r="A4" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="298"/>
+      <c r="B4" s="306"/>
       <c r="C4" s="33" t="s">
         <v>137</v>
       </c>
@@ -9476,10 +9464,10 @@
       </c>
     </row>
     <row r="5" spans="1:6" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="297" t="s">
+      <c r="A5" s="305" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="298"/>
+      <c r="B5" s="306"/>
       <c r="C5" s="37" t="s">
         <v>24</v>
       </c>
@@ -9490,10 +9478,10 @@
       <c r="F5" s="103"/>
     </row>
     <row r="6" spans="1:6" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="297" t="s">
+      <c r="A6" s="305" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="298"/>
+      <c r="B6" s="306"/>
       <c r="C6" s="33" t="s">
         <v>138</v>
       </c>
@@ -9534,10 +9522,10 @@
       <c r="D9" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="305" t="s">
+      <c r="E9" s="303" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="306"/>
+      <c r="F9" s="304"/>
     </row>
     <row r="10" spans="1:6" ht="33.75" customHeight="1">
       <c r="A10" s="70">
@@ -9552,10 +9540,10 @@
       <c r="D10" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="299" t="s">
+      <c r="E10" s="297" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="300"/>
+      <c r="F10" s="298"/>
     </row>
     <row r="11" spans="1:6" ht="33.75" customHeight="1">
       <c r="A11" s="70">
@@ -9570,10 +9558,10 @@
       <c r="D11" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="299" t="s">
+      <c r="E11" s="297" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="300"/>
+      <c r="F11" s="298"/>
     </row>
     <row r="12" spans="1:6" ht="33.75" customHeight="1">
       <c r="A12" s="70">
@@ -9588,10 +9576,10 @@
       <c r="D12" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="299" t="s">
+      <c r="E12" s="297" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="300"/>
+      <c r="F12" s="298"/>
     </row>
     <row r="13" spans="1:6" ht="33.75" customHeight="1">
       <c r="A13" s="70">
@@ -9606,10 +9594,10 @@
       <c r="D13" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="299" t="s">
+      <c r="E13" s="297" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="300"/>
+      <c r="F13" s="298"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="70">
@@ -9624,10 +9612,10 @@
       <c r="D14" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="299" t="s">
+      <c r="E14" s="297" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="300"/>
+      <c r="F14" s="298"/>
     </row>
     <row r="15" spans="1:6" ht="33.75" customHeight="1">
       <c r="A15" s="210">
@@ -9642,26 +9630,26 @@
       <c r="D15" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="301" t="s">
+      <c r="E15" s="299" t="s">
         <v>191</v>
       </c>
-      <c r="F15" s="302"/>
+      <c r="F15" s="300"/>
     </row>
     <row r="16" spans="1:6" ht="33.75" customHeight="1">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="303"/>
-      <c r="F16" s="304"/>
+      <c r="E16" s="301"/>
+      <c r="F16" s="302"/>
     </row>
     <row r="17" spans="1:7" ht="33.75" customHeight="1">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="303"/>
-      <c r="F17" s="304"/>
+      <c r="E17" s="301"/>
+      <c r="F17" s="302"/>
     </row>
     <row r="18" spans="1:7" ht="29.25" customHeight="1">
       <c r="A18" s="32" t="s">
@@ -9994,9 +9982,7 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="3" t="s">
-        <v>224</v>
-      </c>
+      <c r="F54" s="3"/>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7">
@@ -10005,9 +9991,7 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="F55" s="3"/>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7">
@@ -10194,6 +10178,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
@@ -10203,11 +10192,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.62992125984251968" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10327,38 +10311,38 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="283"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="288"/>
+      <c r="E6" s="288"/>
+      <c r="F6" s="288"/>
+      <c r="G6" s="288"/>
+      <c r="H6" s="289"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="66" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="281"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="283"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="288"/>
+      <c r="E7" s="288"/>
+      <c r="F7" s="288"/>
+      <c r="G7" s="288"/>
+      <c r="H7" s="289"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="66" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="281" t="s">
+      <c r="C8" s="287" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="282"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="283"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="288"/>
+      <c r="H8" s="289"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -10379,10 +10363,10 @@
       <c r="B10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="291" t="s">
+      <c r="C10" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="294"/>
+      <c r="D10" s="266"/>
       <c r="E10" s="55" t="s">
         <v>1</v>
       </c>
@@ -10523,8 +10507,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="82"/>
       <c r="B17" s="83"/>
-      <c r="C17" s="284"/>
-      <c r="D17" s="285"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="264"/>
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="G17" s="85"/>
@@ -10533,8 +10517,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="83"/>
-      <c r="C18" s="284"/>
-      <c r="D18" s="285"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="264"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="85"/>
@@ -10543,8 +10527,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="82"/>
       <c r="B19" s="83"/>
-      <c r="C19" s="284"/>
-      <c r="D19" s="285"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="264"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="85"/>
@@ -10553,8 +10537,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="82"/>
       <c r="B20" s="83"/>
-      <c r="C20" s="284"/>
-      <c r="D20" s="285"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="264"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="85"/>
@@ -10563,8 +10547,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="82"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="284"/>
-      <c r="D21" s="285"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="264"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="85"/>
@@ -10573,8 +10557,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="82"/>
       <c r="B22" s="83"/>
-      <c r="C22" s="284"/>
-      <c r="D22" s="285"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="264"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="G22" s="85"/>
@@ -10583,8 +10567,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="82"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="284"/>
-      <c r="D23" s="285"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="264"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="85"/>
@@ -10593,8 +10577,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="82"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="285"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="264"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="85"/>
@@ -10603,8 +10587,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="82"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="284"/>
-      <c r="D25" s="285"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="264"/>
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="G25" s="85"/>
@@ -10613,8 +10597,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="82"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="284"/>
-      <c r="D26" s="285"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="264"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="85"/>
@@ -10623,8 +10607,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="82"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="284"/>
-      <c r="D27" s="285"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="264"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="85"/>
@@ -10633,8 +10617,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="82"/>
       <c r="B28" s="83"/>
-      <c r="C28" s="284"/>
-      <c r="D28" s="285"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="264"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="85"/>
@@ -10643,8 +10627,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="82"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="284"/>
-      <c r="D29" s="285"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="264"/>
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="85"/>
@@ -10653,8 +10637,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1">
       <c r="A30" s="82"/>
       <c r="B30" s="83"/>
-      <c r="C30" s="284"/>
-      <c r="D30" s="285"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="264"/>
       <c r="E30" s="84"/>
       <c r="F30" s="84"/>
       <c r="G30" s="85"/>
@@ -10663,8 +10647,8 @@
     <row r="31" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A31" s="87"/>
       <c r="B31" s="88"/>
-      <c r="C31" s="269"/>
-      <c r="D31" s="271"/>
+      <c r="C31" s="280"/>
+      <c r="D31" s="282"/>
       <c r="E31" s="89"/>
       <c r="F31" s="89"/>
       <c r="G31" s="90"/>
@@ -10696,10 +10680,10 @@
       <c r="A34" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="274" t="s">
+      <c r="B34" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="276"/>
+      <c r="C34" s="284"/>
       <c r="D34" s="67" t="s">
         <v>9</v>
       </c>
@@ -10714,51 +10698,51 @@
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="72"/>
-      <c r="B35" s="277"/>
-      <c r="C35" s="278"/>
-      <c r="D35" s="263"/>
-      <c r="E35" s="264"/>
-      <c r="F35" s="265"/>
+      <c r="B35" s="290"/>
+      <c r="C35" s="291"/>
+      <c r="D35" s="272"/>
+      <c r="E35" s="296"/>
+      <c r="F35" s="273"/>
       <c r="G35" s="75"/>
       <c r="H35" s="76"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="77"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="280"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="268"/>
+      <c r="B36" s="292"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="286"/>
+      <c r="F36" s="275"/>
       <c r="G36" s="80"/>
       <c r="H36" s="81"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="77"/>
-      <c r="B37" s="279"/>
-      <c r="C37" s="280"/>
-      <c r="D37" s="266"/>
-      <c r="E37" s="267"/>
-      <c r="F37" s="268"/>
+      <c r="B37" s="292"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="274"/>
+      <c r="E37" s="286"/>
+      <c r="F37" s="275"/>
       <c r="G37" s="80"/>
       <c r="H37" s="81"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1">
       <c r="A38" s="77"/>
-      <c r="B38" s="279"/>
-      <c r="C38" s="280"/>
-      <c r="D38" s="266"/>
-      <c r="E38" s="267"/>
-      <c r="F38" s="268"/>
+      <c r="B38" s="292"/>
+      <c r="C38" s="293"/>
+      <c r="D38" s="274"/>
+      <c r="E38" s="286"/>
+      <c r="F38" s="275"/>
       <c r="G38" s="80"/>
       <c r="H38" s="81"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A39" s="87"/>
-      <c r="B39" s="272"/>
-      <c r="C39" s="273"/>
-      <c r="D39" s="269"/>
-      <c r="E39" s="270"/>
-      <c r="F39" s="271"/>
+      <c r="B39" s="294"/>
+      <c r="C39" s="295"/>
+      <c r="D39" s="280"/>
+      <c r="E39" s="281"/>
+      <c r="F39" s="282"/>
       <c r="G39" s="90"/>
       <c r="H39" s="91"/>
     </row>
@@ -10791,15 +10775,15 @@
       <c r="B42" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="274" t="s">
+      <c r="C42" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="275"/>
-      <c r="E42" s="276"/>
-      <c r="F42" s="274" t="s">
+      <c r="D42" s="283"/>
+      <c r="E42" s="284"/>
+      <c r="F42" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="293"/>
+      <c r="G42" s="271"/>
       <c r="H42" s="65" t="s">
         <v>14</v>
       </c>
@@ -10809,15 +10793,15 @@
         <v>1</v>
       </c>
       <c r="B43" s="110"/>
-      <c r="C43" s="288" t="s">
+      <c r="C43" s="278" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="290"/>
-      <c r="E43" s="289"/>
-      <c r="F43" s="288" t="s">
+      <c r="D43" s="285"/>
+      <c r="E43" s="279"/>
+      <c r="F43" s="278" t="s">
         <v>77</v>
       </c>
-      <c r="G43" s="289"/>
+      <c r="G43" s="279"/>
       <c r="H43" s="111" t="s">
         <v>78</v>
       </c>
@@ -10843,31 +10827,31 @@
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="95"/>
       <c r="B45" s="96"/>
-      <c r="C45" s="266"/>
-      <c r="D45" s="267"/>
-      <c r="E45" s="268"/>
-      <c r="F45" s="266"/>
-      <c r="G45" s="268"/>
+      <c r="C45" s="274"/>
+      <c r="D45" s="286"/>
+      <c r="E45" s="275"/>
+      <c r="F45" s="274"/>
+      <c r="G45" s="275"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1">
       <c r="A46" s="95"/>
       <c r="B46" s="96"/>
-      <c r="C46" s="266"/>
-      <c r="D46" s="267"/>
-      <c r="E46" s="268"/>
-      <c r="F46" s="266"/>
-      <c r="G46" s="268"/>
+      <c r="C46" s="274"/>
+      <c r="D46" s="286"/>
+      <c r="E46" s="275"/>
+      <c r="F46" s="274"/>
+      <c r="G46" s="275"/>
       <c r="H46" s="97"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A47" s="98"/>
       <c r="B47" s="99"/>
-      <c r="C47" s="269"/>
-      <c r="D47" s="270"/>
-      <c r="E47" s="271"/>
-      <c r="F47" s="286"/>
-      <c r="G47" s="287"/>
+      <c r="C47" s="280"/>
+      <c r="D47" s="281"/>
+      <c r="E47" s="282"/>
+      <c r="F47" s="276"/>
+      <c r="G47" s="277"/>
       <c r="H47" s="100"/>
     </row>
     <row r="48" spans="1:8" ht="20.25" customHeight="1">
@@ -10899,15 +10883,15 @@
       <c r="B50" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="274" t="s">
+      <c r="C50" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="275"/>
-      <c r="E50" s="276"/>
-      <c r="F50" s="291" t="s">
+      <c r="D50" s="283"/>
+      <c r="E50" s="284"/>
+      <c r="F50" s="265" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="292"/>
+      <c r="G50" s="269"/>
       <c r="H50" s="56" t="s">
         <v>17</v>
       </c>
@@ -10917,15 +10901,15 @@
         <v>1</v>
       </c>
       <c r="B51" s="110"/>
-      <c r="C51" s="288" t="s">
+      <c r="C51" s="278" t="s">
         <v>85</v>
       </c>
-      <c r="D51" s="290"/>
-      <c r="E51" s="289"/>
-      <c r="F51" s="288" t="s">
+      <c r="D51" s="285"/>
+      <c r="E51" s="279"/>
+      <c r="F51" s="278" t="s">
         <v>86</v>
       </c>
-      <c r="G51" s="289"/>
+      <c r="G51" s="279"/>
       <c r="H51" s="111" t="s">
         <v>85</v>
       </c>
@@ -10933,73 +10917,58 @@
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="95"/>
       <c r="B52" s="96"/>
-      <c r="C52" s="266"/>
-      <c r="D52" s="267"/>
-      <c r="E52" s="268"/>
-      <c r="F52" s="266"/>
-      <c r="G52" s="268"/>
+      <c r="C52" s="274"/>
+      <c r="D52" s="286"/>
+      <c r="E52" s="275"/>
+      <c r="F52" s="274"/>
+      <c r="G52" s="275"/>
       <c r="H52" s="97"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="95"/>
       <c r="B53" s="96"/>
-      <c r="C53" s="266"/>
-      <c r="D53" s="267"/>
-      <c r="E53" s="268"/>
-      <c r="F53" s="266"/>
-      <c r="G53" s="268"/>
+      <c r="C53" s="274"/>
+      <c r="D53" s="286"/>
+      <c r="E53" s="275"/>
+      <c r="F53" s="274"/>
+      <c r="G53" s="275"/>
       <c r="H53" s="97"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1">
       <c r="A54" s="95"/>
       <c r="B54" s="96"/>
-      <c r="C54" s="266"/>
-      <c r="D54" s="267"/>
-      <c r="E54" s="268"/>
-      <c r="F54" s="266"/>
-      <c r="G54" s="268"/>
+      <c r="C54" s="274"/>
+      <c r="D54" s="286"/>
+      <c r="E54" s="275"/>
+      <c r="F54" s="274"/>
+      <c r="G54" s="275"/>
       <c r="H54" s="97"/>
     </row>
     <row r="55" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A55" s="98"/>
       <c r="B55" s="99"/>
-      <c r="C55" s="269"/>
-      <c r="D55" s="270"/>
-      <c r="E55" s="271"/>
-      <c r="F55" s="286"/>
-      <c r="G55" s="287"/>
+      <c r="C55" s="280"/>
+      <c r="D55" s="281"/>
+      <c r="E55" s="282"/>
+      <c r="F55" s="276"/>
+      <c r="G55" s="277"/>
       <c r="H55" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="D37:F37"/>
     <mergeCell ref="C26:D26"/>
@@ -11013,19 +10982,34 @@
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11144,38 +11128,38 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="283"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="288"/>
+      <c r="E6" s="288"/>
+      <c r="F6" s="288"/>
+      <c r="G6" s="288"/>
+      <c r="H6" s="289"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" customHeight="1">
       <c r="A7" s="134" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="281"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="283"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="288"/>
+      <c r="E7" s="288"/>
+      <c r="F7" s="288"/>
+      <c r="G7" s="288"/>
+      <c r="H7" s="289"/>
     </row>
     <row r="8" spans="1:8" ht="20.25" customHeight="1">
       <c r="A8" s="134" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="281" t="s">
+      <c r="C8" s="287" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="282"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="283"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="288"/>
+      <c r="H8" s="289"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -11196,10 +11180,10 @@
       <c r="B10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="291" t="s">
+      <c r="C10" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="294"/>
+      <c r="D10" s="266"/>
       <c r="E10" s="55" t="s">
         <v>1</v>
       </c>
@@ -11220,10 +11204,10 @@
       <c r="B11" s="73" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="295" t="s">
+      <c r="C11" s="267" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="296"/>
+      <c r="D11" s="268"/>
       <c r="E11" s="74" t="s">
         <v>89</v>
       </c>
@@ -11242,10 +11226,10 @@
       <c r="B12" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="284" t="s">
+      <c r="C12" s="263" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="285"/>
+      <c r="D12" s="264"/>
       <c r="E12" s="79" t="s">
         <v>90</v>
       </c>
@@ -11262,10 +11246,10 @@
       <c r="B13" s="132" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="284" t="s">
+      <c r="C13" s="263" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="285"/>
+      <c r="D13" s="264"/>
       <c r="E13" s="79" t="s">
         <v>134</v>
       </c>
@@ -11278,8 +11262,8 @@
     <row r="14" spans="1:8" ht="20.25" customHeight="1">
       <c r="A14" s="82"/>
       <c r="B14" s="83"/>
-      <c r="C14" s="284"/>
-      <c r="D14" s="285"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="264"/>
       <c r="E14" s="84"/>
       <c r="F14" s="84"/>
       <c r="G14" s="85"/>
@@ -11288,8 +11272,8 @@
     <row r="15" spans="1:8" ht="20.25" customHeight="1">
       <c r="A15" s="82"/>
       <c r="B15" s="83"/>
-      <c r="C15" s="284"/>
-      <c r="D15" s="285"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="264"/>
       <c r="E15" s="84"/>
       <c r="F15" s="84"/>
       <c r="G15" s="85"/>
@@ -11298,8 +11282,8 @@
     <row r="16" spans="1:8" ht="20.25" customHeight="1">
       <c r="A16" s="82"/>
       <c r="B16" s="83"/>
-      <c r="C16" s="284"/>
-      <c r="D16" s="285"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="264"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
       <c r="G16" s="85"/>
@@ -11308,8 +11292,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="82"/>
       <c r="B17" s="83"/>
-      <c r="C17" s="284"/>
-      <c r="D17" s="285"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="264"/>
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="G17" s="85"/>
@@ -11318,8 +11302,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="83"/>
-      <c r="C18" s="284"/>
-      <c r="D18" s="285"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="264"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="85"/>
@@ -11328,8 +11312,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="82"/>
       <c r="B19" s="83"/>
-      <c r="C19" s="284"/>
-      <c r="D19" s="285"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="264"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="85"/>
@@ -11338,8 +11322,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="82"/>
       <c r="B20" s="83"/>
-      <c r="C20" s="284"/>
-      <c r="D20" s="285"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="264"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="85"/>
@@ -11348,8 +11332,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="82"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="284"/>
-      <c r="D21" s="285"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="264"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="85"/>
@@ -11358,8 +11342,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="82"/>
       <c r="B22" s="83"/>
-      <c r="C22" s="284"/>
-      <c r="D22" s="285"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="264"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="G22" s="85"/>
@@ -11368,8 +11352,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="82"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="284"/>
-      <c r="D23" s="285"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="264"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="85"/>
@@ -11378,8 +11362,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="82"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="285"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="264"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="85"/>
@@ -11388,8 +11372,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="82"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="284"/>
-      <c r="D25" s="285"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="264"/>
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="G25" s="85"/>
@@ -11398,8 +11382,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="82"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="284"/>
-      <c r="D26" s="285"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="264"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="85"/>
@@ -11408,8 +11392,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="82"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="284"/>
-      <c r="D27" s="285"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="264"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="85"/>
@@ -11418,8 +11402,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="82"/>
       <c r="B28" s="83"/>
-      <c r="C28" s="284"/>
-      <c r="D28" s="285"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="264"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="85"/>
@@ -11428,8 +11412,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="82"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="284"/>
-      <c r="D29" s="285"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="264"/>
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="85"/>
@@ -11438,8 +11422,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="87"/>
       <c r="B30" s="128"/>
-      <c r="C30" s="269"/>
-      <c r="D30" s="271"/>
+      <c r="C30" s="280"/>
+      <c r="D30" s="282"/>
       <c r="E30" s="89"/>
       <c r="F30" s="89"/>
       <c r="G30" s="90"/>
@@ -11471,10 +11455,10 @@
       <c r="A33" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="274" t="s">
+      <c r="B33" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="276"/>
+      <c r="C33" s="284"/>
       <c r="D33" s="129" t="s">
         <v>9</v>
       </c>
@@ -11489,51 +11473,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="72"/>
-      <c r="B34" s="277"/>
-      <c r="C34" s="278"/>
-      <c r="D34" s="263"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="265"/>
+      <c r="B34" s="290"/>
+      <c r="C34" s="291"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="296"/>
+      <c r="F34" s="273"/>
       <c r="G34" s="75"/>
       <c r="H34" s="76"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="77"/>
-      <c r="B35" s="279"/>
-      <c r="C35" s="280"/>
-      <c r="D35" s="266"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="268"/>
+      <c r="B35" s="292"/>
+      <c r="C35" s="293"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="286"/>
+      <c r="F35" s="275"/>
       <c r="G35" s="80"/>
       <c r="H35" s="81"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="77"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="280"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="268"/>
+      <c r="B36" s="292"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="286"/>
+      <c r="F36" s="275"/>
       <c r="G36" s="80"/>
       <c r="H36" s="81"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="77"/>
-      <c r="B37" s="279"/>
-      <c r="C37" s="280"/>
-      <c r="D37" s="266"/>
-      <c r="E37" s="267"/>
-      <c r="F37" s="268"/>
+      <c r="B37" s="292"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="274"/>
+      <c r="E37" s="286"/>
+      <c r="F37" s="275"/>
       <c r="G37" s="80"/>
       <c r="H37" s="81"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="87"/>
-      <c r="B38" s="272"/>
-      <c r="C38" s="273"/>
-      <c r="D38" s="269"/>
-      <c r="E38" s="270"/>
-      <c r="F38" s="271"/>
+      <c r="B38" s="294"/>
+      <c r="C38" s="295"/>
+      <c r="D38" s="280"/>
+      <c r="E38" s="281"/>
+      <c r="F38" s="282"/>
       <c r="G38" s="90"/>
       <c r="H38" s="91"/>
     </row>
@@ -11566,15 +11550,15 @@
       <c r="B41" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="274" t="s">
+      <c r="C41" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="275"/>
-      <c r="E41" s="276"/>
-      <c r="F41" s="274" t="s">
+      <c r="D41" s="283"/>
+      <c r="E41" s="284"/>
+      <c r="F41" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="293"/>
+      <c r="G41" s="271"/>
       <c r="H41" s="65" t="s">
         <v>14</v>
       </c>
@@ -11582,51 +11566,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="92"/>
       <c r="B42" s="93"/>
-      <c r="C42" s="263"/>
-      <c r="D42" s="264"/>
-      <c r="E42" s="265"/>
-      <c r="F42" s="263"/>
-      <c r="G42" s="265"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="296"/>
+      <c r="E42" s="273"/>
+      <c r="F42" s="272"/>
+      <c r="G42" s="273"/>
       <c r="H42" s="94"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="95"/>
       <c r="B43" s="96"/>
-      <c r="C43" s="266"/>
-      <c r="D43" s="267"/>
-      <c r="E43" s="268"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="268"/>
+      <c r="C43" s="274"/>
+      <c r="D43" s="286"/>
+      <c r="E43" s="275"/>
+      <c r="F43" s="274"/>
+      <c r="G43" s="275"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="95"/>
       <c r="B44" s="96"/>
-      <c r="C44" s="266"/>
-      <c r="D44" s="267"/>
-      <c r="E44" s="268"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="268"/>
+      <c r="C44" s="274"/>
+      <c r="D44" s="286"/>
+      <c r="E44" s="275"/>
+      <c r="F44" s="274"/>
+      <c r="G44" s="275"/>
       <c r="H44" s="97"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="95"/>
       <c r="B45" s="96"/>
-      <c r="C45" s="266"/>
-      <c r="D45" s="267"/>
-      <c r="E45" s="268"/>
-      <c r="F45" s="266"/>
-      <c r="G45" s="268"/>
+      <c r="C45" s="274"/>
+      <c r="D45" s="286"/>
+      <c r="E45" s="275"/>
+      <c r="F45" s="274"/>
+      <c r="G45" s="275"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="98"/>
       <c r="B46" s="133"/>
-      <c r="C46" s="269"/>
-      <c r="D46" s="270"/>
-      <c r="E46" s="271"/>
-      <c r="F46" s="286"/>
-      <c r="G46" s="287"/>
+      <c r="C46" s="280"/>
+      <c r="D46" s="281"/>
+      <c r="E46" s="282"/>
+      <c r="F46" s="276"/>
+      <c r="G46" s="277"/>
       <c r="H46" s="100"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -11658,15 +11642,15 @@
       <c r="B49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="274" t="s">
+      <c r="C49" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="275"/>
-      <c r="E49" s="276"/>
-      <c r="F49" s="291" t="s">
+      <c r="D49" s="283"/>
+      <c r="E49" s="284"/>
+      <c r="F49" s="265" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="292"/>
+      <c r="G49" s="269"/>
       <c r="H49" s="56" t="s">
         <v>17</v>
       </c>
@@ -11674,63 +11658,2284 @@
     <row r="50" spans="1:8" ht="20.25" customHeight="1">
       <c r="A50" s="109"/>
       <c r="B50" s="110"/>
-      <c r="C50" s="288"/>
-      <c r="D50" s="290"/>
-      <c r="E50" s="289"/>
-      <c r="F50" s="288"/>
-      <c r="G50" s="289"/>
+      <c r="C50" s="278"/>
+      <c r="D50" s="285"/>
+      <c r="E50" s="279"/>
+      <c r="F50" s="278"/>
+      <c r="G50" s="279"/>
       <c r="H50" s="111"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="95"/>
       <c r="B51" s="96"/>
-      <c r="C51" s="266"/>
-      <c r="D51" s="267"/>
-      <c r="E51" s="268"/>
-      <c r="F51" s="266"/>
-      <c r="G51" s="268"/>
+      <c r="C51" s="274"/>
+      <c r="D51" s="286"/>
+      <c r="E51" s="275"/>
+      <c r="F51" s="274"/>
+      <c r="G51" s="275"/>
       <c r="H51" s="97"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="95"/>
       <c r="B52" s="96"/>
-      <c r="C52" s="266"/>
-      <c r="D52" s="267"/>
-      <c r="E52" s="268"/>
-      <c r="F52" s="266"/>
-      <c r="G52" s="268"/>
+      <c r="C52" s="274"/>
+      <c r="D52" s="286"/>
+      <c r="E52" s="275"/>
+      <c r="F52" s="274"/>
+      <c r="G52" s="275"/>
       <c r="H52" s="97"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="95"/>
       <c r="B53" s="96"/>
-      <c r="C53" s="266"/>
-      <c r="D53" s="267"/>
-      <c r="E53" s="268"/>
-      <c r="F53" s="266"/>
-      <c r="G53" s="268"/>
+      <c r="C53" s="274"/>
+      <c r="D53" s="286"/>
+      <c r="E53" s="275"/>
+      <c r="F53" s="274"/>
+      <c r="G53" s="275"/>
       <c r="H53" s="97"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="98"/>
       <c r="B54" s="133"/>
-      <c r="C54" s="269"/>
-      <c r="D54" s="270"/>
-      <c r="E54" s="271"/>
-      <c r="F54" s="286"/>
-      <c r="G54" s="287"/>
+      <c r="C54" s="280"/>
+      <c r="D54" s="281"/>
+      <c r="E54" s="282"/>
+      <c r="F54" s="276"/>
+      <c r="G54" s="277"/>
       <c r="H54" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C6:H6"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B16A643-9F07-4984-9911-D3BCFE289355}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="7" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4">
+      <c r="A1" s="209" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="208" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="207">
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="206"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="205" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="22" customFormat="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="314" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="315"/>
+      <c r="C6" s="318" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="319"/>
+      <c r="E6" s="319"/>
+      <c r="F6" s="319"/>
+      <c r="G6" s="320"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="204"/>
+      <c r="C7" s="318" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="320"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="204"/>
+      <c r="C8" s="321" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="322"/>
+      <c r="E8" s="322"/>
+      <c r="F8" s="322"/>
+      <c r="G8" s="323"/>
+    </row>
+    <row r="9" spans="1:10" ht="13.8" thickBot="1">
+      <c r="A9" s="168" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="121"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="165" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="203">
+        <v>1</v>
+      </c>
+      <c r="B11" s="202" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="202" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="202" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="202" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="201"/>
+      <c r="G11" s="200" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="196">
+        <v>2</v>
+      </c>
+      <c r="B12" s="199" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="199" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="199" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="198"/>
+      <c r="G12" s="197"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="196">
+        <v>3</v>
+      </c>
+      <c r="B13" s="199" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="199" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="199" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="198"/>
+      <c r="G13" s="197"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="196">
+        <v>4</v>
+      </c>
+      <c r="B14" s="191" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="195" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="195" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="194"/>
+      <c r="G14" s="193"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="192"/>
+      <c r="B15" s="213"/>
+      <c r="C15" s="191"/>
+      <c r="D15" s="191"/>
+      <c r="E15" s="191"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="189"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="192"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="189"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="192"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="189"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="192"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="189"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="192"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="189"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="192"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="189"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="192"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="189"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="192"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="189"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="192"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="189"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="192"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="189"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="192"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="189"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="192"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="189"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="192"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="189"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="192"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="189"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="192"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="189"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="192"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="189"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="192"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="191"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="189"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="192"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="189"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="192"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="189"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="192"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="189"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="192"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="189"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A36" s="177"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="174"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A38" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="167"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A39" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="187"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="186"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="185"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="183"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="181"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="178"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="181"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="178"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="181"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="178"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A44" s="177"/>
+      <c r="B44" s="176"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="176"/>
+      <c r="E44" s="176"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="174"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A46" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A47" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="170"/>
+      <c r="E47" s="316" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="317"/>
+      <c r="G47" s="169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="161"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="324"/>
+      <c r="F48" s="325"/>
+      <c r="G48" s="157"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="156"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="310"/>
+      <c r="F49" s="311"/>
+      <c r="G49" s="152"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="156"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="310"/>
+      <c r="F50" s="311"/>
+      <c r="G50" s="152"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="156"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="310"/>
+      <c r="F51" s="311"/>
+      <c r="G51" s="152"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A52" s="151"/>
+      <c r="B52" s="150"/>
+      <c r="C52" s="326"/>
+      <c r="D52" s="327"/>
+      <c r="E52" s="326"/>
+      <c r="F52" s="327"/>
+      <c r="G52" s="149"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1"/>
+      <c r="B53" s="167"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="167"/>
+      <c r="E53" s="167"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="167"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A54" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="167"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="167"/>
+    </row>
+    <row r="55" spans="1:7" s="21" customFormat="1" ht="13.8" thickBot="1">
+      <c r="A55" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="163"/>
+      <c r="E55" s="312" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="313"/>
+      <c r="G55" s="162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="161"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="159"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="324"/>
+      <c r="F56" s="325"/>
+      <c r="G56" s="157"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="156"/>
+      <c r="B57" s="155"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="310"/>
+      <c r="F57" s="311"/>
+      <c r="G57" s="152"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="156"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="310"/>
+      <c r="F58" s="311"/>
+      <c r="G58" s="152"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="156"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="153"/>
+      <c r="E59" s="310"/>
+      <c r="F59" s="311"/>
+      <c r="G59" s="152"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A60" s="151"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="326"/>
+      <c r="D60" s="327"/>
+      <c r="E60" s="326"/>
+      <c r="F60" s="327"/>
+      <c r="G60" s="149"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E50:F50"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6535BF08-B134-467B-93E0-F97B1F46E299}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G60"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="7" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.4">
+      <c r="A1" s="209" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="208" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="207">
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="206"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="117" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="205" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="22" customFormat="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="314" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="315"/>
+      <c r="C6" s="318" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="319"/>
+      <c r="E6" s="319"/>
+      <c r="F6" s="319"/>
+      <c r="G6" s="320"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="120" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="204"/>
+      <c r="C7" s="318" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="319"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="320"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="120" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="204"/>
+      <c r="C8" s="321" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="322"/>
+      <c r="E8" s="322"/>
+      <c r="F8" s="322"/>
+      <c r="G8" s="323"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A9" s="168" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="165" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="165" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="165" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="203">
+        <v>1</v>
+      </c>
+      <c r="B11" s="202" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="202" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="202" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="202" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="201"/>
+      <c r="G11" s="200" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="196">
+        <v>2</v>
+      </c>
+      <c r="B12" s="199" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="199" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="199" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="198"/>
+      <c r="G12" s="197"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="203">
+        <v>3</v>
+      </c>
+      <c r="B13" s="199" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="199" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="199" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="198"/>
+      <c r="G13" s="197"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="196">
+        <v>4</v>
+      </c>
+      <c r="B14" s="195" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="195" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="194"/>
+      <c r="G14" s="193"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="203">
+        <v>5</v>
+      </c>
+      <c r="B15" s="195" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="195" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="195" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="199" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="194"/>
+      <c r="G15" s="193"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="192">
+        <v>6</v>
+      </c>
+      <c r="B16" s="195" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="191" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="191" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="191" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="190"/>
+      <c r="G16" s="189"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="192">
+        <v>7</v>
+      </c>
+      <c r="B17" s="191" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="191" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="191" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="191" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="190"/>
+      <c r="G17" s="189"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="192">
+        <v>8</v>
+      </c>
+      <c r="B18" s="191" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="191" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="191" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" s="191" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="190"/>
+      <c r="G18" s="189" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="192"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="189"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="192"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="191"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="189"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="192"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="189"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="192"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="191"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="189"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="192"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="189"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="192"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="189"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="192"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="189"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="192"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="189"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="192"/>
+      <c r="B27" s="191"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="189"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="192"/>
+      <c r="B28" s="191"/>
+      <c r="C28" s="191"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="189"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="192"/>
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="189"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="192"/>
+      <c r="B30" s="191"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="189"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="192"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="191"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="189"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="192"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="189"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="192"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="189"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="192"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="189"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="192"/>
+      <c r="B35" s="191"/>
+      <c r="C35" s="191"/>
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="189"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A36" s="177"/>
+      <c r="B36" s="176"/>
+      <c r="C36" s="176"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="174"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A38" s="168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="167"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+    </row>
+    <row r="39" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A39" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="187"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="172" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="186"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="185"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="183"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="181"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="178"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="181"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="178"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="181"/>
+      <c r="B43" s="180"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="178"/>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A44" s="177"/>
+      <c r="B44" s="176"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="176"/>
+      <c r="E44" s="176"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="174"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1"/>
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A46" s="168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="167"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A47" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="172" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="170"/>
+      <c r="E47" s="316" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="317"/>
+      <c r="G47" s="169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="161"/>
+      <c r="B48" s="160"/>
+      <c r="C48" s="159"/>
+      <c r="D48" s="158"/>
+      <c r="E48" s="324"/>
+      <c r="F48" s="325"/>
+      <c r="G48" s="157"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="156"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="310"/>
+      <c r="F49" s="311"/>
+      <c r="G49" s="152"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="156"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="310"/>
+      <c r="F50" s="311"/>
+      <c r="G50" s="152"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="156"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="310"/>
+      <c r="F51" s="311"/>
+      <c r="G51" s="152"/>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A52" s="151"/>
+      <c r="B52" s="150"/>
+      <c r="C52" s="326"/>
+      <c r="D52" s="327"/>
+      <c r="E52" s="326"/>
+      <c r="F52" s="327"/>
+      <c r="G52" s="149"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="1"/>
+      <c r="B53" s="167"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="167"/>
+      <c r="E53" s="167"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="167"/>
+    </row>
+    <row r="54" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A54" s="168" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="167"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="167"/>
+    </row>
+    <row r="55" spans="1:7" s="21" customFormat="1" ht="13.8" thickBot="1">
+      <c r="A55" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="165" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="163"/>
+      <c r="E55" s="312" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="313"/>
+      <c r="G55" s="162" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="161"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="159"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="324"/>
+      <c r="F56" s="325"/>
+      <c r="G56" s="157"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="156"/>
+      <c r="B57" s="155"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="310"/>
+      <c r="F57" s="311"/>
+      <c r="G57" s="152"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="156"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="154"/>
+      <c r="D58" s="153"/>
+      <c r="E58" s="310"/>
+      <c r="F58" s="311"/>
+      <c r="G58" s="152"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="156"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="154"/>
+      <c r="D59" s="153"/>
+      <c r="E59" s="310"/>
+      <c r="F59" s="311"/>
+      <c r="G59" s="152"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.8" thickBot="1">
+      <c r="A60" s="151"/>
+      <c r="B60" s="150"/>
+      <c r="C60" s="326"/>
+      <c r="D60" s="327"/>
+      <c r="E60" s="326"/>
+      <c r="F60" s="327"/>
+      <c r="G60" s="149"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:F60"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037AD983-EBBB-4DC1-8FD7-00B741A8CEA7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="14.4">
+      <c r="A1" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A2" s="148" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="148"/>
+      <c r="C2" s="144" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="145"/>
+      <c r="E2" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="145" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="104" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A3" s="148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="148"/>
+      <c r="C3" s="144" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="145"/>
+      <c r="E3" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="145"/>
+      <c r="G3" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="105"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A4" s="148" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="148"/>
+      <c r="C4" s="144" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="105" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A6" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="288"/>
+      <c r="E6" s="288"/>
+      <c r="F6" s="288"/>
+      <c r="G6" s="288"/>
+      <c r="H6" s="289"/>
+    </row>
+    <row r="7" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A7" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="288"/>
+      <c r="E7" s="288"/>
+      <c r="F7" s="288"/>
+      <c r="G7" s="288"/>
+      <c r="H7" s="289"/>
+    </row>
+    <row r="8" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A8" s="148" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="287" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="288"/>
+      <c r="H8" s="289"/>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A9" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A10" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="265" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="266"/>
+      <c r="E10" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A11" s="72">
+        <v>1</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="267" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="268"/>
+      <c r="E11" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="75"/>
+      <c r="H11" s="76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A12" s="77">
+        <v>2</v>
+      </c>
+      <c r="B12" s="146" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="263" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="264"/>
+      <c r="E12" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
+    </row>
+    <row r="13" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A13" s="77">
+        <v>3</v>
+      </c>
+      <c r="B13" s="216" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="226" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="216" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
+    </row>
+    <row r="14" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="263"/>
+      <c r="D14" s="264"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="86"/>
+    </row>
+    <row r="15" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A15" s="82"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="263"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="86"/>
+    </row>
+    <row r="16" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="86"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A18" s="82"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="86"/>
+    </row>
+    <row r="19" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="86"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="264"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="86"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A21" s="82"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="264"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="86"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="264"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="86"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="264"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="86"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A24" s="82"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="86"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A25" s="82"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="264"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="86"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A26" s="82"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="264"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A27" s="82"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="86"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A28" s="82"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="264"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="86"/>
+    </row>
+    <row r="29" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A29" s="82"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="86"/>
+    </row>
+    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A30" s="87"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="280"/>
+      <c r="D30" s="282"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="91"/>
+    </row>
+    <row r="31" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+    </row>
+    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A32" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="53"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+    </row>
+    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A33" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="270" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="284"/>
+      <c r="D33" s="140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="142"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A34" s="72"/>
+      <c r="B34" s="290"/>
+      <c r="C34" s="291"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="296"/>
+      <c r="F34" s="273"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="76"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A35" s="77"/>
+      <c r="B35" s="292"/>
+      <c r="C35" s="293"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="286"/>
+      <c r="F35" s="275"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="81"/>
+    </row>
+    <row r="36" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A36" s="77"/>
+      <c r="B36" s="292"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="286"/>
+      <c r="F36" s="275"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="81"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A37" s="77"/>
+      <c r="B37" s="292"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="274"/>
+      <c r="E37" s="286"/>
+      <c r="F37" s="275"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="81"/>
+    </row>
+    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A38" s="87"/>
+      <c r="B38" s="294"/>
+      <c r="C38" s="295"/>
+      <c r="D38" s="280"/>
+      <c r="E38" s="281"/>
+      <c r="F38" s="282"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="91"/>
+    </row>
+    <row r="39" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="58"/>
+    </row>
+    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A40" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="53"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+    </row>
+    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A41" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="270" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="283"/>
+      <c r="E41" s="284"/>
+      <c r="F41" s="270" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="271"/>
+      <c r="H41" s="65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A42" s="92"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="296"/>
+      <c r="E42" s="273"/>
+      <c r="F42" s="272"/>
+      <c r="G42" s="273"/>
+      <c r="H42" s="94"/>
+    </row>
+    <row r="43" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A43" s="95"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="274"/>
+      <c r="D43" s="286"/>
+      <c r="E43" s="275"/>
+      <c r="F43" s="274"/>
+      <c r="G43" s="275"/>
+      <c r="H43" s="97"/>
+    </row>
+    <row r="44" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A44" s="95"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="274"/>
+      <c r="D44" s="286"/>
+      <c r="E44" s="275"/>
+      <c r="F44" s="274"/>
+      <c r="G44" s="275"/>
+      <c r="H44" s="97"/>
+    </row>
+    <row r="45" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A45" s="95"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="274"/>
+      <c r="D45" s="286"/>
+      <c r="E45" s="275"/>
+      <c r="F45" s="274"/>
+      <c r="G45" s="275"/>
+      <c r="H45" s="97"/>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A46" s="98"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="280"/>
+      <c r="D46" s="281"/>
+      <c r="E46" s="282"/>
+      <c r="F46" s="276"/>
+      <c r="G46" s="277"/>
+      <c r="H46" s="100"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A48" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="53"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+    </row>
+    <row r="49" spans="1:8" s="21" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A49" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="270" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="283"/>
+      <c r="E49" s="284"/>
+      <c r="F49" s="265" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" s="269"/>
+      <c r="H49" s="56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A50" s="109">
+        <v>1</v>
+      </c>
+      <c r="B50" s="110"/>
+      <c r="C50" s="278"/>
+      <c r="D50" s="285"/>
+      <c r="E50" s="279"/>
+      <c r="F50" s="278"/>
+      <c r="G50" s="279"/>
+      <c r="H50" s="111"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A51" s="95"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="274"/>
+      <c r="D51" s="286"/>
+      <c r="E51" s="275"/>
+      <c r="F51" s="274"/>
+      <c r="G51" s="275"/>
+      <c r="H51" s="97"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A52" s="95"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="274"/>
+      <c r="D52" s="286"/>
+      <c r="E52" s="275"/>
+      <c r="F52" s="274"/>
+      <c r="G52" s="275"/>
+      <c r="H52" s="97"/>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1">
+      <c r="A53" s="95"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="274"/>
+      <c r="D53" s="286"/>
+      <c r="E53" s="275"/>
+      <c r="F53" s="274"/>
+      <c r="G53" s="275"/>
+      <c r="H53" s="97"/>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
+      <c r="A54" s="98"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="280"/>
+      <c r="D54" s="281"/>
+      <c r="E54" s="282"/>
+      <c r="F54" s="276"/>
+      <c r="G54" s="277"/>
+      <c r="H54" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -11789,2227 +13994,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B16A643-9F07-4984-9911-D3BCFE289355}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:J60"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="7" width="14.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="14.4">
-      <c r="A1" s="209" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="117" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="208" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="207">
-        <v>43594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="120" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="206"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="116" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="117" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="205" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="22" customFormat="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="318" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="319"/>
-      <c r="C6" s="322" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="323"/>
-      <c r="G6" s="324"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="322" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="323"/>
-      <c r="E7" s="323"/>
-      <c r="F7" s="323"/>
-      <c r="G7" s="324"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="120" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="204"/>
-      <c r="C8" s="325" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="326"/>
-      <c r="E8" s="326"/>
-      <c r="F8" s="326"/>
-      <c r="G8" s="327"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.8" thickBot="1">
-      <c r="A9" s="168" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="121"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="165" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="165" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="162" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="203">
-        <v>1</v>
-      </c>
-      <c r="B11" s="202" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="202" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="202" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="202" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="201"/>
-      <c r="G11" s="200" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="196">
-        <v>2</v>
-      </c>
-      <c r="B12" s="199" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="199" t="s">
-        <v>200</v>
-      </c>
-      <c r="D12" s="199" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="198"/>
-      <c r="G12" s="197"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="196">
-        <v>3</v>
-      </c>
-      <c r="B13" s="199" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="199" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="199" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="198"/>
-      <c r="G13" s="197"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="196">
-        <v>4</v>
-      </c>
-      <c r="B14" s="191" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="195" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="195" t="s">
-        <v>206</v>
-      </c>
-      <c r="F14" s="194"/>
-      <c r="G14" s="193"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="192"/>
-      <c r="B15" s="213"/>
-      <c r="C15" s="191"/>
-      <c r="D15" s="191"/>
-      <c r="E15" s="191"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="189"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="192"/>
-      <c r="B16" s="212"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="191"/>
-      <c r="E16" s="191"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="189"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="192"/>
-      <c r="B17" s="214"/>
-      <c r="C17" s="191"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="189"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="192"/>
-      <c r="B18" s="211"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="189"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="192"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="189"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="192"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="189"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="192"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="189"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="192"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="189"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="192"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="189"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="192"/>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="191"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="189"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="192"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="189"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="192"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="189"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="192"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="191"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="189"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="192"/>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="191"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="189"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="192"/>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="189"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="192"/>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="191"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="189"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="192"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="191"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="189"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="192"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="189"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="192"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="189"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="192"/>
-      <c r="B34" s="191"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="189"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="192"/>
-      <c r="B35" s="191"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="189"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A36" s="177"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="174"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A38" s="168" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A39" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="171" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="187"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="172" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="169" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="186"/>
-      <c r="B40" s="185"/>
-      <c r="C40" s="185"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="183"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="181"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="182"/>
-      <c r="G41" s="178"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="181"/>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="178"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="181"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="178"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A44" s="177"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
-      <c r="E44" s="176"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="174"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="167"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A46" s="168" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A47" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="172" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="171" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="170"/>
-      <c r="E47" s="320" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="321"/>
-      <c r="G47" s="169" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="161"/>
-      <c r="B48" s="160"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="158"/>
-      <c r="E48" s="312"/>
-      <c r="F48" s="313"/>
-      <c r="G48" s="157"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="156"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="154"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="314"/>
-      <c r="F49" s="315"/>
-      <c r="G49" s="152"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="156"/>
-      <c r="B50" s="155"/>
-      <c r="C50" s="154"/>
-      <c r="D50" s="153"/>
-      <c r="E50" s="314"/>
-      <c r="F50" s="315"/>
-      <c r="G50" s="152"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="156"/>
-      <c r="B51" s="155"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="314"/>
-      <c r="F51" s="315"/>
-      <c r="G51" s="152"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A52" s="151"/>
-      <c r="B52" s="150"/>
-      <c r="C52" s="310"/>
-      <c r="D52" s="311"/>
-      <c r="E52" s="310"/>
-      <c r="F52" s="311"/>
-      <c r="G52" s="149"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A54" s="168" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-    </row>
-    <row r="55" spans="1:7" s="21" customFormat="1" ht="13.8" thickBot="1">
-      <c r="A55" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="163"/>
-      <c r="E55" s="316" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="317"/>
-      <c r="G55" s="162" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="161"/>
-      <c r="B56" s="160"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="158"/>
-      <c r="E56" s="312"/>
-      <c r="F56" s="313"/>
-      <c r="G56" s="157"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="156"/>
-      <c r="B57" s="155"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="314"/>
-      <c r="F57" s="315"/>
-      <c r="G57" s="152"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="156"/>
-      <c r="B58" s="155"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="314"/>
-      <c r="F58" s="315"/>
-      <c r="G58" s="152"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="156"/>
-      <c r="B59" s="155"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="314"/>
-      <c r="F59" s="315"/>
-      <c r="G59" s="152"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A60" s="151"/>
-      <c r="B60" s="150"/>
-      <c r="C60" s="310"/>
-      <c r="D60" s="311"/>
-      <c r="E60" s="310"/>
-      <c r="F60" s="311"/>
-      <c r="G60" s="149"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E58:F58"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6535BF08-B134-467B-93E0-F97B1F46E299}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G60"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="7" width="14.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="14.4">
-      <c r="A1" s="209" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="117" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="208" t="s">
-        <v>163</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="207">
-        <v>43594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="120" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="206"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="116" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="117" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="205" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="318" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="319"/>
-      <c r="C6" s="322" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="323"/>
-      <c r="G6" s="324"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="120" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="322" t="s">
-        <v>183</v>
-      </c>
-      <c r="D7" s="323"/>
-      <c r="E7" s="323"/>
-      <c r="F7" s="323"/>
-      <c r="G7" s="324"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="120" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="204"/>
-      <c r="C8" s="325" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="326"/>
-      <c r="E8" s="326"/>
-      <c r="F8" s="326"/>
-      <c r="G8" s="327"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A9" s="168" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="165" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="165" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="165" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="162" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="203">
-        <v>1</v>
-      </c>
-      <c r="B11" s="202" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="202" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" s="202" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="202" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="201"/>
-      <c r="G11" s="200" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="196">
-        <v>2</v>
-      </c>
-      <c r="B12" s="199" t="s">
-        <v>180</v>
-      </c>
-      <c r="C12" s="199" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="199" t="s">
-        <v>178</v>
-      </c>
-      <c r="E12" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="198"/>
-      <c r="G12" s="197"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="203">
-        <v>3</v>
-      </c>
-      <c r="B13" s="199" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="199" t="s">
-        <v>176</v>
-      </c>
-      <c r="D13" s="199" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="198"/>
-      <c r="G13" s="197"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="196">
-        <v>4</v>
-      </c>
-      <c r="B14" s="195" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="195" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="194"/>
-      <c r="G14" s="193"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="203">
-        <v>5</v>
-      </c>
-      <c r="B15" s="195" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="195" t="s">
-        <v>171</v>
-      </c>
-      <c r="D15" s="195" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="199" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="194"/>
-      <c r="G15" s="193"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="192">
-        <v>6</v>
-      </c>
-      <c r="B16" s="195" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="191" t="s">
-        <v>169</v>
-      </c>
-      <c r="D16" s="191" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="191" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="190"/>
-      <c r="G16" s="189"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="192">
-        <v>7</v>
-      </c>
-      <c r="B17" s="191" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="191" t="s">
-        <v>167</v>
-      </c>
-      <c r="D17" s="191" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="191" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="190"/>
-      <c r="G17" s="189"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="192">
-        <v>8</v>
-      </c>
-      <c r="B18" s="191" t="s">
-        <v>204</v>
-      </c>
-      <c r="C18" s="191" t="s">
-        <v>205</v>
-      </c>
-      <c r="D18" s="191" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="191" t="s">
-        <v>206</v>
-      </c>
-      <c r="F18" s="190"/>
-      <c r="G18" s="189" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="192"/>
-      <c r="B19" s="191"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="189"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="192"/>
-      <c r="B20" s="191"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="189"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="192"/>
-      <c r="B21" s="191"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="189"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="192"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="189"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="192"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="189"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="192"/>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="191"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="189"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="192"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="191"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="189"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="192"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="189"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="192"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="191"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="189"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="192"/>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="191"/>
-      <c r="E28" s="191"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="189"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="192"/>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="189"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="192"/>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="191"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="189"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="192"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="191"/>
-      <c r="E31" s="191"/>
-      <c r="F31" s="190"/>
-      <c r="G31" s="189"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="192"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="190"/>
-      <c r="G32" s="189"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="192"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="189"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="192"/>
-      <c r="B34" s="191"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="190"/>
-      <c r="G34" s="189"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="192"/>
-      <c r="B35" s="191"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191"/>
-      <c r="E35" s="191"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="189"/>
-    </row>
-    <row r="36" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A36" s="177"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="174"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-    </row>
-    <row r="38" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A38" s="168" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-    </row>
-    <row r="39" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A39" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="171" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="187"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="172" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="169" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="186"/>
-      <c r="B40" s="185"/>
-      <c r="C40" s="185"/>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="183"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="181"/>
-      <c r="B41" s="180"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="180"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="182"/>
-      <c r="G41" s="178"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="181"/>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="178"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="181"/>
-      <c r="B43" s="180"/>
-      <c r="C43" s="180"/>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="178"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A44" s="177"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="176"/>
-      <c r="D44" s="176"/>
-      <c r="E44" s="176"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="174"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="1"/>
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="167"/>
-    </row>
-    <row r="46" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A46" s="168" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-    </row>
-    <row r="47" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A47" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="172" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="171" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="170"/>
-      <c r="E47" s="320" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="321"/>
-      <c r="G47" s="169" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="161"/>
-      <c r="B48" s="160"/>
-      <c r="C48" s="159"/>
-      <c r="D48" s="158"/>
-      <c r="E48" s="312"/>
-      <c r="F48" s="313"/>
-      <c r="G48" s="157"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="156"/>
-      <c r="B49" s="155"/>
-      <c r="C49" s="154"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="314"/>
-      <c r="F49" s="315"/>
-      <c r="G49" s="152"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="156"/>
-      <c r="B50" s="155"/>
-      <c r="C50" s="154"/>
-      <c r="D50" s="153"/>
-      <c r="E50" s="314"/>
-      <c r="F50" s="315"/>
-      <c r="G50" s="152"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="156"/>
-      <c r="B51" s="155"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="314"/>
-      <c r="F51" s="315"/>
-      <c r="G51" s="152"/>
-    </row>
-    <row r="52" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A52" s="151"/>
-      <c r="B52" s="150"/>
-      <c r="C52" s="310"/>
-      <c r="D52" s="311"/>
-      <c r="E52" s="310"/>
-      <c r="F52" s="311"/>
-      <c r="G52" s="149"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-    </row>
-    <row r="54" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A54" s="168" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-    </row>
-    <row r="55" spans="1:7" s="21" customFormat="1" ht="13.8" thickBot="1">
-      <c r="A55" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="165" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="163"/>
-      <c r="E55" s="316" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="317"/>
-      <c r="G55" s="162" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="161"/>
-      <c r="B56" s="160"/>
-      <c r="C56" s="159"/>
-      <c r="D56" s="158"/>
-      <c r="E56" s="312"/>
-      <c r="F56" s="313"/>
-      <c r="G56" s="157"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="156"/>
-      <c r="B57" s="155"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="314"/>
-      <c r="F57" s="315"/>
-      <c r="G57" s="152"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="156"/>
-      <c r="B58" s="155"/>
-      <c r="C58" s="154"/>
-      <c r="D58" s="153"/>
-      <c r="E58" s="314"/>
-      <c r="F58" s="315"/>
-      <c r="G58" s="152"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="156"/>
-      <c r="B59" s="155"/>
-      <c r="C59" s="154"/>
-      <c r="D59" s="153"/>
-      <c r="E59" s="314"/>
-      <c r="F59" s="315"/>
-      <c r="G59" s="152"/>
-    </row>
-    <row r="60" spans="1:7" ht="13.8" thickBot="1">
-      <c r="A60" s="151"/>
-      <c r="B60" s="150"/>
-      <c r="C60" s="310"/>
-      <c r="D60" s="311"/>
-      <c r="E60" s="310"/>
-      <c r="F60" s="311"/>
-      <c r="G60" s="149"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037AD983-EBBB-4DC1-8FD7-00B741A8CEA7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H54"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="125" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="127"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A2" s="148" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="144" t="s">
-        <v>136</v>
-      </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="104" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A3" s="148" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="148"/>
-      <c r="C3" s="144" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="145"/>
-      <c r="E3" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="105"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A4" s="148" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="144" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="105" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="22" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A6" s="148" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="283"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A7" s="148" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="281"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="283"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A8" s="148" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="281" t="s">
-        <v>215</v>
-      </c>
-      <c r="D8" s="282"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="283"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A9" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-    </row>
-    <row r="10" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A10" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="291" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="294"/>
-      <c r="E10" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A11" s="72">
-        <v>1</v>
-      </c>
-      <c r="B11" s="73" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="295" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="296"/>
-      <c r="E11" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A12" s="77">
-        <v>2</v>
-      </c>
-      <c r="B12" s="146" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" s="284" t="s">
-        <v>202</v>
-      </c>
-      <c r="D12" s="285"/>
-      <c r="E12" s="79" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="74" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A13" s="77">
-        <v>3</v>
-      </c>
-      <c r="B13" s="216" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="226" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13" s="216" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
-    </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A14" s="82"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="284"/>
-      <c r="D14" s="285"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="86"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="284"/>
-      <c r="D15" s="285"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="86"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A16" s="82"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="284"/>
-      <c r="D16" s="285"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
-    </row>
-    <row r="17" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="284"/>
-      <c r="D17" s="285"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="86"/>
-    </row>
-    <row r="18" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A18" s="82"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="284"/>
-      <c r="D18" s="285"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="86"/>
-    </row>
-    <row r="19" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A19" s="82"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="284"/>
-      <c r="D19" s="285"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="86"/>
-    </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A20" s="82"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="284"/>
-      <c r="D20" s="285"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="86"/>
-    </row>
-    <row r="21" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="284"/>
-      <c r="D21" s="285"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="86"/>
-    </row>
-    <row r="22" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A22" s="82"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="284"/>
-      <c r="D22" s="285"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="86"/>
-    </row>
-    <row r="23" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A23" s="82"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="284"/>
-      <c r="D23" s="285"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="86"/>
-    </row>
-    <row r="24" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A24" s="82"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="285"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="86"/>
-    </row>
-    <row r="25" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A25" s="82"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="284"/>
-      <c r="D25" s="285"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="86"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="82"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="284"/>
-      <c r="D26" s="285"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="86"/>
-    </row>
-    <row r="27" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A27" s="82"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="284"/>
-      <c r="D27" s="285"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="86"/>
-    </row>
-    <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="82"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="284"/>
-      <c r="D28" s="285"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="86"/>
-    </row>
-    <row r="29" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A29" s="82"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="284"/>
-      <c r="D29" s="285"/>
-      <c r="E29" s="84"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="86"/>
-    </row>
-    <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A30" s="87"/>
-      <c r="B30" s="147"/>
-      <c r="C30" s="269"/>
-      <c r="D30" s="271"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="91"/>
-    </row>
-    <row r="31" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-    </row>
-    <row r="32" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A32" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-    </row>
-    <row r="33" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A33" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="274" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="276"/>
-      <c r="D33" s="140" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="142"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="277"/>
-      <c r="C34" s="278"/>
-      <c r="D34" s="263"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="265"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="76"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A35" s="77"/>
-      <c r="B35" s="279"/>
-      <c r="C35" s="280"/>
-      <c r="D35" s="266"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="268"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-    </row>
-    <row r="36" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A36" s="77"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="280"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="268"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="81"/>
-    </row>
-    <row r="37" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A37" s="77"/>
-      <c r="B37" s="279"/>
-      <c r="C37" s="280"/>
-      <c r="D37" s="266"/>
-      <c r="E37" s="267"/>
-      <c r="F37" s="268"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="81"/>
-    </row>
-    <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A38" s="87"/>
-      <c r="B38" s="272"/>
-      <c r="C38" s="273"/>
-      <c r="D38" s="269"/>
-      <c r="E38" s="270"/>
-      <c r="F38" s="271"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="91"/>
-    </row>
-    <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-    </row>
-    <row r="40" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A40" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="59"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-    </row>
-    <row r="41" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A41" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="274" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="275"/>
-      <c r="E41" s="276"/>
-      <c r="F41" s="274" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="293"/>
-      <c r="H41" s="65" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="93"/>
-      <c r="C42" s="263"/>
-      <c r="D42" s="264"/>
-      <c r="E42" s="265"/>
-      <c r="F42" s="263"/>
-      <c r="G42" s="265"/>
-      <c r="H42" s="94"/>
-    </row>
-    <row r="43" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A43" s="95"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="266"/>
-      <c r="D43" s="267"/>
-      <c r="E43" s="268"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="268"/>
-      <c r="H43" s="97"/>
-    </row>
-    <row r="44" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A44" s="95"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="266"/>
-      <c r="D44" s="267"/>
-      <c r="E44" s="268"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="268"/>
-      <c r="H44" s="97"/>
-    </row>
-    <row r="45" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A45" s="95"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="266"/>
-      <c r="D45" s="267"/>
-      <c r="E45" s="268"/>
-      <c r="F45" s="266"/>
-      <c r="G45" s="268"/>
-      <c r="H45" s="97"/>
-    </row>
-    <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A46" s="98"/>
-      <c r="B46" s="141"/>
-      <c r="C46" s="269"/>
-      <c r="D46" s="270"/>
-      <c r="E46" s="271"/>
-      <c r="F46" s="286"/>
-      <c r="G46" s="287"/>
-      <c r="H46" s="100"/>
-    </row>
-    <row r="47" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-    </row>
-    <row r="48" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A48" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="53"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-    </row>
-    <row r="49" spans="1:8" s="21" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A49" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="274" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="275"/>
-      <c r="E49" s="276"/>
-      <c r="F49" s="291" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" s="292"/>
-      <c r="H49" s="56" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A50" s="109">
-        <v>1</v>
-      </c>
-      <c r="B50" s="110"/>
-      <c r="C50" s="288"/>
-      <c r="D50" s="290"/>
-      <c r="E50" s="289"/>
-      <c r="F50" s="288"/>
-      <c r="G50" s="289"/>
-      <c r="H50" s="111"/>
-    </row>
-    <row r="51" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A51" s="95"/>
-      <c r="B51" s="96"/>
-      <c r="C51" s="266"/>
-      <c r="D51" s="267"/>
-      <c r="E51" s="268"/>
-      <c r="F51" s="266"/>
-      <c r="G51" s="268"/>
-      <c r="H51" s="97"/>
-    </row>
-    <row r="52" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A52" s="95"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="266"/>
-      <c r="D52" s="267"/>
-      <c r="E52" s="268"/>
-      <c r="F52" s="266"/>
-      <c r="G52" s="268"/>
-      <c r="H52" s="97"/>
-    </row>
-    <row r="53" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A53" s="95"/>
-      <c r="B53" s="96"/>
-      <c r="C53" s="266"/>
-      <c r="D53" s="267"/>
-      <c r="E53" s="268"/>
-      <c r="F53" s="266"/>
-      <c r="G53" s="268"/>
-      <c r="H53" s="97"/>
-    </row>
-    <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A54" s="98"/>
-      <c r="B54" s="141"/>
-      <c r="C54" s="269"/>
-      <c r="D54" s="270"/>
-      <c r="E54" s="271"/>
-      <c r="F54" s="286"/>
-      <c r="G54" s="287"/>
-      <c r="H54" s="100"/>
-    </row>
-  </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
@@ -14116,38 +14100,38 @@
         <v>49</v>
       </c>
       <c r="B6" s="52"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="282"/>
-      <c r="E6" s="282"/>
-      <c r="F6" s="282"/>
-      <c r="G6" s="282"/>
-      <c r="H6" s="283"/>
+      <c r="C6" s="287"/>
+      <c r="D6" s="288"/>
+      <c r="E6" s="288"/>
+      <c r="F6" s="288"/>
+      <c r="G6" s="288"/>
+      <c r="H6" s="289"/>
     </row>
     <row r="7" spans="1:15" ht="20.25" customHeight="1">
       <c r="A7" s="134" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="52"/>
-      <c r="C7" s="281"/>
-      <c r="D7" s="282"/>
-      <c r="E7" s="282"/>
-      <c r="F7" s="282"/>
-      <c r="G7" s="282"/>
-      <c r="H7" s="283"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="288"/>
+      <c r="E7" s="288"/>
+      <c r="F7" s="288"/>
+      <c r="G7" s="288"/>
+      <c r="H7" s="289"/>
     </row>
     <row r="8" spans="1:15" ht="20.25" customHeight="1">
       <c r="A8" s="134" t="s">
         <v>50</v>
       </c>
       <c r="B8" s="52"/>
-      <c r="C8" s="281" t="s">
+      <c r="C8" s="287" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="282"/>
-      <c r="E8" s="282"/>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="283"/>
+      <c r="D8" s="288"/>
+      <c r="E8" s="288"/>
+      <c r="F8" s="288"/>
+      <c r="G8" s="288"/>
+      <c r="H8" s="289"/>
     </row>
     <row r="9" spans="1:15" ht="20.25" customHeight="1" thickBot="1">
       <c r="A9" s="53" t="s">
@@ -14168,10 +14152,10 @@
       <c r="B10" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="291" t="s">
+      <c r="C10" s="265" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="294"/>
+      <c r="D10" s="266"/>
       <c r="E10" s="55" t="s">
         <v>1</v>
       </c>
@@ -14192,10 +14176,10 @@
       <c r="B11" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="295" t="s">
+      <c r="C11" s="267" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="296"/>
+      <c r="D11" s="268"/>
       <c r="E11" s="74" t="s">
         <v>139</v>
       </c>
@@ -14214,10 +14198,10 @@
       <c r="B12" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="284" t="s">
+      <c r="C12" s="263" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="285"/>
+      <c r="D12" s="264"/>
       <c r="E12" s="79" t="s">
         <v>124</v>
       </c>
@@ -14234,10 +14218,10 @@
       <c r="B13" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="284" t="s">
+      <c r="C13" s="263" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="285"/>
+      <c r="D13" s="264"/>
       <c r="E13" s="79" t="s">
         <v>154</v>
       </c>
@@ -14255,10 +14239,10 @@
       <c r="B14" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="284" t="s">
+      <c r="C14" s="263" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="285"/>
+      <c r="D14" s="264"/>
       <c r="E14" s="84" t="s">
         <v>155</v>
       </c>
@@ -14291,8 +14275,8 @@
     <row r="16" spans="1:15" ht="20.25" customHeight="1">
       <c r="A16" s="82"/>
       <c r="B16" s="83"/>
-      <c r="C16" s="284"/>
-      <c r="D16" s="285"/>
+      <c r="C16" s="263"/>
+      <c r="D16" s="264"/>
       <c r="E16" s="84"/>
       <c r="F16" s="84"/>
       <c r="G16" s="85"/>
@@ -14301,8 +14285,8 @@
     <row r="17" spans="1:8" ht="20.25" customHeight="1">
       <c r="A17" s="82"/>
       <c r="B17" s="83"/>
-      <c r="C17" s="284"/>
-      <c r="D17" s="285"/>
+      <c r="C17" s="263"/>
+      <c r="D17" s="264"/>
       <c r="E17" s="84"/>
       <c r="F17" s="84"/>
       <c r="G17" s="85"/>
@@ -14311,8 +14295,8 @@
     <row r="18" spans="1:8" ht="20.25" customHeight="1">
       <c r="A18" s="82"/>
       <c r="B18" s="83"/>
-      <c r="C18" s="284"/>
-      <c r="D18" s="285"/>
+      <c r="C18" s="263"/>
+      <c r="D18" s="264"/>
       <c r="E18" s="84"/>
       <c r="F18" s="84"/>
       <c r="G18" s="85"/>
@@ -14321,8 +14305,8 @@
     <row r="19" spans="1:8" ht="20.25" customHeight="1">
       <c r="A19" s="82"/>
       <c r="B19" s="83"/>
-      <c r="C19" s="284"/>
-      <c r="D19" s="285"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="264"/>
       <c r="E19" s="84"/>
       <c r="F19" s="84"/>
       <c r="G19" s="85"/>
@@ -14331,8 +14315,8 @@
     <row r="20" spans="1:8" ht="20.25" customHeight="1">
       <c r="A20" s="82"/>
       <c r="B20" s="83"/>
-      <c r="C20" s="284"/>
-      <c r="D20" s="285"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="264"/>
       <c r="E20" s="84"/>
       <c r="F20" s="84"/>
       <c r="G20" s="85"/>
@@ -14341,8 +14325,8 @@
     <row r="21" spans="1:8" ht="20.25" customHeight="1">
       <c r="A21" s="82"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="284"/>
-      <c r="D21" s="285"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="264"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
       <c r="G21" s="85"/>
@@ -14351,8 +14335,8 @@
     <row r="22" spans="1:8" ht="20.25" customHeight="1">
       <c r="A22" s="82"/>
       <c r="B22" s="83"/>
-      <c r="C22" s="284"/>
-      <c r="D22" s="285"/>
+      <c r="C22" s="263"/>
+      <c r="D22" s="264"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
       <c r="G22" s="85"/>
@@ -14361,8 +14345,8 @@
     <row r="23" spans="1:8" ht="20.25" customHeight="1">
       <c r="A23" s="82"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="284"/>
-      <c r="D23" s="285"/>
+      <c r="C23" s="263"/>
+      <c r="D23" s="264"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
       <c r="G23" s="85"/>
@@ -14371,8 +14355,8 @@
     <row r="24" spans="1:8" ht="20.25" customHeight="1">
       <c r="A24" s="82"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="284"/>
-      <c r="D24" s="285"/>
+      <c r="C24" s="263"/>
+      <c r="D24" s="264"/>
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="85"/>
@@ -14381,8 +14365,8 @@
     <row r="25" spans="1:8" ht="20.25" customHeight="1">
       <c r="A25" s="82"/>
       <c r="B25" s="83"/>
-      <c r="C25" s="284"/>
-      <c r="D25" s="285"/>
+      <c r="C25" s="263"/>
+      <c r="D25" s="264"/>
       <c r="E25" s="84"/>
       <c r="F25" s="84"/>
       <c r="G25" s="85"/>
@@ -14391,8 +14375,8 @@
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
       <c r="A26" s="82"/>
       <c r="B26" s="83"/>
-      <c r="C26" s="284"/>
-      <c r="D26" s="285"/>
+      <c r="C26" s="263"/>
+      <c r="D26" s="264"/>
       <c r="E26" s="84"/>
       <c r="F26" s="84"/>
       <c r="G26" s="85"/>
@@ -14401,8 +14385,8 @@
     <row r="27" spans="1:8" ht="20.25" customHeight="1">
       <c r="A27" s="82"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="284"/>
-      <c r="D27" s="285"/>
+      <c r="C27" s="263"/>
+      <c r="D27" s="264"/>
       <c r="E27" s="84"/>
       <c r="F27" s="84"/>
       <c r="G27" s="85"/>
@@ -14411,8 +14395,8 @@
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="82"/>
       <c r="B28" s="83"/>
-      <c r="C28" s="284"/>
-      <c r="D28" s="285"/>
+      <c r="C28" s="263"/>
+      <c r="D28" s="264"/>
       <c r="E28" s="84"/>
       <c r="F28" s="84"/>
       <c r="G28" s="85"/>
@@ -14421,8 +14405,8 @@
     <row r="29" spans="1:8" ht="20.25" customHeight="1">
       <c r="A29" s="82"/>
       <c r="B29" s="83"/>
-      <c r="C29" s="284"/>
-      <c r="D29" s="285"/>
+      <c r="C29" s="263"/>
+      <c r="D29" s="264"/>
       <c r="E29" s="84"/>
       <c r="F29" s="84"/>
       <c r="G29" s="85"/>
@@ -14431,8 +14415,8 @@
     <row r="30" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A30" s="87"/>
       <c r="B30" s="88"/>
-      <c r="C30" s="269"/>
-      <c r="D30" s="271"/>
+      <c r="C30" s="280"/>
+      <c r="D30" s="282"/>
       <c r="E30" s="89"/>
       <c r="F30" s="89"/>
       <c r="G30" s="90"/>
@@ -14464,10 +14448,10 @@
       <c r="A33" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="274" t="s">
+      <c r="B33" s="270" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="276"/>
+      <c r="C33" s="284"/>
       <c r="D33" s="67" t="s">
         <v>9</v>
       </c>
@@ -14482,51 +14466,51 @@
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1">
       <c r="A34" s="72"/>
-      <c r="B34" s="277"/>
-      <c r="C34" s="278"/>
-      <c r="D34" s="263"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="265"/>
+      <c r="B34" s="290"/>
+      <c r="C34" s="291"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="296"/>
+      <c r="F34" s="273"/>
       <c r="G34" s="75"/>
       <c r="H34" s="76"/>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1">
       <c r="A35" s="77"/>
-      <c r="B35" s="279"/>
-      <c r="C35" s="280"/>
-      <c r="D35" s="266"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="268"/>
+      <c r="B35" s="292"/>
+      <c r="C35" s="293"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="286"/>
+      <c r="F35" s="275"/>
       <c r="G35" s="80"/>
       <c r="H35" s="81"/>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1">
       <c r="A36" s="77"/>
-      <c r="B36" s="279"/>
-      <c r="C36" s="280"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="268"/>
+      <c r="B36" s="292"/>
+      <c r="C36" s="293"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="286"/>
+      <c r="F36" s="275"/>
       <c r="G36" s="80"/>
       <c r="H36" s="81"/>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1">
       <c r="A37" s="77"/>
-      <c r="B37" s="279"/>
-      <c r="C37" s="280"/>
-      <c r="D37" s="266"/>
-      <c r="E37" s="267"/>
-      <c r="F37" s="268"/>
+      <c r="B37" s="292"/>
+      <c r="C37" s="293"/>
+      <c r="D37" s="274"/>
+      <c r="E37" s="286"/>
+      <c r="F37" s="275"/>
       <c r="G37" s="80"/>
       <c r="H37" s="81"/>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A38" s="87"/>
-      <c r="B38" s="272"/>
-      <c r="C38" s="273"/>
-      <c r="D38" s="269"/>
-      <c r="E38" s="270"/>
-      <c r="F38" s="271"/>
+      <c r="B38" s="294"/>
+      <c r="C38" s="295"/>
+      <c r="D38" s="280"/>
+      <c r="E38" s="281"/>
+      <c r="F38" s="282"/>
       <c r="G38" s="90"/>
       <c r="H38" s="91"/>
     </row>
@@ -14559,15 +14543,15 @@
       <c r="B41" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="274" t="s">
+      <c r="C41" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="275"/>
-      <c r="E41" s="276"/>
-      <c r="F41" s="274" t="s">
+      <c r="D41" s="283"/>
+      <c r="E41" s="284"/>
+      <c r="F41" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="293"/>
+      <c r="G41" s="271"/>
       <c r="H41" s="65" t="s">
         <v>14</v>
       </c>
@@ -14575,51 +14559,51 @@
     <row r="42" spans="1:8" ht="20.25" customHeight="1">
       <c r="A42" s="92"/>
       <c r="B42" s="93"/>
-      <c r="C42" s="263"/>
-      <c r="D42" s="264"/>
-      <c r="E42" s="265"/>
-      <c r="F42" s="263"/>
-      <c r="G42" s="265"/>
+      <c r="C42" s="272"/>
+      <c r="D42" s="296"/>
+      <c r="E42" s="273"/>
+      <c r="F42" s="272"/>
+      <c r="G42" s="273"/>
       <c r="H42" s="94"/>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1">
       <c r="A43" s="95"/>
       <c r="B43" s="96"/>
-      <c r="C43" s="266"/>
-      <c r="D43" s="267"/>
-      <c r="E43" s="268"/>
-      <c r="F43" s="266"/>
-      <c r="G43" s="268"/>
+      <c r="C43" s="274"/>
+      <c r="D43" s="286"/>
+      <c r="E43" s="275"/>
+      <c r="F43" s="274"/>
+      <c r="G43" s="275"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1">
       <c r="A44" s="95"/>
       <c r="B44" s="96"/>
-      <c r="C44" s="266"/>
-      <c r="D44" s="267"/>
-      <c r="E44" s="268"/>
-      <c r="F44" s="266"/>
-      <c r="G44" s="268"/>
+      <c r="C44" s="274"/>
+      <c r="D44" s="286"/>
+      <c r="E44" s="275"/>
+      <c r="F44" s="274"/>
+      <c r="G44" s="275"/>
       <c r="H44" s="97"/>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1">
       <c r="A45" s="95"/>
       <c r="B45" s="96"/>
-      <c r="C45" s="266"/>
-      <c r="D45" s="267"/>
-      <c r="E45" s="268"/>
-      <c r="F45" s="266"/>
-      <c r="G45" s="268"/>
+      <c r="C45" s="274"/>
+      <c r="D45" s="286"/>
+      <c r="E45" s="275"/>
+      <c r="F45" s="274"/>
+      <c r="G45" s="275"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A46" s="98"/>
       <c r="B46" s="99"/>
-      <c r="C46" s="269"/>
-      <c r="D46" s="270"/>
-      <c r="E46" s="271"/>
-      <c r="F46" s="286"/>
-      <c r="G46" s="287"/>
+      <c r="C46" s="280"/>
+      <c r="D46" s="281"/>
+      <c r="E46" s="282"/>
+      <c r="F46" s="276"/>
+      <c r="G46" s="277"/>
       <c r="H46" s="100"/>
     </row>
     <row r="47" spans="1:8" ht="20.25" customHeight="1">
@@ -14651,15 +14635,15 @@
       <c r="B49" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C49" s="274" t="s">
+      <c r="C49" s="270" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="275"/>
-      <c r="E49" s="276"/>
-      <c r="F49" s="291" t="s">
+      <c r="D49" s="283"/>
+      <c r="E49" s="284"/>
+      <c r="F49" s="265" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="292"/>
+      <c r="G49" s="269"/>
       <c r="H49" s="56" t="s">
         <v>17</v>
       </c>
@@ -14669,83 +14653,72 @@
         <v>1</v>
       </c>
       <c r="B50" s="110"/>
-      <c r="C50" s="288"/>
-      <c r="D50" s="290"/>
-      <c r="E50" s="289"/>
-      <c r="F50" s="288"/>
-      <c r="G50" s="289"/>
+      <c r="C50" s="278"/>
+      <c r="D50" s="285"/>
+      <c r="E50" s="279"/>
+      <c r="F50" s="278"/>
+      <c r="G50" s="279"/>
       <c r="H50" s="111"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1">
       <c r="A51" s="95"/>
       <c r="B51" s="96"/>
-      <c r="C51" s="266"/>
-      <c r="D51" s="267"/>
-      <c r="E51" s="268"/>
-      <c r="F51" s="266"/>
-      <c r="G51" s="268"/>
+      <c r="C51" s="274"/>
+      <c r="D51" s="286"/>
+      <c r="E51" s="275"/>
+      <c r="F51" s="274"/>
+      <c r="G51" s="275"/>
       <c r="H51" s="97"/>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1">
       <c r="A52" s="95"/>
       <c r="B52" s="96"/>
-      <c r="C52" s="266"/>
-      <c r="D52" s="267"/>
-      <c r="E52" s="268"/>
-      <c r="F52" s="266"/>
-      <c r="G52" s="268"/>
+      <c r="C52" s="274"/>
+      <c r="D52" s="286"/>
+      <c r="E52" s="275"/>
+      <c r="F52" s="274"/>
+      <c r="G52" s="275"/>
       <c r="H52" s="97"/>
     </row>
     <row r="53" spans="1:8" ht="20.25" customHeight="1">
       <c r="A53" s="95"/>
       <c r="B53" s="96"/>
-      <c r="C53" s="266"/>
-      <c r="D53" s="267"/>
-      <c r="E53" s="268"/>
-      <c r="F53" s="266"/>
-      <c r="G53" s="268"/>
+      <c r="C53" s="274"/>
+      <c r="D53" s="286"/>
+      <c r="E53" s="275"/>
+      <c r="F53" s="274"/>
+      <c r="G53" s="275"/>
       <c r="H53" s="97"/>
     </row>
     <row r="54" spans="1:8" ht="20.25" customHeight="1" thickBot="1">
       <c r="A54" s="98"/>
       <c r="B54" s="99"/>
-      <c r="C54" s="269"/>
-      <c r="D54" s="270"/>
-      <c r="E54" s="271"/>
-      <c r="F54" s="286"/>
-      <c r="G54" s="287"/>
+      <c r="C54" s="280"/>
+      <c r="D54" s="281"/>
+      <c r="E54" s="282"/>
+      <c r="F54" s="276"/>
+      <c r="G54" s="277"/>
       <c r="H54" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="C25:D25"/>
@@ -14759,23 +14732,34 @@
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:F35"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="F52:G52"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="1.0236220472440944" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
